--- a/data/mosfet_data.xlsx
+++ b/data/mosfet_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://renesasgroup-my.sharepoint.com/personal/gary_kidwell_wz_renesas_com/Documents/python/charger/mathmodels/3lvlbuck/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://renesasgroup-my.sharepoint.com/personal/gary_kidwell_wz_renesas_com/Documents/python/charger/mathmodels/pdis_2or3lvl_bb/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="576" documentId="11_88BE854EAAF5D058E6628FC54DD0486FA8C2E51C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0A470D40-A7DE-4E11-9D66-40B5B5AEBF8B}"/>
+  <xr:revisionPtr revIDLastSave="938" documentId="11_88BE854EAAF5D058E6628FC54DD0486FA8C2E51C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F91E6C89-C7B5-483C-8648-42A45890F1F0}"/>
   <bookViews>
-    <workbookView xWindow="52305" yWindow="1560" windowWidth="22410" windowHeight="12990" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25590" windowHeight="16260" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BSZ070N08" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="104">
   <si>
     <t>description</t>
   </si>
@@ -294,6 +294,60 @@
   </si>
   <si>
     <t>AONR66406</t>
+  </si>
+  <si>
+    <t>BSZ063N04LS6</t>
+  </si>
+  <si>
+    <t>BSC020N03MSG</t>
+  </si>
+  <si>
+    <t>DFN5x6</t>
+  </si>
+  <si>
+    <t>SISS22LDN</t>
+  </si>
+  <si>
+    <t>SISS26LDN</t>
+  </si>
+  <si>
+    <t>SISS4402DN</t>
+  </si>
+  <si>
+    <t>SIZ342</t>
+  </si>
+  <si>
+    <t>SIZ350</t>
+  </si>
+  <si>
+    <t>AONS66614</t>
+  </si>
+  <si>
+    <t>PPAIR3x3</t>
+  </si>
+  <si>
+    <t>SIZF5302DT</t>
+  </si>
+  <si>
+    <t>SIZF5300DT</t>
+  </si>
+  <si>
+    <t>copak3x3</t>
+  </si>
+  <si>
+    <t>AONP36332_HS</t>
+  </si>
+  <si>
+    <t>AONP36332_LS</t>
+  </si>
+  <si>
+    <t>AOE6936_HS</t>
+  </si>
+  <si>
+    <t>copak5x6</t>
+  </si>
+  <si>
+    <t>AOE6936_LS</t>
   </si>
 </sst>
 </file>
@@ -375,9 +429,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -415,7 +469,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -521,7 +575,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -663,7 +717,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -671,25 +725,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X26"/>
+  <dimension ref="A1:AL26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J10" sqref="J10"/>
+      <pane xSplit="1" topLeftCell="AE1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AO28" sqref="AO28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="41.85546875" customWidth="1"/>
-    <col min="9" max="9" width="15.7109375" customWidth="1"/>
-    <col min="12" max="12" width="16.140625" customWidth="1"/>
-    <col min="13" max="13" width="15.5703125" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" customWidth="1"/>
-    <col min="20" max="20" width="11.85546875" customWidth="1"/>
+    <col min="11" max="11" width="16.85546875" customWidth="1"/>
+    <col min="12" max="13" width="15.7109375" customWidth="1"/>
+    <col min="15" max="15" width="16.140625" customWidth="1"/>
+    <col min="16" max="16" width="15.5703125" customWidth="1"/>
+    <col min="17" max="18" width="14.28515625" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" customWidth="1"/>
+    <col min="24" max="24" width="11.85546875" customWidth="1"/>
+    <col min="29" max="29" width="17.140625" customWidth="1"/>
+    <col min="35" max="35" width="15.140625" customWidth="1"/>
+    <col min="36" max="36" width="15.7109375" customWidth="1"/>
+    <col min="37" max="37" width="13.28515625" customWidth="1"/>
+    <col min="38" max="38" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -715,55 +775,97 @@
         <v>68</v>
       </c>
       <c r="I1" t="s">
+        <v>89</v>
+      </c>
+      <c r="J1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K1" t="s">
+        <v>86</v>
+      </c>
+      <c r="L1" t="s">
         <v>69</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
+        <v>91</v>
+      </c>
+      <c r="N1" t="s">
         <v>70</v>
       </c>
-      <c r="K1" t="s">
+      <c r="O1" t="s">
+        <v>78</v>
+      </c>
+      <c r="P1" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>80</v>
+      </c>
+      <c r="R1" t="s">
         <v>72</v>
       </c>
-      <c r="L1" t="s">
-        <v>78</v>
-      </c>
-      <c r="M1" t="s">
-        <v>79</v>
-      </c>
-      <c r="N1" t="s">
-        <v>80</v>
-      </c>
-      <c r="O1" t="s">
+      <c r="S1" t="s">
         <v>73</v>
       </c>
-      <c r="P1" t="s">
+      <c r="T1" t="s">
         <v>74</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="U1" t="s">
         <v>85</v>
       </c>
-      <c r="R1" t="s">
+      <c r="V1" t="s">
         <v>82</v>
       </c>
-      <c r="S1" t="s">
+      <c r="W1" t="s">
         <v>83</v>
       </c>
-      <c r="T1" t="s">
+      <c r="X1" t="s">
         <v>66</v>
       </c>
-      <c r="U1" t="s">
+      <c r="Y1" t="s">
         <v>65</v>
       </c>
-      <c r="V1" t="s">
+      <c r="Z1" t="s">
         <v>77</v>
       </c>
-      <c r="W1" t="s">
+      <c r="AA1" t="s">
         <v>84</v>
       </c>
-      <c r="X1" t="s">
+      <c r="AB1" t="s">
         <v>81</v>
       </c>
+      <c r="AC1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>93</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>100</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>103</v>
+      </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -792,31 +894,31 @@
         <v>8</v>
       </c>
       <c r="J2" t="s">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="K2" t="s">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="L2" t="s">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="M2" t="s">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="N2" t="s">
         <v>71</v>
       </c>
       <c r="O2" t="s">
-        <v>8</v>
+        <v>71</v>
       </c>
       <c r="P2" t="s">
-        <v>8</v>
+        <v>71</v>
       </c>
       <c r="Q2" t="s">
-        <v>8</v>
+        <v>71</v>
       </c>
       <c r="R2" t="s">
-        <v>8</v>
+        <v>71</v>
       </c>
       <c r="S2" t="s">
         <v>8</v>
@@ -836,8 +938,50 @@
       <c r="X2" t="s">
         <v>8</v>
       </c>
+      <c r="Y2" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>95</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>95</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>98</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>98</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>102</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -868,31 +1012,31 @@
         <v>11.56</v>
       </c>
       <c r="J3">
-        <v>45</v>
+        <v>11.56</v>
       </c>
       <c r="K3">
-        <v>45</v>
+        <v>11.56</v>
       </c>
       <c r="L3">
-        <v>45</v>
+        <v>11.56</v>
       </c>
       <c r="M3">
-        <v>45</v>
+        <v>11.56</v>
       </c>
       <c r="N3">
         <v>45</v>
       </c>
       <c r="O3">
-        <v>11.56</v>
+        <v>45</v>
       </c>
       <c r="P3">
-        <v>11.56</v>
+        <v>45</v>
       </c>
       <c r="Q3">
-        <v>11.56</v>
+        <v>45</v>
       </c>
       <c r="R3">
-        <v>11.56</v>
+        <v>45</v>
       </c>
       <c r="S3">
         <v>11.56</v>
@@ -912,8 +1056,50 @@
       <c r="X3">
         <v>11.56</v>
       </c>
+      <c r="Y3">
+        <v>11.56</v>
+      </c>
+      <c r="Z3">
+        <v>11.56</v>
+      </c>
+      <c r="AA3">
+        <v>11.56</v>
+      </c>
+      <c r="AB3">
+        <v>11.56</v>
+      </c>
+      <c r="AC3">
+        <v>45</v>
+      </c>
+      <c r="AD3">
+        <v>11.56</v>
+      </c>
+      <c r="AE3">
+        <v>11.56</v>
+      </c>
+      <c r="AF3">
+        <v>45</v>
+      </c>
+      <c r="AG3">
+        <v>11.56</v>
+      </c>
+      <c r="AH3">
+        <v>11.56</v>
+      </c>
+      <c r="AI3">
+        <v>11.56</v>
+      </c>
+      <c r="AJ3">
+        <v>11.56</v>
+      </c>
+      <c r="AK3">
+        <v>45</v>
+      </c>
+      <c r="AL3">
+        <v>45</v>
+      </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -939,10 +1125,10 @@
         <v>60</v>
       </c>
       <c r="I4">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="J4">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="K4">
         <v>40</v>
@@ -972,22 +1158,64 @@
         <v>40</v>
       </c>
       <c r="T4">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="U4">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="V4">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="W4">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="X4">
         <v>30</v>
       </c>
+      <c r="Y4">
+        <v>30</v>
+      </c>
+      <c r="Z4">
+        <v>30</v>
+      </c>
+      <c r="AA4">
+        <v>30</v>
+      </c>
+      <c r="AB4">
+        <v>30</v>
+      </c>
+      <c r="AC4">
+        <v>30</v>
+      </c>
+      <c r="AD4">
+        <v>30</v>
+      </c>
+      <c r="AE4">
+        <v>30</v>
+      </c>
+      <c r="AF4">
+        <v>60</v>
+      </c>
+      <c r="AG4">
+        <v>30</v>
+      </c>
+      <c r="AH4">
+        <v>30</v>
+      </c>
+      <c r="AI4">
+        <v>30</v>
+      </c>
+      <c r="AJ4">
+        <v>30</v>
+      </c>
+      <c r="AK4">
+        <v>30</v>
+      </c>
+      <c r="AL4">
+        <v>30</v>
+      </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -1013,55 +1241,97 @@
         <v>5</v>
       </c>
       <c r="I5">
+        <v>7</v>
+      </c>
+      <c r="J5">
+        <v>6.2</v>
+      </c>
+      <c r="K5">
+        <v>0.9</v>
+      </c>
+      <c r="L5">
         <v>4.7</v>
       </c>
-      <c r="J5">
+      <c r="M5">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="N5">
         <v>6.3</v>
       </c>
-      <c r="K5">
+      <c r="O5">
+        <v>7.6</v>
+      </c>
+      <c r="P5">
+        <v>2.1</v>
+      </c>
+      <c r="Q5">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="R5">
         <v>3.1</v>
       </c>
-      <c r="L5">
-        <v>7.6</v>
-      </c>
-      <c r="M5">
+      <c r="S5">
+        <v>3.2</v>
+      </c>
+      <c r="T5">
+        <v>2.9</v>
+      </c>
+      <c r="U5" s="7">
+        <v>2.75</v>
+      </c>
+      <c r="V5">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="W5">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="X5">
+        <v>3.7</v>
+      </c>
+      <c r="Y5">
+        <v>9.6</v>
+      </c>
+      <c r="Z5">
+        <v>3.6</v>
+      </c>
+      <c r="AA5">
+        <v>8.5</v>
+      </c>
+      <c r="AB5">
+        <v>4</v>
+      </c>
+      <c r="AC5">
+        <v>19</v>
+      </c>
+      <c r="AD5">
         <v>2.1</v>
       </c>
-      <c r="N5">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="O5">
+      <c r="AE5">
+        <v>2.8</v>
+      </c>
+      <c r="AF5">
+        <v>10</v>
+      </c>
+      <c r="AG5">
+        <v>3.8</v>
+      </c>
+      <c r="AH5">
+        <v>5.5</v>
+      </c>
+      <c r="AI5">
+        <v>4</v>
+      </c>
+      <c r="AJ5">
         <v>3.2</v>
       </c>
-      <c r="P5">
-        <v>2.9</v>
-      </c>
-      <c r="Q5" s="7">
-        <v>2.75</v>
-      </c>
-      <c r="R5">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="S5">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="T5">
-        <v>3.7</v>
-      </c>
-      <c r="U5">
-        <v>9.6</v>
-      </c>
-      <c r="V5">
-        <v>3.6</v>
-      </c>
-      <c r="W5">
-        <v>8.5</v>
-      </c>
-      <c r="X5">
-        <v>4</v>
+      <c r="AK5">
+        <v>2.5</v>
+      </c>
+      <c r="AL5">
+        <v>5.5</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -1087,7 +1357,7 @@
         <v>4.5</v>
       </c>
       <c r="I6">
-        <v>10</v>
+        <v>4.5</v>
       </c>
       <c r="J6">
         <v>4.5</v>
@@ -1099,19 +1369,19 @@
         <v>10</v>
       </c>
       <c r="M6">
+        <v>4.5</v>
+      </c>
+      <c r="N6">
+        <v>4.5</v>
+      </c>
+      <c r="O6">
         <v>10</v>
       </c>
-      <c r="N6">
+      <c r="P6">
         <v>10</v>
       </c>
-      <c r="O6">
-        <v>4.5</v>
-      </c>
-      <c r="P6">
-        <v>4.5</v>
-      </c>
-      <c r="Q6" s="7">
-        <v>4.5</v>
+      <c r="Q6">
+        <v>10</v>
       </c>
       <c r="R6">
         <v>4.5</v>
@@ -1122,20 +1392,62 @@
       <c r="T6">
         <v>4.5</v>
       </c>
-      <c r="U6">
+      <c r="U6" s="7">
         <v>4.5</v>
       </c>
       <c r="V6">
-        <v>10</v>
+        <v>4.5</v>
       </c>
       <c r="W6">
-        <v>10</v>
+        <v>4.5</v>
       </c>
       <c r="X6">
         <v>4.5</v>
       </c>
+      <c r="Y6">
+        <v>4.5</v>
+      </c>
+      <c r="Z6">
+        <v>10</v>
+      </c>
+      <c r="AA6">
+        <v>10</v>
+      </c>
+      <c r="AB6">
+        <v>4.5</v>
+      </c>
+      <c r="AC6">
+        <v>4.5</v>
+      </c>
+      <c r="AD6">
+        <v>4.5</v>
+      </c>
+      <c r="AE6">
+        <v>4.5</v>
+      </c>
+      <c r="AF6">
+        <v>10</v>
+      </c>
+      <c r="AG6">
+        <v>5</v>
+      </c>
+      <c r="AH6">
+        <v>5</v>
+      </c>
+      <c r="AI6">
+        <v>10</v>
+      </c>
+      <c r="AJ6">
+        <v>10</v>
+      </c>
+      <c r="AK6">
+        <v>10</v>
+      </c>
+      <c r="AL6">
+        <v>10</v>
+      </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>59</v>
       </c>
@@ -1161,55 +1473,97 @@
         <v>2300</v>
       </c>
       <c r="I7">
+        <v>3000</v>
+      </c>
+      <c r="J7">
+        <v>2200</v>
+      </c>
+      <c r="K7">
+        <v>760</v>
+      </c>
+      <c r="L7">
         <v>2000</v>
       </c>
-      <c r="J7" s="2">
+      <c r="M7">
+        <v>4100</v>
+      </c>
+      <c r="N7" s="2">
         <v>2100</v>
       </c>
-      <c r="K7" s="2">
+      <c r="O7" s="2">
+        <v>2400</v>
+      </c>
+      <c r="P7" s="2">
+        <v>750</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>2900</v>
+      </c>
+      <c r="R7" s="2">
+        <v>1500</v>
+      </c>
+      <c r="S7" s="2">
+        <v>2500</v>
+      </c>
+      <c r="T7">
+        <v>950</v>
+      </c>
+      <c r="U7" s="2">
+        <v>1550</v>
+      </c>
+      <c r="V7">
+        <v>3600</v>
+      </c>
+      <c r="W7">
+        <v>2700</v>
+      </c>
+      <c r="X7" s="2">
+        <v>1200</v>
+      </c>
+      <c r="Y7" s="2">
+        <v>3000</v>
+      </c>
+      <c r="Z7" s="2">
         <v>1450</v>
       </c>
-      <c r="L7" s="2">
-        <v>2400</v>
-      </c>
-      <c r="M7" s="2">
-        <v>750</v>
-      </c>
-      <c r="N7" s="2">
-        <v>2900</v>
-      </c>
-      <c r="O7" s="2">
-        <v>2500</v>
-      </c>
-      <c r="P7">
-        <v>950</v>
-      </c>
-      <c r="Q7" s="2">
-        <v>1550</v>
-      </c>
-      <c r="R7">
-        <v>3600</v>
-      </c>
-      <c r="S7">
-        <v>2700</v>
-      </c>
-      <c r="T7" s="2">
-        <v>1200</v>
-      </c>
-      <c r="U7" s="2">
-        <v>3000</v>
-      </c>
-      <c r="V7" s="2">
-        <v>1450</v>
-      </c>
-      <c r="W7" s="2">
+      <c r="AA7" s="2">
         <v>3200</v>
       </c>
-      <c r="X7">
+      <c r="AB7">
         <v>1600</v>
       </c>
+      <c r="AC7" s="2">
+        <v>8500</v>
+      </c>
+      <c r="AD7" s="2">
+        <v>735</v>
+      </c>
+      <c r="AE7" s="2">
+        <v>1060</v>
+      </c>
+      <c r="AF7" s="2">
+        <v>4000</v>
+      </c>
+      <c r="AG7" s="2">
+        <v>1050</v>
+      </c>
+      <c r="AH7" s="2">
+        <v>1500</v>
+      </c>
+      <c r="AI7" s="2">
+        <v>1700</v>
+      </c>
+      <c r="AJ7" s="2">
+        <v>1340</v>
+      </c>
+      <c r="AK7" s="2">
+        <v>1250</v>
+      </c>
+      <c r="AL7" s="2">
+        <v>2550</v>
+      </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -1235,55 +1589,97 @@
         <v>1500</v>
       </c>
       <c r="I8">
+        <v>2000</v>
+      </c>
+      <c r="J8">
+        <v>1600</v>
+      </c>
+      <c r="K8">
+        <v>900</v>
+      </c>
+      <c r="L8">
         <v>2500</v>
       </c>
-      <c r="J8" s="2">
+      <c r="M8">
+        <v>2000</v>
+      </c>
+      <c r="N8" s="2">
         <v>1400</v>
       </c>
-      <c r="K8" s="2">
+      <c r="O8" s="2">
+        <v>1800</v>
+      </c>
+      <c r="P8" s="2">
         <v>900</v>
       </c>
-      <c r="L8" s="2">
-        <v>1800</v>
-      </c>
-      <c r="M8" s="2">
+      <c r="Q8" s="2">
+        <v>2500</v>
+      </c>
+      <c r="R8" s="2">
         <v>900</v>
       </c>
-      <c r="N8" s="2">
+      <c r="S8" s="2">
+        <v>1500</v>
+      </c>
+      <c r="T8">
+        <v>500</v>
+      </c>
+      <c r="U8" s="2">
+        <v>1000</v>
+      </c>
+      <c r="V8">
+        <v>1600</v>
+      </c>
+      <c r="W8">
+        <v>1400</v>
+      </c>
+      <c r="X8" s="2">
+        <v>1200</v>
+      </c>
+      <c r="Y8" s="2">
+        <v>3000</v>
+      </c>
+      <c r="Z8" s="2">
+        <v>1100</v>
+      </c>
+      <c r="AA8" s="2">
         <v>2500</v>
       </c>
-      <c r="O8" s="2">
+      <c r="AB8">
+        <v>1280</v>
+      </c>
+      <c r="AC8" s="2">
+        <v>6000</v>
+      </c>
+      <c r="AD8" s="2">
+        <v>680</v>
+      </c>
+      <c r="AE8" s="2">
+        <v>900</v>
+      </c>
+      <c r="AF8" s="2">
+        <v>3000</v>
+      </c>
+      <c r="AG8" s="2">
+        <v>1000</v>
+      </c>
+      <c r="AH8" s="2">
         <v>1500</v>
       </c>
-      <c r="P8">
-        <v>500</v>
-      </c>
-      <c r="Q8" s="2">
-        <v>1000</v>
-      </c>
-      <c r="R8">
-        <v>1600</v>
-      </c>
-      <c r="S8">
-        <v>1400</v>
-      </c>
-      <c r="T8" s="2">
-        <v>1200</v>
-      </c>
-      <c r="U8" s="2">
-        <v>3000</v>
-      </c>
-      <c r="V8" s="2">
+      <c r="AI8" s="2">
+        <v>1050</v>
+      </c>
+      <c r="AJ8" s="2">
+        <v>900</v>
+      </c>
+      <c r="AK8" s="2">
         <v>1100</v>
       </c>
-      <c r="W8" s="2">
-        <v>2500</v>
-      </c>
-      <c r="X8">
-        <v>1280</v>
+      <c r="AL8" s="2">
+        <v>2000</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -1309,55 +1705,97 @@
         <v>400</v>
       </c>
       <c r="I9">
+        <v>300</v>
+      </c>
+      <c r="J9">
+        <v>300</v>
+      </c>
+      <c r="K9">
+        <v>100</v>
+      </c>
+      <c r="L9">
         <v>360</v>
       </c>
-      <c r="J9" s="2">
+      <c r="M9">
+        <v>350</v>
+      </c>
+      <c r="N9" s="2">
         <v>150</v>
       </c>
-      <c r="K9" s="2">
+      <c r="O9" s="2">
         <v>300</v>
       </c>
-      <c r="L9" s="2">
+      <c r="P9" s="2">
+        <v>100</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>250</v>
+      </c>
+      <c r="R9" s="2">
         <v>300</v>
       </c>
-      <c r="M9" s="2">
+      <c r="S9" s="2">
+        <v>200</v>
+      </c>
+      <c r="T9">
+        <v>70</v>
+      </c>
+      <c r="U9" s="2">
         <v>100</v>
       </c>
-      <c r="N9" s="2">
-        <v>250</v>
-      </c>
-      <c r="O9" s="2">
+      <c r="V9">
+        <v>350</v>
+      </c>
+      <c r="W9">
+        <v>70</v>
+      </c>
+      <c r="X9" s="2">
+        <v>150</v>
+      </c>
+      <c r="Y9" s="2">
+        <v>500</v>
+      </c>
+      <c r="Z9" s="2">
         <v>200</v>
       </c>
-      <c r="P9">
-        <v>70</v>
-      </c>
-      <c r="Q9" s="2">
+      <c r="AA9" s="2">
+        <v>500</v>
+      </c>
+      <c r="AB9">
+        <v>200</v>
+      </c>
+      <c r="AC9" s="2">
+        <v>1000</v>
+      </c>
+      <c r="AD9" s="2">
         <v>100</v>
       </c>
-      <c r="R9">
-        <v>350</v>
-      </c>
-      <c r="S9">
-        <v>70</v>
-      </c>
-      <c r="T9" s="2">
+      <c r="AE9" s="2">
+        <v>140</v>
+      </c>
+      <c r="AF9" s="2">
+        <v>700</v>
+      </c>
+      <c r="AG9" s="2">
         <v>150</v>
       </c>
-      <c r="U9" s="2">
-        <v>500</v>
-      </c>
-      <c r="V9" s="2">
+      <c r="AH9" s="2">
         <v>200</v>
       </c>
-      <c r="W9" s="2">
-        <v>500</v>
-      </c>
-      <c r="X9">
+      <c r="AI9" s="2">
         <v>200</v>
       </c>
+      <c r="AJ9" s="2">
+        <v>140</v>
+      </c>
+      <c r="AK9" s="2">
+        <v>200</v>
+      </c>
+      <c r="AL9" s="2">
+        <v>400</v>
+      </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>25</v>
       </c>
@@ -1383,55 +1821,97 @@
         <v>40</v>
       </c>
       <c r="I10">
+        <v>24</v>
+      </c>
+      <c r="J10">
+        <v>24</v>
+      </c>
+      <c r="K10">
         <v>25</v>
       </c>
-      <c r="J10" s="2">
+      <c r="L10">
+        <v>25</v>
+      </c>
+      <c r="M10">
         <v>24</v>
       </c>
-      <c r="K10" s="2">
+      <c r="N10" s="2">
         <v>24</v>
       </c>
-      <c r="L10" s="2">
+      <c r="O10" s="2">
         <v>30</v>
       </c>
-      <c r="M10" s="2">
-        <v>25</v>
-      </c>
-      <c r="N10" s="2">
-        <v>30</v>
-      </c>
-      <c r="O10" s="2">
-        <v>24</v>
-      </c>
-      <c r="P10">
+      <c r="P10" s="2">
         <v>25</v>
       </c>
       <c r="Q10" s="2">
         <v>30</v>
       </c>
-      <c r="R10">
+      <c r="R10" s="2">
         <v>24</v>
       </c>
-      <c r="S10">
+      <c r="S10" s="2">
+        <v>24</v>
+      </c>
+      <c r="T10">
+        <v>25</v>
+      </c>
+      <c r="U10" s="2">
         <v>30</v>
       </c>
-      <c r="T10" s="2">
+      <c r="V10">
+        <v>24</v>
+      </c>
+      <c r="W10">
+        <v>30</v>
+      </c>
+      <c r="X10" s="2">
         <v>12</v>
       </c>
-      <c r="U10" s="2">
+      <c r="Y10" s="2">
         <v>12</v>
       </c>
-      <c r="V10" s="2">
+      <c r="Z10" s="2">
         <v>25</v>
       </c>
-      <c r="W10" s="2">
+      <c r="AA10" s="2">
         <v>25</v>
       </c>
-      <c r="X10" s="2">
+      <c r="AB10" s="2">
         <v>25</v>
       </c>
+      <c r="AC10" s="2">
+        <v>24</v>
+      </c>
+      <c r="AD10" s="2">
+        <v>12</v>
+      </c>
+      <c r="AE10" s="2">
+        <v>10</v>
+      </c>
+      <c r="AF10" s="2">
+        <v>25</v>
+      </c>
+      <c r="AG10" s="2">
+        <v>10</v>
+      </c>
+      <c r="AH10" s="2">
+        <v>10</v>
+      </c>
+      <c r="AI10" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ10" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK10" s="2">
+        <v>15</v>
+      </c>
+      <c r="AL10" s="2">
+        <v>15</v>
+      </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>27</v>
       </c>
@@ -1457,55 +1937,97 @@
         <v>1900</v>
       </c>
       <c r="I11">
+        <v>2500</v>
+      </c>
+      <c r="J11">
+        <v>2000</v>
+      </c>
+      <c r="K11">
+        <v>650</v>
+      </c>
+      <c r="L11">
         <v>1800</v>
       </c>
-      <c r="J11" s="2">
+      <c r="M11">
+        <v>3700</v>
+      </c>
+      <c r="N11" s="2">
         <v>2000</v>
       </c>
-      <c r="K11" s="2">
+      <c r="O11" s="2">
+        <v>2200</v>
+      </c>
+      <c r="P11" s="2">
+        <v>650</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>2800</v>
+      </c>
+      <c r="R11" s="2">
         <v>1150</v>
       </c>
-      <c r="L11" s="2">
-        <v>2200</v>
-      </c>
-      <c r="M11" s="2">
-        <v>650</v>
-      </c>
-      <c r="N11" s="2">
+      <c r="S11" s="2">
+        <v>1375</v>
+      </c>
+      <c r="T11" s="2">
+        <v>875</v>
+      </c>
+      <c r="U11" s="2">
+        <v>1450</v>
+      </c>
+      <c r="V11">
+        <v>3250</v>
+      </c>
+      <c r="W11">
+        <v>2450</v>
+      </c>
+      <c r="X11" s="2">
+        <v>1175</v>
+      </c>
+      <c r="Y11" s="2">
+        <v>2975</v>
+      </c>
+      <c r="Z11" s="2">
+        <v>1300</v>
+      </c>
+      <c r="AA11" s="2">
         <v>2800</v>
       </c>
-      <c r="O11" s="2">
-        <v>1375</v>
-      </c>
-      <c r="P11" s="2">
-        <v>875</v>
-      </c>
-      <c r="Q11" s="2">
+      <c r="AB11">
+        <v>1400</v>
+      </c>
+      <c r="AC11" s="2">
+        <v>7500</v>
+      </c>
+      <c r="AD11" s="2">
+        <v>640</v>
+      </c>
+      <c r="AE11" s="2">
+        <v>960</v>
+      </c>
+      <c r="AF11" s="2">
+        <v>3300</v>
+      </c>
+      <c r="AG11" s="2">
+        <v>1000</v>
+      </c>
+      <c r="AH11" s="2">
         <v>1450</v>
       </c>
-      <c r="R11">
-        <v>3250</v>
-      </c>
-      <c r="S11">
-        <v>2450</v>
-      </c>
-      <c r="T11" s="2">
-        <v>1175</v>
-      </c>
-      <c r="U11" s="2">
-        <v>2975</v>
-      </c>
-      <c r="V11" s="2">
-        <v>1300</v>
-      </c>
-      <c r="W11" s="2">
-        <v>2800</v>
-      </c>
-      <c r="X11">
-        <v>1400</v>
+      <c r="AI11" s="2">
+        <v>1500</v>
+      </c>
+      <c r="AJ11" s="2">
+        <v>1210</v>
+      </c>
+      <c r="AK11" s="2">
+        <v>1200</v>
+      </c>
+      <c r="AL11" s="2">
+        <v>2250</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>29</v>
       </c>
@@ -1531,55 +2053,97 @@
         <v>330</v>
       </c>
       <c r="I12">
+        <v>700</v>
+      </c>
+      <c r="J12">
+        <v>560</v>
+      </c>
+      <c r="K12">
+        <v>95</v>
+      </c>
+      <c r="L12">
         <v>500</v>
       </c>
-      <c r="J12" s="2">
+      <c r="M12">
+        <v>600</v>
+      </c>
+      <c r="N12" s="2">
         <v>350</v>
       </c>
-      <c r="K12" s="2">
-        <v>160</v>
-      </c>
-      <c r="L12" s="2">
+      <c r="O12" s="2">
         <v>380</v>
       </c>
-      <c r="M12" s="2">
+      <c r="P12" s="2">
         <v>190</v>
       </c>
-      <c r="N12" s="2">
+      <c r="Q12" s="2">
         <v>400</v>
       </c>
-      <c r="O12" s="2">
+      <c r="R12" s="2">
+        <v>150</v>
+      </c>
+      <c r="S12" s="2">
         <v>1130</v>
       </c>
-      <c r="P12" s="2">
+      <c r="T12" s="2">
         <v>150</v>
       </c>
-      <c r="Q12" s="2">
+      <c r="U12" s="2">
         <v>200</v>
       </c>
-      <c r="R12">
+      <c r="V12">
         <v>400</v>
       </c>
-      <c r="S12">
+      <c r="W12">
         <v>350</v>
       </c>
-      <c r="T12" s="2">
+      <c r="X12" s="2">
         <v>450</v>
       </c>
-      <c r="U12" s="2">
+      <c r="Y12" s="2">
         <v>1200</v>
       </c>
-      <c r="V12" s="2">
+      <c r="Z12" s="2">
         <v>250</v>
       </c>
-      <c r="W12" s="2">
+      <c r="AA12" s="2">
         <v>600</v>
       </c>
-      <c r="X12">
+      <c r="AB12">
         <v>250</v>
       </c>
+      <c r="AC12" s="2">
+        <v>1400</v>
+      </c>
+      <c r="AD12" s="2">
+        <v>310</v>
+      </c>
+      <c r="AE12" s="2">
+        <v>460</v>
+      </c>
+      <c r="AF12" s="2">
+        <v>1000</v>
+      </c>
+      <c r="AG12" s="2">
+        <v>460</v>
+      </c>
+      <c r="AH12" s="2">
+        <v>700</v>
+      </c>
+      <c r="AI12" s="2">
+        <v>300</v>
+      </c>
+      <c r="AJ12" s="2">
+        <v>240</v>
+      </c>
+      <c r="AK12" s="2">
+        <v>400</v>
+      </c>
+      <c r="AL12" s="2">
+        <v>650</v>
+      </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>31</v>
       </c>
@@ -1605,55 +2169,97 @@
         <v>16</v>
       </c>
       <c r="I13">
+        <v>35</v>
+      </c>
+      <c r="J13">
+        <v>32</v>
+      </c>
+      <c r="K13">
+        <v>11</v>
+      </c>
+      <c r="L13">
         <v>17</v>
       </c>
-      <c r="J13" s="2">
+      <c r="M13">
+        <v>90</v>
+      </c>
+      <c r="N13" s="2">
         <v>14</v>
       </c>
-      <c r="K13" s="2">
+      <c r="O13" s="2">
+        <v>15</v>
+      </c>
+      <c r="P13" s="2">
+        <v>12</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>30</v>
+      </c>
+      <c r="R13" s="2">
+        <v>60</v>
+      </c>
+      <c r="S13" s="2">
+        <v>50</v>
+      </c>
+      <c r="T13" s="2">
+        <v>16</v>
+      </c>
+      <c r="U13" s="2">
+        <v>13</v>
+      </c>
+      <c r="V13">
+        <v>50</v>
+      </c>
+      <c r="W13">
+        <v>20</v>
+      </c>
+      <c r="X13" s="2">
+        <v>30</v>
+      </c>
+      <c r="Y13" s="2">
+        <v>200</v>
+      </c>
+      <c r="Z13" s="2">
+        <v>30</v>
+      </c>
+      <c r="AA13" s="2">
+        <v>50</v>
+      </c>
+      <c r="AB13">
+        <v>36</v>
+      </c>
+      <c r="AC13" s="2">
         <v>75</v>
       </c>
-      <c r="L13" s="2">
-        <v>15</v>
-      </c>
-      <c r="M13" s="2">
-        <v>12</v>
-      </c>
-      <c r="N13" s="2">
+      <c r="AD13" s="2">
+        <v>21</v>
+      </c>
+      <c r="AE13" s="2">
+        <v>40</v>
+      </c>
+      <c r="AF13" s="2">
+        <v>50</v>
+      </c>
+      <c r="AG13" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH13" s="2">
+        <v>48</v>
+      </c>
+      <c r="AI13" s="2">
+        <v>50</v>
+      </c>
+      <c r="AJ13" s="2">
         <v>30</v>
       </c>
-      <c r="O13" s="2">
-        <v>50</v>
-      </c>
-      <c r="P13" s="2">
-        <v>16</v>
-      </c>
-      <c r="Q13" s="2">
-        <v>13</v>
-      </c>
-      <c r="R13">
-        <v>50</v>
-      </c>
-      <c r="S13">
-        <v>20</v>
-      </c>
-      <c r="T13" s="2">
-        <v>30</v>
-      </c>
-      <c r="U13" s="2">
-        <v>200</v>
-      </c>
-      <c r="V13" s="2">
-        <v>30</v>
-      </c>
-      <c r="W13" s="2">
-        <v>50</v>
-      </c>
-      <c r="X13">
-        <v>36</v>
+      <c r="AK13" s="2">
+        <v>62</v>
+      </c>
+      <c r="AL13" s="2">
+        <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>33</v>
       </c>
@@ -1679,55 +2285,97 @@
         <v>17</v>
       </c>
       <c r="I14">
+        <v>25</v>
+      </c>
+      <c r="J14">
+        <v>20</v>
+      </c>
+      <c r="K14">
+        <v>21</v>
+      </c>
+      <c r="L14">
         <v>44</v>
       </c>
-      <c r="J14" s="2">
+      <c r="M14">
+        <v>23</v>
+      </c>
+      <c r="N14" s="2">
         <v>13</v>
       </c>
-      <c r="K14" s="2">
+      <c r="O14" s="2">
+        <v>23</v>
+      </c>
+      <c r="P14" s="2">
+        <v>22</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>41</v>
+      </c>
+      <c r="R14" s="2">
         <v>19</v>
       </c>
-      <c r="L14" s="2">
+      <c r="S14" s="2">
+        <v>17</v>
+      </c>
+      <c r="T14" s="2">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="U14" s="2">
+        <v>21</v>
+      </c>
+      <c r="V14">
         <v>23</v>
       </c>
-      <c r="M14" s="2">
-        <v>22</v>
-      </c>
-      <c r="N14" s="2">
-        <v>41</v>
-      </c>
-      <c r="O14" s="2">
-        <v>17</v>
-      </c>
-      <c r="P14" s="2">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="Q14" s="2">
+      <c r="W14">
+        <v>10</v>
+      </c>
+      <c r="X14" s="2">
+        <v>10</v>
+      </c>
+      <c r="Y14" s="2">
+        <v>25</v>
+      </c>
+      <c r="Z14" s="2">
+        <v>18</v>
+      </c>
+      <c r="AA14" s="2">
+        <v>36.5</v>
+      </c>
+      <c r="AB14" s="2">
+        <v>14</v>
+      </c>
+      <c r="AC14" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD14" s="2">
+        <v>10</v>
+      </c>
+      <c r="AE14" s="2">
+        <v>30</v>
+      </c>
+      <c r="AF14" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG14" s="2">
+        <v>3</v>
+      </c>
+      <c r="AH14" s="2">
+        <v>6</v>
+      </c>
+      <c r="AI14" s="2">
         <v>21</v>
       </c>
-      <c r="R14">
-        <v>23</v>
-      </c>
-      <c r="S14">
-        <v>10</v>
-      </c>
-      <c r="T14" s="2">
-        <v>10</v>
-      </c>
-      <c r="U14" s="2">
-        <v>25</v>
-      </c>
-      <c r="V14" s="2">
-        <v>18</v>
-      </c>
-      <c r="W14" s="2">
-        <v>36.5</v>
-      </c>
-      <c r="X14" s="2">
-        <v>14</v>
+      <c r="AJ14" s="2">
+        <v>15</v>
+      </c>
+      <c r="AK14" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL14" s="2">
+        <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>35</v>
       </c>
@@ -1753,25 +2401,25 @@
         <v>20</v>
       </c>
       <c r="I15">
-        <v>20</v>
-      </c>
-      <c r="J15" s="2">
         <v>10</v>
       </c>
-      <c r="K15" s="2">
+      <c r="J15">
         <v>10</v>
       </c>
-      <c r="L15" s="2">
+      <c r="K15">
+        <v>20</v>
+      </c>
+      <c r="L15">
+        <v>20</v>
+      </c>
+      <c r="M15">
+        <v>10</v>
+      </c>
+      <c r="N15" s="2">
+        <v>10</v>
+      </c>
+      <c r="O15" s="2">
         <v>42</v>
-      </c>
-      <c r="M15" s="2">
-        <v>10</v>
-      </c>
-      <c r="N15" s="2">
-        <v>20</v>
-      </c>
-      <c r="O15" s="2">
-        <v>10</v>
       </c>
       <c r="P15" s="2">
         <v>10</v>
@@ -1779,29 +2427,71 @@
       <c r="Q15" s="2">
         <v>20</v>
       </c>
-      <c r="R15">
+      <c r="R15" s="2">
         <v>10</v>
       </c>
-      <c r="S15">
-        <v>20.8</v>
+      <c r="S15" s="2">
+        <v>10</v>
       </c>
       <c r="T15" s="2">
         <v>10</v>
       </c>
       <c r="U15" s="2">
+        <v>20</v>
+      </c>
+      <c r="V15">
         <v>10</v>
       </c>
-      <c r="V15" s="2">
-        <v>20</v>
-      </c>
-      <c r="W15" s="2">
-        <v>20</v>
+      <c r="W15">
+        <v>20.8</v>
       </c>
       <c r="X15" s="2">
         <v>10</v>
       </c>
+      <c r="Y15" s="2">
+        <v>10</v>
+      </c>
+      <c r="Z15" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA15" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB15" s="2">
+        <v>10</v>
+      </c>
+      <c r="AC15" s="2">
+        <v>87</v>
+      </c>
+      <c r="AD15" s="2">
+        <v>10</v>
+      </c>
+      <c r="AE15" s="2">
+        <v>15</v>
+      </c>
+      <c r="AF15" s="2">
+        <v>20</v>
+      </c>
+      <c r="AG15" s="2">
+        <v>15</v>
+      </c>
+      <c r="AH15" s="2">
+        <v>15</v>
+      </c>
+      <c r="AI15" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ15" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK15" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL15" s="2">
+        <v>20</v>
+      </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>38</v>
       </c>
@@ -1827,18 +2517,18 @@
         <v>30</v>
       </c>
       <c r="I16">
-        <v>20</v>
-      </c>
-      <c r="J16" s="2">
-        <v>20</v>
-      </c>
-      <c r="K16" s="3">
-        <v>20</v>
-      </c>
-      <c r="L16" s="2">
-        <v>20</v>
-      </c>
-      <c r="M16" s="2">
+        <v>30</v>
+      </c>
+      <c r="J16">
+        <v>30</v>
+      </c>
+      <c r="K16">
+        <v>20</v>
+      </c>
+      <c r="L16">
+        <v>20</v>
+      </c>
+      <c r="M16">
         <v>20</v>
       </c>
       <c r="N16" s="2">
@@ -1853,29 +2543,71 @@
       <c r="Q16" s="2">
         <v>20</v>
       </c>
-      <c r="R16">
-        <v>20</v>
-      </c>
-      <c r="S16">
-        <v>20</v>
-      </c>
-      <c r="T16">
-        <v>15</v>
-      </c>
-      <c r="U16">
-        <v>15</v>
-      </c>
-      <c r="V16" s="2">
-        <v>15</v>
-      </c>
-      <c r="W16" s="2">
-        <v>15</v>
-      </c>
-      <c r="X16" s="2">
+      <c r="R16" s="2">
+        <v>20</v>
+      </c>
+      <c r="S16" s="2">
+        <v>20</v>
+      </c>
+      <c r="T16" s="2">
+        <v>20</v>
+      </c>
+      <c r="U16" s="2">
+        <v>20</v>
+      </c>
+      <c r="V16">
+        <v>20</v>
+      </c>
+      <c r="W16">
+        <v>20</v>
+      </c>
+      <c r="X16">
+        <v>15</v>
+      </c>
+      <c r="Y16">
+        <v>15</v>
+      </c>
+      <c r="Z16" s="2">
+        <v>15</v>
+      </c>
+      <c r="AA16" s="2">
+        <v>15</v>
+      </c>
+      <c r="AB16" s="2">
+        <v>15</v>
+      </c>
+      <c r="AC16" s="2">
+        <v>15</v>
+      </c>
+      <c r="AD16" s="2">
+        <v>15</v>
+      </c>
+      <c r="AE16" s="2">
+        <v>15</v>
+      </c>
+      <c r="AF16" s="2">
+        <v>30</v>
+      </c>
+      <c r="AG16" s="2">
+        <v>15</v>
+      </c>
+      <c r="AH16" s="2">
+        <v>15</v>
+      </c>
+      <c r="AI16" s="2">
+        <v>15</v>
+      </c>
+      <c r="AJ16" s="2">
+        <v>15</v>
+      </c>
+      <c r="AK16" s="2">
+        <v>15</v>
+      </c>
+      <c r="AL16" s="2">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>40</v>
       </c>
@@ -1901,55 +2633,97 @@
         <v>4.8</v>
       </c>
       <c r="I17">
+        <v>4.7</v>
+      </c>
+      <c r="J17">
+        <v>4.5</v>
+      </c>
+      <c r="K17">
+        <v>0.65</v>
+      </c>
+      <c r="L17">
         <v>3.2</v>
       </c>
-      <c r="J17" s="2">
+      <c r="M17">
+        <v>4</v>
+      </c>
+      <c r="N17" s="2">
         <v>2.1</v>
       </c>
-      <c r="K17" s="3">
+      <c r="O17" s="2">
+        <v>3.2</v>
+      </c>
+      <c r="P17" s="6">
+        <v>1.4</v>
+      </c>
+      <c r="Q17" s="2">
         <v>2.5</v>
       </c>
-      <c r="L17" s="2">
-        <v>3.2</v>
-      </c>
-      <c r="M17" s="6">
+      <c r="R17" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="S17" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="T17" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="U17" s="6">
+        <v>3</v>
+      </c>
+      <c r="V17">
+        <v>4.2</v>
+      </c>
+      <c r="W17">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="X17">
         <v>1.4</v>
       </c>
-      <c r="N17" s="2">
-        <v>2.5</v>
-      </c>
-      <c r="O17" s="2">
-        <v>2.5</v>
-      </c>
-      <c r="P17" s="6">
-        <v>0.9</v>
-      </c>
-      <c r="Q17" s="6">
+      <c r="Y17">
+        <v>3.9</v>
+      </c>
+      <c r="Z17" s="6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AA17" s="6">
+        <v>4</v>
+      </c>
+      <c r="AB17" s="2">
+        <v>1.8</v>
+      </c>
+      <c r="AC17" s="2">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="AD17" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="AE17" s="6">
+        <v>1.2</v>
+      </c>
+      <c r="AF17" s="6">
+        <v>8.5</v>
+      </c>
+      <c r="AG17" s="6">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="AH17" s="6">
+        <v>1.7</v>
+      </c>
+      <c r="AI17" s="6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AJ17" s="6">
+        <v>1</v>
+      </c>
+      <c r="AK17" s="6">
         <v>3</v>
       </c>
-      <c r="R17">
-        <v>4.2</v>
-      </c>
-      <c r="S17">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="T17">
-        <v>1.4</v>
-      </c>
-      <c r="U17">
-        <v>3.9</v>
-      </c>
-      <c r="V17" s="6">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="W17" s="6">
-        <v>4</v>
-      </c>
-      <c r="X17" s="2">
-        <v>1.8</v>
+      <c r="AL17" s="6">
+        <v>4.5</v>
       </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>42</v>
       </c>
@@ -1975,18 +2749,18 @@
         <v>30</v>
       </c>
       <c r="I18">
-        <v>20</v>
-      </c>
-      <c r="J18" s="2">
-        <v>20</v>
-      </c>
-      <c r="K18" s="3">
-        <v>20</v>
-      </c>
-      <c r="L18" s="2">
-        <v>20</v>
-      </c>
-      <c r="M18" s="2">
+        <v>30</v>
+      </c>
+      <c r="J18">
+        <v>30</v>
+      </c>
+      <c r="K18">
+        <v>20</v>
+      </c>
+      <c r="L18">
+        <v>20</v>
+      </c>
+      <c r="M18">
         <v>20</v>
       </c>
       <c r="N18" s="2">
@@ -1995,35 +2769,77 @@
       <c r="O18" s="2">
         <v>20</v>
       </c>
-      <c r="P18">
+      <c r="P18" s="2">
         <v>20</v>
       </c>
       <c r="Q18" s="2">
         <v>20</v>
       </c>
-      <c r="R18">
-        <v>20</v>
-      </c>
-      <c r="S18">
+      <c r="R18" s="2">
+        <v>20</v>
+      </c>
+      <c r="S18" s="2">
         <v>20</v>
       </c>
       <c r="T18">
-        <v>15</v>
-      </c>
-      <c r="U18">
-        <v>15</v>
-      </c>
-      <c r="V18" s="2">
-        <v>15</v>
-      </c>
-      <c r="W18" s="2">
-        <v>15</v>
-      </c>
-      <c r="X18" s="2">
+        <v>20</v>
+      </c>
+      <c r="U18" s="2">
+        <v>20</v>
+      </c>
+      <c r="V18">
+        <v>20</v>
+      </c>
+      <c r="W18">
+        <v>20</v>
+      </c>
+      <c r="X18">
+        <v>15</v>
+      </c>
+      <c r="Y18">
+        <v>15</v>
+      </c>
+      <c r="Z18" s="2">
+        <v>15</v>
+      </c>
+      <c r="AA18" s="2">
+        <v>15</v>
+      </c>
+      <c r="AB18" s="2">
+        <v>15</v>
+      </c>
+      <c r="AC18" s="2">
+        <v>15</v>
+      </c>
+      <c r="AD18" s="2">
+        <v>15</v>
+      </c>
+      <c r="AE18" s="2">
+        <v>15</v>
+      </c>
+      <c r="AF18" s="2">
+        <v>30</v>
+      </c>
+      <c r="AG18" s="2">
+        <v>15</v>
+      </c>
+      <c r="AH18" s="2">
+        <v>15</v>
+      </c>
+      <c r="AI18" s="2">
+        <v>15</v>
+      </c>
+      <c r="AJ18" s="2">
+        <v>15</v>
+      </c>
+      <c r="AK18" s="2">
+        <v>15</v>
+      </c>
+      <c r="AL18" s="2">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>44</v>
       </c>
@@ -2049,55 +2865,97 @@
         <v>66</v>
       </c>
       <c r="I19">
+        <v>57</v>
+      </c>
+      <c r="J19">
+        <v>54</v>
+      </c>
+      <c r="K19">
+        <v>64</v>
+      </c>
+      <c r="L19">
         <v>100</v>
       </c>
-      <c r="J19" s="2">
+      <c r="M19">
+        <v>98</v>
+      </c>
+      <c r="N19" s="2">
         <v>50</v>
       </c>
-      <c r="K19" s="3">
+      <c r="O19" s="2">
+        <v>96</v>
+      </c>
+      <c r="P19" s="2">
+        <v>100</v>
+      </c>
+      <c r="Q19" s="2">
+        <v>203</v>
+      </c>
+      <c r="R19" s="2">
         <v>43</v>
       </c>
-      <c r="L19" s="2">
-        <v>96</v>
-      </c>
-      <c r="M19" s="2">
+      <c r="S19" s="2">
+        <v>65</v>
+      </c>
+      <c r="T19" s="2">
+        <v>45</v>
+      </c>
+      <c r="U19" s="2">
+        <v>70</v>
+      </c>
+      <c r="V19">
+        <v>70</v>
+      </c>
+      <c r="W19">
+        <v>76</v>
+      </c>
+      <c r="X19">
+        <v>53</v>
+      </c>
+      <c r="Y19">
+        <v>95</v>
+      </c>
+      <c r="Z19" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA19" s="2">
+        <v>125</v>
+      </c>
+      <c r="AB19" s="2">
+        <v>65</v>
+      </c>
+      <c r="AC19" s="2">
+        <v>120</v>
+      </c>
+      <c r="AD19" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE19" s="2">
+        <v>46</v>
+      </c>
+      <c r="AF19" s="2">
         <v>100</v>
       </c>
-      <c r="N19" s="2">
-        <v>203</v>
-      </c>
-      <c r="O19" s="2">
-        <v>65</v>
-      </c>
-      <c r="P19" s="2">
-        <v>45</v>
-      </c>
-      <c r="Q19" s="2">
-        <v>70</v>
-      </c>
-      <c r="R19">
-        <v>70</v>
-      </c>
-      <c r="S19">
-        <v>76</v>
-      </c>
-      <c r="T19">
-        <v>53</v>
-      </c>
-      <c r="U19">
-        <v>95</v>
-      </c>
-      <c r="V19" s="2">
-        <v>77</v>
-      </c>
-      <c r="W19" s="2">
+      <c r="AG19" s="2">
+        <v>57</v>
+      </c>
+      <c r="AH19" s="2">
+        <v>61</v>
+      </c>
+      <c r="AI19" s="2">
+        <v>108</v>
+      </c>
+      <c r="AJ19" s="2">
         <v>125</v>
       </c>
-      <c r="X19" s="2">
-        <v>65</v>
+      <c r="AK19" s="2">
+        <v>57</v>
+      </c>
+      <c r="AL19" s="2">
+        <v>110</v>
       </c>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>61</v>
       </c>
@@ -2123,55 +2981,97 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="I20">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="J20">
+        <v>4.8</v>
+      </c>
+      <c r="K20">
+        <v>7</v>
+      </c>
+      <c r="L20">
         <v>2.8</v>
       </c>
-      <c r="J20" s="3">
+      <c r="M20">
+        <v>2.4</v>
+      </c>
+      <c r="N20" s="3">
         <v>5</v>
       </c>
-      <c r="K20" s="3">
+      <c r="O20" s="6">
+        <v>6.8</v>
+      </c>
+      <c r="P20" s="6">
+        <v>6.8</v>
+      </c>
+      <c r="Q20" s="6">
+        <v>3.5</v>
+      </c>
+      <c r="R20" s="6">
         <v>10.4</v>
       </c>
-      <c r="L20" s="6">
+      <c r="S20" s="3">
+        <v>6.2</v>
+      </c>
+      <c r="T20">
+        <v>9.6</v>
+      </c>
+      <c r="U20" s="6">
+        <v>7.4</v>
+      </c>
+      <c r="V20">
+        <v>3.85</v>
+      </c>
+      <c r="W20">
+        <v>3.88</v>
+      </c>
+      <c r="X20">
+        <v>3.8</v>
+      </c>
+      <c r="Y20">
+        <v>1.5</v>
+      </c>
+      <c r="Z20" s="6">
+        <v>6</v>
+      </c>
+      <c r="AA20" s="6">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="AB20">
         <v>6.8</v>
       </c>
-      <c r="M20" s="6">
-        <v>6.8</v>
-      </c>
-      <c r="N20" s="6">
-        <v>3.5</v>
-      </c>
-      <c r="O20" s="3">
-        <v>6.2</v>
-      </c>
-      <c r="P20">
-        <v>9.6</v>
-      </c>
-      <c r="Q20" s="6">
-        <v>7.4</v>
-      </c>
-      <c r="R20">
-        <v>3.85</v>
-      </c>
-      <c r="S20">
-        <v>3.88</v>
-      </c>
-      <c r="T20">
-        <v>3.8</v>
-      </c>
-      <c r="U20">
-        <v>1.5</v>
-      </c>
-      <c r="V20" s="6">
-        <v>6</v>
-      </c>
-      <c r="W20" s="6">
-        <v>2.4500000000000002</v>
-      </c>
-      <c r="X20">
-        <v>6.8</v>
+      <c r="AC20" s="3">
+        <v>2</v>
+      </c>
+      <c r="AD20" s="6">
+        <v>11</v>
+      </c>
+      <c r="AE20" s="6">
+        <v>7.87</v>
+      </c>
+      <c r="AF20" s="6">
+        <v>3.1</v>
+      </c>
+      <c r="AG20" s="6">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AH20" s="6">
+        <v>2.9</v>
+      </c>
+      <c r="AI20" s="3">
+        <v>3.7</v>
+      </c>
+      <c r="AJ20" s="6">
+        <v>4.7</v>
+      </c>
+      <c r="AK20" s="6">
+        <v>5.2</v>
+      </c>
+      <c r="AL20" s="6">
+        <v>2.6</v>
       </c>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>63</v>
       </c>
@@ -2197,55 +3097,97 @@
         <v>3.9</v>
       </c>
       <c r="I21">
+        <v>2.9</v>
+      </c>
+      <c r="J21">
+        <v>3.4</v>
+      </c>
+      <c r="K21">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="L21">
         <v>2.1</v>
       </c>
-      <c r="J21" s="3">
+      <c r="M21">
+        <v>1.8</v>
+      </c>
+      <c r="N21" s="3">
         <v>3.5</v>
       </c>
-      <c r="K21" s="3">
+      <c r="O21" s="6">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="P21" s="6">
+        <v>4.7</v>
+      </c>
+      <c r="Q21" s="6">
+        <v>2.6</v>
+      </c>
+      <c r="R21" s="6">
         <v>8.5</v>
       </c>
-      <c r="L21" s="6">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="M21" s="6">
-        <v>4.7</v>
-      </c>
-      <c r="N21" s="6">
-        <v>2.6</v>
-      </c>
-      <c r="O21" s="3">
+      <c r="S21" s="3">
         <v>4.5</v>
       </c>
-      <c r="P21">
+      <c r="T21">
         <v>6.7</v>
       </c>
-      <c r="Q21" s="6">
+      <c r="U21" s="6">
         <v>5</v>
       </c>
-      <c r="R21">
+      <c r="V21">
         <v>2.85</v>
       </c>
-      <c r="S21">
+      <c r="W21">
         <v>2.71</v>
       </c>
-      <c r="T21">
+      <c r="X21">
         <v>2.7</v>
       </c>
-      <c r="U21">
+      <c r="Y21">
         <v>0.95</v>
       </c>
-      <c r="V21" s="6">
+      <c r="Z21" s="6">
         <v>4.0999999999999996</v>
       </c>
-      <c r="W21" s="6">
+      <c r="AA21" s="6">
         <v>1.55</v>
       </c>
-      <c r="X21">
+      <c r="AB21">
         <v>4.25</v>
       </c>
+      <c r="AC21" s="3">
+        <v>1.7</v>
+      </c>
+      <c r="AD21" s="6">
+        <v>8.4</v>
+      </c>
+      <c r="AE21" s="6">
+        <v>5.63</v>
+      </c>
+      <c r="AF21" s="6">
+        <v>2.4</v>
+      </c>
+      <c r="AG21" s="6">
+        <v>2.7</v>
+      </c>
+      <c r="AH21" s="6">
+        <v>2</v>
+      </c>
+      <c r="AI21" s="3">
+        <v>3.05</v>
+      </c>
+      <c r="AJ21" s="6">
+        <v>3.9</v>
+      </c>
+      <c r="AK21" s="6">
+        <v>3.5</v>
+      </c>
+      <c r="AL21" s="6">
+        <v>1.5</v>
+      </c>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>47</v>
       </c>
@@ -2271,55 +3213,97 @@
         <v>1.8</v>
       </c>
       <c r="I22">
+        <v>0.85</v>
+      </c>
+      <c r="J22">
+        <v>0.85</v>
+      </c>
+      <c r="K22">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="L22">
         <v>1.1000000000000001</v>
       </c>
-      <c r="J22" s="3">
+      <c r="M22">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="N22" s="3">
         <v>1.45</v>
       </c>
-      <c r="K22" s="3">
+      <c r="O22" s="6">
+        <v>1.4</v>
+      </c>
+      <c r="P22" s="6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="R22" s="3">
         <v>0.8</v>
       </c>
-      <c r="L22" s="6">
+      <c r="S22" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="T22" s="4">
+        <v>3.2</v>
+      </c>
+      <c r="U22" s="6">
+        <v>1.8</v>
+      </c>
+      <c r="V22">
         <v>1.4</v>
       </c>
-      <c r="M22" s="6">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="N22" s="3">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="O22" s="3">
+      <c r="W22">
+        <v>1.3</v>
+      </c>
+      <c r="X22">
         <v>0.9</v>
       </c>
-      <c r="P22" s="4">
-        <v>3.2</v>
-      </c>
-      <c r="Q22" s="6">
-        <v>1.8</v>
-      </c>
-      <c r="R22">
+      <c r="Y22">
+        <v>0.42</v>
+      </c>
+      <c r="Z22" s="6">
+        <v>1.7</v>
+      </c>
+      <c r="AA22" s="6">
+        <v>0.7</v>
+      </c>
+      <c r="AB22">
+        <v>1.65</v>
+      </c>
+      <c r="AC22" s="3">
+        <v>1.9</v>
+      </c>
+      <c r="AD22" s="6">
         <v>1.4</v>
       </c>
-      <c r="S22">
-        <v>1.3</v>
-      </c>
-      <c r="T22">
+      <c r="AE22" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="AF22" s="6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AG22" s="6">
+        <v>1.2</v>
+      </c>
+      <c r="AH22" s="6">
         <v>0.9</v>
       </c>
-      <c r="U22">
-        <v>0.42</v>
-      </c>
-      <c r="V22" s="6">
-        <v>1.7</v>
-      </c>
-      <c r="W22" s="6">
-        <v>0.7</v>
-      </c>
-      <c r="X22">
-        <v>1.65</v>
+      <c r="AI22" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="AJ22" s="6">
+        <v>1.9</v>
+      </c>
+      <c r="AK22" s="6">
+        <v>1.2</v>
+      </c>
+      <c r="AL22" s="6">
+        <v>1.4</v>
       </c>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>50</v>
       </c>
@@ -2347,53 +3331,95 @@
       <c r="I23">
         <v>0.5</v>
       </c>
-      <c r="J23" s="3">
-        <v>1</v>
-      </c>
-      <c r="K23" s="3">
-        <v>1</v>
-      </c>
-      <c r="L23" s="6">
-        <v>1</v>
-      </c>
-      <c r="M23" s="6">
-        <v>1</v>
-      </c>
-      <c r="N23" s="6">
-        <v>1</v>
-      </c>
-      <c r="O23" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="P23" s="3">
-        <v>0.5</v>
+      <c r="J23">
+        <v>0.5</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>0.5</v>
+      </c>
+      <c r="M23">
+        <v>0.5</v>
+      </c>
+      <c r="N23" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="O23" s="6">
+        <v>1</v>
+      </c>
+      <c r="P23" s="6">
+        <v>1</v>
       </c>
       <c r="Q23" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="R23">
-        <v>0.5</v>
-      </c>
-      <c r="S23">
-        <v>0.5</v>
-      </c>
-      <c r="T23">
-        <v>1</v>
-      </c>
-      <c r="U23">
-        <v>1</v>
-      </c>
-      <c r="V23" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="W23" s="6">
+        <v>1</v>
+      </c>
+      <c r="R23" s="6">
+        <v>1</v>
+      </c>
+      <c r="S23" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="T23" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="U23" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="V23">
+        <v>0.5</v>
+      </c>
+      <c r="W23">
         <v>0.5</v>
       </c>
       <c r="X23">
+        <v>1</v>
+      </c>
+      <c r="Y23">
+        <v>1</v>
+      </c>
+      <c r="Z23" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="AA23" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="AB23">
+        <v>0.5</v>
+      </c>
+      <c r="AC23" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="AD23" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="AE23" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="AF23" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="AG23" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="AH23" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="AI23" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="AJ23" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="AK23" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="AL23" s="6">
         <v>0.5</v>
       </c>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>53</v>
       </c>
@@ -2421,53 +3447,95 @@
       <c r="I24">
         <v>0.5</v>
       </c>
-      <c r="J24" s="3">
-        <v>1</v>
-      </c>
-      <c r="K24" s="3">
-        <v>1</v>
-      </c>
-      <c r="L24" s="6">
-        <v>1</v>
-      </c>
-      <c r="M24" s="6">
-        <v>1</v>
-      </c>
-      <c r="N24" s="6">
-        <v>1</v>
-      </c>
-      <c r="O24" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="P24" s="3">
-        <v>0.5</v>
+      <c r="J24">
+        <v>0.5</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0.5</v>
+      </c>
+      <c r="M24">
+        <v>0.5</v>
+      </c>
+      <c r="N24" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="O24" s="6">
+        <v>1</v>
+      </c>
+      <c r="P24" s="6">
+        <v>1</v>
       </c>
       <c r="Q24" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="R24">
-        <v>0.5</v>
-      </c>
-      <c r="S24">
-        <v>0.5</v>
-      </c>
-      <c r="T24">
-        <v>1</v>
-      </c>
-      <c r="U24">
-        <v>1</v>
-      </c>
-      <c r="V24" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="W24" s="6">
+        <v>1</v>
+      </c>
+      <c r="R24" s="6">
+        <v>1</v>
+      </c>
+      <c r="S24" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="T24" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="U24" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="V24">
+        <v>0.5</v>
+      </c>
+      <c r="W24">
         <v>0.5</v>
       </c>
       <c r="X24">
-        <v>0.5</v>
+        <v>1</v>
+      </c>
+      <c r="Y24">
+        <v>1</v>
+      </c>
+      <c r="Z24" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="AA24" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="AB24">
+        <v>0.5</v>
+      </c>
+      <c r="AC24" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="AD24" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="AE24" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="AF24" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="AG24" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="AH24" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="AI24" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="AJ24" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="AK24" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="AL24" s="6">
+        <v>0.2</v>
       </c>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>55</v>
       </c>
@@ -2493,55 +3561,97 @@
         <v>0.83</v>
       </c>
       <c r="I25">
+        <v>0.74</v>
+      </c>
+      <c r="J25">
+        <v>0.75</v>
+      </c>
+      <c r="K25">
+        <v>0.85</v>
+      </c>
+      <c r="L25">
         <v>0.79</v>
       </c>
-      <c r="J25" s="3">
+      <c r="M25">
+        <v>0.73</v>
+      </c>
+      <c r="N25" s="3">
         <v>0.74</v>
       </c>
-      <c r="K25" s="3">
+      <c r="O25" s="3">
+        <v>0.88</v>
+      </c>
+      <c r="P25" s="3">
+        <v>0.92</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="R25" s="3">
         <v>0.77</v>
       </c>
-      <c r="L25" s="3">
-        <v>0.88</v>
-      </c>
-      <c r="M25" s="3">
-        <v>0.92</v>
-      </c>
-      <c r="N25" s="3">
+      <c r="S25" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="T25" s="3">
+        <v>0.82</v>
+      </c>
+      <c r="U25" s="6">
         <v>0.7</v>
       </c>
-      <c r="O25" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="P25" s="3">
-        <v>0.82</v>
-      </c>
-      <c r="Q25" s="6">
-        <v>0.7</v>
-      </c>
-      <c r="R25">
+      <c r="V25">
         <v>0.74</v>
       </c>
-      <c r="S25">
+      <c r="W25">
         <v>0.74</v>
-      </c>
-      <c r="T25">
-        <v>0.76</v>
-      </c>
-      <c r="U25">
-        <v>0.73</v>
-      </c>
-      <c r="V25" s="6">
-        <v>0.7</v>
-      </c>
-      <c r="W25" s="6">
-        <v>0.68</v>
       </c>
       <c r="X25">
         <v>0.76</v>
       </c>
+      <c r="Y25">
+        <v>0.73</v>
+      </c>
+      <c r="Z25" s="6">
+        <v>0.7</v>
+      </c>
+      <c r="AA25" s="6">
+        <v>0.68</v>
+      </c>
+      <c r="AB25">
+        <v>0.76</v>
+      </c>
+      <c r="AC25" s="3">
+        <v>0.81</v>
+      </c>
+      <c r="AD25" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="AE25" s="6">
+        <v>0.85</v>
+      </c>
+      <c r="AF25" s="3">
+        <v>0.69</v>
+      </c>
+      <c r="AG25" s="3">
+        <v>0.85</v>
+      </c>
+      <c r="AH25" s="3">
+        <v>0.85</v>
+      </c>
+      <c r="AI25" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="AJ25" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="AK25" s="6">
+        <v>0.7</v>
+      </c>
+      <c r="AL25" s="6">
+        <v>0.7</v>
+      </c>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>57</v>
       </c>
@@ -2567,58 +3677,100 @@
         <v>20</v>
       </c>
       <c r="I26">
-        <v>20</v>
-      </c>
-      <c r="J26" s="2">
         <v>5</v>
       </c>
-      <c r="K26" s="3">
+      <c r="J26">
+        <v>5</v>
+      </c>
+      <c r="K26">
+        <v>20</v>
+      </c>
+      <c r="L26">
+        <v>20</v>
+      </c>
+      <c r="M26">
+        <v>5</v>
+      </c>
+      <c r="N26" s="2">
+        <v>5</v>
+      </c>
+      <c r="O26" s="2">
+        <v>50</v>
+      </c>
+      <c r="P26" s="2">
+        <v>50</v>
+      </c>
+      <c r="Q26" s="6">
+        <v>1</v>
+      </c>
+      <c r="R26" s="6">
         <v>4</v>
       </c>
-      <c r="L26" s="2">
-        <v>50</v>
-      </c>
-      <c r="M26" s="2">
-        <v>50</v>
-      </c>
-      <c r="N26" s="6">
-        <v>1</v>
-      </c>
-      <c r="O26" s="3">
+      <c r="S26" s="3">
         <v>4</v>
       </c>
-      <c r="P26" s="3">
+      <c r="T26" s="3">
         <v>10</v>
       </c>
-      <c r="Q26" s="3">
-        <v>1</v>
-      </c>
-      <c r="R26">
+      <c r="U26" s="3">
+        <v>1</v>
+      </c>
+      <c r="V26">
         <v>5</v>
       </c>
-      <c r="S26">
+      <c r="W26">
         <v>10</v>
-      </c>
-      <c r="T26">
-        <v>5</v>
-      </c>
-      <c r="U26">
-        <v>5</v>
-      </c>
-      <c r="V26" s="6">
-        <v>1</v>
-      </c>
-      <c r="W26" s="6">
-        <v>1</v>
       </c>
       <c r="X26">
         <v>5</v>
+      </c>
+      <c r="Y26">
+        <v>5</v>
+      </c>
+      <c r="Z26" s="6">
+        <v>1</v>
+      </c>
+      <c r="AA26" s="6">
+        <v>1</v>
+      </c>
+      <c r="AB26">
+        <v>5</v>
+      </c>
+      <c r="AC26" s="2">
+        <v>30</v>
+      </c>
+      <c r="AD26" s="6">
+        <v>10</v>
+      </c>
+      <c r="AE26" s="6">
+        <v>15</v>
+      </c>
+      <c r="AF26" s="6">
+        <v>1</v>
+      </c>
+      <c r="AG26" s="6">
+        <v>15</v>
+      </c>
+      <c r="AH26" s="6">
+        <v>15</v>
+      </c>
+      <c r="AI26" s="3">
+        <v>1</v>
+      </c>
+      <c r="AJ26" s="3">
+        <v>1</v>
+      </c>
+      <c r="AK26" s="6">
+        <v>1</v>
+      </c>
+      <c r="AL26" s="2">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/data/mosfet_data.xlsx
+++ b/data/mosfet_data.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://renesasgroup-my.sharepoint.com/personal/gary_kidwell_wz_renesas_com/Documents/python/charger/mathmodels/pdis_2or3lvl_bb/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="938" documentId="11_88BE854EAAF5D058E6628FC54DD0486FA8C2E51C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F91E6C89-C7B5-483C-8648-42A45890F1F0}"/>
+  <xr:revisionPtr revIDLastSave="253" documentId="13_ncr:1_{B6E73BC3-DAD1-4207-9F29-342E0D899D99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7CC3C3CC-5EE0-4717-8A1A-56593B2F483F}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25590" windowHeight="16260" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="BSZ070N08" sheetId="1" r:id="rId1"/>
+    <sheet name="column_data" sheetId="1" r:id="rId1"/>
+    <sheet name="transpose" sheetId="5" r:id="rId2"/>
+    <sheet name="transpose1" sheetId="4" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">transpose!$A$1:$Z$43</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">transpose1!$A$1:$Z$40</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -36,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="109">
   <si>
     <t>description</t>
   </si>
@@ -349,6 +355,21 @@
   <si>
     <t>AOE6936_LS</t>
   </si>
+  <si>
+    <t>SISS54DN</t>
+  </si>
+  <si>
+    <t>AON6314</t>
+  </si>
+  <si>
+    <t>SISA12BDN</t>
+  </si>
+  <si>
+    <t>SISS66DN</t>
+  </si>
+  <si>
+    <t>SIRA12DDP</t>
+  </si>
 </sst>
 </file>
 
@@ -358,7 +379,7 @@
     <numFmt numFmtId="164" formatCode="0.E+00"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -366,6 +387,12 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -402,7 +429,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -411,6 +438,11 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -725,11 +757,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AL26"/>
+  <dimension ref="A1:AQ26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AE1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AO28" sqref="AO28"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="AF1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" sqref="A1:AQ26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -739,17 +771,17 @@
     <col min="12" max="13" width="15.7109375" customWidth="1"/>
     <col min="15" max="15" width="16.140625" customWidth="1"/>
     <col min="16" max="16" width="15.5703125" customWidth="1"/>
-    <col min="17" max="18" width="14.28515625" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" customWidth="1"/>
-    <col min="24" max="24" width="11.85546875" customWidth="1"/>
-    <col min="29" max="29" width="17.140625" customWidth="1"/>
-    <col min="35" max="35" width="15.140625" customWidth="1"/>
-    <col min="36" max="36" width="15.7109375" customWidth="1"/>
-    <col min="37" max="37" width="13.28515625" customWidth="1"/>
-    <col min="38" max="38" width="13.42578125" customWidth="1"/>
+    <col min="17" max="19" width="14.28515625" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" customWidth="1"/>
+    <col min="25" max="26" width="11.85546875" customWidth="1"/>
+    <col min="33" max="33" width="17.140625" customWidth="1"/>
+    <col min="40" max="40" width="15.140625" customWidth="1"/>
+    <col min="41" max="41" width="15.7109375" customWidth="1"/>
+    <col min="42" max="42" width="13.28515625" customWidth="1"/>
+    <col min="43" max="43" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -805,67 +837,82 @@
         <v>72</v>
       </c>
       <c r="S1" t="s">
+        <v>108</v>
+      </c>
+      <c r="T1" t="s">
         <v>73</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>74</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>85</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>82</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>83</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>66</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
+        <v>106</v>
+      </c>
+      <c r="AA1" t="s">
         <v>65</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AB1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AD1" t="s">
         <v>77</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AE1" t="s">
         <v>84</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AF1" t="s">
         <v>81</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AG1" t="s">
         <v>87</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AH1" t="s">
         <v>92</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AI1" t="s">
         <v>93</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AJ1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AK1" t="s">
         <v>94</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AL1" t="s">
         <v>96</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AM1" t="s">
         <v>97</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AN1" t="s">
         <v>99</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AO1" t="s">
         <v>100</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AP1" t="s">
         <v>101</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AQ1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -921,7 +968,7 @@
         <v>71</v>
       </c>
       <c r="S2" t="s">
-        <v>8</v>
+        <v>71</v>
       </c>
       <c r="T2" t="s">
         <v>8</v>
@@ -951,7 +998,7 @@
         <v>8</v>
       </c>
       <c r="AC2" t="s">
-        <v>88</v>
+        <v>8</v>
       </c>
       <c r="AD2" t="s">
         <v>8</v>
@@ -960,28 +1007,43 @@
         <v>8</v>
       </c>
       <c r="AF2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG2" t="s">
         <v>88</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AH2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AL2" t="s">
         <v>95</v>
       </c>
-      <c r="AH2" t="s">
+      <c r="AM2" t="s">
         <v>95</v>
       </c>
-      <c r="AI2" t="s">
+      <c r="AN2" t="s">
         <v>98</v>
       </c>
-      <c r="AJ2" t="s">
+      <c r="AO2" t="s">
         <v>98</v>
       </c>
-      <c r="AK2" t="s">
+      <c r="AP2" t="s">
         <v>102</v>
       </c>
-      <c r="AL2" t="s">
+      <c r="AQ2" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -1039,7 +1101,7 @@
         <v>45</v>
       </c>
       <c r="S3">
-        <v>11.56</v>
+        <v>45</v>
       </c>
       <c r="T3">
         <v>11.56</v>
@@ -1069,7 +1131,7 @@
         <v>11.56</v>
       </c>
       <c r="AC3">
-        <v>45</v>
+        <v>11.56</v>
       </c>
       <c r="AD3">
         <v>11.56</v>
@@ -1078,10 +1140,10 @@
         <v>11.56</v>
       </c>
       <c r="AF3">
+        <v>11.56</v>
+      </c>
+      <c r="AG3">
         <v>45</v>
-      </c>
-      <c r="AG3">
-        <v>11.56</v>
       </c>
       <c r="AH3">
         <v>11.56</v>
@@ -1090,16 +1152,31 @@
         <v>11.56</v>
       </c>
       <c r="AJ3">
-        <v>11.56</v>
+        <v>45</v>
       </c>
       <c r="AK3">
         <v>45</v>
       </c>
       <c r="AL3">
+        <v>11.56</v>
+      </c>
+      <c r="AM3">
+        <v>11.56</v>
+      </c>
+      <c r="AN3">
+        <v>11.56</v>
+      </c>
+      <c r="AO3">
+        <v>11.56</v>
+      </c>
+      <c r="AP3">
         <v>45</v>
       </c>
+      <c r="AQ3">
+        <v>45</v>
+      </c>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -1170,7 +1247,7 @@
         <v>40</v>
       </c>
       <c r="X4">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="Y4">
         <v>30</v>
@@ -1194,28 +1271,43 @@
         <v>30</v>
       </c>
       <c r="AF4">
+        <v>30</v>
+      </c>
+      <c r="AG4">
+        <v>30</v>
+      </c>
+      <c r="AH4">
+        <v>30</v>
+      </c>
+      <c r="AI4">
+        <v>30</v>
+      </c>
+      <c r="AJ4">
+        <v>30</v>
+      </c>
+      <c r="AK4">
         <v>60</v>
       </c>
-      <c r="AG4">
-        <v>30</v>
-      </c>
-      <c r="AH4">
-        <v>30</v>
-      </c>
-      <c r="AI4">
-        <v>30</v>
-      </c>
-      <c r="AJ4">
-        <v>30</v>
-      </c>
-      <c r="AK4">
-        <v>30</v>
-      </c>
       <c r="AL4">
         <v>30</v>
       </c>
+      <c r="AM4">
+        <v>30</v>
+      </c>
+      <c r="AN4">
+        <v>30</v>
+      </c>
+      <c r="AO4">
+        <v>30</v>
+      </c>
+      <c r="AP4">
+        <v>30</v>
+      </c>
+      <c r="AQ4">
+        <v>30</v>
+      </c>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -1271,67 +1363,82 @@
         <v>3.1</v>
       </c>
       <c r="S5">
+        <v>4.5</v>
+      </c>
+      <c r="T5">
         <v>3.2</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <v>2.9</v>
       </c>
-      <c r="U5" s="7">
+      <c r="V5" s="7">
         <v>2.75</v>
       </c>
-      <c r="V5">
+      <c r="W5">
         <v>8.6999999999999993</v>
       </c>
-      <c r="W5">
+      <c r="X5">
         <v>8.1999999999999993</v>
       </c>
-      <c r="X5">
+      <c r="Y5">
         <v>3.7</v>
       </c>
-      <c r="Y5">
+      <c r="Z5">
+        <v>4.2</v>
+      </c>
+      <c r="AA5">
         <v>9.6</v>
       </c>
-      <c r="Z5">
+      <c r="AB5">
+        <v>11.3</v>
+      </c>
+      <c r="AC5">
+        <v>11.2</v>
+      </c>
+      <c r="AD5">
         <v>3.6</v>
       </c>
-      <c r="AA5">
+      <c r="AE5">
         <v>8.5</v>
       </c>
-      <c r="AB5">
+      <c r="AF5">
         <v>4</v>
       </c>
-      <c r="AC5">
+      <c r="AG5">
         <v>19</v>
       </c>
-      <c r="AD5">
+      <c r="AH5">
         <v>2.1</v>
       </c>
-      <c r="AE5">
+      <c r="AI5">
         <v>2.8</v>
       </c>
-      <c r="AF5">
-        <v>10</v>
-      </c>
-      <c r="AG5">
+      <c r="AJ5">
+        <v>4.5</v>
+      </c>
+      <c r="AK5">
+        <v>10</v>
+      </c>
+      <c r="AL5">
         <v>3.8</v>
       </c>
-      <c r="AH5">
+      <c r="AM5">
         <v>5.5</v>
       </c>
-      <c r="AI5">
+      <c r="AN5">
         <v>4</v>
       </c>
-      <c r="AJ5">
+      <c r="AO5">
         <v>3.2</v>
       </c>
-      <c r="AK5">
+      <c r="AP5">
         <v>2.5</v>
       </c>
-      <c r="AL5">
+      <c r="AQ5">
         <v>5.5</v>
       </c>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -1392,10 +1499,10 @@
       <c r="T6">
         <v>4.5</v>
       </c>
-      <c r="U6" s="7">
+      <c r="U6">
         <v>4.5</v>
       </c>
-      <c r="V6">
+      <c r="V6" s="7">
         <v>4.5</v>
       </c>
       <c r="W6">
@@ -1408,10 +1515,10 @@
         <v>4.5</v>
       </c>
       <c r="Z6">
-        <v>10</v>
+        <v>4.5</v>
       </c>
       <c r="AA6">
-        <v>10</v>
+        <v>4.5</v>
       </c>
       <c r="AB6">
         <v>4.5</v>
@@ -1420,34 +1527,49 @@
         <v>4.5</v>
       </c>
       <c r="AD6">
+        <v>10</v>
+      </c>
+      <c r="AE6">
+        <v>10</v>
+      </c>
+      <c r="AF6">
         <v>4.5</v>
       </c>
-      <c r="AE6">
+      <c r="AG6">
         <v>4.5</v>
       </c>
-      <c r="AF6">
-        <v>10</v>
-      </c>
-      <c r="AG6">
+      <c r="AH6">
+        <v>4.5</v>
+      </c>
+      <c r="AI6">
+        <v>4.5</v>
+      </c>
+      <c r="AJ6">
+        <v>10</v>
+      </c>
+      <c r="AK6">
+        <v>10</v>
+      </c>
+      <c r="AL6">
         <v>5</v>
       </c>
-      <c r="AH6">
+      <c r="AM6">
         <v>5</v>
       </c>
-      <c r="AI6">
-        <v>10</v>
-      </c>
-      <c r="AJ6">
-        <v>10</v>
-      </c>
-      <c r="AK6">
-        <v>10</v>
-      </c>
-      <c r="AL6">
+      <c r="AN6">
+        <v>10</v>
+      </c>
+      <c r="AO6">
+        <v>10</v>
+      </c>
+      <c r="AP6">
+        <v>10</v>
+      </c>
+      <c r="AQ6">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>59</v>
       </c>
@@ -1503,67 +1625,82 @@
         <v>1500</v>
       </c>
       <c r="S7" s="2">
+        <v>1600</v>
+      </c>
+      <c r="T7" s="2">
         <v>2500</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <v>950</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>1550</v>
       </c>
-      <c r="V7">
+      <c r="W7">
         <v>3600</v>
       </c>
-      <c r="W7">
+      <c r="X7">
         <v>2700</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>1200</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
+        <v>1700</v>
+      </c>
+      <c r="AA7" s="2">
         <v>3000</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
+        <v>4000</v>
+      </c>
+      <c r="AC7" s="2">
+        <v>4000</v>
+      </c>
+      <c r="AD7" s="2">
         <v>1450</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AE7" s="2">
         <v>3200</v>
       </c>
-      <c r="AB7">
+      <c r="AF7">
         <v>1600</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AG7" s="2">
         <v>8500</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AH7" s="2">
         <v>735</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AI7" s="2">
         <v>1060</v>
       </c>
-      <c r="AF7" s="2">
+      <c r="AJ7" s="2">
+        <v>2200</v>
+      </c>
+      <c r="AK7" s="2">
         <v>4000</v>
       </c>
-      <c r="AG7" s="2">
+      <c r="AL7" s="2">
         <v>1050</v>
       </c>
-      <c r="AH7" s="2">
+      <c r="AM7" s="2">
         <v>1500</v>
       </c>
-      <c r="AI7" s="2">
+      <c r="AN7" s="2">
         <v>1700</v>
       </c>
-      <c r="AJ7" s="2">
+      <c r="AO7" s="2">
         <v>1340</v>
       </c>
-      <c r="AK7" s="2">
+      <c r="AP7" s="2">
         <v>1250</v>
       </c>
-      <c r="AL7" s="2">
+      <c r="AQ7" s="2">
         <v>2550</v>
       </c>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -1621,65 +1758,80 @@
       <c r="S8" s="2">
         <v>1500</v>
       </c>
-      <c r="T8">
+      <c r="T8" s="2">
+        <v>1500</v>
+      </c>
+      <c r="U8">
         <v>500</v>
       </c>
-      <c r="U8" s="2">
+      <c r="V8" s="2">
         <v>1000</v>
       </c>
-      <c r="V8">
+      <c r="W8">
         <v>1600</v>
       </c>
-      <c r="W8">
+      <c r="X8">
         <v>1400</v>
       </c>
-      <c r="X8" s="2">
+      <c r="Y8" s="2">
         <v>1200</v>
       </c>
-      <c r="Y8" s="2">
+      <c r="Z8" s="2">
+        <v>1600</v>
+      </c>
+      <c r="AA8" s="2">
         <v>3000</v>
       </c>
-      <c r="Z8" s="2">
+      <c r="AB8" s="2">
+        <v>3000</v>
+      </c>
+      <c r="AC8" s="2">
+        <v>4000</v>
+      </c>
+      <c r="AD8" s="2">
         <v>1100</v>
       </c>
-      <c r="AA8" s="2">
+      <c r="AE8" s="2">
         <v>2500</v>
       </c>
-      <c r="AB8">
+      <c r="AF8">
         <v>1280</v>
       </c>
-      <c r="AC8" s="2">
+      <c r="AG8" s="2">
         <v>6000</v>
       </c>
-      <c r="AD8" s="2">
+      <c r="AH8" s="2">
         <v>680</v>
       </c>
-      <c r="AE8" s="2">
+      <c r="AI8" s="2">
         <v>900</v>
       </c>
-      <c r="AF8" s="2">
+      <c r="AJ8" s="2">
+        <v>1300</v>
+      </c>
+      <c r="AK8" s="2">
         <v>3000</v>
       </c>
-      <c r="AG8" s="2">
+      <c r="AL8" s="2">
         <v>1000</v>
       </c>
-      <c r="AH8" s="2">
+      <c r="AM8" s="2">
         <v>1500</v>
       </c>
-      <c r="AI8" s="2">
+      <c r="AN8" s="2">
         <v>1050</v>
       </c>
-      <c r="AJ8" s="2">
+      <c r="AO8" s="2">
         <v>900</v>
       </c>
-      <c r="AK8" s="2">
+      <c r="AP8" s="2">
         <v>1100</v>
       </c>
-      <c r="AL8" s="2">
+      <c r="AQ8" s="2">
         <v>2000</v>
       </c>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -1737,65 +1889,80 @@
       <c r="S9" s="2">
         <v>200</v>
       </c>
-      <c r="T9">
+      <c r="T9" s="2">
+        <v>200</v>
+      </c>
+      <c r="U9">
         <v>70</v>
       </c>
-      <c r="U9" s="2">
+      <c r="V9" s="2">
         <v>100</v>
       </c>
-      <c r="V9">
+      <c r="W9">
         <v>350</v>
       </c>
-      <c r="W9">
+      <c r="X9">
         <v>70</v>
       </c>
-      <c r="X9" s="2">
+      <c r="Y9" s="2">
         <v>150</v>
       </c>
-      <c r="Y9" s="2">
-        <v>500</v>
-      </c>
       <c r="Z9" s="2">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AA9" s="2">
         <v>500</v>
       </c>
-      <c r="AB9">
+      <c r="AB9" s="2">
+        <v>500</v>
+      </c>
+      <c r="AC9" s="2">
+        <v>550</v>
+      </c>
+      <c r="AD9" s="2">
         <v>200</v>
       </c>
-      <c r="AC9" s="2">
+      <c r="AE9" s="2">
+        <v>500</v>
+      </c>
+      <c r="AF9">
+        <v>200</v>
+      </c>
+      <c r="AG9" s="2">
         <v>1000</v>
       </c>
-      <c r="AD9" s="2">
+      <c r="AH9" s="2">
         <v>100</v>
       </c>
-      <c r="AE9" s="2">
+      <c r="AI9" s="2">
         <v>140</v>
       </c>
-      <c r="AF9" s="2">
+      <c r="AJ9" s="2">
+        <v>300</v>
+      </c>
+      <c r="AK9" s="2">
         <v>700</v>
       </c>
-      <c r="AG9" s="2">
+      <c r="AL9" s="2">
         <v>150</v>
       </c>
-      <c r="AH9" s="2">
+      <c r="AM9" s="2">
         <v>200</v>
       </c>
-      <c r="AI9" s="2">
+      <c r="AN9" s="2">
         <v>200</v>
       </c>
-      <c r="AJ9" s="2">
+      <c r="AO9" s="2">
         <v>140</v>
       </c>
-      <c r="AK9" s="2">
+      <c r="AP9" s="2">
         <v>200</v>
       </c>
-      <c r="AL9" s="2">
+      <c r="AQ9" s="2">
         <v>400</v>
       </c>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>25</v>
       </c>
@@ -1851,67 +2018,82 @@
         <v>24</v>
       </c>
       <c r="S10" s="2">
+        <v>15</v>
+      </c>
+      <c r="T10" s="2">
         <v>24</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <v>25</v>
       </c>
-      <c r="U10" s="2">
-        <v>30</v>
-      </c>
-      <c r="V10">
+      <c r="V10" s="2">
+        <v>30</v>
+      </c>
+      <c r="W10">
         <v>24</v>
       </c>
-      <c r="W10">
-        <v>30</v>
-      </c>
-      <c r="X10" s="2">
-        <v>12</v>
+      <c r="X10">
+        <v>30</v>
       </c>
       <c r="Y10" s="2">
         <v>12</v>
       </c>
       <c r="Z10" s="2">
+        <v>15</v>
+      </c>
+      <c r="AA10" s="2">
+        <v>12</v>
+      </c>
+      <c r="AB10" s="2">
+        <v>12</v>
+      </c>
+      <c r="AC10" s="2">
+        <v>15</v>
+      </c>
+      <c r="AD10" s="2">
         <v>25</v>
       </c>
-      <c r="AA10" s="2">
+      <c r="AE10" s="2">
         <v>25</v>
-      </c>
-      <c r="AB10" s="2">
-        <v>25</v>
-      </c>
-      <c r="AC10" s="2">
-        <v>24</v>
-      </c>
-      <c r="AD10" s="2">
-        <v>12</v>
-      </c>
-      <c r="AE10" s="2">
-        <v>10</v>
       </c>
       <c r="AF10" s="2">
         <v>25</v>
       </c>
       <c r="AG10" s="2">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="AH10" s="2">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AI10" s="2">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="AJ10" s="2">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="AK10" s="2">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="AL10" s="2">
+        <v>10</v>
+      </c>
+      <c r="AM10" s="2">
+        <v>10</v>
+      </c>
+      <c r="AN10" s="2">
+        <v>20</v>
+      </c>
+      <c r="AO10" s="2">
+        <v>20</v>
+      </c>
+      <c r="AP10" s="2">
+        <v>15</v>
+      </c>
+      <c r="AQ10" s="2">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>27</v>
       </c>
@@ -1967,67 +2149,82 @@
         <v>1150</v>
       </c>
       <c r="S11" s="2">
+        <v>1500</v>
+      </c>
+      <c r="T11" s="2">
         <v>1375</v>
       </c>
-      <c r="T11" s="2">
+      <c r="U11" s="2">
         <v>875</v>
       </c>
-      <c r="U11" s="2">
+      <c r="V11" s="2">
         <v>1450</v>
       </c>
-      <c r="V11">
+      <c r="W11">
         <v>3250</v>
       </c>
-      <c r="W11">
+      <c r="X11">
         <v>2450</v>
       </c>
-      <c r="X11" s="2">
+      <c r="Y11" s="2">
         <v>1175</v>
       </c>
-      <c r="Y11" s="2">
+      <c r="Z11" s="2">
+        <v>1550</v>
+      </c>
+      <c r="AA11" s="2">
         <v>2975</v>
       </c>
-      <c r="Z11" s="2">
+      <c r="AB11" s="2">
+        <v>3500</v>
+      </c>
+      <c r="AC11" s="2">
+        <v>3700</v>
+      </c>
+      <c r="AD11" s="2">
         <v>1300</v>
       </c>
-      <c r="AA11" s="2">
+      <c r="AE11" s="2">
         <v>2800</v>
       </c>
-      <c r="AB11">
+      <c r="AF11">
         <v>1400</v>
       </c>
-      <c r="AC11" s="2">
+      <c r="AG11" s="2">
         <v>7500</v>
       </c>
-      <c r="AD11" s="2">
+      <c r="AH11" s="2">
         <v>640</v>
       </c>
-      <c r="AE11" s="2">
+      <c r="AI11" s="2">
         <v>960</v>
       </c>
-      <c r="AF11" s="2">
+      <c r="AJ11" s="2">
+        <v>1900</v>
+      </c>
+      <c r="AK11" s="2">
         <v>3300</v>
       </c>
-      <c r="AG11" s="2">
+      <c r="AL11" s="2">
         <v>1000</v>
       </c>
-      <c r="AH11" s="2">
+      <c r="AM11" s="2">
         <v>1450</v>
       </c>
-      <c r="AI11" s="2">
+      <c r="AN11" s="2">
         <v>1500</v>
       </c>
-      <c r="AJ11" s="2">
+      <c r="AO11" s="2">
         <v>1210</v>
       </c>
-      <c r="AK11" s="2">
+      <c r="AP11" s="2">
         <v>1200</v>
       </c>
-      <c r="AL11" s="2">
+      <c r="AQ11" s="2">
         <v>2250</v>
       </c>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>29</v>
       </c>
@@ -2083,67 +2280,82 @@
         <v>150</v>
       </c>
       <c r="S12" s="2">
+        <v>520</v>
+      </c>
+      <c r="T12" s="2">
         <v>1130</v>
       </c>
-      <c r="T12" s="2">
+      <c r="U12" s="2">
         <v>150</v>
       </c>
-      <c r="U12" s="2">
+      <c r="V12" s="2">
         <v>200</v>
       </c>
-      <c r="V12">
+      <c r="W12">
         <v>400</v>
       </c>
-      <c r="W12">
+      <c r="X12">
         <v>350</v>
       </c>
-      <c r="X12" s="2">
+      <c r="Y12" s="2">
         <v>450</v>
       </c>
-      <c r="Y12" s="2">
+      <c r="Z12" s="2">
+        <v>550</v>
+      </c>
+      <c r="AA12" s="2">
         <v>1200</v>
       </c>
-      <c r="Z12" s="2">
+      <c r="AB12" s="2">
+        <v>1400</v>
+      </c>
+      <c r="AC12" s="2">
+        <v>1800</v>
+      </c>
+      <c r="AD12" s="2">
         <v>250</v>
       </c>
-      <c r="AA12" s="2">
+      <c r="AE12" s="2">
         <v>600</v>
       </c>
-      <c r="AB12">
+      <c r="AF12">
         <v>250</v>
       </c>
-      <c r="AC12" s="2">
+      <c r="AG12" s="2">
         <v>1400</v>
       </c>
-      <c r="AD12" s="2">
+      <c r="AH12" s="2">
         <v>310</v>
       </c>
-      <c r="AE12" s="2">
+      <c r="AI12" s="2">
         <v>460</v>
       </c>
-      <c r="AF12" s="2">
+      <c r="AJ12" s="2">
+        <v>400</v>
+      </c>
+      <c r="AK12" s="2">
         <v>1000</v>
       </c>
-      <c r="AG12" s="2">
+      <c r="AL12" s="2">
         <v>460</v>
       </c>
-      <c r="AH12" s="2">
+      <c r="AM12" s="2">
         <v>700</v>
       </c>
-      <c r="AI12" s="2">
+      <c r="AN12" s="2">
         <v>300</v>
       </c>
-      <c r="AJ12" s="2">
+      <c r="AO12" s="2">
         <v>240</v>
       </c>
-      <c r="AK12" s="2">
+      <c r="AP12" s="2">
         <v>400</v>
       </c>
-      <c r="AL12" s="2">
+      <c r="AQ12" s="2">
         <v>650</v>
       </c>
     </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>31</v>
       </c>
@@ -2199,67 +2411,82 @@
         <v>60</v>
       </c>
       <c r="S13" s="2">
+        <v>38</v>
+      </c>
+      <c r="T13" s="2">
         <v>50</v>
       </c>
-      <c r="T13" s="2">
+      <c r="U13" s="2">
         <v>16</v>
       </c>
-      <c r="U13" s="2">
+      <c r="V13" s="2">
         <v>13</v>
       </c>
-      <c r="V13">
+      <c r="W13">
         <v>50</v>
       </c>
-      <c r="W13">
-        <v>20</v>
-      </c>
-      <c r="X13" s="2">
-        <v>30</v>
+      <c r="X13">
+        <v>20</v>
       </c>
       <c r="Y13" s="2">
+        <v>30</v>
+      </c>
+      <c r="Z13" s="2">
+        <v>60</v>
+      </c>
+      <c r="AA13" s="2">
         <v>200</v>
       </c>
-      <c r="Z13" s="2">
-        <v>30</v>
-      </c>
-      <c r="AA13" s="2">
+      <c r="AB13" s="2">
+        <v>100</v>
+      </c>
+      <c r="AC13" s="2">
+        <v>160</v>
+      </c>
+      <c r="AD13" s="2">
+        <v>30</v>
+      </c>
+      <c r="AE13" s="2">
         <v>50</v>
       </c>
-      <c r="AB13">
+      <c r="AF13">
         <v>36</v>
       </c>
-      <c r="AC13" s="2">
+      <c r="AG13" s="2">
         <v>75</v>
       </c>
-      <c r="AD13" s="2">
+      <c r="AH13" s="2">
         <v>21</v>
       </c>
-      <c r="AE13" s="2">
+      <c r="AI13" s="2">
         <v>40</v>
       </c>
-      <c r="AF13" s="2">
+      <c r="AJ13" s="2">
         <v>50</v>
       </c>
-      <c r="AG13" s="2">
+      <c r="AK13" s="2">
+        <v>50</v>
+      </c>
+      <c r="AL13" s="2">
         <v>39</v>
       </c>
-      <c r="AH13" s="2">
+      <c r="AM13" s="2">
         <v>48</v>
       </c>
-      <c r="AI13" s="2">
+      <c r="AN13" s="2">
         <v>50</v>
       </c>
-      <c r="AJ13" s="2">
-        <v>30</v>
-      </c>
-      <c r="AK13" s="2">
+      <c r="AO13" s="2">
+        <v>30</v>
+      </c>
+      <c r="AP13" s="2">
         <v>62</v>
       </c>
-      <c r="AL13" s="2">
+      <c r="AQ13" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>33</v>
       </c>
@@ -2315,67 +2542,82 @@
         <v>19</v>
       </c>
       <c r="S14" s="2">
+        <v>13</v>
+      </c>
+      <c r="T14" s="2">
         <v>17</v>
       </c>
-      <c r="T14" s="2">
+      <c r="U14" s="2">
         <v>4.0999999999999996</v>
       </c>
-      <c r="U14" s="2">
+      <c r="V14" s="2">
         <v>21</v>
       </c>
-      <c r="V14">
+      <c r="W14">
         <v>23</v>
       </c>
-      <c r="W14">
-        <v>10</v>
-      </c>
-      <c r="X14" s="2">
+      <c r="X14">
         <v>10</v>
       </c>
       <c r="Y14" s="2">
+        <v>10</v>
+      </c>
+      <c r="Z14" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA14" s="2">
         <v>25</v>
       </c>
-      <c r="Z14" s="2">
+      <c r="AB14" s="2">
+        <v>34</v>
+      </c>
+      <c r="AC14" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD14" s="2">
         <v>18</v>
       </c>
-      <c r="AA14" s="2">
+      <c r="AE14" s="2">
         <v>36.5</v>
       </c>
-      <c r="AB14" s="2">
+      <c r="AF14" s="2">
         <v>14</v>
       </c>
-      <c r="AC14" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD14" s="2">
-        <v>10</v>
-      </c>
-      <c r="AE14" s="2">
-        <v>30</v>
-      </c>
-      <c r="AF14" s="2">
+      <c r="AG14" s="2">
+        <v>20</v>
+      </c>
+      <c r="AH14" s="2">
+        <v>10</v>
+      </c>
+      <c r="AI14" s="2">
+        <v>30</v>
+      </c>
+      <c r="AJ14" s="2">
+        <v>21.5</v>
+      </c>
+      <c r="AK14" s="2">
         <v>73</v>
       </c>
-      <c r="AG14" s="2">
+      <c r="AL14" s="2">
         <v>3</v>
       </c>
-      <c r="AH14" s="2">
+      <c r="AM14" s="2">
         <v>6</v>
       </c>
-      <c r="AI14" s="2">
+      <c r="AN14" s="2">
         <v>21</v>
       </c>
-      <c r="AJ14" s="2">
-        <v>15</v>
-      </c>
-      <c r="AK14" s="2">
-        <v>20</v>
-      </c>
-      <c r="AL14" s="2">
+      <c r="AO14" s="2">
+        <v>15</v>
+      </c>
+      <c r="AP14" s="2">
+        <v>20</v>
+      </c>
+      <c r="AQ14" s="2">
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>35</v>
       </c>
@@ -2437,49 +2679,49 @@
         <v>10</v>
       </c>
       <c r="U15" s="2">
-        <v>20</v>
-      </c>
-      <c r="V15">
-        <v>10</v>
+        <v>10</v>
+      </c>
+      <c r="V15" s="2">
+        <v>20</v>
       </c>
       <c r="W15">
+        <v>10</v>
+      </c>
+      <c r="X15">
         <v>20.8</v>
       </c>
-      <c r="X15" s="2">
-        <v>10</v>
-      </c>
       <c r="Y15" s="2">
         <v>10</v>
       </c>
       <c r="Z15" s="2">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="AA15" s="2">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="AB15" s="2">
         <v>10</v>
       </c>
       <c r="AC15" s="2">
+        <v>10</v>
+      </c>
+      <c r="AD15" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE15" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF15" s="2">
+        <v>10</v>
+      </c>
+      <c r="AG15" s="2">
         <v>87</v>
       </c>
-      <c r="AD15" s="2">
-        <v>10</v>
-      </c>
-      <c r="AE15" s="2">
-        <v>15</v>
-      </c>
-      <c r="AF15" s="2">
-        <v>20</v>
-      </c>
-      <c r="AG15" s="2">
-        <v>15</v>
-      </c>
       <c r="AH15" s="2">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AI15" s="2">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="AJ15" s="2">
         <v>20</v>
@@ -2488,10 +2730,25 @@
         <v>20</v>
       </c>
       <c r="AL15" s="2">
+        <v>15</v>
+      </c>
+      <c r="AM15" s="2">
+        <v>15</v>
+      </c>
+      <c r="AN15" s="2">
+        <v>20</v>
+      </c>
+      <c r="AO15" s="2">
+        <v>20</v>
+      </c>
+      <c r="AP15" s="2">
+        <v>20</v>
+      </c>
+      <c r="AQ15" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>38</v>
       </c>
@@ -2547,7 +2804,7 @@
         <v>20</v>
       </c>
       <c r="S16" s="2">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="T16" s="2">
         <v>20</v>
@@ -2555,14 +2812,14 @@
       <c r="U16" s="2">
         <v>20</v>
       </c>
-      <c r="V16">
+      <c r="V16" s="2">
         <v>20</v>
       </c>
       <c r="W16">
         <v>20</v>
       </c>
       <c r="X16">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="Y16">
         <v>15</v>
@@ -2570,10 +2827,10 @@
       <c r="Z16" s="2">
         <v>15</v>
       </c>
-      <c r="AA16" s="2">
-        <v>15</v>
-      </c>
-      <c r="AB16" s="2">
+      <c r="AA16">
+        <v>15</v>
+      </c>
+      <c r="AB16">
         <v>15</v>
       </c>
       <c r="AC16" s="2">
@@ -2586,7 +2843,7 @@
         <v>15</v>
       </c>
       <c r="AF16" s="2">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="AG16" s="2">
         <v>15</v>
@@ -2601,13 +2858,28 @@
         <v>15</v>
       </c>
       <c r="AK16" s="2">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="AL16" s="2">
         <v>15</v>
       </c>
+      <c r="AM16" s="2">
+        <v>15</v>
+      </c>
+      <c r="AN16" s="2">
+        <v>15</v>
+      </c>
+      <c r="AO16" s="2">
+        <v>15</v>
+      </c>
+      <c r="AP16" s="2">
+        <v>15</v>
+      </c>
+      <c r="AQ16" s="2">
+        <v>15</v>
+      </c>
     </row>
-    <row r="17" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>40</v>
       </c>
@@ -2663,67 +2935,82 @@
         <v>2.5</v>
       </c>
       <c r="S17" s="2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="T17" s="2">
         <v>2.5</v>
       </c>
-      <c r="T17" s="6">
+      <c r="U17" s="6">
         <v>0.9</v>
       </c>
-      <c r="U17" s="6">
+      <c r="V17" s="6">
         <v>3</v>
       </c>
-      <c r="V17">
+      <c r="W17">
         <v>4.2</v>
       </c>
-      <c r="W17">
+      <c r="X17">
         <v>2.2999999999999998</v>
       </c>
-      <c r="X17">
+      <c r="Y17">
         <v>1.4</v>
       </c>
-      <c r="Y17">
+      <c r="Z17" s="2">
+        <v>2.6</v>
+      </c>
+      <c r="AA17">
         <v>3.9</v>
       </c>
-      <c r="Z17" s="6">
+      <c r="AB17">
+        <v>3</v>
+      </c>
+      <c r="AC17" s="2">
+        <v>5.8</v>
+      </c>
+      <c r="AD17" s="6">
         <v>2.2000000000000002</v>
       </c>
-      <c r="AA17" s="6">
+      <c r="AE17" s="6">
         <v>4</v>
       </c>
-      <c r="AB17" s="2">
+      <c r="AF17" s="2">
         <v>1.8</v>
       </c>
-      <c r="AC17" s="2">
+      <c r="AG17" s="2">
         <v>9.6999999999999993</v>
       </c>
-      <c r="AD17" s="2">
+      <c r="AH17" s="2">
         <v>0.7</v>
       </c>
-      <c r="AE17" s="6">
+      <c r="AI17" s="6">
         <v>1.2</v>
       </c>
-      <c r="AF17" s="6">
+      <c r="AJ17" s="6">
+        <v>3.6</v>
+      </c>
+      <c r="AK17" s="6">
         <v>8.5</v>
       </c>
-      <c r="AG17" s="6">
+      <c r="AL17" s="6">
         <v>1.1200000000000001</v>
       </c>
-      <c r="AH17" s="6">
+      <c r="AM17" s="6">
         <v>1.7</v>
       </c>
-      <c r="AI17" s="6">
+      <c r="AN17" s="6">
         <v>2.2000000000000002</v>
       </c>
-      <c r="AJ17" s="6">
-        <v>1</v>
-      </c>
-      <c r="AK17" s="6">
+      <c r="AO17" s="6">
+        <v>1</v>
+      </c>
+      <c r="AP17" s="6">
         <v>3</v>
       </c>
-      <c r="AL17" s="6">
+      <c r="AQ17" s="6">
         <v>4.5</v>
       </c>
     </row>
-    <row r="18" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>42</v>
       </c>
@@ -2779,22 +3066,22 @@
         <v>20</v>
       </c>
       <c r="S18" s="2">
-        <v>20</v>
-      </c>
-      <c r="T18">
-        <v>20</v>
-      </c>
-      <c r="U18" s="2">
-        <v>20</v>
-      </c>
-      <c r="V18">
+        <v>15</v>
+      </c>
+      <c r="T18" s="2">
+        <v>20</v>
+      </c>
+      <c r="U18">
+        <v>20</v>
+      </c>
+      <c r="V18" s="2">
         <v>20</v>
       </c>
       <c r="W18">
         <v>20</v>
       </c>
       <c r="X18">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="Y18">
         <v>15</v>
@@ -2802,10 +3089,10 @@
       <c r="Z18" s="2">
         <v>15</v>
       </c>
-      <c r="AA18" s="2">
-        <v>15</v>
-      </c>
-      <c r="AB18" s="2">
+      <c r="AA18">
+        <v>15</v>
+      </c>
+      <c r="AB18">
         <v>15</v>
       </c>
       <c r="AC18" s="2">
@@ -2818,7 +3105,7 @@
         <v>15</v>
       </c>
       <c r="AF18" s="2">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="AG18" s="2">
         <v>15</v>
@@ -2833,13 +3120,28 @@
         <v>15</v>
       </c>
       <c r="AK18" s="2">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="AL18" s="2">
         <v>15</v>
       </c>
+      <c r="AM18" s="2">
+        <v>15</v>
+      </c>
+      <c r="AN18" s="2">
+        <v>15</v>
+      </c>
+      <c r="AO18" s="2">
+        <v>15</v>
+      </c>
+      <c r="AP18" s="2">
+        <v>15</v>
+      </c>
+      <c r="AQ18" s="2">
+        <v>15</v>
+      </c>
     </row>
-    <row r="19" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>44</v>
       </c>
@@ -2895,67 +3197,82 @@
         <v>43</v>
       </c>
       <c r="S19" s="2">
+        <v>80</v>
+      </c>
+      <c r="T19" s="2">
         <v>65</v>
       </c>
-      <c r="T19" s="2">
+      <c r="U19" s="2">
         <v>45</v>
       </c>
-      <c r="U19" s="2">
+      <c r="V19" s="2">
         <v>70</v>
       </c>
-      <c r="V19">
+      <c r="W19">
         <v>70</v>
       </c>
-      <c r="W19">
+      <c r="X19">
         <v>76</v>
       </c>
-      <c r="X19">
+      <c r="Y19">
         <v>53</v>
       </c>
-      <c r="Y19">
+      <c r="Z19" s="2">
+        <v>67</v>
+      </c>
+      <c r="AA19">
         <v>95</v>
       </c>
-      <c r="Z19" s="2">
+      <c r="AB19">
+        <v>117</v>
+      </c>
+      <c r="AC19" s="2">
+        <v>84</v>
+      </c>
+      <c r="AD19" s="2">
         <v>77</v>
       </c>
-      <c r="AA19" s="2">
+      <c r="AE19" s="2">
         <v>125</v>
       </c>
-      <c r="AB19" s="2">
+      <c r="AF19" s="2">
         <v>65</v>
       </c>
-      <c r="AC19" s="2">
+      <c r="AG19" s="2">
         <v>120</v>
       </c>
-      <c r="AD19" s="2">
+      <c r="AH19" s="2">
         <v>37</v>
       </c>
-      <c r="AE19" s="2">
+      <c r="AI19" s="2">
         <v>46</v>
       </c>
-      <c r="AF19" s="2">
+      <c r="AJ19" s="2">
+        <v>165</v>
+      </c>
+      <c r="AK19" s="2">
         <v>100</v>
       </c>
-      <c r="AG19" s="2">
+      <c r="AL19" s="2">
         <v>57</v>
       </c>
-      <c r="AH19" s="2">
+      <c r="AM19" s="2">
         <v>61</v>
       </c>
-      <c r="AI19" s="2">
+      <c r="AN19" s="2">
         <v>108</v>
       </c>
-      <c r="AJ19" s="2">
+      <c r="AO19" s="2">
         <v>125</v>
       </c>
-      <c r="AK19" s="2">
+      <c r="AP19" s="2">
         <v>57</v>
       </c>
-      <c r="AL19" s="2">
+      <c r="AQ19" s="2">
         <v>110</v>
       </c>
     </row>
-    <row r="20" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>61</v>
       </c>
@@ -2968,8 +3285,8 @@
       <c r="D20" s="1">
         <v>1E-3</v>
       </c>
-      <c r="E20" s="5">
-        <v>0.1</v>
+      <c r="E20" s="6">
+        <v>1E-3</v>
       </c>
       <c r="F20">
         <v>7.4</v>
@@ -3010,68 +3327,83 @@
       <c r="R20" s="6">
         <v>10.4</v>
       </c>
-      <c r="S20" s="3">
+      <c r="S20" s="6">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="T20" s="3">
         <v>6.2</v>
       </c>
-      <c r="T20">
+      <c r="U20">
         <v>9.6</v>
       </c>
-      <c r="U20" s="6">
+      <c r="V20" s="6">
         <v>7.4</v>
       </c>
-      <c r="V20">
+      <c r="W20">
         <v>3.85</v>
       </c>
-      <c r="W20">
+      <c r="X20">
         <v>3.88</v>
       </c>
-      <c r="X20">
+      <c r="Y20">
         <v>3.8</v>
       </c>
-      <c r="Y20">
+      <c r="Z20" s="3">
+        <v>4.8</v>
+      </c>
+      <c r="AA20">
         <v>1.5</v>
       </c>
-      <c r="Z20" s="6">
+      <c r="AB20">
+        <v>1.25</v>
+      </c>
+      <c r="AC20" s="3">
+        <v>1.75</v>
+      </c>
+      <c r="AD20" s="6">
         <v>6</v>
       </c>
-      <c r="AA20" s="6">
+      <c r="AE20" s="6">
         <v>2.4500000000000002</v>
       </c>
-      <c r="AB20">
+      <c r="AF20">
         <v>6.8</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AG20" s="3">
         <v>2</v>
       </c>
-      <c r="AD20" s="6">
+      <c r="AH20" s="6">
         <v>11</v>
       </c>
-      <c r="AE20" s="6">
+      <c r="AI20" s="6">
         <v>7.87</v>
       </c>
-      <c r="AF20" s="6">
+      <c r="AJ20" s="10">
+        <v>2.8</v>
+      </c>
+      <c r="AK20" s="6">
         <v>3.1</v>
       </c>
-      <c r="AG20" s="6">
+      <c r="AL20" s="6">
         <v>4.4000000000000004</v>
       </c>
-      <c r="AH20" s="6">
+      <c r="AM20" s="6">
         <v>2.9</v>
       </c>
-      <c r="AI20" s="3">
+      <c r="AN20" s="3">
         <v>3.7</v>
       </c>
-      <c r="AJ20" s="6">
+      <c r="AO20" s="6">
         <v>4.7</v>
       </c>
-      <c r="AK20" s="6">
+      <c r="AP20" s="6">
         <v>5.2</v>
       </c>
-      <c r="AL20" s="6">
+      <c r="AQ20" s="6">
         <v>2.6</v>
       </c>
     </row>
-    <row r="21" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>63</v>
       </c>
@@ -3084,8 +3416,8 @@
       <c r="D21" s="1">
         <v>1E-3</v>
       </c>
-      <c r="E21" s="5">
-        <v>0.05</v>
+      <c r="E21" s="6">
+        <v>1E-3</v>
       </c>
       <c r="F21">
         <v>5.9</v>
@@ -3126,68 +3458,83 @@
       <c r="R21" s="6">
         <v>8.5</v>
       </c>
-      <c r="S21" s="3">
+      <c r="S21" s="6">
+        <v>2.8</v>
+      </c>
+      <c r="T21" s="3">
         <v>4.5</v>
       </c>
-      <c r="T21">
+      <c r="U21">
         <v>6.7</v>
       </c>
-      <c r="U21" s="6">
+      <c r="V21" s="6">
         <v>5</v>
       </c>
-      <c r="V21">
+      <c r="W21">
         <v>2.85</v>
       </c>
-      <c r="W21">
+      <c r="X21">
         <v>2.71</v>
       </c>
-      <c r="X21">
+      <c r="Y21">
         <v>2.7</v>
       </c>
-      <c r="Y21">
+      <c r="Z21" s="3">
+        <v>2.7</v>
+      </c>
+      <c r="AA21">
         <v>0.95</v>
       </c>
-      <c r="Z21" s="6">
+      <c r="AB21">
+        <v>0.88</v>
+      </c>
+      <c r="AC21" s="3">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="AD21" s="6">
         <v>4.0999999999999996</v>
       </c>
-      <c r="AA21" s="6">
+      <c r="AE21" s="6">
         <v>1.55</v>
       </c>
-      <c r="AB21">
+      <c r="AF21">
         <v>4.25</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AG21" s="3">
         <v>1.7</v>
       </c>
-      <c r="AD21" s="6">
+      <c r="AH21" s="6">
         <v>8.4</v>
       </c>
-      <c r="AE21" s="6">
+      <c r="AI21" s="6">
         <v>5.63</v>
       </c>
-      <c r="AF21" s="6">
+      <c r="AJ21" s="10">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AK21" s="6">
         <v>2.4</v>
       </c>
-      <c r="AG21" s="6">
+      <c r="AL21" s="6">
         <v>2.7</v>
       </c>
-      <c r="AH21" s="6">
+      <c r="AM21" s="6">
         <v>2</v>
       </c>
-      <c r="AI21" s="3">
+      <c r="AN21" s="3">
         <v>3.05</v>
       </c>
-      <c r="AJ21" s="6">
+      <c r="AO21" s="6">
         <v>3.9</v>
       </c>
-      <c r="AK21" s="6">
+      <c r="AP21" s="6">
         <v>3.5</v>
       </c>
-      <c r="AL21" s="6">
+      <c r="AQ21" s="6">
         <v>1.5</v>
       </c>
     </row>
-    <row r="22" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>47</v>
       </c>
@@ -3243,67 +3590,82 @@
         <v>0.8</v>
       </c>
       <c r="S22" s="3">
+        <v>1.4</v>
+      </c>
+      <c r="T22" s="3">
         <v>0.9</v>
       </c>
-      <c r="T22" s="4">
+      <c r="U22" s="4">
         <v>3.2</v>
       </c>
-      <c r="U22" s="6">
+      <c r="V22" s="6">
         <v>1.8</v>
       </c>
-      <c r="V22">
+      <c r="W22">
         <v>1.4</v>
       </c>
-      <c r="W22">
+      <c r="X22">
         <v>1.3</v>
       </c>
-      <c r="X22">
+      <c r="Y22">
         <v>0.9</v>
       </c>
-      <c r="Y22">
+      <c r="Z22" s="2">
+        <v>1.4</v>
+      </c>
+      <c r="AA22">
         <v>0.42</v>
       </c>
-      <c r="Z22" s="6">
+      <c r="AB22">
+        <v>0.75</v>
+      </c>
+      <c r="AC22" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="AD22" s="6">
         <v>1.7</v>
       </c>
-      <c r="AA22" s="6">
+      <c r="AE22" s="6">
         <v>0.7</v>
       </c>
-      <c r="AB22">
+      <c r="AF22">
         <v>1.65</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AG22" s="3">
         <v>1.9</v>
       </c>
-      <c r="AD22" s="6">
+      <c r="AH22" s="6">
         <v>1.4</v>
       </c>
-      <c r="AE22" s="6">
+      <c r="AI22" s="6">
         <v>0.8</v>
       </c>
-      <c r="AF22" s="6">
+      <c r="AJ22" s="6">
+        <v>1.8</v>
+      </c>
+      <c r="AK22" s="6">
         <v>1.1000000000000001</v>
       </c>
-      <c r="AG22" s="6">
+      <c r="AL22" s="6">
         <v>1.2</v>
       </c>
-      <c r="AH22" s="6">
+      <c r="AM22" s="6">
         <v>0.9</v>
       </c>
-      <c r="AI22" s="3">
+      <c r="AN22" s="3">
         <v>0.8</v>
       </c>
-      <c r="AJ22" s="6">
+      <c r="AO22" s="6">
         <v>1.9</v>
       </c>
-      <c r="AK22" s="6">
+      <c r="AP22" s="6">
         <v>1.2</v>
       </c>
-      <c r="AL22" s="6">
+      <c r="AQ22" s="6">
         <v>1.4</v>
       </c>
     </row>
-    <row r="23" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>50</v>
       </c>
@@ -3358,68 +3720,83 @@
       <c r="R23" s="6">
         <v>1</v>
       </c>
-      <c r="S23" s="3">
-        <v>0.5</v>
+      <c r="S23" s="6">
+        <v>1</v>
       </c>
       <c r="T23" s="3">
         <v>0.5</v>
       </c>
-      <c r="U23" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="V23">
+      <c r="U23" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="V23" s="6">
         <v>0.5</v>
       </c>
       <c r="W23">
         <v>0.5</v>
       </c>
       <c r="X23">
-        <v>1</v>
-      </c>
-      <c r="Y23">
-        <v>1</v>
-      </c>
-      <c r="Z23" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="AA23" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="AB23">
-        <v>0.5</v>
+        <v>0.8</v>
+      </c>
+      <c r="Y23" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="Z23" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="AA23" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="AB23" s="3">
+        <v>0.8</v>
       </c>
       <c r="AC23" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="AD23" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="AE23" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="AF23">
+        <v>0.8</v>
+      </c>
+      <c r="AG23" s="3">
         <v>0.75</v>
       </c>
-      <c r="AD23" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="AE23" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="AF23" s="6">
+      <c r="AH23" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="AI23" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="AJ23" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="AK23" s="6">
         <v>0.75</v>
       </c>
-      <c r="AG23" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="AH23" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="AI23" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="AJ23" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="AK23" s="6">
+      <c r="AL23" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="AM23" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="AN23" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="AO23" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="AP23" s="6">
         <v>0.2</v>
       </c>
-      <c r="AL23" s="6">
+      <c r="AQ23" s="6">
         <v>0.5</v>
       </c>
     </row>
-    <row r="24" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>53</v>
       </c>
@@ -3474,68 +3851,83 @@
       <c r="R24" s="6">
         <v>1</v>
       </c>
-      <c r="S24" s="3">
-        <v>0.5</v>
+      <c r="S24" s="6">
+        <v>1</v>
       </c>
       <c r="T24" s="3">
         <v>0.5</v>
       </c>
-      <c r="U24" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="V24">
+      <c r="U24" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="V24" s="6">
         <v>0.5</v>
       </c>
       <c r="W24">
         <v>0.5</v>
       </c>
       <c r="X24">
-        <v>1</v>
-      </c>
-      <c r="Y24">
-        <v>1</v>
-      </c>
-      <c r="Z24" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="AA24" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="AB24">
-        <v>0.5</v>
+        <v>0.8</v>
+      </c>
+      <c r="Y24" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="Z24" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="AA24" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="AB24" s="3">
+        <v>0.8</v>
       </c>
       <c r="AC24" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="AD24" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="AE24" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="AF24">
+        <v>0.8</v>
+      </c>
+      <c r="AG24" s="3">
         <v>0.75</v>
       </c>
-      <c r="AD24" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="AE24" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="AF24" s="6">
+      <c r="AH24" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="AI24" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="AJ24" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="AK24" s="6">
         <v>0.75</v>
       </c>
-      <c r="AG24" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="AH24" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="AI24" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="AJ24" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="AK24" s="6">
-        <v>0.5</v>
-      </c>
       <c r="AL24" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="AM24" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="AN24" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="AO24" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="AP24" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="AQ24" s="6">
         <v>0.2</v>
       </c>
     </row>
-    <row r="25" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>55</v>
       </c>
@@ -3594,64 +3986,79 @@
         <v>0.75</v>
       </c>
       <c r="T25" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="U25" s="3">
         <v>0.82</v>
       </c>
-      <c r="U25" s="6">
+      <c r="V25" s="6">
         <v>0.7</v>
-      </c>
-      <c r="V25">
-        <v>0.74</v>
       </c>
       <c r="W25">
         <v>0.74</v>
       </c>
       <c r="X25">
+        <v>0.74</v>
+      </c>
+      <c r="Y25">
         <v>0.76</v>
       </c>
-      <c r="Y25">
+      <c r="Z25" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="AA25">
         <v>0.73</v>
       </c>
-      <c r="Z25" s="6">
+      <c r="AB25">
+        <v>0.73</v>
+      </c>
+      <c r="AC25" s="3">
+        <v>0.45</v>
+      </c>
+      <c r="AD25" s="6">
         <v>0.7</v>
       </c>
-      <c r="AA25" s="6">
+      <c r="AE25" s="6">
         <v>0.68</v>
       </c>
-      <c r="AB25">
+      <c r="AF25">
         <v>0.76</v>
       </c>
-      <c r="AC25" s="3">
+      <c r="AG25" s="3">
         <v>0.81</v>
       </c>
-      <c r="AD25" s="6">
+      <c r="AH25" s="6">
         <v>0.8</v>
       </c>
-      <c r="AE25" s="6">
+      <c r="AI25" s="6">
         <v>0.85</v>
       </c>
-      <c r="AF25" s="3">
+      <c r="AJ25" s="3">
+        <v>0.68</v>
+      </c>
+      <c r="AK25" s="3">
         <v>0.69</v>
       </c>
-      <c r="AG25" s="3">
+      <c r="AL25" s="3">
         <v>0.85</v>
       </c>
-      <c r="AH25" s="3">
+      <c r="AM25" s="3">
         <v>0.85</v>
       </c>
-      <c r="AI25" s="3">
+      <c r="AN25" s="3">
         <v>0.7</v>
       </c>
-      <c r="AJ25" s="3">
+      <c r="AO25" s="3">
         <v>0.7</v>
       </c>
-      <c r="AK25" s="6">
+      <c r="AP25" s="6">
         <v>0.7</v>
       </c>
-      <c r="AL25" s="6">
+      <c r="AQ25" s="6">
         <v>0.7</v>
       </c>
     </row>
-    <row r="26" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>57</v>
       </c>
@@ -3706,64 +4113,79 @@
       <c r="R26" s="6">
         <v>4</v>
       </c>
-      <c r="S26" s="3">
+      <c r="S26" s="6">
+        <v>10</v>
+      </c>
+      <c r="T26" s="3">
         <v>4</v>
       </c>
-      <c r="T26" s="3">
-        <v>10</v>
-      </c>
       <c r="U26" s="3">
-        <v>1</v>
-      </c>
-      <c r="V26">
+        <v>10</v>
+      </c>
+      <c r="V26" s="3">
+        <v>1</v>
+      </c>
+      <c r="W26">
         <v>5</v>
       </c>
-      <c r="W26">
-        <v>10</v>
-      </c>
       <c r="X26">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="Y26">
         <v>5</v>
       </c>
-      <c r="Z26" s="6">
-        <v>1</v>
-      </c>
-      <c r="AA26" s="6">
-        <v>1</v>
+      <c r="Z26" s="2">
+        <v>10</v>
+      </c>
+      <c r="AA26">
+        <v>5</v>
       </c>
       <c r="AB26">
         <v>5</v>
       </c>
-      <c r="AC26" s="2">
-        <v>30</v>
+      <c r="AC26" s="3">
+        <v>10</v>
       </c>
       <c r="AD26" s="6">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AE26" s="6">
-        <v>15</v>
-      </c>
-      <c r="AF26" s="6">
-        <v>1</v>
-      </c>
-      <c r="AG26" s="6">
-        <v>15</v>
+        <v>1</v>
+      </c>
+      <c r="AF26">
+        <v>5</v>
+      </c>
+      <c r="AG26" s="2">
+        <v>30</v>
       </c>
       <c r="AH26" s="6">
-        <v>15</v>
-      </c>
-      <c r="AI26" s="3">
-        <v>1</v>
-      </c>
-      <c r="AJ26" s="3">
+        <v>10</v>
+      </c>
+      <c r="AI26" s="6">
+        <v>15</v>
+      </c>
+      <c r="AJ26" s="6">
         <v>1</v>
       </c>
       <c r="AK26" s="6">
         <v>1</v>
       </c>
-      <c r="AL26" s="2">
+      <c r="AL26" s="6">
+        <v>15</v>
+      </c>
+      <c r="AM26" s="6">
+        <v>15</v>
+      </c>
+      <c r="AN26" s="3">
+        <v>1</v>
+      </c>
+      <c r="AO26" s="3">
+        <v>1</v>
+      </c>
+      <c r="AP26" s="6">
+        <v>1</v>
+      </c>
+      <c r="AQ26" s="2">
         <v>1</v>
       </c>
     </row>
@@ -3776,4 +4198,6720 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E69B3F4A-D7AE-43B6-8CEC-20724C077B7B}">
+  <dimension ref="A1:Z43"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="D42" sqref="D42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.28515625" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" customWidth="1"/>
+    <col min="4" max="5" width="15.5703125" customWidth="1"/>
+    <col min="6" max="6" width="16.5703125" customWidth="1"/>
+    <col min="10" max="10" width="15.85546875" customWidth="1"/>
+    <col min="11" max="11" width="10.140625" customWidth="1"/>
+    <col min="12" max="12" width="10.42578125" customWidth="1"/>
+    <col min="13" max="13" width="9.85546875" customWidth="1"/>
+    <col min="15" max="15" width="13.85546875" customWidth="1"/>
+    <col min="16" max="16" width="12.28515625" customWidth="1"/>
+    <col min="18" max="18" width="12.42578125" customWidth="1"/>
+    <col min="23" max="23" width="11.140625" customWidth="1"/>
+    <col min="24" max="24" width="11.5703125" customWidth="1"/>
+    <col min="25" max="25" width="15.7109375" customWidth="1"/>
+    <col min="26" max="26" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" ht="51" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="O1" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="P1" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q1" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="R1" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="S1" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="T1" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="U1" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="V1" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="W1" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="X1" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y1" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z1" s="9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>41</v>
+      </c>
+      <c r="R2" t="s">
+        <v>43</v>
+      </c>
+      <c r="S2" t="s">
+        <v>45</v>
+      </c>
+      <c r="T2" t="s">
+        <v>62</v>
+      </c>
+      <c r="U2" t="s">
+        <v>64</v>
+      </c>
+      <c r="V2" t="s">
+        <v>48</v>
+      </c>
+      <c r="W2" t="s">
+        <v>51</v>
+      </c>
+      <c r="X2" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3" t="s">
+        <v>20</v>
+      </c>
+      <c r="N3" t="s">
+        <v>17</v>
+      </c>
+      <c r="O3" t="s">
+        <v>37</v>
+      </c>
+      <c r="P3" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>17</v>
+      </c>
+      <c r="R3" t="s">
+        <v>14</v>
+      </c>
+      <c r="S3" t="s">
+        <v>67</v>
+      </c>
+      <c r="T3" t="s">
+        <v>46</v>
+      </c>
+      <c r="U3" t="s">
+        <v>46</v>
+      </c>
+      <c r="V3" t="s">
+        <v>49</v>
+      </c>
+      <c r="W3" t="s">
+        <v>52</v>
+      </c>
+      <c r="X3" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1.0000000000000001E-9</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1">
+        <v>9.9999999999999998E-13</v>
+      </c>
+      <c r="H4" s="1">
+        <v>9.9999999999999998E-13</v>
+      </c>
+      <c r="I4" s="1">
+        <v>9.9999999999999998E-13</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4" s="1">
+        <v>9.9999999999999998E-13</v>
+      </c>
+      <c r="L4" s="1">
+        <v>9.9999999999999998E-13</v>
+      </c>
+      <c r="M4" s="1">
+        <v>9.9999999999999998E-13</v>
+      </c>
+      <c r="N4" s="1">
+        <v>1.0000000000000001E-9</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>1.0000000000000001E-9</v>
+      </c>
+      <c r="R4">
+        <v>1</v>
+      </c>
+      <c r="S4" s="1">
+        <v>1</v>
+      </c>
+      <c r="T4" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="U4" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="V4">
+        <v>1</v>
+      </c>
+      <c r="W4" s="1">
+        <v>1.0000000000000001E-9</v>
+      </c>
+      <c r="X4" s="1">
+        <v>1.0000000000000001E-9</v>
+      </c>
+      <c r="Y4">
+        <v>1</v>
+      </c>
+      <c r="Z4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0</v>
+      </c>
+      <c r="E5" s="5">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="F5" s="5">
+        <v>4.5</v>
+      </c>
+      <c r="G5" s="5">
+        <v>1</v>
+      </c>
+      <c r="H5" s="5">
+        <v>1</v>
+      </c>
+      <c r="I5" s="5">
+        <v>1</v>
+      </c>
+      <c r="J5" s="5">
+        <v>25</v>
+      </c>
+      <c r="K5" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="L5" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="M5" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="N5" s="5">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="O5" s="5">
+        <v>1</v>
+      </c>
+      <c r="P5" s="5">
+        <v>20</v>
+      </c>
+      <c r="Q5" s="5">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="R5" s="5">
+        <v>20</v>
+      </c>
+      <c r="S5" s="5">
+        <v>20</v>
+      </c>
+      <c r="T5" s="6">
+        <v>1E-3</v>
+      </c>
+      <c r="U5" s="6">
+        <v>1E-3</v>
+      </c>
+      <c r="V5" s="5">
+        <v>1</v>
+      </c>
+      <c r="W5" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="X5" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="Y5" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="Z5" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6">
+        <f>3.4*3.4</f>
+        <v>11.559999999999999</v>
+      </c>
+      <c r="D6">
+        <v>80</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+      <c r="F6">
+        <v>4.5</v>
+      </c>
+      <c r="G6">
+        <v>2100</v>
+      </c>
+      <c r="H6">
+        <v>1200</v>
+      </c>
+      <c r="I6">
+        <v>300</v>
+      </c>
+      <c r="J6">
+        <v>40</v>
+      </c>
+      <c r="K6">
+        <v>1900</v>
+      </c>
+      <c r="L6">
+        <v>280</v>
+      </c>
+      <c r="M6">
+        <v>12</v>
+      </c>
+      <c r="N6">
+        <v>27</v>
+      </c>
+      <c r="O6">
+        <v>20</v>
+      </c>
+      <c r="P6">
+        <v>40</v>
+      </c>
+      <c r="Q6">
+        <v>4</v>
+      </c>
+      <c r="R6">
+        <v>40</v>
+      </c>
+      <c r="S6">
+        <v>52</v>
+      </c>
+      <c r="T6">
+        <v>7.4</v>
+      </c>
+      <c r="U6">
+        <v>5.9</v>
+      </c>
+      <c r="V6">
+        <v>1.3</v>
+      </c>
+      <c r="W6">
+        <v>0.5</v>
+      </c>
+      <c r="X6">
+        <v>0.5</v>
+      </c>
+      <c r="Y6">
+        <v>0.85</v>
+      </c>
+      <c r="Z6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7">
+        <f>3.4*3.4</f>
+        <v>11.559999999999999</v>
+      </c>
+      <c r="D7">
+        <v>80</v>
+      </c>
+      <c r="E7">
+        <v>7.5</v>
+      </c>
+      <c r="F7">
+        <v>10</v>
+      </c>
+      <c r="G7">
+        <v>2750</v>
+      </c>
+      <c r="H7">
+        <v>1700</v>
+      </c>
+      <c r="I7">
+        <v>200</v>
+      </c>
+      <c r="J7">
+        <v>40</v>
+      </c>
+      <c r="K7">
+        <v>2400</v>
+      </c>
+      <c r="L7">
+        <v>250</v>
+      </c>
+      <c r="M7">
+        <v>10</v>
+      </c>
+      <c r="N7">
+        <v>100</v>
+      </c>
+      <c r="O7">
+        <v>18</v>
+      </c>
+      <c r="P7">
+        <v>40</v>
+      </c>
+      <c r="Q7">
+        <v>4</v>
+      </c>
+      <c r="R7">
+        <v>40</v>
+      </c>
+      <c r="S7">
+        <v>54</v>
+      </c>
+      <c r="T7">
+        <v>5.5</v>
+      </c>
+      <c r="U7">
+        <v>5.5</v>
+      </c>
+      <c r="V7">
+        <v>1.35</v>
+      </c>
+      <c r="W7">
+        <v>0.5</v>
+      </c>
+      <c r="X7">
+        <v>0.5</v>
+      </c>
+      <c r="Y7">
+        <v>0.7</v>
+      </c>
+      <c r="Z7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>11.56</v>
+      </c>
+      <c r="D8">
+        <v>60</v>
+      </c>
+      <c r="E8">
+        <v>5</v>
+      </c>
+      <c r="F8">
+        <v>4.5</v>
+      </c>
+      <c r="G8">
+        <v>2300</v>
+      </c>
+      <c r="H8">
+        <v>1500</v>
+      </c>
+      <c r="I8">
+        <v>400</v>
+      </c>
+      <c r="J8">
+        <v>40</v>
+      </c>
+      <c r="K8">
+        <v>1900</v>
+      </c>
+      <c r="L8">
+        <v>330</v>
+      </c>
+      <c r="M8">
+        <v>16</v>
+      </c>
+      <c r="N8">
+        <v>17</v>
+      </c>
+      <c r="O8">
+        <v>20</v>
+      </c>
+      <c r="P8">
+        <v>30</v>
+      </c>
+      <c r="Q8">
+        <v>4.8</v>
+      </c>
+      <c r="R8">
+        <v>30</v>
+      </c>
+      <c r="S8">
+        <v>66</v>
+      </c>
+      <c r="T8">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="U8">
+        <v>3.9</v>
+      </c>
+      <c r="V8">
+        <v>1.8</v>
+      </c>
+      <c r="W8">
+        <v>0.5</v>
+      </c>
+      <c r="X8">
+        <v>0.5</v>
+      </c>
+      <c r="Y8">
+        <v>0.83</v>
+      </c>
+      <c r="Z8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>11.56</v>
+      </c>
+      <c r="D9">
+        <v>60</v>
+      </c>
+      <c r="E9">
+        <v>7</v>
+      </c>
+      <c r="F9">
+        <v>4.5</v>
+      </c>
+      <c r="G9">
+        <v>3000</v>
+      </c>
+      <c r="H9">
+        <v>2000</v>
+      </c>
+      <c r="I9">
+        <v>300</v>
+      </c>
+      <c r="J9">
+        <v>24</v>
+      </c>
+      <c r="K9">
+        <v>2500</v>
+      </c>
+      <c r="L9">
+        <v>700</v>
+      </c>
+      <c r="M9">
+        <v>35</v>
+      </c>
+      <c r="N9">
+        <v>25</v>
+      </c>
+      <c r="O9">
+        <v>10</v>
+      </c>
+      <c r="P9">
+        <v>30</v>
+      </c>
+      <c r="Q9">
+        <v>4.7</v>
+      </c>
+      <c r="R9">
+        <v>30</v>
+      </c>
+      <c r="S9">
+        <v>57</v>
+      </c>
+      <c r="T9">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="U9">
+        <v>2.9</v>
+      </c>
+      <c r="V9">
+        <v>0.85</v>
+      </c>
+      <c r="W9">
+        <v>0.5</v>
+      </c>
+      <c r="X9">
+        <v>0.5</v>
+      </c>
+      <c r="Y9">
+        <v>0.74</v>
+      </c>
+      <c r="Z9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>90</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10">
+        <v>11.56</v>
+      </c>
+      <c r="D10">
+        <v>60</v>
+      </c>
+      <c r="E10">
+        <v>6.2</v>
+      </c>
+      <c r="F10">
+        <v>4.5</v>
+      </c>
+      <c r="G10">
+        <v>2200</v>
+      </c>
+      <c r="H10">
+        <v>1600</v>
+      </c>
+      <c r="I10">
+        <v>300</v>
+      </c>
+      <c r="J10">
+        <v>24</v>
+      </c>
+      <c r="K10">
+        <v>2000</v>
+      </c>
+      <c r="L10">
+        <v>560</v>
+      </c>
+      <c r="M10">
+        <v>32</v>
+      </c>
+      <c r="N10">
+        <v>20</v>
+      </c>
+      <c r="O10">
+        <v>10</v>
+      </c>
+      <c r="P10">
+        <v>30</v>
+      </c>
+      <c r="Q10">
+        <v>4.5</v>
+      </c>
+      <c r="R10">
+        <v>30</v>
+      </c>
+      <c r="S10">
+        <v>54</v>
+      </c>
+      <c r="T10">
+        <v>4.8</v>
+      </c>
+      <c r="U10">
+        <v>3.4</v>
+      </c>
+      <c r="V10">
+        <v>0.85</v>
+      </c>
+      <c r="W10">
+        <v>0.5</v>
+      </c>
+      <c r="X10">
+        <v>0.5</v>
+      </c>
+      <c r="Y10">
+        <v>0.75</v>
+      </c>
+      <c r="Z10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>86</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11">
+        <v>11.56</v>
+      </c>
+      <c r="D11">
+        <v>40</v>
+      </c>
+      <c r="E11">
+        <v>0.9</v>
+      </c>
+      <c r="F11">
+        <v>4.5</v>
+      </c>
+      <c r="G11">
+        <v>760</v>
+      </c>
+      <c r="H11">
+        <v>900</v>
+      </c>
+      <c r="I11">
+        <v>100</v>
+      </c>
+      <c r="J11">
+        <v>25</v>
+      </c>
+      <c r="K11">
+        <v>650</v>
+      </c>
+      <c r="L11">
+        <v>95</v>
+      </c>
+      <c r="M11">
+        <v>11</v>
+      </c>
+      <c r="N11">
+        <v>21</v>
+      </c>
+      <c r="O11">
+        <v>20</v>
+      </c>
+      <c r="P11">
+        <v>20</v>
+      </c>
+      <c r="Q11">
+        <v>0.65</v>
+      </c>
+      <c r="R11">
+        <v>20</v>
+      </c>
+      <c r="S11">
+        <v>64</v>
+      </c>
+      <c r="T11">
+        <v>7</v>
+      </c>
+      <c r="U11">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="V11">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="W11">
+        <v>1</v>
+      </c>
+      <c r="X11">
+        <v>1</v>
+      </c>
+      <c r="Y11">
+        <v>0.85</v>
+      </c>
+      <c r="Z11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>69</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12">
+        <v>11.56</v>
+      </c>
+      <c r="D12">
+        <v>40</v>
+      </c>
+      <c r="E12">
+        <v>4.7</v>
+      </c>
+      <c r="F12">
+        <v>10</v>
+      </c>
+      <c r="G12">
+        <v>2000</v>
+      </c>
+      <c r="H12">
+        <v>2500</v>
+      </c>
+      <c r="I12">
+        <v>360</v>
+      </c>
+      <c r="J12">
+        <v>25</v>
+      </c>
+      <c r="K12">
+        <v>1800</v>
+      </c>
+      <c r="L12">
+        <v>500</v>
+      </c>
+      <c r="M12">
+        <v>17</v>
+      </c>
+      <c r="N12">
+        <v>44</v>
+      </c>
+      <c r="O12">
+        <v>20</v>
+      </c>
+      <c r="P12">
+        <v>20</v>
+      </c>
+      <c r="Q12">
+        <v>3.2</v>
+      </c>
+      <c r="R12">
+        <v>20</v>
+      </c>
+      <c r="S12">
+        <v>100</v>
+      </c>
+      <c r="T12">
+        <v>2.8</v>
+      </c>
+      <c r="U12">
+        <v>2.1</v>
+      </c>
+      <c r="V12">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="W12">
+        <v>0.5</v>
+      </c>
+      <c r="X12">
+        <v>0.5</v>
+      </c>
+      <c r="Y12">
+        <v>0.79</v>
+      </c>
+      <c r="Z12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>91</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13">
+        <v>11.56</v>
+      </c>
+      <c r="D13">
+        <v>40</v>
+      </c>
+      <c r="E13">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="F13">
+        <v>4.5</v>
+      </c>
+      <c r="G13">
+        <v>4100</v>
+      </c>
+      <c r="H13">
+        <v>2000</v>
+      </c>
+      <c r="I13">
+        <v>350</v>
+      </c>
+      <c r="J13">
+        <v>24</v>
+      </c>
+      <c r="K13">
+        <v>3700</v>
+      </c>
+      <c r="L13">
+        <v>600</v>
+      </c>
+      <c r="M13">
+        <v>90</v>
+      </c>
+      <c r="N13">
+        <v>23</v>
+      </c>
+      <c r="O13">
+        <v>10</v>
+      </c>
+      <c r="P13">
+        <v>20</v>
+      </c>
+      <c r="Q13">
+        <v>4</v>
+      </c>
+      <c r="R13">
+        <v>20</v>
+      </c>
+      <c r="S13">
+        <v>98</v>
+      </c>
+      <c r="T13">
+        <v>2.4</v>
+      </c>
+      <c r="U13">
+        <v>1.8</v>
+      </c>
+      <c r="V13">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="W13">
+        <v>0.5</v>
+      </c>
+      <c r="X13">
+        <v>0.5</v>
+      </c>
+      <c r="Y13">
+        <v>0.73</v>
+      </c>
+      <c r="Z13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>70</v>
+      </c>
+      <c r="B14" t="s">
+        <v>71</v>
+      </c>
+      <c r="C14">
+        <v>45</v>
+      </c>
+      <c r="D14">
+        <v>40</v>
+      </c>
+      <c r="E14">
+        <v>6.3</v>
+      </c>
+      <c r="F14">
+        <v>4.5</v>
+      </c>
+      <c r="G14" s="2">
+        <v>2100</v>
+      </c>
+      <c r="H14" s="2">
+        <v>1400</v>
+      </c>
+      <c r="I14" s="2">
+        <v>150</v>
+      </c>
+      <c r="J14" s="2">
+        <v>24</v>
+      </c>
+      <c r="K14" s="2">
+        <v>2000</v>
+      </c>
+      <c r="L14" s="2">
+        <v>350</v>
+      </c>
+      <c r="M14" s="2">
+        <v>14</v>
+      </c>
+      <c r="N14" s="2">
+        <v>13</v>
+      </c>
+      <c r="O14" s="2">
+        <v>10</v>
+      </c>
+      <c r="P14" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>2.1</v>
+      </c>
+      <c r="R14" s="2">
+        <v>20</v>
+      </c>
+      <c r="S14" s="2">
+        <v>50</v>
+      </c>
+      <c r="T14" s="3">
+        <v>5</v>
+      </c>
+      <c r="U14" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="V14" s="3">
+        <v>1.45</v>
+      </c>
+      <c r="W14" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="X14" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="Y14" s="3">
+        <v>0.74</v>
+      </c>
+      <c r="Z14" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>78</v>
+      </c>
+      <c r="B15" t="s">
+        <v>71</v>
+      </c>
+      <c r="C15">
+        <v>45</v>
+      </c>
+      <c r="D15">
+        <v>40</v>
+      </c>
+      <c r="E15">
+        <v>7.6</v>
+      </c>
+      <c r="F15">
+        <v>10</v>
+      </c>
+      <c r="G15" s="2">
+        <v>2400</v>
+      </c>
+      <c r="H15" s="2">
+        <v>1800</v>
+      </c>
+      <c r="I15" s="2">
+        <v>300</v>
+      </c>
+      <c r="J15" s="2">
+        <v>30</v>
+      </c>
+      <c r="K15" s="2">
+        <v>2200</v>
+      </c>
+      <c r="L15" s="2">
+        <v>380</v>
+      </c>
+      <c r="M15" s="2">
+        <v>15</v>
+      </c>
+      <c r="N15" s="2">
+        <v>23</v>
+      </c>
+      <c r="O15" s="2">
+        <v>42</v>
+      </c>
+      <c r="P15" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>3.2</v>
+      </c>
+      <c r="R15" s="2">
+        <v>20</v>
+      </c>
+      <c r="S15" s="2">
+        <v>96</v>
+      </c>
+      <c r="T15" s="6">
+        <v>6.8</v>
+      </c>
+      <c r="U15" s="6">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="V15" s="6">
+        <v>1.4</v>
+      </c>
+      <c r="W15" s="6">
+        <v>1</v>
+      </c>
+      <c r="X15" s="6">
+        <v>1</v>
+      </c>
+      <c r="Y15" s="3">
+        <v>0.88</v>
+      </c>
+      <c r="Z15" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>79</v>
+      </c>
+      <c r="B16" t="s">
+        <v>71</v>
+      </c>
+      <c r="C16">
+        <v>45</v>
+      </c>
+      <c r="D16">
+        <v>40</v>
+      </c>
+      <c r="E16">
+        <v>2.1</v>
+      </c>
+      <c r="F16">
+        <v>10</v>
+      </c>
+      <c r="G16" s="2">
+        <v>750</v>
+      </c>
+      <c r="H16" s="2">
+        <v>900</v>
+      </c>
+      <c r="I16" s="2">
+        <v>100</v>
+      </c>
+      <c r="J16" s="2">
+        <v>25</v>
+      </c>
+      <c r="K16" s="2">
+        <v>650</v>
+      </c>
+      <c r="L16" s="2">
+        <v>190</v>
+      </c>
+      <c r="M16" s="2">
+        <v>12</v>
+      </c>
+      <c r="N16" s="2">
+        <v>22</v>
+      </c>
+      <c r="O16" s="2">
+        <v>10</v>
+      </c>
+      <c r="P16" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q16" s="6">
+        <v>1.4</v>
+      </c>
+      <c r="R16" s="2">
+        <v>20</v>
+      </c>
+      <c r="S16" s="2">
+        <v>100</v>
+      </c>
+      <c r="T16" s="6">
+        <v>6.8</v>
+      </c>
+      <c r="U16" s="6">
+        <v>4.7</v>
+      </c>
+      <c r="V16" s="6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="W16" s="6">
+        <v>1</v>
+      </c>
+      <c r="X16" s="6">
+        <v>1</v>
+      </c>
+      <c r="Y16" s="3">
+        <v>0.92</v>
+      </c>
+      <c r="Z16" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>80</v>
+      </c>
+      <c r="B17" t="s">
+        <v>71</v>
+      </c>
+      <c r="C17">
+        <v>45</v>
+      </c>
+      <c r="D17">
+        <v>40</v>
+      </c>
+      <c r="E17">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="F17">
+        <v>10</v>
+      </c>
+      <c r="G17" s="2">
+        <v>2900</v>
+      </c>
+      <c r="H17" s="2">
+        <v>2500</v>
+      </c>
+      <c r="I17" s="2">
+        <v>250</v>
+      </c>
+      <c r="J17" s="2">
+        <v>30</v>
+      </c>
+      <c r="K17" s="2">
+        <v>2800</v>
+      </c>
+      <c r="L17" s="2">
+        <v>400</v>
+      </c>
+      <c r="M17" s="2">
+        <v>30</v>
+      </c>
+      <c r="N17" s="2">
+        <v>41</v>
+      </c>
+      <c r="O17" s="2">
+        <v>20</v>
+      </c>
+      <c r="P17" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q17" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="R17" s="2">
+        <v>20</v>
+      </c>
+      <c r="S17" s="2">
+        <v>203</v>
+      </c>
+      <c r="T17" s="6">
+        <v>3.5</v>
+      </c>
+      <c r="U17" s="6">
+        <v>2.6</v>
+      </c>
+      <c r="V17" s="3">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="W17" s="6">
+        <v>1</v>
+      </c>
+      <c r="X17" s="6">
+        <v>1</v>
+      </c>
+      <c r="Y17" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="Z17" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>72</v>
+      </c>
+      <c r="B18" t="s">
+        <v>71</v>
+      </c>
+      <c r="C18">
+        <v>45</v>
+      </c>
+      <c r="D18">
+        <v>40</v>
+      </c>
+      <c r="E18">
+        <v>3.1</v>
+      </c>
+      <c r="F18">
+        <v>4.5</v>
+      </c>
+      <c r="G18" s="2">
+        <v>1500</v>
+      </c>
+      <c r="H18" s="2">
+        <v>900</v>
+      </c>
+      <c r="I18" s="2">
+        <v>300</v>
+      </c>
+      <c r="J18" s="2">
+        <v>24</v>
+      </c>
+      <c r="K18" s="2">
+        <v>1150</v>
+      </c>
+      <c r="L18" s="2">
+        <v>150</v>
+      </c>
+      <c r="M18" s="2">
+        <v>60</v>
+      </c>
+      <c r="N18" s="2">
+        <v>19</v>
+      </c>
+      <c r="O18" s="2">
+        <v>10</v>
+      </c>
+      <c r="P18" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q18" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="R18" s="2">
+        <v>20</v>
+      </c>
+      <c r="S18" s="2">
+        <v>43</v>
+      </c>
+      <c r="T18" s="6">
+        <v>10.4</v>
+      </c>
+      <c r="U18" s="6">
+        <v>8.5</v>
+      </c>
+      <c r="V18" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="W18" s="6">
+        <v>1</v>
+      </c>
+      <c r="X18" s="6">
+        <v>1</v>
+      </c>
+      <c r="Y18" s="3">
+        <v>0.77</v>
+      </c>
+      <c r="Z18" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>108</v>
+      </c>
+      <c r="B19" t="s">
+        <v>71</v>
+      </c>
+      <c r="C19">
+        <v>45</v>
+      </c>
+      <c r="D19">
+        <v>40</v>
+      </c>
+      <c r="E19">
+        <v>4.5</v>
+      </c>
+      <c r="F19">
+        <v>4.5</v>
+      </c>
+      <c r="G19" s="2">
+        <v>1600</v>
+      </c>
+      <c r="H19" s="2">
+        <v>1500</v>
+      </c>
+      <c r="I19" s="2">
+        <v>200</v>
+      </c>
+      <c r="J19" s="2">
+        <v>15</v>
+      </c>
+      <c r="K19" s="2">
+        <v>1500</v>
+      </c>
+      <c r="L19" s="2">
+        <v>520</v>
+      </c>
+      <c r="M19" s="2">
+        <v>38</v>
+      </c>
+      <c r="N19" s="2">
+        <v>13</v>
+      </c>
+      <c r="O19" s="2">
+        <v>10</v>
+      </c>
+      <c r="P19" s="2">
+        <v>15</v>
+      </c>
+      <c r="Q19" s="2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="R19" s="2">
+        <v>15</v>
+      </c>
+      <c r="S19" s="2">
+        <v>80</v>
+      </c>
+      <c r="T19" s="6">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="U19" s="6">
+        <v>2.8</v>
+      </c>
+      <c r="V19" s="3">
+        <v>1.4</v>
+      </c>
+      <c r="W19" s="6">
+        <v>1</v>
+      </c>
+      <c r="X19" s="6">
+        <v>1</v>
+      </c>
+      <c r="Y19" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="Z19" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>73</v>
+      </c>
+      <c r="B20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20">
+        <v>11.56</v>
+      </c>
+      <c r="D20">
+        <v>40</v>
+      </c>
+      <c r="E20">
+        <v>3.2</v>
+      </c>
+      <c r="F20">
+        <v>4.5</v>
+      </c>
+      <c r="G20" s="2">
+        <v>2500</v>
+      </c>
+      <c r="H20" s="2">
+        <v>1500</v>
+      </c>
+      <c r="I20" s="2">
+        <v>200</v>
+      </c>
+      <c r="J20" s="2">
+        <v>24</v>
+      </c>
+      <c r="K20" s="2">
+        <v>1375</v>
+      </c>
+      <c r="L20" s="2">
+        <v>1130</v>
+      </c>
+      <c r="M20" s="2">
+        <v>50</v>
+      </c>
+      <c r="N20" s="2">
+        <v>17</v>
+      </c>
+      <c r="O20" s="2">
+        <v>10</v>
+      </c>
+      <c r="P20" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q20" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="R20" s="2">
+        <v>20</v>
+      </c>
+      <c r="S20" s="2">
+        <v>65</v>
+      </c>
+      <c r="T20" s="3">
+        <v>6.2</v>
+      </c>
+      <c r="U20" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="V20" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="W20" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="X20" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="Y20" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="Z20" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>74</v>
+      </c>
+      <c r="B21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21">
+        <v>11.56</v>
+      </c>
+      <c r="D21">
+        <v>40</v>
+      </c>
+      <c r="E21">
+        <v>2.9</v>
+      </c>
+      <c r="F21">
+        <v>4.5</v>
+      </c>
+      <c r="G21">
+        <v>950</v>
+      </c>
+      <c r="H21">
+        <v>500</v>
+      </c>
+      <c r="I21">
+        <v>70</v>
+      </c>
+      <c r="J21">
+        <v>25</v>
+      </c>
+      <c r="K21" s="2">
+        <v>875</v>
+      </c>
+      <c r="L21" s="2">
+        <v>150</v>
+      </c>
+      <c r="M21" s="2">
+        <v>16</v>
+      </c>
+      <c r="N21" s="2">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="O21" s="2">
+        <v>10</v>
+      </c>
+      <c r="P21" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q21" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="R21">
+        <v>20</v>
+      </c>
+      <c r="S21" s="2">
+        <v>45</v>
+      </c>
+      <c r="T21">
+        <v>9.6</v>
+      </c>
+      <c r="U21">
+        <v>6.7</v>
+      </c>
+      <c r="V21" s="4">
+        <v>3.2</v>
+      </c>
+      <c r="W21" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="X21" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="Y21" s="3">
+        <v>0.82</v>
+      </c>
+      <c r="Z21" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>85</v>
+      </c>
+      <c r="B22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22">
+        <v>11.56</v>
+      </c>
+      <c r="D22">
+        <v>40</v>
+      </c>
+      <c r="E22" s="7">
+        <v>2.75</v>
+      </c>
+      <c r="F22" s="7">
+        <v>4.5</v>
+      </c>
+      <c r="G22" s="2">
+        <v>1550</v>
+      </c>
+      <c r="H22" s="2">
+        <v>1000</v>
+      </c>
+      <c r="I22" s="2">
+        <v>100</v>
+      </c>
+      <c r="J22" s="2">
+        <v>30</v>
+      </c>
+      <c r="K22" s="2">
+        <v>1450</v>
+      </c>
+      <c r="L22" s="2">
+        <v>200</v>
+      </c>
+      <c r="M22" s="2">
+        <v>13</v>
+      </c>
+      <c r="N22" s="2">
+        <v>21</v>
+      </c>
+      <c r="O22" s="2">
+        <v>20</v>
+      </c>
+      <c r="P22" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q22" s="6">
+        <v>3</v>
+      </c>
+      <c r="R22" s="2">
+        <v>20</v>
+      </c>
+      <c r="S22" s="2">
+        <v>70</v>
+      </c>
+      <c r="T22" s="6">
+        <v>7.4</v>
+      </c>
+      <c r="U22" s="6">
+        <v>5</v>
+      </c>
+      <c r="V22" s="6">
+        <v>1.8</v>
+      </c>
+      <c r="W22" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="X22" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="Y22" s="6">
+        <v>0.7</v>
+      </c>
+      <c r="Z22" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>82</v>
+      </c>
+      <c r="B23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23">
+        <v>11.56</v>
+      </c>
+      <c r="D23">
+        <v>40</v>
+      </c>
+      <c r="E23">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="F23">
+        <v>4.5</v>
+      </c>
+      <c r="G23">
+        <v>3600</v>
+      </c>
+      <c r="H23">
+        <v>1600</v>
+      </c>
+      <c r="I23">
+        <v>350</v>
+      </c>
+      <c r="J23">
+        <v>24</v>
+      </c>
+      <c r="K23">
+        <v>3250</v>
+      </c>
+      <c r="L23">
+        <v>400</v>
+      </c>
+      <c r="M23">
+        <v>50</v>
+      </c>
+      <c r="N23">
+        <v>23</v>
+      </c>
+      <c r="O23">
+        <v>10</v>
+      </c>
+      <c r="P23">
+        <v>20</v>
+      </c>
+      <c r="Q23">
+        <v>4.2</v>
+      </c>
+      <c r="R23">
+        <v>20</v>
+      </c>
+      <c r="S23">
+        <v>70</v>
+      </c>
+      <c r="T23">
+        <v>3.85</v>
+      </c>
+      <c r="U23">
+        <v>2.85</v>
+      </c>
+      <c r="V23">
+        <v>1.4</v>
+      </c>
+      <c r="W23">
+        <v>0.5</v>
+      </c>
+      <c r="X23">
+        <v>0.5</v>
+      </c>
+      <c r="Y23">
+        <v>0.74</v>
+      </c>
+      <c r="Z23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>83</v>
+      </c>
+      <c r="B24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24">
+        <v>11.56</v>
+      </c>
+      <c r="D24">
+        <v>40</v>
+      </c>
+      <c r="E24">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="F24">
+        <v>4.5</v>
+      </c>
+      <c r="G24">
+        <v>2700</v>
+      </c>
+      <c r="H24">
+        <v>1400</v>
+      </c>
+      <c r="I24">
+        <v>70</v>
+      </c>
+      <c r="J24">
+        <v>30</v>
+      </c>
+      <c r="K24">
+        <v>2450</v>
+      </c>
+      <c r="L24">
+        <v>350</v>
+      </c>
+      <c r="M24">
+        <v>20</v>
+      </c>
+      <c r="N24">
+        <v>10</v>
+      </c>
+      <c r="O24">
+        <v>20.8</v>
+      </c>
+      <c r="P24">
+        <v>20</v>
+      </c>
+      <c r="Q24">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="R24">
+        <v>20</v>
+      </c>
+      <c r="S24">
+        <v>76</v>
+      </c>
+      <c r="T24">
+        <v>3.88</v>
+      </c>
+      <c r="U24">
+        <v>2.71</v>
+      </c>
+      <c r="V24">
+        <v>1.3</v>
+      </c>
+      <c r="W24">
+        <v>0.8</v>
+      </c>
+      <c r="X24">
+        <v>0.8</v>
+      </c>
+      <c r="Y24">
+        <v>0.74</v>
+      </c>
+      <c r="Z24">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>66</v>
+      </c>
+      <c r="B25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25">
+        <v>11.56</v>
+      </c>
+      <c r="D25">
+        <v>30</v>
+      </c>
+      <c r="E25">
+        <v>3.7</v>
+      </c>
+      <c r="F25">
+        <v>4.5</v>
+      </c>
+      <c r="G25" s="2">
+        <v>1200</v>
+      </c>
+      <c r="H25" s="2">
+        <v>1200</v>
+      </c>
+      <c r="I25" s="2">
+        <v>150</v>
+      </c>
+      <c r="J25" s="2">
+        <v>12</v>
+      </c>
+      <c r="K25" s="2">
+        <v>1175</v>
+      </c>
+      <c r="L25" s="2">
+        <v>450</v>
+      </c>
+      <c r="M25" s="2">
+        <v>30</v>
+      </c>
+      <c r="N25" s="2">
+        <v>10</v>
+      </c>
+      <c r="O25" s="2">
+        <v>10</v>
+      </c>
+      <c r="P25">
+        <v>15</v>
+      </c>
+      <c r="Q25">
+        <v>1.4</v>
+      </c>
+      <c r="R25">
+        <v>15</v>
+      </c>
+      <c r="S25">
+        <v>53</v>
+      </c>
+      <c r="T25">
+        <v>3.8</v>
+      </c>
+      <c r="U25">
+        <v>2.7</v>
+      </c>
+      <c r="V25">
+        <v>0.9</v>
+      </c>
+      <c r="W25" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="X25" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="Y25">
+        <v>0.76</v>
+      </c>
+      <c r="Z25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>106</v>
+      </c>
+      <c r="B26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26">
+        <v>11.56</v>
+      </c>
+      <c r="D26">
+        <v>30</v>
+      </c>
+      <c r="E26">
+        <v>4.2</v>
+      </c>
+      <c r="F26">
+        <v>4.5</v>
+      </c>
+      <c r="G26" s="2">
+        <v>1700</v>
+      </c>
+      <c r="H26" s="2">
+        <v>1600</v>
+      </c>
+      <c r="I26" s="2">
+        <v>250</v>
+      </c>
+      <c r="J26" s="2">
+        <v>15</v>
+      </c>
+      <c r="K26" s="2">
+        <v>1550</v>
+      </c>
+      <c r="L26" s="2">
+        <v>550</v>
+      </c>
+      <c r="M26" s="2">
+        <v>60</v>
+      </c>
+      <c r="N26" s="2">
+        <v>37</v>
+      </c>
+      <c r="O26" s="2">
+        <v>10</v>
+      </c>
+      <c r="P26" s="2">
+        <v>15</v>
+      </c>
+      <c r="Q26" s="2">
+        <v>2.6</v>
+      </c>
+      <c r="R26" s="2">
+        <v>15</v>
+      </c>
+      <c r="S26" s="2">
+        <v>67</v>
+      </c>
+      <c r="T26" s="3">
+        <v>4.8</v>
+      </c>
+      <c r="U26" s="3">
+        <v>2.7</v>
+      </c>
+      <c r="V26" s="2">
+        <v>1.4</v>
+      </c>
+      <c r="W26" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="X26" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="Y26" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="Z26" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>65</v>
+      </c>
+      <c r="B27" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27">
+        <v>11.56</v>
+      </c>
+      <c r="D27">
+        <v>30</v>
+      </c>
+      <c r="E27">
+        <v>9.6</v>
+      </c>
+      <c r="F27">
+        <v>4.5</v>
+      </c>
+      <c r="G27" s="2">
+        <v>3000</v>
+      </c>
+      <c r="H27" s="2">
+        <v>3000</v>
+      </c>
+      <c r="I27" s="2">
+        <v>500</v>
+      </c>
+      <c r="J27" s="2">
+        <v>12</v>
+      </c>
+      <c r="K27" s="2">
+        <v>2975</v>
+      </c>
+      <c r="L27" s="2">
+        <v>1200</v>
+      </c>
+      <c r="M27" s="2">
+        <v>200</v>
+      </c>
+      <c r="N27" s="2">
+        <v>25</v>
+      </c>
+      <c r="O27" s="2">
+        <v>10</v>
+      </c>
+      <c r="P27">
+        <v>15</v>
+      </c>
+      <c r="Q27">
+        <v>3.9</v>
+      </c>
+      <c r="R27">
+        <v>15</v>
+      </c>
+      <c r="S27">
+        <v>95</v>
+      </c>
+      <c r="T27">
+        <v>1.5</v>
+      </c>
+      <c r="U27">
+        <v>0.95</v>
+      </c>
+      <c r="V27">
+        <v>0.42</v>
+      </c>
+      <c r="W27" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="X27" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="Y27">
+        <v>0.73</v>
+      </c>
+      <c r="Z27">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>104</v>
+      </c>
+      <c r="B28" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28">
+        <v>11.56</v>
+      </c>
+      <c r="D28">
+        <v>30</v>
+      </c>
+      <c r="E28">
+        <v>11.3</v>
+      </c>
+      <c r="F28">
+        <v>4.5</v>
+      </c>
+      <c r="G28" s="2">
+        <v>4000</v>
+      </c>
+      <c r="H28" s="2">
+        <v>3000</v>
+      </c>
+      <c r="I28" s="2">
+        <v>500</v>
+      </c>
+      <c r="J28" s="2">
+        <v>12</v>
+      </c>
+      <c r="K28" s="2">
+        <v>3500</v>
+      </c>
+      <c r="L28" s="2">
+        <v>1400</v>
+      </c>
+      <c r="M28" s="2">
+        <v>100</v>
+      </c>
+      <c r="N28" s="2">
+        <v>34</v>
+      </c>
+      <c r="O28" s="2">
+        <v>10</v>
+      </c>
+      <c r="P28">
+        <v>15</v>
+      </c>
+      <c r="Q28">
+        <v>3</v>
+      </c>
+      <c r="R28">
+        <v>15</v>
+      </c>
+      <c r="S28">
+        <v>117</v>
+      </c>
+      <c r="T28">
+        <v>1.25</v>
+      </c>
+      <c r="U28">
+        <v>0.88</v>
+      </c>
+      <c r="V28">
+        <v>0.75</v>
+      </c>
+      <c r="W28" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="X28" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="Y28">
+        <v>0.73</v>
+      </c>
+      <c r="Z28">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>107</v>
+      </c>
+      <c r="B29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29">
+        <v>11.56</v>
+      </c>
+      <c r="D29">
+        <v>30</v>
+      </c>
+      <c r="E29">
+        <v>11.2</v>
+      </c>
+      <c r="F29">
+        <v>4.5</v>
+      </c>
+      <c r="G29" s="2">
+        <v>4000</v>
+      </c>
+      <c r="H29" s="2">
+        <v>4000</v>
+      </c>
+      <c r="I29" s="2">
+        <v>550</v>
+      </c>
+      <c r="J29" s="2">
+        <v>15</v>
+      </c>
+      <c r="K29" s="2">
+        <v>3700</v>
+      </c>
+      <c r="L29" s="2">
+        <v>1800</v>
+      </c>
+      <c r="M29" s="2">
+        <v>160</v>
+      </c>
+      <c r="N29" s="2">
+        <v>45</v>
+      </c>
+      <c r="O29" s="2">
+        <v>10</v>
+      </c>
+      <c r="P29" s="2">
+        <v>15</v>
+      </c>
+      <c r="Q29" s="2">
+        <v>5.8</v>
+      </c>
+      <c r="R29" s="2">
+        <v>15</v>
+      </c>
+      <c r="S29" s="2">
+        <v>84</v>
+      </c>
+      <c r="T29" s="3">
+        <v>1.75</v>
+      </c>
+      <c r="U29" s="3">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="V29" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="W29" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="X29" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="Y29" s="3">
+        <v>0.45</v>
+      </c>
+      <c r="Z29" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>77</v>
+      </c>
+      <c r="B30" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30">
+        <v>11.56</v>
+      </c>
+      <c r="D30">
+        <v>30</v>
+      </c>
+      <c r="E30">
+        <v>3.6</v>
+      </c>
+      <c r="F30">
+        <v>10</v>
+      </c>
+      <c r="G30" s="2">
+        <v>1450</v>
+      </c>
+      <c r="H30" s="2">
+        <v>1100</v>
+      </c>
+      <c r="I30" s="2">
+        <v>200</v>
+      </c>
+      <c r="J30" s="2">
+        <v>25</v>
+      </c>
+      <c r="K30" s="2">
+        <v>1300</v>
+      </c>
+      <c r="L30" s="2">
+        <v>250</v>
+      </c>
+      <c r="M30" s="2">
+        <v>30</v>
+      </c>
+      <c r="N30" s="2">
+        <v>18</v>
+      </c>
+      <c r="O30" s="2">
+        <v>20</v>
+      </c>
+      <c r="P30" s="2">
+        <v>15</v>
+      </c>
+      <c r="Q30" s="6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="R30" s="2">
+        <v>15</v>
+      </c>
+      <c r="S30" s="2">
+        <v>77</v>
+      </c>
+      <c r="T30" s="6">
+        <v>6</v>
+      </c>
+      <c r="U30" s="6">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="V30" s="6">
+        <v>1.7</v>
+      </c>
+      <c r="W30" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="X30" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="Y30" s="6">
+        <v>0.7</v>
+      </c>
+      <c r="Z30" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>84</v>
+      </c>
+      <c r="B31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31">
+        <v>11.56</v>
+      </c>
+      <c r="D31">
+        <v>30</v>
+      </c>
+      <c r="E31">
+        <v>8.5</v>
+      </c>
+      <c r="F31">
+        <v>10</v>
+      </c>
+      <c r="G31" s="2">
+        <v>3200</v>
+      </c>
+      <c r="H31" s="2">
+        <v>2500</v>
+      </c>
+      <c r="I31" s="2">
+        <v>500</v>
+      </c>
+      <c r="J31" s="2">
+        <v>25</v>
+      </c>
+      <c r="K31" s="2">
+        <v>2800</v>
+      </c>
+      <c r="L31" s="2">
+        <v>600</v>
+      </c>
+      <c r="M31" s="2">
+        <v>50</v>
+      </c>
+      <c r="N31" s="2">
+        <v>36.5</v>
+      </c>
+      <c r="O31" s="2">
+        <v>20</v>
+      </c>
+      <c r="P31" s="2">
+        <v>15</v>
+      </c>
+      <c r="Q31" s="6">
+        <v>4</v>
+      </c>
+      <c r="R31" s="2">
+        <v>15</v>
+      </c>
+      <c r="S31" s="2">
+        <v>125</v>
+      </c>
+      <c r="T31" s="6">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="U31" s="6">
+        <v>1.55</v>
+      </c>
+      <c r="V31" s="6">
+        <v>0.7</v>
+      </c>
+      <c r="W31" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="X31" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="Y31" s="6">
+        <v>0.68</v>
+      </c>
+      <c r="Z31" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>81</v>
+      </c>
+      <c r="B32" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32">
+        <v>11.56</v>
+      </c>
+      <c r="D32">
+        <v>30</v>
+      </c>
+      <c r="E32">
+        <v>4</v>
+      </c>
+      <c r="F32">
+        <v>4.5</v>
+      </c>
+      <c r="G32">
+        <v>1600</v>
+      </c>
+      <c r="H32">
+        <v>1280</v>
+      </c>
+      <c r="I32">
+        <v>200</v>
+      </c>
+      <c r="J32" s="2">
+        <v>25</v>
+      </c>
+      <c r="K32">
+        <v>1400</v>
+      </c>
+      <c r="L32">
+        <v>250</v>
+      </c>
+      <c r="M32">
+        <v>36</v>
+      </c>
+      <c r="N32" s="2">
+        <v>14</v>
+      </c>
+      <c r="O32" s="2">
+        <v>10</v>
+      </c>
+      <c r="P32" s="2">
+        <v>15</v>
+      </c>
+      <c r="Q32" s="2">
+        <v>1.8</v>
+      </c>
+      <c r="R32" s="2">
+        <v>15</v>
+      </c>
+      <c r="S32" s="2">
+        <v>65</v>
+      </c>
+      <c r="T32">
+        <v>6.8</v>
+      </c>
+      <c r="U32">
+        <v>4.25</v>
+      </c>
+      <c r="V32">
+        <v>1.65</v>
+      </c>
+      <c r="W32">
+        <v>0.8</v>
+      </c>
+      <c r="X32">
+        <v>0.8</v>
+      </c>
+      <c r="Y32">
+        <v>0.76</v>
+      </c>
+      <c r="Z32">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>87</v>
+      </c>
+      <c r="B33" t="s">
+        <v>88</v>
+      </c>
+      <c r="C33">
+        <v>45</v>
+      </c>
+      <c r="D33">
+        <v>30</v>
+      </c>
+      <c r="E33">
+        <v>19</v>
+      </c>
+      <c r="F33">
+        <v>4.5</v>
+      </c>
+      <c r="G33" s="2">
+        <v>8500</v>
+      </c>
+      <c r="H33" s="2">
+        <v>6000</v>
+      </c>
+      <c r="I33" s="2">
+        <v>1000</v>
+      </c>
+      <c r="J33" s="2">
+        <v>24</v>
+      </c>
+      <c r="K33" s="2">
+        <v>7500</v>
+      </c>
+      <c r="L33" s="2">
+        <v>1400</v>
+      </c>
+      <c r="M33" s="2">
+        <v>75</v>
+      </c>
+      <c r="N33" s="2">
+        <v>20</v>
+      </c>
+      <c r="O33" s="2">
+        <v>87</v>
+      </c>
+      <c r="P33" s="2">
+        <v>15</v>
+      </c>
+      <c r="Q33" s="2">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="R33" s="2">
+        <v>15</v>
+      </c>
+      <c r="S33" s="2">
+        <v>120</v>
+      </c>
+      <c r="T33" s="3">
+        <v>2</v>
+      </c>
+      <c r="U33" s="3">
+        <v>1.7</v>
+      </c>
+      <c r="V33" s="3">
+        <v>1.9</v>
+      </c>
+      <c r="W33" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="X33" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="Y33" s="3">
+        <v>0.81</v>
+      </c>
+      <c r="Z33" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>92</v>
+      </c>
+      <c r="B34" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34">
+        <v>11.56</v>
+      </c>
+      <c r="D34">
+        <v>30</v>
+      </c>
+      <c r="E34">
+        <v>2.1</v>
+      </c>
+      <c r="F34">
+        <v>4.5</v>
+      </c>
+      <c r="G34" s="2">
+        <v>735</v>
+      </c>
+      <c r="H34" s="2">
+        <v>680</v>
+      </c>
+      <c r="I34" s="2">
+        <v>100</v>
+      </c>
+      <c r="J34" s="2">
+        <v>12</v>
+      </c>
+      <c r="K34" s="2">
+        <v>640</v>
+      </c>
+      <c r="L34" s="2">
+        <v>310</v>
+      </c>
+      <c r="M34" s="2">
+        <v>21</v>
+      </c>
+      <c r="N34" s="2">
+        <v>10</v>
+      </c>
+      <c r="O34" s="2">
+        <v>10</v>
+      </c>
+      <c r="P34" s="2">
+        <v>15</v>
+      </c>
+      <c r="Q34" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="R34" s="2">
+        <v>15</v>
+      </c>
+      <c r="S34" s="2">
+        <v>37</v>
+      </c>
+      <c r="T34" s="6">
+        <v>11</v>
+      </c>
+      <c r="U34" s="6">
+        <v>8.4</v>
+      </c>
+      <c r="V34" s="6">
+        <v>1.4</v>
+      </c>
+      <c r="W34" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="X34" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="Y34" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="Z34" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>93</v>
+      </c>
+      <c r="B35" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35">
+        <v>11.56</v>
+      </c>
+      <c r="D35">
+        <v>30</v>
+      </c>
+      <c r="E35">
+        <v>2.8</v>
+      </c>
+      <c r="F35">
+        <v>4.5</v>
+      </c>
+      <c r="G35" s="2">
+        <v>1060</v>
+      </c>
+      <c r="H35" s="2">
+        <v>900</v>
+      </c>
+      <c r="I35" s="2">
+        <v>140</v>
+      </c>
+      <c r="J35" s="2">
+        <v>10</v>
+      </c>
+      <c r="K35" s="2">
+        <v>960</v>
+      </c>
+      <c r="L35" s="2">
+        <v>460</v>
+      </c>
+      <c r="M35" s="2">
+        <v>40</v>
+      </c>
+      <c r="N35" s="2">
+        <v>30</v>
+      </c>
+      <c r="O35" s="2">
+        <v>15</v>
+      </c>
+      <c r="P35" s="2">
+        <v>15</v>
+      </c>
+      <c r="Q35" s="6">
+        <v>1.2</v>
+      </c>
+      <c r="R35" s="2">
+        <v>15</v>
+      </c>
+      <c r="S35" s="2">
+        <v>46</v>
+      </c>
+      <c r="T35" s="6">
+        <v>7.87</v>
+      </c>
+      <c r="U35" s="6">
+        <v>5.63</v>
+      </c>
+      <c r="V35" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="W35" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="X35" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="Y35" s="6">
+        <v>0.85</v>
+      </c>
+      <c r="Z35" s="6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>105</v>
+      </c>
+      <c r="B36" t="s">
+        <v>88</v>
+      </c>
+      <c r="C36">
+        <v>45</v>
+      </c>
+      <c r="D36">
+        <v>30</v>
+      </c>
+      <c r="E36">
+        <v>4.5</v>
+      </c>
+      <c r="F36">
+        <v>10</v>
+      </c>
+      <c r="G36" s="2">
+        <v>2200</v>
+      </c>
+      <c r="H36" s="2">
+        <v>1300</v>
+      </c>
+      <c r="I36" s="2">
+        <v>300</v>
+      </c>
+      <c r="J36" s="2">
+        <v>15</v>
+      </c>
+      <c r="K36" s="2">
+        <v>1900</v>
+      </c>
+      <c r="L36" s="2">
+        <v>400</v>
+      </c>
+      <c r="M36" s="2">
+        <v>50</v>
+      </c>
+      <c r="N36" s="2">
+        <v>21.5</v>
+      </c>
+      <c r="O36" s="2">
+        <v>20</v>
+      </c>
+      <c r="P36" s="2">
+        <v>15</v>
+      </c>
+      <c r="Q36" s="6">
+        <v>3.6</v>
+      </c>
+      <c r="R36" s="2">
+        <v>15</v>
+      </c>
+      <c r="S36" s="2">
+        <v>165</v>
+      </c>
+      <c r="T36" s="10">
+        <v>2.8</v>
+      </c>
+      <c r="U36" s="10">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="V36" s="6">
+        <v>1.8</v>
+      </c>
+      <c r="W36" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="X36" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="Y36" s="3">
+        <v>0.68</v>
+      </c>
+      <c r="Z36" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>94</v>
+      </c>
+      <c r="B37" t="s">
+        <v>88</v>
+      </c>
+      <c r="C37">
+        <v>45</v>
+      </c>
+      <c r="D37">
+        <v>60</v>
+      </c>
+      <c r="E37">
+        <v>10</v>
+      </c>
+      <c r="F37">
+        <v>10</v>
+      </c>
+      <c r="G37" s="2">
+        <v>4000</v>
+      </c>
+      <c r="H37" s="2">
+        <v>3000</v>
+      </c>
+      <c r="I37" s="2">
+        <v>700</v>
+      </c>
+      <c r="J37" s="2">
+        <v>25</v>
+      </c>
+      <c r="K37" s="2">
+        <v>3300</v>
+      </c>
+      <c r="L37" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M37" s="2">
+        <v>50</v>
+      </c>
+      <c r="N37" s="2">
+        <v>73</v>
+      </c>
+      <c r="O37" s="2">
+        <v>20</v>
+      </c>
+      <c r="P37" s="2">
+        <v>30</v>
+      </c>
+      <c r="Q37" s="6">
+        <v>8.5</v>
+      </c>
+      <c r="R37" s="2">
+        <v>30</v>
+      </c>
+      <c r="S37" s="2">
+        <v>100</v>
+      </c>
+      <c r="T37" s="6">
+        <v>3.1</v>
+      </c>
+      <c r="U37" s="6">
+        <v>2.4</v>
+      </c>
+      <c r="V37" s="6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="W37" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="X37" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="Y37" s="3">
+        <v>0.69</v>
+      </c>
+      <c r="Z37" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>96</v>
+      </c>
+      <c r="B38" t="s">
+        <v>95</v>
+      </c>
+      <c r="C38">
+        <v>11.56</v>
+      </c>
+      <c r="D38">
+        <v>30</v>
+      </c>
+      <c r="E38">
+        <v>3.8</v>
+      </c>
+      <c r="F38">
+        <v>5</v>
+      </c>
+      <c r="G38" s="2">
+        <v>1050</v>
+      </c>
+      <c r="H38" s="2">
+        <v>1000</v>
+      </c>
+      <c r="I38" s="2">
+        <v>150</v>
+      </c>
+      <c r="J38" s="2">
+        <v>10</v>
+      </c>
+      <c r="K38" s="2">
+        <v>1000</v>
+      </c>
+      <c r="L38" s="2">
+        <v>460</v>
+      </c>
+      <c r="M38" s="2">
+        <v>39</v>
+      </c>
+      <c r="N38" s="2">
+        <v>3</v>
+      </c>
+      <c r="O38" s="2">
+        <v>15</v>
+      </c>
+      <c r="P38" s="2">
+        <v>15</v>
+      </c>
+      <c r="Q38" s="6">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="R38" s="2">
+        <v>15</v>
+      </c>
+      <c r="S38" s="2">
+        <v>57</v>
+      </c>
+      <c r="T38" s="6">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="U38" s="6">
+        <v>2.7</v>
+      </c>
+      <c r="V38" s="6">
+        <v>1.2</v>
+      </c>
+      <c r="W38" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="X38" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="Y38" s="3">
+        <v>0.85</v>
+      </c>
+      <c r="Z38" s="6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>97</v>
+      </c>
+      <c r="B39" t="s">
+        <v>95</v>
+      </c>
+      <c r="C39">
+        <v>11.56</v>
+      </c>
+      <c r="D39">
+        <v>30</v>
+      </c>
+      <c r="E39">
+        <v>5.5</v>
+      </c>
+      <c r="F39">
+        <v>5</v>
+      </c>
+      <c r="G39" s="2">
+        <v>1500</v>
+      </c>
+      <c r="H39" s="2">
+        <v>1500</v>
+      </c>
+      <c r="I39" s="2">
+        <v>200</v>
+      </c>
+      <c r="J39" s="2">
+        <v>10</v>
+      </c>
+      <c r="K39" s="2">
+        <v>1450</v>
+      </c>
+      <c r="L39" s="2">
+        <v>700</v>
+      </c>
+      <c r="M39" s="2">
+        <v>48</v>
+      </c>
+      <c r="N39" s="2">
+        <v>6</v>
+      </c>
+      <c r="O39" s="2">
+        <v>15</v>
+      </c>
+      <c r="P39" s="2">
+        <v>15</v>
+      </c>
+      <c r="Q39" s="6">
+        <v>1.7</v>
+      </c>
+      <c r="R39" s="2">
+        <v>15</v>
+      </c>
+      <c r="S39" s="2">
+        <v>61</v>
+      </c>
+      <c r="T39" s="6">
+        <v>2.9</v>
+      </c>
+      <c r="U39" s="6">
+        <v>2</v>
+      </c>
+      <c r="V39" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="W39" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="X39" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="Y39" s="3">
+        <v>0.85</v>
+      </c>
+      <c r="Z39" s="6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>99</v>
+      </c>
+      <c r="B40" t="s">
+        <v>98</v>
+      </c>
+      <c r="C40">
+        <v>11.56</v>
+      </c>
+      <c r="D40">
+        <v>30</v>
+      </c>
+      <c r="E40">
+        <v>4</v>
+      </c>
+      <c r="F40">
+        <v>10</v>
+      </c>
+      <c r="G40" s="2">
+        <v>1700</v>
+      </c>
+      <c r="H40" s="2">
+        <v>1050</v>
+      </c>
+      <c r="I40" s="2">
+        <v>200</v>
+      </c>
+      <c r="J40" s="2">
+        <v>20</v>
+      </c>
+      <c r="K40" s="2">
+        <v>1500</v>
+      </c>
+      <c r="L40" s="2">
+        <v>300</v>
+      </c>
+      <c r="M40" s="2">
+        <v>50</v>
+      </c>
+      <c r="N40" s="2">
+        <v>21</v>
+      </c>
+      <c r="O40" s="2">
+        <v>20</v>
+      </c>
+      <c r="P40" s="2">
+        <v>15</v>
+      </c>
+      <c r="Q40" s="6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="R40" s="2">
+        <v>15</v>
+      </c>
+      <c r="S40" s="2">
+        <v>108</v>
+      </c>
+      <c r="T40" s="3">
+        <v>3.7</v>
+      </c>
+      <c r="U40" s="3">
+        <v>3.05</v>
+      </c>
+      <c r="V40" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="W40" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="X40" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="Y40" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="Z40" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>100</v>
+      </c>
+      <c r="B41" t="s">
+        <v>98</v>
+      </c>
+      <c r="C41">
+        <v>11.56</v>
+      </c>
+      <c r="D41">
+        <v>30</v>
+      </c>
+      <c r="E41">
+        <v>3.2</v>
+      </c>
+      <c r="F41">
+        <v>10</v>
+      </c>
+      <c r="G41" s="2">
+        <v>1340</v>
+      </c>
+      <c r="H41" s="2">
+        <v>900</v>
+      </c>
+      <c r="I41" s="2">
+        <v>140</v>
+      </c>
+      <c r="J41" s="2">
+        <v>20</v>
+      </c>
+      <c r="K41" s="2">
+        <v>1210</v>
+      </c>
+      <c r="L41" s="2">
+        <v>240</v>
+      </c>
+      <c r="M41" s="2">
+        <v>30</v>
+      </c>
+      <c r="N41" s="2">
+        <v>15</v>
+      </c>
+      <c r="O41" s="2">
+        <v>20</v>
+      </c>
+      <c r="P41" s="2">
+        <v>15</v>
+      </c>
+      <c r="Q41" s="6">
+        <v>1</v>
+      </c>
+      <c r="R41" s="2">
+        <v>15</v>
+      </c>
+      <c r="S41" s="2">
+        <v>125</v>
+      </c>
+      <c r="T41" s="6">
+        <v>4.7</v>
+      </c>
+      <c r="U41" s="6">
+        <v>3.9</v>
+      </c>
+      <c r="V41" s="6">
+        <v>1.9</v>
+      </c>
+      <c r="W41" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="X41" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="Y41" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="Z41" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>101</v>
+      </c>
+      <c r="B42" t="s">
+        <v>102</v>
+      </c>
+      <c r="C42">
+        <v>45</v>
+      </c>
+      <c r="D42">
+        <v>30</v>
+      </c>
+      <c r="E42">
+        <v>2.5</v>
+      </c>
+      <c r="F42">
+        <v>10</v>
+      </c>
+      <c r="G42" s="2">
+        <v>1250</v>
+      </c>
+      <c r="H42" s="2">
+        <v>1100</v>
+      </c>
+      <c r="I42" s="2">
+        <v>200</v>
+      </c>
+      <c r="J42" s="2">
+        <v>15</v>
+      </c>
+      <c r="K42" s="2">
+        <v>1200</v>
+      </c>
+      <c r="L42" s="2">
+        <v>400</v>
+      </c>
+      <c r="M42" s="2">
+        <v>62</v>
+      </c>
+      <c r="N42" s="2">
+        <v>20</v>
+      </c>
+      <c r="O42" s="2">
+        <v>20</v>
+      </c>
+      <c r="P42" s="2">
+        <v>15</v>
+      </c>
+      <c r="Q42" s="6">
+        <v>3</v>
+      </c>
+      <c r="R42" s="2">
+        <v>15</v>
+      </c>
+      <c r="S42" s="2">
+        <v>57</v>
+      </c>
+      <c r="T42" s="6">
+        <v>5.2</v>
+      </c>
+      <c r="U42" s="6">
+        <v>3.5</v>
+      </c>
+      <c r="V42" s="6">
+        <v>1.2</v>
+      </c>
+      <c r="W42" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="X42" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="Y42" s="6">
+        <v>0.7</v>
+      </c>
+      <c r="Z42" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>103</v>
+      </c>
+      <c r="B43" t="s">
+        <v>102</v>
+      </c>
+      <c r="C43">
+        <v>45</v>
+      </c>
+      <c r="D43">
+        <v>30</v>
+      </c>
+      <c r="E43">
+        <v>5.5</v>
+      </c>
+      <c r="F43">
+        <v>10</v>
+      </c>
+      <c r="G43" s="2">
+        <v>2550</v>
+      </c>
+      <c r="H43" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I43" s="2">
+        <v>400</v>
+      </c>
+      <c r="J43" s="2">
+        <v>15</v>
+      </c>
+      <c r="K43" s="2">
+        <v>2250</v>
+      </c>
+      <c r="L43" s="2">
+        <v>650</v>
+      </c>
+      <c r="M43" s="2">
+        <v>100</v>
+      </c>
+      <c r="N43" s="2">
+        <v>30</v>
+      </c>
+      <c r="O43" s="2">
+        <v>20</v>
+      </c>
+      <c r="P43" s="2">
+        <v>15</v>
+      </c>
+      <c r="Q43" s="6">
+        <v>4.5</v>
+      </c>
+      <c r="R43" s="2">
+        <v>15</v>
+      </c>
+      <c r="S43" s="2">
+        <v>110</v>
+      </c>
+      <c r="T43" s="6">
+        <v>2.6</v>
+      </c>
+      <c r="U43" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="V43" s="6">
+        <v>1.4</v>
+      </c>
+      <c r="W43" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="X43" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="Y43" s="6">
+        <v>0.7</v>
+      </c>
+      <c r="Z43" s="2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:Z43" xr:uid="{E69B3F4A-D7AE-43B6-8CEC-20724C077B7B}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{391B8B8E-5D47-4FAB-9A21-65241D68C284}">
+  <dimension ref="A1:Z40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="18.7109375" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" customWidth="1"/>
+    <col min="10" max="10" width="13.5703125" customWidth="1"/>
+    <col min="15" max="15" width="18.5703125" customWidth="1"/>
+    <col min="16" max="16" width="13.5703125" customWidth="1"/>
+    <col min="18" max="18" width="13.42578125" customWidth="1"/>
+    <col min="19" max="19" width="17.42578125" customWidth="1"/>
+    <col min="20" max="20" width="17" customWidth="1"/>
+    <col min="21" max="21" width="15.28515625" customWidth="1"/>
+    <col min="22" max="22" width="14.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="O1" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="P1" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q1" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="R1" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="S1" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="T1" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="U1" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="V1" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="W1" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="X1" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y1" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z1" s="9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>41</v>
+      </c>
+      <c r="R2" t="s">
+        <v>43</v>
+      </c>
+      <c r="S2" t="s">
+        <v>45</v>
+      </c>
+      <c r="T2" t="s">
+        <v>62</v>
+      </c>
+      <c r="U2" t="s">
+        <v>64</v>
+      </c>
+      <c r="V2" t="s">
+        <v>48</v>
+      </c>
+      <c r="W2" t="s">
+        <v>51</v>
+      </c>
+      <c r="X2" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3" t="s">
+        <v>20</v>
+      </c>
+      <c r="N3" t="s">
+        <v>17</v>
+      </c>
+      <c r="O3" t="s">
+        <v>37</v>
+      </c>
+      <c r="P3" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>17</v>
+      </c>
+      <c r="R3" t="s">
+        <v>14</v>
+      </c>
+      <c r="S3" t="s">
+        <v>67</v>
+      </c>
+      <c r="T3" t="s">
+        <v>46</v>
+      </c>
+      <c r="U3" t="s">
+        <v>46</v>
+      </c>
+      <c r="V3" t="s">
+        <v>49</v>
+      </c>
+      <c r="W3" t="s">
+        <v>52</v>
+      </c>
+      <c r="X3" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1.0000000000000001E-9</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1">
+        <v>9.9999999999999998E-13</v>
+      </c>
+      <c r="H4" s="1">
+        <v>9.9999999999999998E-13</v>
+      </c>
+      <c r="I4" s="1">
+        <v>9.9999999999999998E-13</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4" s="1">
+        <v>9.9999999999999998E-13</v>
+      </c>
+      <c r="L4" s="1">
+        <v>9.9999999999999998E-13</v>
+      </c>
+      <c r="M4" s="1">
+        <v>9.9999999999999998E-13</v>
+      </c>
+      <c r="N4" s="1">
+        <v>1.0000000000000001E-9</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>1.0000000000000001E-9</v>
+      </c>
+      <c r="R4">
+        <v>1</v>
+      </c>
+      <c r="S4" s="1">
+        <v>1</v>
+      </c>
+      <c r="T4" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="U4" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="V4">
+        <v>1</v>
+      </c>
+      <c r="W4" s="1">
+        <v>1.0000000000000001E-9</v>
+      </c>
+      <c r="X4" s="1">
+        <v>1.0000000000000001E-9</v>
+      </c>
+      <c r="Y4">
+        <v>1</v>
+      </c>
+      <c r="Z4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0</v>
+      </c>
+      <c r="E5" s="5">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="F5" s="5">
+        <v>4.5</v>
+      </c>
+      <c r="G5" s="5">
+        <v>1</v>
+      </c>
+      <c r="H5" s="5">
+        <v>1</v>
+      </c>
+      <c r="I5" s="5">
+        <v>1</v>
+      </c>
+      <c r="J5" s="5">
+        <v>25</v>
+      </c>
+      <c r="K5" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="L5" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="M5" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="N5" s="5">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="O5" s="5">
+        <v>1</v>
+      </c>
+      <c r="P5" s="5">
+        <v>20</v>
+      </c>
+      <c r="Q5" s="5">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="R5" s="5">
+        <v>20</v>
+      </c>
+      <c r="S5" s="5">
+        <v>20</v>
+      </c>
+      <c r="T5" s="6">
+        <v>1E-3</v>
+      </c>
+      <c r="U5" s="6">
+        <v>1E-3</v>
+      </c>
+      <c r="V5" s="5">
+        <v>1</v>
+      </c>
+      <c r="W5" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="X5" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="Y5" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="Z5" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6">
+        <f>3.4*3.4</f>
+        <v>11.559999999999999</v>
+      </c>
+      <c r="D6">
+        <v>80</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+      <c r="F6">
+        <v>4.5</v>
+      </c>
+      <c r="G6">
+        <v>2100</v>
+      </c>
+      <c r="H6">
+        <v>1200</v>
+      </c>
+      <c r="I6">
+        <v>300</v>
+      </c>
+      <c r="J6">
+        <v>40</v>
+      </c>
+      <c r="K6">
+        <v>1900</v>
+      </c>
+      <c r="L6">
+        <v>280</v>
+      </c>
+      <c r="M6">
+        <v>12</v>
+      </c>
+      <c r="N6">
+        <v>27</v>
+      </c>
+      <c r="O6">
+        <v>20</v>
+      </c>
+      <c r="P6">
+        <v>40</v>
+      </c>
+      <c r="Q6">
+        <v>4</v>
+      </c>
+      <c r="R6">
+        <v>40</v>
+      </c>
+      <c r="S6">
+        <v>52</v>
+      </c>
+      <c r="T6">
+        <v>7.4</v>
+      </c>
+      <c r="U6">
+        <v>5.9</v>
+      </c>
+      <c r="V6">
+        <v>1.3</v>
+      </c>
+      <c r="W6">
+        <v>0.5</v>
+      </c>
+      <c r="X6">
+        <v>0.5</v>
+      </c>
+      <c r="Y6">
+        <v>0.85</v>
+      </c>
+      <c r="Z6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7">
+        <f>3.4*3.4</f>
+        <v>11.559999999999999</v>
+      </c>
+      <c r="D7">
+        <v>80</v>
+      </c>
+      <c r="E7">
+        <v>7.5</v>
+      </c>
+      <c r="F7">
+        <v>10</v>
+      </c>
+      <c r="G7">
+        <v>2750</v>
+      </c>
+      <c r="H7">
+        <v>1700</v>
+      </c>
+      <c r="I7">
+        <v>200</v>
+      </c>
+      <c r="J7">
+        <v>40</v>
+      </c>
+      <c r="K7">
+        <v>2400</v>
+      </c>
+      <c r="L7">
+        <v>250</v>
+      </c>
+      <c r="M7">
+        <v>10</v>
+      </c>
+      <c r="N7">
+        <v>100</v>
+      </c>
+      <c r="O7">
+        <v>18</v>
+      </c>
+      <c r="P7">
+        <v>40</v>
+      </c>
+      <c r="Q7">
+        <v>4</v>
+      </c>
+      <c r="R7">
+        <v>40</v>
+      </c>
+      <c r="S7">
+        <v>54</v>
+      </c>
+      <c r="T7">
+        <v>5.5</v>
+      </c>
+      <c r="U7">
+        <v>5.5</v>
+      </c>
+      <c r="V7">
+        <v>1.35</v>
+      </c>
+      <c r="W7">
+        <v>0.5</v>
+      </c>
+      <c r="X7">
+        <v>0.5</v>
+      </c>
+      <c r="Y7">
+        <v>0.7</v>
+      </c>
+      <c r="Z7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>11.56</v>
+      </c>
+      <c r="D8">
+        <v>60</v>
+      </c>
+      <c r="E8">
+        <v>5</v>
+      </c>
+      <c r="F8">
+        <v>4.5</v>
+      </c>
+      <c r="G8">
+        <v>2300</v>
+      </c>
+      <c r="H8">
+        <v>1500</v>
+      </c>
+      <c r="I8">
+        <v>400</v>
+      </c>
+      <c r="J8">
+        <v>40</v>
+      </c>
+      <c r="K8">
+        <v>1900</v>
+      </c>
+      <c r="L8">
+        <v>330</v>
+      </c>
+      <c r="M8">
+        <v>16</v>
+      </c>
+      <c r="N8">
+        <v>17</v>
+      </c>
+      <c r="O8">
+        <v>20</v>
+      </c>
+      <c r="P8">
+        <v>30</v>
+      </c>
+      <c r="Q8">
+        <v>4.8</v>
+      </c>
+      <c r="R8">
+        <v>30</v>
+      </c>
+      <c r="S8">
+        <v>66</v>
+      </c>
+      <c r="T8">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="U8">
+        <v>3.9</v>
+      </c>
+      <c r="V8">
+        <v>1.8</v>
+      </c>
+      <c r="W8">
+        <v>0.5</v>
+      </c>
+      <c r="X8">
+        <v>0.5</v>
+      </c>
+      <c r="Y8">
+        <v>0.83</v>
+      </c>
+      <c r="Z8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>11.56</v>
+      </c>
+      <c r="D9">
+        <v>60</v>
+      </c>
+      <c r="E9">
+        <v>7</v>
+      </c>
+      <c r="F9">
+        <v>4.5</v>
+      </c>
+      <c r="G9">
+        <v>3000</v>
+      </c>
+      <c r="H9">
+        <v>2000</v>
+      </c>
+      <c r="I9">
+        <v>300</v>
+      </c>
+      <c r="J9">
+        <v>24</v>
+      </c>
+      <c r="K9">
+        <v>2500</v>
+      </c>
+      <c r="L9">
+        <v>700</v>
+      </c>
+      <c r="M9">
+        <v>35</v>
+      </c>
+      <c r="N9">
+        <v>25</v>
+      </c>
+      <c r="O9">
+        <v>10</v>
+      </c>
+      <c r="P9">
+        <v>30</v>
+      </c>
+      <c r="Q9">
+        <v>4.7</v>
+      </c>
+      <c r="R9">
+        <v>30</v>
+      </c>
+      <c r="S9">
+        <v>57</v>
+      </c>
+      <c r="T9">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="U9">
+        <v>2.9</v>
+      </c>
+      <c r="V9">
+        <v>0.85</v>
+      </c>
+      <c r="W9">
+        <v>0.5</v>
+      </c>
+      <c r="X9">
+        <v>0.5</v>
+      </c>
+      <c r="Y9">
+        <v>0.74</v>
+      </c>
+      <c r="Z9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>90</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10">
+        <v>11.56</v>
+      </c>
+      <c r="D10">
+        <v>60</v>
+      </c>
+      <c r="E10">
+        <v>6.2</v>
+      </c>
+      <c r="F10">
+        <v>4.5</v>
+      </c>
+      <c r="G10">
+        <v>2200</v>
+      </c>
+      <c r="H10">
+        <v>1600</v>
+      </c>
+      <c r="I10">
+        <v>300</v>
+      </c>
+      <c r="J10">
+        <v>24</v>
+      </c>
+      <c r="K10">
+        <v>2000</v>
+      </c>
+      <c r="L10">
+        <v>560</v>
+      </c>
+      <c r="M10">
+        <v>32</v>
+      </c>
+      <c r="N10">
+        <v>20</v>
+      </c>
+      <c r="O10">
+        <v>10</v>
+      </c>
+      <c r="P10">
+        <v>30</v>
+      </c>
+      <c r="Q10">
+        <v>4.5</v>
+      </c>
+      <c r="R10">
+        <v>30</v>
+      </c>
+      <c r="S10">
+        <v>54</v>
+      </c>
+      <c r="T10">
+        <v>4.8</v>
+      </c>
+      <c r="U10">
+        <v>3.4</v>
+      </c>
+      <c r="V10">
+        <v>0.85</v>
+      </c>
+      <c r="W10">
+        <v>0.5</v>
+      </c>
+      <c r="X10">
+        <v>0.5</v>
+      </c>
+      <c r="Y10">
+        <v>0.75</v>
+      </c>
+      <c r="Z10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>86</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11">
+        <v>11.56</v>
+      </c>
+      <c r="D11">
+        <v>40</v>
+      </c>
+      <c r="E11">
+        <v>0.9</v>
+      </c>
+      <c r="F11">
+        <v>4.5</v>
+      </c>
+      <c r="G11">
+        <v>760</v>
+      </c>
+      <c r="H11">
+        <v>900</v>
+      </c>
+      <c r="I11">
+        <v>100</v>
+      </c>
+      <c r="J11">
+        <v>25</v>
+      </c>
+      <c r="K11">
+        <v>650</v>
+      </c>
+      <c r="L11">
+        <v>95</v>
+      </c>
+      <c r="M11">
+        <v>11</v>
+      </c>
+      <c r="N11">
+        <v>21</v>
+      </c>
+      <c r="O11">
+        <v>20</v>
+      </c>
+      <c r="P11">
+        <v>20</v>
+      </c>
+      <c r="Q11">
+        <v>0.65</v>
+      </c>
+      <c r="R11">
+        <v>20</v>
+      </c>
+      <c r="S11">
+        <v>64</v>
+      </c>
+      <c r="T11">
+        <v>7</v>
+      </c>
+      <c r="U11">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="V11">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="W11">
+        <v>1</v>
+      </c>
+      <c r="X11">
+        <v>1</v>
+      </c>
+      <c r="Y11">
+        <v>0.85</v>
+      </c>
+      <c r="Z11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>74</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12">
+        <v>11.56</v>
+      </c>
+      <c r="D12">
+        <v>40</v>
+      </c>
+      <c r="E12">
+        <v>2.9</v>
+      </c>
+      <c r="F12">
+        <v>4.5</v>
+      </c>
+      <c r="G12">
+        <v>950</v>
+      </c>
+      <c r="H12">
+        <v>500</v>
+      </c>
+      <c r="I12">
+        <v>70</v>
+      </c>
+      <c r="J12">
+        <v>25</v>
+      </c>
+      <c r="K12" s="2">
+        <v>875</v>
+      </c>
+      <c r="L12" s="2">
+        <v>150</v>
+      </c>
+      <c r="M12" s="2">
+        <v>16</v>
+      </c>
+      <c r="N12" s="2">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="O12" s="2">
+        <v>10</v>
+      </c>
+      <c r="P12" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q12" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="R12">
+        <v>20</v>
+      </c>
+      <c r="S12" s="2">
+        <v>45</v>
+      </c>
+      <c r="T12">
+        <v>9.6</v>
+      </c>
+      <c r="U12">
+        <v>6.7</v>
+      </c>
+      <c r="V12">
+        <v>3.2</v>
+      </c>
+      <c r="W12" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="X12" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="Y12" s="3">
+        <v>0.82</v>
+      </c>
+      <c r="Z12" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>85</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13">
+        <v>11.56</v>
+      </c>
+      <c r="D13">
+        <v>40</v>
+      </c>
+      <c r="E13">
+        <v>2.75</v>
+      </c>
+      <c r="F13">
+        <v>4.5</v>
+      </c>
+      <c r="G13" s="2">
+        <v>1550</v>
+      </c>
+      <c r="H13" s="2">
+        <v>1000</v>
+      </c>
+      <c r="I13" s="2">
+        <v>100</v>
+      </c>
+      <c r="J13" s="2">
+        <v>30</v>
+      </c>
+      <c r="K13" s="2">
+        <v>1450</v>
+      </c>
+      <c r="L13" s="2">
+        <v>200</v>
+      </c>
+      <c r="M13" s="2">
+        <v>13</v>
+      </c>
+      <c r="N13" s="2">
+        <v>21</v>
+      </c>
+      <c r="O13" s="2">
+        <v>20</v>
+      </c>
+      <c r="P13" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q13" s="6">
+        <v>3</v>
+      </c>
+      <c r="R13" s="2">
+        <v>20</v>
+      </c>
+      <c r="S13" s="2">
+        <v>70</v>
+      </c>
+      <c r="T13" s="6">
+        <v>7.4</v>
+      </c>
+      <c r="U13" s="6">
+        <v>5</v>
+      </c>
+      <c r="V13" s="6">
+        <v>1.8</v>
+      </c>
+      <c r="W13" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="X13" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="Y13" s="6">
+        <v>0.7</v>
+      </c>
+      <c r="Z13" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>70</v>
+      </c>
+      <c r="B14" t="s">
+        <v>71</v>
+      </c>
+      <c r="C14">
+        <v>45</v>
+      </c>
+      <c r="D14">
+        <v>40</v>
+      </c>
+      <c r="E14">
+        <v>6.3</v>
+      </c>
+      <c r="F14">
+        <v>4.5</v>
+      </c>
+      <c r="G14" s="2">
+        <v>2100</v>
+      </c>
+      <c r="H14" s="2">
+        <v>1400</v>
+      </c>
+      <c r="I14" s="2">
+        <v>150</v>
+      </c>
+      <c r="J14" s="2">
+        <v>24</v>
+      </c>
+      <c r="K14" s="2">
+        <v>2000</v>
+      </c>
+      <c r="L14" s="2">
+        <v>350</v>
+      </c>
+      <c r="M14" s="2">
+        <v>14</v>
+      </c>
+      <c r="N14" s="2">
+        <v>13</v>
+      </c>
+      <c r="O14" s="2">
+        <v>10</v>
+      </c>
+      <c r="P14" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>2.1</v>
+      </c>
+      <c r="R14" s="2">
+        <v>20</v>
+      </c>
+      <c r="S14" s="2">
+        <v>50</v>
+      </c>
+      <c r="T14" s="3">
+        <v>5</v>
+      </c>
+      <c r="U14" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="V14" s="3">
+        <v>1.45</v>
+      </c>
+      <c r="W14" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="X14" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="Y14" s="3">
+        <v>0.74</v>
+      </c>
+      <c r="Z14" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>78</v>
+      </c>
+      <c r="B15" t="s">
+        <v>71</v>
+      </c>
+      <c r="C15">
+        <v>45</v>
+      </c>
+      <c r="D15">
+        <v>40</v>
+      </c>
+      <c r="E15">
+        <v>7.6</v>
+      </c>
+      <c r="F15">
+        <v>10</v>
+      </c>
+      <c r="G15" s="2">
+        <v>2400</v>
+      </c>
+      <c r="H15" s="2">
+        <v>1800</v>
+      </c>
+      <c r="I15" s="2">
+        <v>300</v>
+      </c>
+      <c r="J15" s="2">
+        <v>30</v>
+      </c>
+      <c r="K15" s="2">
+        <v>2200</v>
+      </c>
+      <c r="L15" s="2">
+        <v>380</v>
+      </c>
+      <c r="M15" s="2">
+        <v>15</v>
+      </c>
+      <c r="N15" s="2">
+        <v>23</v>
+      </c>
+      <c r="O15" s="2">
+        <v>42</v>
+      </c>
+      <c r="P15" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>3.2</v>
+      </c>
+      <c r="R15" s="2">
+        <v>20</v>
+      </c>
+      <c r="S15" s="2">
+        <v>96</v>
+      </c>
+      <c r="T15" s="6">
+        <v>6.8</v>
+      </c>
+      <c r="U15" s="6">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="V15" s="6">
+        <v>1.4</v>
+      </c>
+      <c r="W15" s="6">
+        <v>1</v>
+      </c>
+      <c r="X15" s="6">
+        <v>1</v>
+      </c>
+      <c r="Y15" s="3">
+        <v>0.88</v>
+      </c>
+      <c r="Z15" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>79</v>
+      </c>
+      <c r="B16" t="s">
+        <v>71</v>
+      </c>
+      <c r="C16">
+        <v>45</v>
+      </c>
+      <c r="D16">
+        <v>40</v>
+      </c>
+      <c r="E16">
+        <v>2.1</v>
+      </c>
+      <c r="F16">
+        <v>10</v>
+      </c>
+      <c r="G16" s="2">
+        <v>750</v>
+      </c>
+      <c r="H16" s="2">
+        <v>900</v>
+      </c>
+      <c r="I16" s="2">
+        <v>100</v>
+      </c>
+      <c r="J16" s="2">
+        <v>25</v>
+      </c>
+      <c r="K16" s="2">
+        <v>650</v>
+      </c>
+      <c r="L16" s="2">
+        <v>190</v>
+      </c>
+      <c r="M16" s="2">
+        <v>12</v>
+      </c>
+      <c r="N16" s="2">
+        <v>22</v>
+      </c>
+      <c r="O16" s="2">
+        <v>10</v>
+      </c>
+      <c r="P16" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q16" s="6">
+        <v>1.4</v>
+      </c>
+      <c r="R16" s="2">
+        <v>20</v>
+      </c>
+      <c r="S16" s="2">
+        <v>100</v>
+      </c>
+      <c r="T16" s="6">
+        <v>6.8</v>
+      </c>
+      <c r="U16" s="6">
+        <v>4.7</v>
+      </c>
+      <c r="V16" s="6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="W16" s="6">
+        <v>1</v>
+      </c>
+      <c r="X16" s="6">
+        <v>1</v>
+      </c>
+      <c r="Y16" s="3">
+        <v>0.92</v>
+      </c>
+      <c r="Z16" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>80</v>
+      </c>
+      <c r="B17" t="s">
+        <v>71</v>
+      </c>
+      <c r="C17">
+        <v>45</v>
+      </c>
+      <c r="D17">
+        <v>40</v>
+      </c>
+      <c r="E17">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="F17">
+        <v>10</v>
+      </c>
+      <c r="G17" s="2">
+        <v>2900</v>
+      </c>
+      <c r="H17" s="2">
+        <v>2500</v>
+      </c>
+      <c r="I17" s="2">
+        <v>250</v>
+      </c>
+      <c r="J17" s="2">
+        <v>30</v>
+      </c>
+      <c r="K17" s="2">
+        <v>2800</v>
+      </c>
+      <c r="L17" s="2">
+        <v>400</v>
+      </c>
+      <c r="M17" s="2">
+        <v>30</v>
+      </c>
+      <c r="N17" s="2">
+        <v>41</v>
+      </c>
+      <c r="O17" s="2">
+        <v>20</v>
+      </c>
+      <c r="P17" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q17" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="R17" s="2">
+        <v>20</v>
+      </c>
+      <c r="S17" s="2">
+        <v>203</v>
+      </c>
+      <c r="T17" s="6">
+        <v>3.5</v>
+      </c>
+      <c r="U17" s="6">
+        <v>2.6</v>
+      </c>
+      <c r="V17" s="3">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="W17" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="X17" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="Y17" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="Z17" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>72</v>
+      </c>
+      <c r="B18" t="s">
+        <v>71</v>
+      </c>
+      <c r="C18">
+        <v>45</v>
+      </c>
+      <c r="D18">
+        <v>40</v>
+      </c>
+      <c r="E18">
+        <v>3.1</v>
+      </c>
+      <c r="F18">
+        <v>4.5</v>
+      </c>
+      <c r="G18" s="2">
+        <v>1500</v>
+      </c>
+      <c r="H18" s="2">
+        <v>900</v>
+      </c>
+      <c r="I18" s="2">
+        <v>300</v>
+      </c>
+      <c r="J18" s="2">
+        <v>24</v>
+      </c>
+      <c r="K18" s="2">
+        <v>1150</v>
+      </c>
+      <c r="L18" s="2">
+        <v>150</v>
+      </c>
+      <c r="M18" s="2">
+        <v>60</v>
+      </c>
+      <c r="N18" s="2">
+        <v>19</v>
+      </c>
+      <c r="O18" s="2">
+        <v>10</v>
+      </c>
+      <c r="P18" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q18" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="R18" s="2">
+        <v>20</v>
+      </c>
+      <c r="S18" s="2">
+        <v>43</v>
+      </c>
+      <c r="T18" s="6">
+        <v>10.4</v>
+      </c>
+      <c r="U18" s="6">
+        <v>8.5</v>
+      </c>
+      <c r="V18" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="W18" s="6">
+        <v>1</v>
+      </c>
+      <c r="X18" s="6">
+        <v>1</v>
+      </c>
+      <c r="Y18" s="3">
+        <v>0.77</v>
+      </c>
+      <c r="Z18" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>69</v>
+      </c>
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19">
+        <v>11.56</v>
+      </c>
+      <c r="D19">
+        <v>40</v>
+      </c>
+      <c r="E19">
+        <v>4.7</v>
+      </c>
+      <c r="F19">
+        <v>10</v>
+      </c>
+      <c r="G19">
+        <v>2000</v>
+      </c>
+      <c r="H19">
+        <v>2500</v>
+      </c>
+      <c r="I19">
+        <v>360</v>
+      </c>
+      <c r="J19">
+        <v>25</v>
+      </c>
+      <c r="K19">
+        <v>1800</v>
+      </c>
+      <c r="L19">
+        <v>500</v>
+      </c>
+      <c r="M19">
+        <v>17</v>
+      </c>
+      <c r="N19">
+        <v>44</v>
+      </c>
+      <c r="O19">
+        <v>20</v>
+      </c>
+      <c r="P19">
+        <v>20</v>
+      </c>
+      <c r="Q19">
+        <v>3.2</v>
+      </c>
+      <c r="R19">
+        <v>20</v>
+      </c>
+      <c r="S19">
+        <v>100</v>
+      </c>
+      <c r="T19">
+        <v>2.8</v>
+      </c>
+      <c r="U19">
+        <v>2.1</v>
+      </c>
+      <c r="V19">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="W19">
+        <v>0.5</v>
+      </c>
+      <c r="X19">
+        <v>0.5</v>
+      </c>
+      <c r="Y19">
+        <v>0.79</v>
+      </c>
+      <c r="Z19">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>73</v>
+      </c>
+      <c r="B20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20">
+        <v>11.56</v>
+      </c>
+      <c r="D20">
+        <v>40</v>
+      </c>
+      <c r="E20">
+        <v>3.2</v>
+      </c>
+      <c r="F20">
+        <v>4.5</v>
+      </c>
+      <c r="G20" s="2">
+        <v>2500</v>
+      </c>
+      <c r="H20" s="2">
+        <v>1500</v>
+      </c>
+      <c r="I20" s="2">
+        <v>200</v>
+      </c>
+      <c r="J20" s="2">
+        <v>24</v>
+      </c>
+      <c r="K20" s="2">
+        <v>1375</v>
+      </c>
+      <c r="L20" s="2">
+        <v>1130</v>
+      </c>
+      <c r="M20" s="2">
+        <v>50</v>
+      </c>
+      <c r="N20" s="2">
+        <v>17</v>
+      </c>
+      <c r="O20" s="2">
+        <v>10</v>
+      </c>
+      <c r="P20" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q20" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="R20" s="2">
+        <v>20</v>
+      </c>
+      <c r="S20" s="2">
+        <v>65</v>
+      </c>
+      <c r="T20" s="3">
+        <v>6.2</v>
+      </c>
+      <c r="U20" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="V20" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="W20" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="X20" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="Y20" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="Z20" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>83</v>
+      </c>
+      <c r="B21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21">
+        <v>11.56</v>
+      </c>
+      <c r="D21">
+        <v>40</v>
+      </c>
+      <c r="E21">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="F21">
+        <v>4.5</v>
+      </c>
+      <c r="G21">
+        <v>2700</v>
+      </c>
+      <c r="H21">
+        <v>1400</v>
+      </c>
+      <c r="I21">
+        <v>70</v>
+      </c>
+      <c r="J21">
+        <v>30</v>
+      </c>
+      <c r="K21">
+        <v>2450</v>
+      </c>
+      <c r="L21">
+        <v>350</v>
+      </c>
+      <c r="M21">
+        <v>20</v>
+      </c>
+      <c r="N21">
+        <v>10</v>
+      </c>
+      <c r="O21">
+        <v>20.8</v>
+      </c>
+      <c r="P21">
+        <v>20</v>
+      </c>
+      <c r="Q21">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="R21">
+        <v>20</v>
+      </c>
+      <c r="S21">
+        <v>76</v>
+      </c>
+      <c r="T21">
+        <v>3.88</v>
+      </c>
+      <c r="U21">
+        <v>2.71</v>
+      </c>
+      <c r="V21">
+        <v>1.3</v>
+      </c>
+      <c r="W21">
+        <v>0.8</v>
+      </c>
+      <c r="X21">
+        <v>0.8</v>
+      </c>
+      <c r="Y21">
+        <v>0.74</v>
+      </c>
+      <c r="Z21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>82</v>
+      </c>
+      <c r="B22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22">
+        <v>11.56</v>
+      </c>
+      <c r="D22">
+        <v>40</v>
+      </c>
+      <c r="E22">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="F22">
+        <v>4.5</v>
+      </c>
+      <c r="G22">
+        <v>3600</v>
+      </c>
+      <c r="H22">
+        <v>1600</v>
+      </c>
+      <c r="I22">
+        <v>350</v>
+      </c>
+      <c r="J22">
+        <v>24</v>
+      </c>
+      <c r="K22">
+        <v>3250</v>
+      </c>
+      <c r="L22">
+        <v>400</v>
+      </c>
+      <c r="M22">
+        <v>50</v>
+      </c>
+      <c r="N22">
+        <v>23</v>
+      </c>
+      <c r="O22">
+        <v>10</v>
+      </c>
+      <c r="P22">
+        <v>20</v>
+      </c>
+      <c r="Q22">
+        <v>4.2</v>
+      </c>
+      <c r="R22">
+        <v>20</v>
+      </c>
+      <c r="S22">
+        <v>70</v>
+      </c>
+      <c r="T22">
+        <v>3.85</v>
+      </c>
+      <c r="U22">
+        <v>2.85</v>
+      </c>
+      <c r="V22">
+        <v>1.4</v>
+      </c>
+      <c r="W22">
+        <v>0.5</v>
+      </c>
+      <c r="X22">
+        <v>0.5</v>
+      </c>
+      <c r="Y22">
+        <v>0.74</v>
+      </c>
+      <c r="Z22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>91</v>
+      </c>
+      <c r="B23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23">
+        <v>11.56</v>
+      </c>
+      <c r="D23">
+        <v>40</v>
+      </c>
+      <c r="E23">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="F23">
+        <v>4.5</v>
+      </c>
+      <c r="G23">
+        <v>4100</v>
+      </c>
+      <c r="H23">
+        <v>2000</v>
+      </c>
+      <c r="I23">
+        <v>350</v>
+      </c>
+      <c r="J23">
+        <v>24</v>
+      </c>
+      <c r="K23">
+        <v>3700</v>
+      </c>
+      <c r="L23">
+        <v>600</v>
+      </c>
+      <c r="M23">
+        <v>90</v>
+      </c>
+      <c r="N23">
+        <v>23</v>
+      </c>
+      <c r="O23">
+        <v>10</v>
+      </c>
+      <c r="P23">
+        <v>20</v>
+      </c>
+      <c r="Q23">
+        <v>4</v>
+      </c>
+      <c r="R23">
+        <v>20</v>
+      </c>
+      <c r="S23">
+        <v>98</v>
+      </c>
+      <c r="T23">
+        <v>2.4</v>
+      </c>
+      <c r="U23">
+        <v>1.8</v>
+      </c>
+      <c r="V23">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="W23">
+        <v>0.5</v>
+      </c>
+      <c r="X23">
+        <v>0.5</v>
+      </c>
+      <c r="Y23">
+        <v>0.73</v>
+      </c>
+      <c r="Z23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>92</v>
+      </c>
+      <c r="B24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24">
+        <v>11.56</v>
+      </c>
+      <c r="D24">
+        <v>30</v>
+      </c>
+      <c r="E24">
+        <v>2.1</v>
+      </c>
+      <c r="F24">
+        <v>4.5</v>
+      </c>
+      <c r="G24" s="2">
+        <v>735</v>
+      </c>
+      <c r="H24" s="2">
+        <v>680</v>
+      </c>
+      <c r="I24" s="2">
+        <v>100</v>
+      </c>
+      <c r="J24" s="2">
+        <v>12</v>
+      </c>
+      <c r="K24" s="2">
+        <v>640</v>
+      </c>
+      <c r="L24" s="2">
+        <v>310</v>
+      </c>
+      <c r="M24" s="2">
+        <v>21</v>
+      </c>
+      <c r="N24" s="2">
+        <v>10</v>
+      </c>
+      <c r="O24" s="2">
+        <v>10</v>
+      </c>
+      <c r="P24" s="2">
+        <v>15</v>
+      </c>
+      <c r="Q24" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="R24" s="2">
+        <v>15</v>
+      </c>
+      <c r="S24" s="2">
+        <v>37</v>
+      </c>
+      <c r="T24" s="6">
+        <v>11</v>
+      </c>
+      <c r="U24" s="6">
+        <v>8.4</v>
+      </c>
+      <c r="V24" s="6">
+        <v>1.4</v>
+      </c>
+      <c r="W24" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="X24" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="Y24" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="Z24" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>93</v>
+      </c>
+      <c r="B25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25">
+        <v>11.56</v>
+      </c>
+      <c r="D25">
+        <v>30</v>
+      </c>
+      <c r="E25">
+        <v>2.8</v>
+      </c>
+      <c r="F25">
+        <v>4.5</v>
+      </c>
+      <c r="G25" s="2">
+        <v>1060</v>
+      </c>
+      <c r="H25" s="2">
+        <v>900</v>
+      </c>
+      <c r="I25" s="2">
+        <v>140</v>
+      </c>
+      <c r="J25" s="2">
+        <v>10</v>
+      </c>
+      <c r="K25" s="2">
+        <v>960</v>
+      </c>
+      <c r="L25" s="2">
+        <v>460</v>
+      </c>
+      <c r="M25" s="2">
+        <v>40</v>
+      </c>
+      <c r="N25" s="2">
+        <v>30</v>
+      </c>
+      <c r="O25" s="2">
+        <v>15</v>
+      </c>
+      <c r="P25" s="2">
+        <v>15</v>
+      </c>
+      <c r="Q25" s="6">
+        <v>1.2</v>
+      </c>
+      <c r="R25" s="2">
+        <v>15</v>
+      </c>
+      <c r="S25" s="2">
+        <v>46</v>
+      </c>
+      <c r="T25" s="6">
+        <v>7.87</v>
+      </c>
+      <c r="U25" s="6">
+        <v>5.63</v>
+      </c>
+      <c r="V25" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="W25" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="X25" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="Y25" s="6">
+        <v>0.85</v>
+      </c>
+      <c r="Z25" s="6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>77</v>
+      </c>
+      <c r="B26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26">
+        <v>11.56</v>
+      </c>
+      <c r="D26">
+        <v>30</v>
+      </c>
+      <c r="E26">
+        <v>3.6</v>
+      </c>
+      <c r="F26">
+        <v>10</v>
+      </c>
+      <c r="G26" s="2">
+        <v>1450</v>
+      </c>
+      <c r="H26" s="2">
+        <v>1100</v>
+      </c>
+      <c r="I26" s="2">
+        <v>200</v>
+      </c>
+      <c r="J26" s="2">
+        <v>25</v>
+      </c>
+      <c r="K26" s="2">
+        <v>1300</v>
+      </c>
+      <c r="L26" s="2">
+        <v>250</v>
+      </c>
+      <c r="M26" s="2">
+        <v>30</v>
+      </c>
+      <c r="N26" s="2">
+        <v>18</v>
+      </c>
+      <c r="O26" s="2">
+        <v>20</v>
+      </c>
+      <c r="P26" s="2">
+        <v>15</v>
+      </c>
+      <c r="Q26" s="6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="R26" s="2">
+        <v>15</v>
+      </c>
+      <c r="S26" s="2">
+        <v>77</v>
+      </c>
+      <c r="T26" s="6">
+        <v>6</v>
+      </c>
+      <c r="U26" s="6">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="V26" s="6">
+        <v>1.7</v>
+      </c>
+      <c r="W26" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="X26" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="Y26" s="6">
+        <v>0.7</v>
+      </c>
+      <c r="Z26" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>66</v>
+      </c>
+      <c r="B27" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27">
+        <v>11.56</v>
+      </c>
+      <c r="D27">
+        <v>30</v>
+      </c>
+      <c r="E27">
+        <v>3.7</v>
+      </c>
+      <c r="F27">
+        <v>4.5</v>
+      </c>
+      <c r="G27" s="2">
+        <v>1200</v>
+      </c>
+      <c r="H27" s="2">
+        <v>1200</v>
+      </c>
+      <c r="I27" s="2">
+        <v>150</v>
+      </c>
+      <c r="J27" s="2">
+        <v>12</v>
+      </c>
+      <c r="K27" s="2">
+        <v>1175</v>
+      </c>
+      <c r="L27" s="2">
+        <v>450</v>
+      </c>
+      <c r="M27" s="2">
+        <v>30</v>
+      </c>
+      <c r="N27" s="2">
+        <v>10</v>
+      </c>
+      <c r="O27" s="2">
+        <v>10</v>
+      </c>
+      <c r="P27">
+        <v>15</v>
+      </c>
+      <c r="Q27">
+        <v>1.4</v>
+      </c>
+      <c r="R27">
+        <v>15</v>
+      </c>
+      <c r="S27">
+        <v>53</v>
+      </c>
+      <c r="T27">
+        <v>3.8</v>
+      </c>
+      <c r="U27">
+        <v>2.7</v>
+      </c>
+      <c r="V27">
+        <v>0.9</v>
+      </c>
+      <c r="W27" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="X27" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="Y27">
+        <v>0.76</v>
+      </c>
+      <c r="Z27">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>96</v>
+      </c>
+      <c r="B28" t="s">
+        <v>95</v>
+      </c>
+      <c r="C28">
+        <v>11.56</v>
+      </c>
+      <c r="D28">
+        <v>30</v>
+      </c>
+      <c r="E28">
+        <v>3.8</v>
+      </c>
+      <c r="F28">
+        <v>5</v>
+      </c>
+      <c r="G28" s="2">
+        <v>1050</v>
+      </c>
+      <c r="H28" s="2">
+        <v>1000</v>
+      </c>
+      <c r="I28" s="2">
+        <v>150</v>
+      </c>
+      <c r="J28" s="2">
+        <v>10</v>
+      </c>
+      <c r="K28" s="2">
+        <v>1000</v>
+      </c>
+      <c r="L28" s="2">
+        <v>460</v>
+      </c>
+      <c r="M28" s="2">
+        <v>39</v>
+      </c>
+      <c r="N28" s="2">
+        <v>3</v>
+      </c>
+      <c r="O28" s="2">
+        <v>15</v>
+      </c>
+      <c r="P28" s="2">
+        <v>15</v>
+      </c>
+      <c r="Q28" s="6">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="R28" s="2">
+        <v>15</v>
+      </c>
+      <c r="S28" s="2">
+        <v>57</v>
+      </c>
+      <c r="T28" s="6">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="U28" s="6">
+        <v>2.7</v>
+      </c>
+      <c r="V28" s="6">
+        <v>1.2</v>
+      </c>
+      <c r="W28" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="X28" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="Y28" s="3">
+        <v>0.85</v>
+      </c>
+      <c r="Z28" s="6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>81</v>
+      </c>
+      <c r="B29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29">
+        <v>11.56</v>
+      </c>
+      <c r="D29">
+        <v>30</v>
+      </c>
+      <c r="E29">
+        <v>4</v>
+      </c>
+      <c r="F29">
+        <v>4.5</v>
+      </c>
+      <c r="G29">
+        <v>1600</v>
+      </c>
+      <c r="H29">
+        <v>1280</v>
+      </c>
+      <c r="I29">
+        <v>200</v>
+      </c>
+      <c r="J29" s="2">
+        <v>25</v>
+      </c>
+      <c r="K29">
+        <v>1400</v>
+      </c>
+      <c r="L29">
+        <v>250</v>
+      </c>
+      <c r="M29">
+        <v>36</v>
+      </c>
+      <c r="N29" s="2">
+        <v>14</v>
+      </c>
+      <c r="O29" s="2">
+        <v>10</v>
+      </c>
+      <c r="P29" s="2">
+        <v>15</v>
+      </c>
+      <c r="Q29" s="2">
+        <v>1.8</v>
+      </c>
+      <c r="R29" s="2">
+        <v>15</v>
+      </c>
+      <c r="S29" s="2">
+        <v>65</v>
+      </c>
+      <c r="T29">
+        <v>6.8</v>
+      </c>
+      <c r="U29">
+        <v>4.25</v>
+      </c>
+      <c r="V29">
+        <v>1.65</v>
+      </c>
+      <c r="W29">
+        <v>0.8</v>
+      </c>
+      <c r="X29">
+        <v>0.8</v>
+      </c>
+      <c r="Y29">
+        <v>0.76</v>
+      </c>
+      <c r="Z29">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>87</v>
+      </c>
+      <c r="B30" t="s">
+        <v>88</v>
+      </c>
+      <c r="C30">
+        <v>45</v>
+      </c>
+      <c r="D30">
+        <v>30</v>
+      </c>
+      <c r="E30">
+        <v>19</v>
+      </c>
+      <c r="F30">
+        <v>4.5</v>
+      </c>
+      <c r="G30" s="2">
+        <v>8500</v>
+      </c>
+      <c r="H30" s="2">
+        <v>6000</v>
+      </c>
+      <c r="I30" s="2">
+        <v>1000</v>
+      </c>
+      <c r="J30" s="2">
+        <v>24</v>
+      </c>
+      <c r="K30" s="2">
+        <v>7500</v>
+      </c>
+      <c r="L30" s="2">
+        <v>1400</v>
+      </c>
+      <c r="M30" s="2">
+        <v>75</v>
+      </c>
+      <c r="N30" s="2">
+        <v>20</v>
+      </c>
+      <c r="O30" s="2">
+        <v>87</v>
+      </c>
+      <c r="P30" s="2">
+        <v>15</v>
+      </c>
+      <c r="Q30" s="2">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="R30" s="2">
+        <v>15</v>
+      </c>
+      <c r="S30" s="2">
+        <v>120</v>
+      </c>
+      <c r="T30" s="3">
+        <v>2</v>
+      </c>
+      <c r="U30" s="3">
+        <v>1.7</v>
+      </c>
+      <c r="V30" s="3">
+        <v>1.9</v>
+      </c>
+      <c r="W30" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="X30" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="Y30" s="3">
+        <v>0.81</v>
+      </c>
+      <c r="Z30" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>97</v>
+      </c>
+      <c r="B31" t="s">
+        <v>95</v>
+      </c>
+      <c r="C31">
+        <v>11.56</v>
+      </c>
+      <c r="D31">
+        <v>30</v>
+      </c>
+      <c r="E31">
+        <v>5.5</v>
+      </c>
+      <c r="F31">
+        <v>5</v>
+      </c>
+      <c r="G31" s="2">
+        <v>1500</v>
+      </c>
+      <c r="H31" s="2">
+        <v>1500</v>
+      </c>
+      <c r="I31" s="2">
+        <v>200</v>
+      </c>
+      <c r="J31" s="2">
+        <v>10</v>
+      </c>
+      <c r="K31" s="2">
+        <v>1450</v>
+      </c>
+      <c r="L31" s="2">
+        <v>700</v>
+      </c>
+      <c r="M31" s="2">
+        <v>48</v>
+      </c>
+      <c r="N31" s="2">
+        <v>6</v>
+      </c>
+      <c r="O31" s="2">
+        <v>15</v>
+      </c>
+      <c r="P31" s="2">
+        <v>15</v>
+      </c>
+      <c r="Q31" s="6">
+        <v>1.7</v>
+      </c>
+      <c r="R31" s="2">
+        <v>15</v>
+      </c>
+      <c r="S31" s="2">
+        <v>61</v>
+      </c>
+      <c r="T31" s="6">
+        <v>2.9</v>
+      </c>
+      <c r="U31" s="6">
+        <v>2</v>
+      </c>
+      <c r="V31" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="W31" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="X31" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="Y31" s="3">
+        <v>0.85</v>
+      </c>
+      <c r="Z31" s="6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>84</v>
+      </c>
+      <c r="B32" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32">
+        <v>11.56</v>
+      </c>
+      <c r="D32">
+        <v>30</v>
+      </c>
+      <c r="E32">
+        <v>8.5</v>
+      </c>
+      <c r="F32">
+        <v>10</v>
+      </c>
+      <c r="G32" s="2">
+        <v>3200</v>
+      </c>
+      <c r="H32" s="2">
+        <v>2500</v>
+      </c>
+      <c r="I32" s="2">
+        <v>500</v>
+      </c>
+      <c r="J32" s="2">
+        <v>25</v>
+      </c>
+      <c r="K32" s="2">
+        <v>2800</v>
+      </c>
+      <c r="L32" s="2">
+        <v>600</v>
+      </c>
+      <c r="M32" s="2">
+        <v>50</v>
+      </c>
+      <c r="N32" s="2">
+        <v>36.5</v>
+      </c>
+      <c r="O32" s="2">
+        <v>20</v>
+      </c>
+      <c r="P32" s="2">
+        <v>15</v>
+      </c>
+      <c r="Q32" s="6">
+        <v>4</v>
+      </c>
+      <c r="R32" s="2">
+        <v>15</v>
+      </c>
+      <c r="S32" s="2">
+        <v>125</v>
+      </c>
+      <c r="T32" s="6">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="U32" s="6">
+        <v>1.55</v>
+      </c>
+      <c r="V32" s="6">
+        <v>0.7</v>
+      </c>
+      <c r="W32" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="X32" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="Y32" s="6">
+        <v>0.68</v>
+      </c>
+      <c r="Z32" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>105</v>
+      </c>
+      <c r="B33" t="s">
+        <v>88</v>
+      </c>
+      <c r="C33">
+        <v>45</v>
+      </c>
+      <c r="D33">
+        <v>30</v>
+      </c>
+      <c r="E33">
+        <v>4.5</v>
+      </c>
+      <c r="F33">
+        <v>10</v>
+      </c>
+      <c r="G33" s="2">
+        <v>2200</v>
+      </c>
+      <c r="H33" s="2">
+        <v>1300</v>
+      </c>
+      <c r="I33" s="2">
+        <v>300</v>
+      </c>
+      <c r="J33" s="2">
+        <v>15</v>
+      </c>
+      <c r="K33" s="2">
+        <v>1900</v>
+      </c>
+      <c r="L33" s="2">
+        <v>400</v>
+      </c>
+      <c r="M33" s="2">
+        <v>50</v>
+      </c>
+      <c r="N33" s="2">
+        <v>21.5</v>
+      </c>
+      <c r="O33" s="2">
+        <v>20</v>
+      </c>
+      <c r="P33" s="2">
+        <v>15</v>
+      </c>
+      <c r="Q33" s="6">
+        <v>3.6</v>
+      </c>
+      <c r="R33" s="2">
+        <v>15</v>
+      </c>
+      <c r="S33" s="2">
+        <v>165</v>
+      </c>
+      <c r="T33" s="10">
+        <v>2.8</v>
+      </c>
+      <c r="U33" s="10">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="V33" s="6">
+        <v>1.8</v>
+      </c>
+      <c r="W33" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="X33" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="Y33" s="3">
+        <v>0.68</v>
+      </c>
+      <c r="Z33" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>94</v>
+      </c>
+      <c r="B34" t="s">
+        <v>88</v>
+      </c>
+      <c r="C34">
+        <v>45</v>
+      </c>
+      <c r="D34">
+        <v>60</v>
+      </c>
+      <c r="E34">
+        <v>10</v>
+      </c>
+      <c r="F34">
+        <v>10</v>
+      </c>
+      <c r="G34" s="2">
+        <v>4000</v>
+      </c>
+      <c r="H34" s="2">
+        <v>3000</v>
+      </c>
+      <c r="I34" s="2">
+        <v>700</v>
+      </c>
+      <c r="J34" s="2">
+        <v>25</v>
+      </c>
+      <c r="K34" s="2">
+        <v>3300</v>
+      </c>
+      <c r="L34" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M34" s="2">
+        <v>50</v>
+      </c>
+      <c r="N34" s="2">
+        <v>73</v>
+      </c>
+      <c r="O34" s="2">
+        <v>20</v>
+      </c>
+      <c r="P34" s="2">
+        <v>30</v>
+      </c>
+      <c r="Q34" s="6">
+        <v>8.5</v>
+      </c>
+      <c r="R34" s="2">
+        <v>30</v>
+      </c>
+      <c r="S34" s="2">
+        <v>100</v>
+      </c>
+      <c r="T34" s="6">
+        <v>3.1</v>
+      </c>
+      <c r="U34" s="6">
+        <v>2.4</v>
+      </c>
+      <c r="V34" s="6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="W34" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="X34" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="Y34" s="3">
+        <v>0.69</v>
+      </c>
+      <c r="Z34" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>65</v>
+      </c>
+      <c r="B35" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35">
+        <v>11.56</v>
+      </c>
+      <c r="D35">
+        <v>30</v>
+      </c>
+      <c r="E35">
+        <v>9.6</v>
+      </c>
+      <c r="F35">
+        <v>4.5</v>
+      </c>
+      <c r="G35" s="2">
+        <v>3000</v>
+      </c>
+      <c r="H35" s="2">
+        <v>3000</v>
+      </c>
+      <c r="I35" s="2">
+        <v>500</v>
+      </c>
+      <c r="J35" s="2">
+        <v>12</v>
+      </c>
+      <c r="K35" s="2">
+        <v>2975</v>
+      </c>
+      <c r="L35" s="2">
+        <v>1200</v>
+      </c>
+      <c r="M35" s="2">
+        <v>200</v>
+      </c>
+      <c r="N35" s="2">
+        <v>25</v>
+      </c>
+      <c r="O35" s="2">
+        <v>10</v>
+      </c>
+      <c r="P35">
+        <v>15</v>
+      </c>
+      <c r="Q35">
+        <v>3.9</v>
+      </c>
+      <c r="R35">
+        <v>15</v>
+      </c>
+      <c r="S35">
+        <v>95</v>
+      </c>
+      <c r="T35">
+        <v>1.5</v>
+      </c>
+      <c r="U35">
+        <v>0.95</v>
+      </c>
+      <c r="V35">
+        <v>0.42</v>
+      </c>
+      <c r="W35" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="X35" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="Y35">
+        <v>0.73</v>
+      </c>
+      <c r="Z35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>104</v>
+      </c>
+      <c r="B36" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36">
+        <v>11.56</v>
+      </c>
+      <c r="D36">
+        <v>30</v>
+      </c>
+      <c r="E36">
+        <v>11.3</v>
+      </c>
+      <c r="F36">
+        <v>4.5</v>
+      </c>
+      <c r="G36" s="2">
+        <v>4000</v>
+      </c>
+      <c r="H36" s="2">
+        <v>3000</v>
+      </c>
+      <c r="I36" s="2">
+        <v>500</v>
+      </c>
+      <c r="J36" s="2">
+        <v>12</v>
+      </c>
+      <c r="K36" s="2">
+        <v>3500</v>
+      </c>
+      <c r="L36" s="2">
+        <v>1400</v>
+      </c>
+      <c r="M36" s="2">
+        <v>100</v>
+      </c>
+      <c r="N36" s="2">
+        <v>34</v>
+      </c>
+      <c r="O36" s="2">
+        <v>10</v>
+      </c>
+      <c r="P36">
+        <v>15</v>
+      </c>
+      <c r="Q36">
+        <v>3</v>
+      </c>
+      <c r="R36">
+        <v>15</v>
+      </c>
+      <c r="S36">
+        <v>117</v>
+      </c>
+      <c r="T36">
+        <v>1.25</v>
+      </c>
+      <c r="U36">
+        <v>0.88</v>
+      </c>
+      <c r="V36">
+        <v>0.75</v>
+      </c>
+      <c r="W36" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="X36" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="Y36">
+        <v>0.73</v>
+      </c>
+      <c r="Z36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>99</v>
+      </c>
+      <c r="B37" t="s">
+        <v>98</v>
+      </c>
+      <c r="C37">
+        <v>11.56</v>
+      </c>
+      <c r="D37">
+        <v>30</v>
+      </c>
+      <c r="E37">
+        <v>4</v>
+      </c>
+      <c r="F37">
+        <v>10</v>
+      </c>
+      <c r="G37" s="2">
+        <v>1700</v>
+      </c>
+      <c r="H37" s="2">
+        <v>1050</v>
+      </c>
+      <c r="I37" s="2">
+        <v>200</v>
+      </c>
+      <c r="J37" s="2">
+        <v>20</v>
+      </c>
+      <c r="K37" s="2">
+        <v>1500</v>
+      </c>
+      <c r="L37" s="2">
+        <v>300</v>
+      </c>
+      <c r="M37" s="2">
+        <v>50</v>
+      </c>
+      <c r="N37" s="2">
+        <v>21</v>
+      </c>
+      <c r="O37" s="2">
+        <v>20</v>
+      </c>
+      <c r="P37" s="2">
+        <v>15</v>
+      </c>
+      <c r="Q37" s="6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="R37" s="2">
+        <v>15</v>
+      </c>
+      <c r="S37" s="2">
+        <v>108</v>
+      </c>
+      <c r="T37" s="3">
+        <v>3.7</v>
+      </c>
+      <c r="U37" s="3">
+        <v>3.05</v>
+      </c>
+      <c r="V37" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="W37" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="X37" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="Y37" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="Z37" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>100</v>
+      </c>
+      <c r="B38" t="s">
+        <v>98</v>
+      </c>
+      <c r="C38">
+        <v>11.56</v>
+      </c>
+      <c r="D38">
+        <v>30</v>
+      </c>
+      <c r="E38">
+        <v>3.2</v>
+      </c>
+      <c r="F38">
+        <v>10</v>
+      </c>
+      <c r="G38" s="2">
+        <v>1340</v>
+      </c>
+      <c r="H38" s="2">
+        <v>900</v>
+      </c>
+      <c r="I38" s="2">
+        <v>140</v>
+      </c>
+      <c r="J38" s="2">
+        <v>20</v>
+      </c>
+      <c r="K38" s="2">
+        <v>1210</v>
+      </c>
+      <c r="L38" s="2">
+        <v>240</v>
+      </c>
+      <c r="M38" s="2">
+        <v>30</v>
+      </c>
+      <c r="N38" s="2">
+        <v>15</v>
+      </c>
+      <c r="O38" s="2">
+        <v>20</v>
+      </c>
+      <c r="P38" s="2">
+        <v>15</v>
+      </c>
+      <c r="Q38" s="6">
+        <v>1</v>
+      </c>
+      <c r="R38" s="2">
+        <v>15</v>
+      </c>
+      <c r="S38" s="2">
+        <v>125</v>
+      </c>
+      <c r="T38" s="6">
+        <v>4.7</v>
+      </c>
+      <c r="U38" s="6">
+        <v>3.9</v>
+      </c>
+      <c r="V38" s="6">
+        <v>1.9</v>
+      </c>
+      <c r="W38" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="X38" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="Y38" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="Z38" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>101</v>
+      </c>
+      <c r="B39" t="s">
+        <v>102</v>
+      </c>
+      <c r="C39">
+        <v>45</v>
+      </c>
+      <c r="D39">
+        <v>30</v>
+      </c>
+      <c r="E39">
+        <v>2.5</v>
+      </c>
+      <c r="F39">
+        <v>10</v>
+      </c>
+      <c r="G39" s="2">
+        <v>1250</v>
+      </c>
+      <c r="H39" s="2">
+        <v>1100</v>
+      </c>
+      <c r="I39" s="2">
+        <v>200</v>
+      </c>
+      <c r="J39" s="2">
+        <v>15</v>
+      </c>
+      <c r="K39" s="2">
+        <v>1200</v>
+      </c>
+      <c r="L39" s="2">
+        <v>400</v>
+      </c>
+      <c r="M39" s="2">
+        <v>62</v>
+      </c>
+      <c r="N39" s="2">
+        <v>20</v>
+      </c>
+      <c r="O39" s="2">
+        <v>20</v>
+      </c>
+      <c r="P39" s="2">
+        <v>15</v>
+      </c>
+      <c r="Q39" s="6">
+        <v>3</v>
+      </c>
+      <c r="R39" s="2">
+        <v>15</v>
+      </c>
+      <c r="S39" s="2">
+        <v>57</v>
+      </c>
+      <c r="T39" s="6">
+        <v>5.2</v>
+      </c>
+      <c r="U39" s="6">
+        <v>3.5</v>
+      </c>
+      <c r="V39" s="6">
+        <v>1.2</v>
+      </c>
+      <c r="W39" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="X39" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="Y39" s="6">
+        <v>0.7</v>
+      </c>
+      <c r="Z39" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>103</v>
+      </c>
+      <c r="B40" t="s">
+        <v>102</v>
+      </c>
+      <c r="C40">
+        <v>45</v>
+      </c>
+      <c r="D40">
+        <v>30</v>
+      </c>
+      <c r="E40">
+        <v>5.5</v>
+      </c>
+      <c r="F40">
+        <v>10</v>
+      </c>
+      <c r="G40" s="2">
+        <v>2550</v>
+      </c>
+      <c r="H40" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I40" s="2">
+        <v>400</v>
+      </c>
+      <c r="J40" s="2">
+        <v>15</v>
+      </c>
+      <c r="K40" s="2">
+        <v>2250</v>
+      </c>
+      <c r="L40" s="2">
+        <v>650</v>
+      </c>
+      <c r="M40" s="2">
+        <v>100</v>
+      </c>
+      <c r="N40" s="2">
+        <v>30</v>
+      </c>
+      <c r="O40" s="2">
+        <v>20</v>
+      </c>
+      <c r="P40" s="2">
+        <v>15</v>
+      </c>
+      <c r="Q40" s="6">
+        <v>4.5</v>
+      </c>
+      <c r="R40" s="2">
+        <v>15</v>
+      </c>
+      <c r="S40" s="2">
+        <v>110</v>
+      </c>
+      <c r="T40" s="6">
+        <v>2.6</v>
+      </c>
+      <c r="U40" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="V40" s="6">
+        <v>1.4</v>
+      </c>
+      <c r="W40" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="X40" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="Y40" s="6">
+        <v>0.7</v>
+      </c>
+      <c r="Z40" s="2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:Z40" xr:uid="{391B8B8E-5D47-4FAB-9A21-65241D68C284}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A11:Z23">
+      <sortCondition ref="G1:G40"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/mosfet_data.xlsx
+++ b/data/mosfet_data.xlsx
@@ -8,18 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://renesasgroup-my.sharepoint.com/personal/gary_kidwell_wz_renesas_com/Documents/python/charger/mathmodels/pdis_2or3lvl_bb/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="253" documentId="13_ncr:1_{B6E73BC3-DAD1-4207-9F29-342E0D899D99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7CC3C3CC-5EE0-4717-8A1A-56593B2F483F}"/>
+  <xr:revisionPtr revIDLastSave="427" documentId="13_ncr:1_{B6E73BC3-DAD1-4207-9F29-342E0D899D99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{623C26D0-4C27-4574-874E-276D52D836EA}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16920" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="column_data" sheetId="1" r:id="rId1"/>
-    <sheet name="transpose" sheetId="5" r:id="rId2"/>
-    <sheet name="transpose1" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId2"/>
+    <sheet name="transpose" sheetId="5" r:id="rId3"/>
+    <sheet name="transpose1" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">transpose!$A$1:$Z$43</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">transpose1!$A$1:$Z$40</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">transpose!$A$1:$Z$47</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">transpose1!$A$1:$Z$40</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="114">
   <si>
     <t>description</t>
   </si>
@@ -369,6 +370,21 @@
   </si>
   <si>
     <t>SIRA12DDP</t>
+  </si>
+  <si>
+    <t>SIRA62DDP</t>
+  </si>
+  <si>
+    <t>BSC022N04LS6</t>
+  </si>
+  <si>
+    <t>ISC046N04NM5</t>
+  </si>
+  <si>
+    <t>ISC036N04NM5</t>
+  </si>
+  <si>
+    <t>BSC032N04LS</t>
   </si>
 </sst>
 </file>
@@ -4201,14 +4217,3472 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E69B3F4A-D7AE-43B6-8CEC-20724C077B7B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FA5D773-A122-4889-8A90-0D77BBD1290D}">
   <dimension ref="A1:Z43"/>
   <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:Z43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O1" t="s">
+        <v>35</v>
+      </c>
+      <c r="P1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>40</v>
+      </c>
+      <c r="R1" t="s">
+        <v>42</v>
+      </c>
+      <c r="S1" t="s">
+        <v>44</v>
+      </c>
+      <c r="T1" t="s">
+        <v>61</v>
+      </c>
+      <c r="U1" t="s">
+        <v>63</v>
+      </c>
+      <c r="V1" t="s">
+        <v>47</v>
+      </c>
+      <c r="W1" t="s">
+        <v>50</v>
+      </c>
+      <c r="X1" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>41</v>
+      </c>
+      <c r="R2" t="s">
+        <v>43</v>
+      </c>
+      <c r="S2" t="s">
+        <v>45</v>
+      </c>
+      <c r="T2" t="s">
+        <v>62</v>
+      </c>
+      <c r="U2" t="s">
+        <v>64</v>
+      </c>
+      <c r="V2" t="s">
+        <v>48</v>
+      </c>
+      <c r="W2" t="s">
+        <v>51</v>
+      </c>
+      <c r="X2" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3" t="s">
+        <v>20</v>
+      </c>
+      <c r="N3" t="s">
+        <v>17</v>
+      </c>
+      <c r="O3" t="s">
+        <v>37</v>
+      </c>
+      <c r="P3" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>17</v>
+      </c>
+      <c r="R3" t="s">
+        <v>14</v>
+      </c>
+      <c r="S3" t="s">
+        <v>67</v>
+      </c>
+      <c r="T3" t="s">
+        <v>46</v>
+      </c>
+      <c r="U3" t="s">
+        <v>46</v>
+      </c>
+      <c r="V3" t="s">
+        <v>49</v>
+      </c>
+      <c r="W3" t="s">
+        <v>52</v>
+      </c>
+      <c r="X3" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1.0000000000000001E-9</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1">
+        <v>9.9999999999999998E-13</v>
+      </c>
+      <c r="H4" s="1">
+        <v>9.9999999999999998E-13</v>
+      </c>
+      <c r="I4" s="1">
+        <v>9.9999999999999998E-13</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4" s="1">
+        <v>9.9999999999999998E-13</v>
+      </c>
+      <c r="L4" s="1">
+        <v>9.9999999999999998E-13</v>
+      </c>
+      <c r="M4" s="1">
+        <v>9.9999999999999998E-13</v>
+      </c>
+      <c r="N4" s="1">
+        <v>1.0000000000000001E-9</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>1.0000000000000001E-9</v>
+      </c>
+      <c r="R4">
+        <v>1</v>
+      </c>
+      <c r="S4" s="1">
+        <v>1</v>
+      </c>
+      <c r="T4" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="U4" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="V4">
+        <v>1</v>
+      </c>
+      <c r="W4" s="1">
+        <v>1.0000000000000001E-9</v>
+      </c>
+      <c r="X4" s="1">
+        <v>1.0000000000000001E-9</v>
+      </c>
+      <c r="Y4">
+        <v>1</v>
+      </c>
+      <c r="Z4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0</v>
+      </c>
+      <c r="E5" s="5">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="F5" s="5">
+        <v>4.5</v>
+      </c>
+      <c r="G5" s="5">
+        <v>1</v>
+      </c>
+      <c r="H5" s="5">
+        <v>1</v>
+      </c>
+      <c r="I5" s="5">
+        <v>1</v>
+      </c>
+      <c r="J5" s="5">
+        <v>25</v>
+      </c>
+      <c r="K5" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="L5" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="M5" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="N5" s="5">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="O5" s="5">
+        <v>1</v>
+      </c>
+      <c r="P5" s="5">
+        <v>20</v>
+      </c>
+      <c r="Q5" s="5">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="R5" s="5">
+        <v>20</v>
+      </c>
+      <c r="S5" s="5">
+        <v>20</v>
+      </c>
+      <c r="T5" s="6">
+        <v>1E-3</v>
+      </c>
+      <c r="U5" s="6">
+        <v>1E-3</v>
+      </c>
+      <c r="V5" s="5">
+        <v>1</v>
+      </c>
+      <c r="W5" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="X5" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="Y5" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="Z5" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6">
+        <f>3.4*3.4</f>
+        <v>11.559999999999999</v>
+      </c>
+      <c r="D6">
+        <v>80</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+      <c r="F6">
+        <v>4.5</v>
+      </c>
+      <c r="G6">
+        <v>2100</v>
+      </c>
+      <c r="H6">
+        <v>1200</v>
+      </c>
+      <c r="I6">
+        <v>300</v>
+      </c>
+      <c r="J6">
+        <v>40</v>
+      </c>
+      <c r="K6">
+        <v>1900</v>
+      </c>
+      <c r="L6">
+        <v>280</v>
+      </c>
+      <c r="M6">
+        <v>12</v>
+      </c>
+      <c r="N6">
+        <v>27</v>
+      </c>
+      <c r="O6">
+        <v>20</v>
+      </c>
+      <c r="P6">
+        <v>40</v>
+      </c>
+      <c r="Q6">
+        <v>4</v>
+      </c>
+      <c r="R6">
+        <v>40</v>
+      </c>
+      <c r="S6">
+        <v>52</v>
+      </c>
+      <c r="T6">
+        <v>7.4</v>
+      </c>
+      <c r="U6">
+        <v>5.9</v>
+      </c>
+      <c r="V6">
+        <v>1.3</v>
+      </c>
+      <c r="W6">
+        <v>0.5</v>
+      </c>
+      <c r="X6">
+        <v>0.5</v>
+      </c>
+      <c r="Y6">
+        <v>0.85</v>
+      </c>
+      <c r="Z6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7">
+        <f>3.4*3.4</f>
+        <v>11.559999999999999</v>
+      </c>
+      <c r="D7">
+        <v>80</v>
+      </c>
+      <c r="E7">
+        <v>7.5</v>
+      </c>
+      <c r="F7">
+        <v>10</v>
+      </c>
+      <c r="G7">
+        <v>2750</v>
+      </c>
+      <c r="H7">
+        <v>1700</v>
+      </c>
+      <c r="I7">
+        <v>200</v>
+      </c>
+      <c r="J7">
+        <v>40</v>
+      </c>
+      <c r="K7">
+        <v>2400</v>
+      </c>
+      <c r="L7">
+        <v>250</v>
+      </c>
+      <c r="M7">
+        <v>10</v>
+      </c>
+      <c r="N7">
+        <v>100</v>
+      </c>
+      <c r="O7">
+        <v>18</v>
+      </c>
+      <c r="P7">
+        <v>40</v>
+      </c>
+      <c r="Q7">
+        <v>4</v>
+      </c>
+      <c r="R7">
+        <v>40</v>
+      </c>
+      <c r="S7">
+        <v>54</v>
+      </c>
+      <c r="T7">
+        <v>5.5</v>
+      </c>
+      <c r="U7">
+        <v>5.5</v>
+      </c>
+      <c r="V7">
+        <v>1.35</v>
+      </c>
+      <c r="W7">
+        <v>0.5</v>
+      </c>
+      <c r="X7">
+        <v>0.5</v>
+      </c>
+      <c r="Y7">
+        <v>0.7</v>
+      </c>
+      <c r="Z7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>11.56</v>
+      </c>
+      <c r="D8">
+        <v>60</v>
+      </c>
+      <c r="E8">
+        <v>5</v>
+      </c>
+      <c r="F8">
+        <v>4.5</v>
+      </c>
+      <c r="G8">
+        <v>2300</v>
+      </c>
+      <c r="H8">
+        <v>1500</v>
+      </c>
+      <c r="I8">
+        <v>400</v>
+      </c>
+      <c r="J8">
+        <v>40</v>
+      </c>
+      <c r="K8">
+        <v>1900</v>
+      </c>
+      <c r="L8">
+        <v>330</v>
+      </c>
+      <c r="M8">
+        <v>16</v>
+      </c>
+      <c r="N8">
+        <v>17</v>
+      </c>
+      <c r="O8">
+        <v>20</v>
+      </c>
+      <c r="P8">
+        <v>30</v>
+      </c>
+      <c r="Q8">
+        <v>4.8</v>
+      </c>
+      <c r="R8">
+        <v>30</v>
+      </c>
+      <c r="S8">
+        <v>66</v>
+      </c>
+      <c r="T8">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="U8">
+        <v>3.9</v>
+      </c>
+      <c r="V8">
+        <v>1.8</v>
+      </c>
+      <c r="W8">
+        <v>0.5</v>
+      </c>
+      <c r="X8">
+        <v>0.5</v>
+      </c>
+      <c r="Y8">
+        <v>0.83</v>
+      </c>
+      <c r="Z8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>11.56</v>
+      </c>
+      <c r="D9">
+        <v>60</v>
+      </c>
+      <c r="E9">
+        <v>7</v>
+      </c>
+      <c r="F9">
+        <v>4.5</v>
+      </c>
+      <c r="G9">
+        <v>3000</v>
+      </c>
+      <c r="H9">
+        <v>2000</v>
+      </c>
+      <c r="I9">
+        <v>300</v>
+      </c>
+      <c r="J9">
+        <v>24</v>
+      </c>
+      <c r="K9">
+        <v>2500</v>
+      </c>
+      <c r="L9">
+        <v>700</v>
+      </c>
+      <c r="M9">
+        <v>35</v>
+      </c>
+      <c r="N9">
+        <v>25</v>
+      </c>
+      <c r="O9">
+        <v>10</v>
+      </c>
+      <c r="P9">
+        <v>30</v>
+      </c>
+      <c r="Q9">
+        <v>4.7</v>
+      </c>
+      <c r="R9">
+        <v>30</v>
+      </c>
+      <c r="S9">
+        <v>57</v>
+      </c>
+      <c r="T9">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="U9">
+        <v>2.9</v>
+      </c>
+      <c r="V9">
+        <v>0.85</v>
+      </c>
+      <c r="W9">
+        <v>0.5</v>
+      </c>
+      <c r="X9">
+        <v>0.5</v>
+      </c>
+      <c r="Y9">
+        <v>0.74</v>
+      </c>
+      <c r="Z9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>90</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10">
+        <v>11.56</v>
+      </c>
+      <c r="D10">
+        <v>60</v>
+      </c>
+      <c r="E10">
+        <v>6.2</v>
+      </c>
+      <c r="F10">
+        <v>4.5</v>
+      </c>
+      <c r="G10">
+        <v>2200</v>
+      </c>
+      <c r="H10">
+        <v>1600</v>
+      </c>
+      <c r="I10">
+        <v>300</v>
+      </c>
+      <c r="J10">
+        <v>24</v>
+      </c>
+      <c r="K10">
+        <v>2000</v>
+      </c>
+      <c r="L10">
+        <v>560</v>
+      </c>
+      <c r="M10">
+        <v>32</v>
+      </c>
+      <c r="N10">
+        <v>20</v>
+      </c>
+      <c r="O10">
+        <v>10</v>
+      </c>
+      <c r="P10">
+        <v>30</v>
+      </c>
+      <c r="Q10">
+        <v>4.5</v>
+      </c>
+      <c r="R10">
+        <v>30</v>
+      </c>
+      <c r="S10">
+        <v>54</v>
+      </c>
+      <c r="T10">
+        <v>4.8</v>
+      </c>
+      <c r="U10">
+        <v>3.4</v>
+      </c>
+      <c r="V10">
+        <v>0.85</v>
+      </c>
+      <c r="W10">
+        <v>0.5</v>
+      </c>
+      <c r="X10">
+        <v>0.5</v>
+      </c>
+      <c r="Y10">
+        <v>0.75</v>
+      </c>
+      <c r="Z10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>86</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11">
+        <v>11.56</v>
+      </c>
+      <c r="D11">
+        <v>40</v>
+      </c>
+      <c r="E11">
+        <v>0.9</v>
+      </c>
+      <c r="F11">
+        <v>4.5</v>
+      </c>
+      <c r="G11">
+        <v>760</v>
+      </c>
+      <c r="H11">
+        <v>900</v>
+      </c>
+      <c r="I11">
+        <v>100</v>
+      </c>
+      <c r="J11">
+        <v>25</v>
+      </c>
+      <c r="K11">
+        <v>650</v>
+      </c>
+      <c r="L11">
+        <v>95</v>
+      </c>
+      <c r="M11">
+        <v>11</v>
+      </c>
+      <c r="N11">
+        <v>21</v>
+      </c>
+      <c r="O11">
+        <v>20</v>
+      </c>
+      <c r="P11">
+        <v>20</v>
+      </c>
+      <c r="Q11">
+        <v>0.65</v>
+      </c>
+      <c r="R11">
+        <v>20</v>
+      </c>
+      <c r="S11">
+        <v>64</v>
+      </c>
+      <c r="T11">
+        <v>7</v>
+      </c>
+      <c r="U11">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="V11">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="W11">
+        <v>1</v>
+      </c>
+      <c r="X11">
+        <v>1</v>
+      </c>
+      <c r="Y11">
+        <v>0.85</v>
+      </c>
+      <c r="Z11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>69</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12">
+        <v>11.56</v>
+      </c>
+      <c r="D12">
+        <v>40</v>
+      </c>
+      <c r="E12">
+        <v>4.7</v>
+      </c>
+      <c r="F12">
+        <v>10</v>
+      </c>
+      <c r="G12">
+        <v>2000</v>
+      </c>
+      <c r="H12">
+        <v>2500</v>
+      </c>
+      <c r="I12">
+        <v>360</v>
+      </c>
+      <c r="J12">
+        <v>25</v>
+      </c>
+      <c r="K12">
+        <v>1800</v>
+      </c>
+      <c r="L12">
+        <v>500</v>
+      </c>
+      <c r="M12">
+        <v>17</v>
+      </c>
+      <c r="N12">
+        <v>44</v>
+      </c>
+      <c r="O12">
+        <v>20</v>
+      </c>
+      <c r="P12">
+        <v>20</v>
+      </c>
+      <c r="Q12">
+        <v>3.2</v>
+      </c>
+      <c r="R12">
+        <v>20</v>
+      </c>
+      <c r="S12">
+        <v>100</v>
+      </c>
+      <c r="T12">
+        <v>2.8</v>
+      </c>
+      <c r="U12">
+        <v>2.1</v>
+      </c>
+      <c r="V12">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="W12">
+        <v>0.5</v>
+      </c>
+      <c r="X12">
+        <v>0.5</v>
+      </c>
+      <c r="Y12">
+        <v>0.79</v>
+      </c>
+      <c r="Z12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>91</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13">
+        <v>11.56</v>
+      </c>
+      <c r="D13">
+        <v>40</v>
+      </c>
+      <c r="E13">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="F13">
+        <v>4.5</v>
+      </c>
+      <c r="G13">
+        <v>4100</v>
+      </c>
+      <c r="H13">
+        <v>2000</v>
+      </c>
+      <c r="I13">
+        <v>350</v>
+      </c>
+      <c r="J13">
+        <v>24</v>
+      </c>
+      <c r="K13">
+        <v>3700</v>
+      </c>
+      <c r="L13">
+        <v>600</v>
+      </c>
+      <c r="M13">
+        <v>90</v>
+      </c>
+      <c r="N13">
+        <v>23</v>
+      </c>
+      <c r="O13">
+        <v>10</v>
+      </c>
+      <c r="P13">
+        <v>20</v>
+      </c>
+      <c r="Q13">
+        <v>4</v>
+      </c>
+      <c r="R13">
+        <v>20</v>
+      </c>
+      <c r="S13">
+        <v>98</v>
+      </c>
+      <c r="T13">
+        <v>2.4</v>
+      </c>
+      <c r="U13">
+        <v>1.8</v>
+      </c>
+      <c r="V13">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="W13">
+        <v>0.5</v>
+      </c>
+      <c r="X13">
+        <v>0.5</v>
+      </c>
+      <c r="Y13">
+        <v>0.73</v>
+      </c>
+      <c r="Z13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>70</v>
+      </c>
+      <c r="B14" t="s">
+        <v>71</v>
+      </c>
+      <c r="C14">
+        <v>45</v>
+      </c>
+      <c r="D14">
+        <v>40</v>
+      </c>
+      <c r="E14">
+        <v>6.3</v>
+      </c>
+      <c r="F14">
+        <v>4.5</v>
+      </c>
+      <c r="G14" s="2">
+        <v>2100</v>
+      </c>
+      <c r="H14" s="2">
+        <v>1400</v>
+      </c>
+      <c r="I14" s="2">
+        <v>150</v>
+      </c>
+      <c r="J14" s="2">
+        <v>24</v>
+      </c>
+      <c r="K14" s="2">
+        <v>2000</v>
+      </c>
+      <c r="L14" s="2">
+        <v>350</v>
+      </c>
+      <c r="M14" s="2">
+        <v>14</v>
+      </c>
+      <c r="N14" s="2">
+        <v>13</v>
+      </c>
+      <c r="O14" s="2">
+        <v>10</v>
+      </c>
+      <c r="P14" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>2.1</v>
+      </c>
+      <c r="R14" s="2">
+        <v>20</v>
+      </c>
+      <c r="S14" s="2">
+        <v>50</v>
+      </c>
+      <c r="T14" s="3">
+        <v>5</v>
+      </c>
+      <c r="U14" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="V14" s="3">
+        <v>1.45</v>
+      </c>
+      <c r="W14" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="X14" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="Y14" s="3">
+        <v>0.74</v>
+      </c>
+      <c r="Z14" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>78</v>
+      </c>
+      <c r="B15" t="s">
+        <v>71</v>
+      </c>
+      <c r="C15">
+        <v>45</v>
+      </c>
+      <c r="D15">
+        <v>40</v>
+      </c>
+      <c r="E15">
+        <v>7.6</v>
+      </c>
+      <c r="F15">
+        <v>10</v>
+      </c>
+      <c r="G15" s="2">
+        <v>2400</v>
+      </c>
+      <c r="H15" s="2">
+        <v>1800</v>
+      </c>
+      <c r="I15" s="2">
+        <v>300</v>
+      </c>
+      <c r="J15" s="2">
+        <v>30</v>
+      </c>
+      <c r="K15" s="2">
+        <v>2200</v>
+      </c>
+      <c r="L15" s="2">
+        <v>380</v>
+      </c>
+      <c r="M15" s="2">
+        <v>15</v>
+      </c>
+      <c r="N15" s="2">
+        <v>23</v>
+      </c>
+      <c r="O15" s="2">
+        <v>42</v>
+      </c>
+      <c r="P15" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>3.2</v>
+      </c>
+      <c r="R15" s="2">
+        <v>20</v>
+      </c>
+      <c r="S15" s="2">
+        <v>96</v>
+      </c>
+      <c r="T15" s="6">
+        <v>6.8</v>
+      </c>
+      <c r="U15" s="6">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="V15" s="6">
+        <v>1.4</v>
+      </c>
+      <c r="W15" s="6">
+        <v>1</v>
+      </c>
+      <c r="X15" s="6">
+        <v>1</v>
+      </c>
+      <c r="Y15" s="3">
+        <v>0.88</v>
+      </c>
+      <c r="Z15" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>79</v>
+      </c>
+      <c r="B16" t="s">
+        <v>71</v>
+      </c>
+      <c r="C16">
+        <v>45</v>
+      </c>
+      <c r="D16">
+        <v>40</v>
+      </c>
+      <c r="E16">
+        <v>2.1</v>
+      </c>
+      <c r="F16">
+        <v>10</v>
+      </c>
+      <c r="G16" s="2">
+        <v>750</v>
+      </c>
+      <c r="H16" s="2">
+        <v>900</v>
+      </c>
+      <c r="I16" s="2">
+        <v>100</v>
+      </c>
+      <c r="J16" s="2">
+        <v>25</v>
+      </c>
+      <c r="K16" s="2">
+        <v>650</v>
+      </c>
+      <c r="L16" s="2">
+        <v>190</v>
+      </c>
+      <c r="M16" s="2">
+        <v>12</v>
+      </c>
+      <c r="N16" s="2">
+        <v>22</v>
+      </c>
+      <c r="O16" s="2">
+        <v>10</v>
+      </c>
+      <c r="P16" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q16" s="6">
+        <v>1.4</v>
+      </c>
+      <c r="R16" s="2">
+        <v>20</v>
+      </c>
+      <c r="S16" s="2">
+        <v>100</v>
+      </c>
+      <c r="T16" s="6">
+        <v>6.8</v>
+      </c>
+      <c r="U16" s="6">
+        <v>4.7</v>
+      </c>
+      <c r="V16" s="6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="W16" s="6">
+        <v>1</v>
+      </c>
+      <c r="X16" s="6">
+        <v>1</v>
+      </c>
+      <c r="Y16" s="3">
+        <v>0.92</v>
+      </c>
+      <c r="Z16" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>80</v>
+      </c>
+      <c r="B17" t="s">
+        <v>71</v>
+      </c>
+      <c r="C17">
+        <v>45</v>
+      </c>
+      <c r="D17">
+        <v>40</v>
+      </c>
+      <c r="E17">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="F17">
+        <v>10</v>
+      </c>
+      <c r="G17" s="2">
+        <v>2900</v>
+      </c>
+      <c r="H17" s="2">
+        <v>2500</v>
+      </c>
+      <c r="I17" s="2">
+        <v>250</v>
+      </c>
+      <c r="J17" s="2">
+        <v>30</v>
+      </c>
+      <c r="K17" s="2">
+        <v>2800</v>
+      </c>
+      <c r="L17" s="2">
+        <v>400</v>
+      </c>
+      <c r="M17" s="2">
+        <v>30</v>
+      </c>
+      <c r="N17" s="2">
+        <v>41</v>
+      </c>
+      <c r="O17" s="2">
+        <v>20</v>
+      </c>
+      <c r="P17" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q17" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="R17" s="2">
+        <v>20</v>
+      </c>
+      <c r="S17" s="2">
+        <v>203</v>
+      </c>
+      <c r="T17" s="6">
+        <v>3.5</v>
+      </c>
+      <c r="U17" s="6">
+        <v>2.6</v>
+      </c>
+      <c r="V17" s="3">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="W17" s="6">
+        <v>1</v>
+      </c>
+      <c r="X17" s="6">
+        <v>1</v>
+      </c>
+      <c r="Y17" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="Z17" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>72</v>
+      </c>
+      <c r="B18" t="s">
+        <v>71</v>
+      </c>
+      <c r="C18">
+        <v>45</v>
+      </c>
+      <c r="D18">
+        <v>40</v>
+      </c>
+      <c r="E18">
+        <v>3.1</v>
+      </c>
+      <c r="F18">
+        <v>4.5</v>
+      </c>
+      <c r="G18" s="2">
+        <v>1500</v>
+      </c>
+      <c r="H18" s="2">
+        <v>900</v>
+      </c>
+      <c r="I18" s="2">
+        <v>300</v>
+      </c>
+      <c r="J18" s="2">
+        <v>24</v>
+      </c>
+      <c r="K18" s="2">
+        <v>1150</v>
+      </c>
+      <c r="L18" s="2">
+        <v>150</v>
+      </c>
+      <c r="M18" s="2">
+        <v>60</v>
+      </c>
+      <c r="N18" s="2">
+        <v>19</v>
+      </c>
+      <c r="O18" s="2">
+        <v>10</v>
+      </c>
+      <c r="P18" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q18" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="R18" s="2">
+        <v>20</v>
+      </c>
+      <c r="S18" s="2">
+        <v>43</v>
+      </c>
+      <c r="T18" s="6">
+        <v>10.4</v>
+      </c>
+      <c r="U18" s="6">
+        <v>8.5</v>
+      </c>
+      <c r="V18" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="W18" s="6">
+        <v>1</v>
+      </c>
+      <c r="X18" s="6">
+        <v>1</v>
+      </c>
+      <c r="Y18" s="3">
+        <v>0.77</v>
+      </c>
+      <c r="Z18" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>108</v>
+      </c>
+      <c r="B19" t="s">
+        <v>71</v>
+      </c>
+      <c r="C19">
+        <v>45</v>
+      </c>
+      <c r="D19">
+        <v>40</v>
+      </c>
+      <c r="E19">
+        <v>4.5</v>
+      </c>
+      <c r="F19">
+        <v>4.5</v>
+      </c>
+      <c r="G19" s="2">
+        <v>1600</v>
+      </c>
+      <c r="H19" s="2">
+        <v>1500</v>
+      </c>
+      <c r="I19" s="2">
+        <v>200</v>
+      </c>
+      <c r="J19" s="2">
+        <v>15</v>
+      </c>
+      <c r="K19" s="2">
+        <v>1500</v>
+      </c>
+      <c r="L19" s="2">
+        <v>520</v>
+      </c>
+      <c r="M19" s="2">
+        <v>38</v>
+      </c>
+      <c r="N19" s="2">
+        <v>13</v>
+      </c>
+      <c r="O19" s="2">
+        <v>10</v>
+      </c>
+      <c r="P19" s="2">
+        <v>15</v>
+      </c>
+      <c r="Q19" s="2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="R19" s="2">
+        <v>15</v>
+      </c>
+      <c r="S19" s="2">
+        <v>80</v>
+      </c>
+      <c r="T19" s="6">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="U19" s="6">
+        <v>2.8</v>
+      </c>
+      <c r="V19" s="3">
+        <v>1.4</v>
+      </c>
+      <c r="W19" s="6">
+        <v>1</v>
+      </c>
+      <c r="X19" s="6">
+        <v>1</v>
+      </c>
+      <c r="Y19" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="Z19" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>73</v>
+      </c>
+      <c r="B20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20">
+        <v>11.56</v>
+      </c>
+      <c r="D20">
+        <v>40</v>
+      </c>
+      <c r="E20">
+        <v>3.2</v>
+      </c>
+      <c r="F20">
+        <v>4.5</v>
+      </c>
+      <c r="G20" s="2">
+        <v>2500</v>
+      </c>
+      <c r="H20" s="2">
+        <v>1500</v>
+      </c>
+      <c r="I20" s="2">
+        <v>200</v>
+      </c>
+      <c r="J20" s="2">
+        <v>24</v>
+      </c>
+      <c r="K20" s="2">
+        <v>1375</v>
+      </c>
+      <c r="L20" s="2">
+        <v>1130</v>
+      </c>
+      <c r="M20" s="2">
+        <v>50</v>
+      </c>
+      <c r="N20" s="2">
+        <v>17</v>
+      </c>
+      <c r="O20" s="2">
+        <v>10</v>
+      </c>
+      <c r="P20" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q20" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="R20" s="2">
+        <v>20</v>
+      </c>
+      <c r="S20" s="2">
+        <v>65</v>
+      </c>
+      <c r="T20" s="3">
+        <v>6.2</v>
+      </c>
+      <c r="U20" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="V20" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="W20" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="X20" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="Y20" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="Z20" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>74</v>
+      </c>
+      <c r="B21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21">
+        <v>11.56</v>
+      </c>
+      <c r="D21">
+        <v>40</v>
+      </c>
+      <c r="E21">
+        <v>2.9</v>
+      </c>
+      <c r="F21">
+        <v>4.5</v>
+      </c>
+      <c r="G21">
+        <v>950</v>
+      </c>
+      <c r="H21">
+        <v>500</v>
+      </c>
+      <c r="I21">
+        <v>70</v>
+      </c>
+      <c r="J21">
+        <v>25</v>
+      </c>
+      <c r="K21" s="2">
+        <v>875</v>
+      </c>
+      <c r="L21" s="2">
+        <v>150</v>
+      </c>
+      <c r="M21" s="2">
+        <v>16</v>
+      </c>
+      <c r="N21" s="2">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="O21" s="2">
+        <v>10</v>
+      </c>
+      <c r="P21" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q21" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="R21">
+        <v>20</v>
+      </c>
+      <c r="S21" s="2">
+        <v>45</v>
+      </c>
+      <c r="T21">
+        <v>9.6</v>
+      </c>
+      <c r="U21">
+        <v>6.7</v>
+      </c>
+      <c r="V21" s="4">
+        <v>3.2</v>
+      </c>
+      <c r="W21" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="X21" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="Y21" s="3">
+        <v>0.82</v>
+      </c>
+      <c r="Z21" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>85</v>
+      </c>
+      <c r="B22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22">
+        <v>11.56</v>
+      </c>
+      <c r="D22">
+        <v>40</v>
+      </c>
+      <c r="E22" s="7">
+        <v>2.75</v>
+      </c>
+      <c r="F22" s="7">
+        <v>4.5</v>
+      </c>
+      <c r="G22" s="2">
+        <v>1550</v>
+      </c>
+      <c r="H22" s="2">
+        <v>1000</v>
+      </c>
+      <c r="I22" s="2">
+        <v>100</v>
+      </c>
+      <c r="J22" s="2">
+        <v>30</v>
+      </c>
+      <c r="K22" s="2">
+        <v>1450</v>
+      </c>
+      <c r="L22" s="2">
+        <v>200</v>
+      </c>
+      <c r="M22" s="2">
+        <v>13</v>
+      </c>
+      <c r="N22" s="2">
+        <v>21</v>
+      </c>
+      <c r="O22" s="2">
+        <v>20</v>
+      </c>
+      <c r="P22" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q22" s="6">
+        <v>3</v>
+      </c>
+      <c r="R22" s="2">
+        <v>20</v>
+      </c>
+      <c r="S22" s="2">
+        <v>70</v>
+      </c>
+      <c r="T22" s="6">
+        <v>7.4</v>
+      </c>
+      <c r="U22" s="6">
+        <v>5</v>
+      </c>
+      <c r="V22" s="6">
+        <v>1.8</v>
+      </c>
+      <c r="W22" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="X22" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="Y22" s="6">
+        <v>0.7</v>
+      </c>
+      <c r="Z22" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>82</v>
+      </c>
+      <c r="B23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23">
+        <v>11.56</v>
+      </c>
+      <c r="D23">
+        <v>40</v>
+      </c>
+      <c r="E23">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="F23">
+        <v>4.5</v>
+      </c>
+      <c r="G23">
+        <v>3600</v>
+      </c>
+      <c r="H23">
+        <v>1600</v>
+      </c>
+      <c r="I23">
+        <v>350</v>
+      </c>
+      <c r="J23">
+        <v>24</v>
+      </c>
+      <c r="K23">
+        <v>3250</v>
+      </c>
+      <c r="L23">
+        <v>400</v>
+      </c>
+      <c r="M23">
+        <v>50</v>
+      </c>
+      <c r="N23">
+        <v>23</v>
+      </c>
+      <c r="O23">
+        <v>10</v>
+      </c>
+      <c r="P23">
+        <v>20</v>
+      </c>
+      <c r="Q23">
+        <v>4.2</v>
+      </c>
+      <c r="R23">
+        <v>20</v>
+      </c>
+      <c r="S23">
+        <v>70</v>
+      </c>
+      <c r="T23">
+        <v>3.85</v>
+      </c>
+      <c r="U23">
+        <v>2.85</v>
+      </c>
+      <c r="V23">
+        <v>1.4</v>
+      </c>
+      <c r="W23">
+        <v>0.5</v>
+      </c>
+      <c r="X23">
+        <v>0.5</v>
+      </c>
+      <c r="Y23">
+        <v>0.74</v>
+      </c>
+      <c r="Z23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>83</v>
+      </c>
+      <c r="B24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24">
+        <v>11.56</v>
+      </c>
+      <c r="D24">
+        <v>40</v>
+      </c>
+      <c r="E24">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="F24">
+        <v>4.5</v>
+      </c>
+      <c r="G24">
+        <v>2700</v>
+      </c>
+      <c r="H24">
+        <v>1400</v>
+      </c>
+      <c r="I24">
+        <v>70</v>
+      </c>
+      <c r="J24">
+        <v>30</v>
+      </c>
+      <c r="K24">
+        <v>2450</v>
+      </c>
+      <c r="L24">
+        <v>350</v>
+      </c>
+      <c r="M24">
+        <v>20</v>
+      </c>
+      <c r="N24">
+        <v>10</v>
+      </c>
+      <c r="O24">
+        <v>20.8</v>
+      </c>
+      <c r="P24">
+        <v>20</v>
+      </c>
+      <c r="Q24">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="R24">
+        <v>20</v>
+      </c>
+      <c r="S24">
+        <v>76</v>
+      </c>
+      <c r="T24">
+        <v>3.88</v>
+      </c>
+      <c r="U24">
+        <v>2.71</v>
+      </c>
+      <c r="V24">
+        <v>1.3</v>
+      </c>
+      <c r="W24">
+        <v>0.8</v>
+      </c>
+      <c r="X24">
+        <v>0.8</v>
+      </c>
+      <c r="Y24">
+        <v>0.74</v>
+      </c>
+      <c r="Z24">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>66</v>
+      </c>
+      <c r="B25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25">
+        <v>11.56</v>
+      </c>
+      <c r="D25">
+        <v>30</v>
+      </c>
+      <c r="E25">
+        <v>3.7</v>
+      </c>
+      <c r="F25">
+        <v>4.5</v>
+      </c>
+      <c r="G25" s="2">
+        <v>1200</v>
+      </c>
+      <c r="H25" s="2">
+        <v>1200</v>
+      </c>
+      <c r="I25" s="2">
+        <v>150</v>
+      </c>
+      <c r="J25" s="2">
+        <v>12</v>
+      </c>
+      <c r="K25" s="2">
+        <v>1175</v>
+      </c>
+      <c r="L25" s="2">
+        <v>450</v>
+      </c>
+      <c r="M25" s="2">
+        <v>30</v>
+      </c>
+      <c r="N25" s="2">
+        <v>10</v>
+      </c>
+      <c r="O25" s="2">
+        <v>10</v>
+      </c>
+      <c r="P25">
+        <v>15</v>
+      </c>
+      <c r="Q25">
+        <v>1.4</v>
+      </c>
+      <c r="R25">
+        <v>15</v>
+      </c>
+      <c r="S25">
+        <v>53</v>
+      </c>
+      <c r="T25">
+        <v>3.8</v>
+      </c>
+      <c r="U25">
+        <v>2.7</v>
+      </c>
+      <c r="V25">
+        <v>0.9</v>
+      </c>
+      <c r="W25" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="X25" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="Y25">
+        <v>0.76</v>
+      </c>
+      <c r="Z25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>106</v>
+      </c>
+      <c r="B26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26">
+        <v>11.56</v>
+      </c>
+      <c r="D26">
+        <v>30</v>
+      </c>
+      <c r="E26">
+        <v>4.2</v>
+      </c>
+      <c r="F26">
+        <v>4.5</v>
+      </c>
+      <c r="G26" s="2">
+        <v>1700</v>
+      </c>
+      <c r="H26" s="2">
+        <v>1600</v>
+      </c>
+      <c r="I26" s="2">
+        <v>250</v>
+      </c>
+      <c r="J26" s="2">
+        <v>15</v>
+      </c>
+      <c r="K26" s="2">
+        <v>1550</v>
+      </c>
+      <c r="L26" s="2">
+        <v>550</v>
+      </c>
+      <c r="M26" s="2">
+        <v>60</v>
+      </c>
+      <c r="N26" s="2">
+        <v>37</v>
+      </c>
+      <c r="O26" s="2">
+        <v>10</v>
+      </c>
+      <c r="P26" s="2">
+        <v>15</v>
+      </c>
+      <c r="Q26" s="2">
+        <v>2.6</v>
+      </c>
+      <c r="R26" s="2">
+        <v>15</v>
+      </c>
+      <c r="S26" s="2">
+        <v>67</v>
+      </c>
+      <c r="T26" s="3">
+        <v>4.8</v>
+      </c>
+      <c r="U26" s="3">
+        <v>2.7</v>
+      </c>
+      <c r="V26" s="2">
+        <v>1.4</v>
+      </c>
+      <c r="W26" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="X26" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="Y26" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="Z26" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>65</v>
+      </c>
+      <c r="B27" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27">
+        <v>11.56</v>
+      </c>
+      <c r="D27">
+        <v>30</v>
+      </c>
+      <c r="E27">
+        <v>9.6</v>
+      </c>
+      <c r="F27">
+        <v>4.5</v>
+      </c>
+      <c r="G27" s="2">
+        <v>3000</v>
+      </c>
+      <c r="H27" s="2">
+        <v>3000</v>
+      </c>
+      <c r="I27" s="2">
+        <v>500</v>
+      </c>
+      <c r="J27" s="2">
+        <v>12</v>
+      </c>
+      <c r="K27" s="2">
+        <v>2975</v>
+      </c>
+      <c r="L27" s="2">
+        <v>1200</v>
+      </c>
+      <c r="M27" s="2">
+        <v>200</v>
+      </c>
+      <c r="N27" s="2">
+        <v>25</v>
+      </c>
+      <c r="O27" s="2">
+        <v>10</v>
+      </c>
+      <c r="P27">
+        <v>15</v>
+      </c>
+      <c r="Q27">
+        <v>3.9</v>
+      </c>
+      <c r="R27">
+        <v>15</v>
+      </c>
+      <c r="S27">
+        <v>95</v>
+      </c>
+      <c r="T27">
+        <v>1.5</v>
+      </c>
+      <c r="U27">
+        <v>0.95</v>
+      </c>
+      <c r="V27">
+        <v>0.42</v>
+      </c>
+      <c r="W27" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="X27" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="Y27">
+        <v>0.73</v>
+      </c>
+      <c r="Z27">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>104</v>
+      </c>
+      <c r="B28" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28">
+        <v>11.56</v>
+      </c>
+      <c r="D28">
+        <v>30</v>
+      </c>
+      <c r="E28">
+        <v>11.3</v>
+      </c>
+      <c r="F28">
+        <v>4.5</v>
+      </c>
+      <c r="G28" s="2">
+        <v>4000</v>
+      </c>
+      <c r="H28" s="2">
+        <v>3000</v>
+      </c>
+      <c r="I28" s="2">
+        <v>500</v>
+      </c>
+      <c r="J28" s="2">
+        <v>12</v>
+      </c>
+      <c r="K28" s="2">
+        <v>3500</v>
+      </c>
+      <c r="L28" s="2">
+        <v>1400</v>
+      </c>
+      <c r="M28" s="2">
+        <v>100</v>
+      </c>
+      <c r="N28" s="2">
+        <v>34</v>
+      </c>
+      <c r="O28" s="2">
+        <v>10</v>
+      </c>
+      <c r="P28">
+        <v>15</v>
+      </c>
+      <c r="Q28">
+        <v>3</v>
+      </c>
+      <c r="R28">
+        <v>15</v>
+      </c>
+      <c r="S28">
+        <v>117</v>
+      </c>
+      <c r="T28">
+        <v>1.25</v>
+      </c>
+      <c r="U28">
+        <v>0.88</v>
+      </c>
+      <c r="V28">
+        <v>0.75</v>
+      </c>
+      <c r="W28" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="X28" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="Y28">
+        <v>0.73</v>
+      </c>
+      <c r="Z28">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>107</v>
+      </c>
+      <c r="B29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29">
+        <v>11.56</v>
+      </c>
+      <c r="D29">
+        <v>30</v>
+      </c>
+      <c r="E29">
+        <v>11.2</v>
+      </c>
+      <c r="F29">
+        <v>4.5</v>
+      </c>
+      <c r="G29" s="2">
+        <v>4000</v>
+      </c>
+      <c r="H29" s="2">
+        <v>4000</v>
+      </c>
+      <c r="I29" s="2">
+        <v>550</v>
+      </c>
+      <c r="J29" s="2">
+        <v>15</v>
+      </c>
+      <c r="K29" s="2">
+        <v>3700</v>
+      </c>
+      <c r="L29" s="2">
+        <v>1800</v>
+      </c>
+      <c r="M29" s="2">
+        <v>160</v>
+      </c>
+      <c r="N29" s="2">
+        <v>45</v>
+      </c>
+      <c r="O29" s="2">
+        <v>10</v>
+      </c>
+      <c r="P29" s="2">
+        <v>15</v>
+      </c>
+      <c r="Q29" s="2">
+        <v>5.8</v>
+      </c>
+      <c r="R29" s="2">
+        <v>15</v>
+      </c>
+      <c r="S29" s="2">
+        <v>84</v>
+      </c>
+      <c r="T29" s="3">
+        <v>1.75</v>
+      </c>
+      <c r="U29" s="3">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="V29" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="W29" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="X29" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="Y29" s="3">
+        <v>0.45</v>
+      </c>
+      <c r="Z29" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>77</v>
+      </c>
+      <c r="B30" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30">
+        <v>11.56</v>
+      </c>
+      <c r="D30">
+        <v>30</v>
+      </c>
+      <c r="E30">
+        <v>3.6</v>
+      </c>
+      <c r="F30">
+        <v>10</v>
+      </c>
+      <c r="G30" s="2">
+        <v>1450</v>
+      </c>
+      <c r="H30" s="2">
+        <v>1100</v>
+      </c>
+      <c r="I30" s="2">
+        <v>200</v>
+      </c>
+      <c r="J30" s="2">
+        <v>25</v>
+      </c>
+      <c r="K30" s="2">
+        <v>1300</v>
+      </c>
+      <c r="L30" s="2">
+        <v>250</v>
+      </c>
+      <c r="M30" s="2">
+        <v>30</v>
+      </c>
+      <c r="N30" s="2">
+        <v>18</v>
+      </c>
+      <c r="O30" s="2">
+        <v>20</v>
+      </c>
+      <c r="P30" s="2">
+        <v>15</v>
+      </c>
+      <c r="Q30" s="6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="R30" s="2">
+        <v>15</v>
+      </c>
+      <c r="S30" s="2">
+        <v>77</v>
+      </c>
+      <c r="T30" s="6">
+        <v>6</v>
+      </c>
+      <c r="U30" s="6">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="V30" s="6">
+        <v>1.7</v>
+      </c>
+      <c r="W30" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="X30" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="Y30" s="6">
+        <v>0.7</v>
+      </c>
+      <c r="Z30" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>84</v>
+      </c>
+      <c r="B31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31">
+        <v>11.56</v>
+      </c>
+      <c r="D31">
+        <v>30</v>
+      </c>
+      <c r="E31">
+        <v>8.5</v>
+      </c>
+      <c r="F31">
+        <v>10</v>
+      </c>
+      <c r="G31" s="2">
+        <v>3200</v>
+      </c>
+      <c r="H31" s="2">
+        <v>2500</v>
+      </c>
+      <c r="I31" s="2">
+        <v>500</v>
+      </c>
+      <c r="J31" s="2">
+        <v>25</v>
+      </c>
+      <c r="K31" s="2">
+        <v>2800</v>
+      </c>
+      <c r="L31" s="2">
+        <v>600</v>
+      </c>
+      <c r="M31" s="2">
+        <v>50</v>
+      </c>
+      <c r="N31" s="2">
+        <v>36.5</v>
+      </c>
+      <c r="O31" s="2">
+        <v>20</v>
+      </c>
+      <c r="P31" s="2">
+        <v>15</v>
+      </c>
+      <c r="Q31" s="6">
+        <v>4</v>
+      </c>
+      <c r="R31" s="2">
+        <v>15</v>
+      </c>
+      <c r="S31" s="2">
+        <v>125</v>
+      </c>
+      <c r="T31" s="6">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="U31" s="6">
+        <v>1.55</v>
+      </c>
+      <c r="V31" s="6">
+        <v>0.7</v>
+      </c>
+      <c r="W31" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="X31" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="Y31" s="6">
+        <v>0.68</v>
+      </c>
+      <c r="Z31" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>81</v>
+      </c>
+      <c r="B32" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32">
+        <v>11.56</v>
+      </c>
+      <c r="D32">
+        <v>30</v>
+      </c>
+      <c r="E32">
+        <v>4</v>
+      </c>
+      <c r="F32">
+        <v>4.5</v>
+      </c>
+      <c r="G32">
+        <v>1600</v>
+      </c>
+      <c r="H32">
+        <v>1280</v>
+      </c>
+      <c r="I32">
+        <v>200</v>
+      </c>
+      <c r="J32" s="2">
+        <v>25</v>
+      </c>
+      <c r="K32">
+        <v>1400</v>
+      </c>
+      <c r="L32">
+        <v>250</v>
+      </c>
+      <c r="M32">
+        <v>36</v>
+      </c>
+      <c r="N32" s="2">
+        <v>14</v>
+      </c>
+      <c r="O32" s="2">
+        <v>10</v>
+      </c>
+      <c r="P32" s="2">
+        <v>15</v>
+      </c>
+      <c r="Q32" s="2">
+        <v>1.8</v>
+      </c>
+      <c r="R32" s="2">
+        <v>15</v>
+      </c>
+      <c r="S32" s="2">
+        <v>65</v>
+      </c>
+      <c r="T32">
+        <v>6.8</v>
+      </c>
+      <c r="U32">
+        <v>4.25</v>
+      </c>
+      <c r="V32">
+        <v>1.65</v>
+      </c>
+      <c r="W32">
+        <v>0.8</v>
+      </c>
+      <c r="X32">
+        <v>0.8</v>
+      </c>
+      <c r="Y32">
+        <v>0.76</v>
+      </c>
+      <c r="Z32">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>87</v>
+      </c>
+      <c r="B33" t="s">
+        <v>88</v>
+      </c>
+      <c r="C33">
+        <v>45</v>
+      </c>
+      <c r="D33">
+        <v>30</v>
+      </c>
+      <c r="E33">
+        <v>19</v>
+      </c>
+      <c r="F33">
+        <v>4.5</v>
+      </c>
+      <c r="G33" s="2">
+        <v>8500</v>
+      </c>
+      <c r="H33" s="2">
+        <v>6000</v>
+      </c>
+      <c r="I33" s="2">
+        <v>1000</v>
+      </c>
+      <c r="J33" s="2">
+        <v>24</v>
+      </c>
+      <c r="K33" s="2">
+        <v>7500</v>
+      </c>
+      <c r="L33" s="2">
+        <v>1400</v>
+      </c>
+      <c r="M33" s="2">
+        <v>75</v>
+      </c>
+      <c r="N33" s="2">
+        <v>20</v>
+      </c>
+      <c r="O33" s="2">
+        <v>87</v>
+      </c>
+      <c r="P33" s="2">
+        <v>15</v>
+      </c>
+      <c r="Q33" s="2">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="R33" s="2">
+        <v>15</v>
+      </c>
+      <c r="S33" s="2">
+        <v>120</v>
+      </c>
+      <c r="T33" s="3">
+        <v>2</v>
+      </c>
+      <c r="U33" s="3">
+        <v>1.7</v>
+      </c>
+      <c r="V33" s="3">
+        <v>1.9</v>
+      </c>
+      <c r="W33" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="X33" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="Y33" s="3">
+        <v>0.81</v>
+      </c>
+      <c r="Z33" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>92</v>
+      </c>
+      <c r="B34" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34">
+        <v>11.56</v>
+      </c>
+      <c r="D34">
+        <v>30</v>
+      </c>
+      <c r="E34">
+        <v>2.1</v>
+      </c>
+      <c r="F34">
+        <v>4.5</v>
+      </c>
+      <c r="G34" s="2">
+        <v>735</v>
+      </c>
+      <c r="H34" s="2">
+        <v>680</v>
+      </c>
+      <c r="I34" s="2">
+        <v>100</v>
+      </c>
+      <c r="J34" s="2">
+        <v>12</v>
+      </c>
+      <c r="K34" s="2">
+        <v>640</v>
+      </c>
+      <c r="L34" s="2">
+        <v>310</v>
+      </c>
+      <c r="M34" s="2">
+        <v>21</v>
+      </c>
+      <c r="N34" s="2">
+        <v>10</v>
+      </c>
+      <c r="O34" s="2">
+        <v>10</v>
+      </c>
+      <c r="P34" s="2">
+        <v>15</v>
+      </c>
+      <c r="Q34" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="R34" s="2">
+        <v>15</v>
+      </c>
+      <c r="S34" s="2">
+        <v>37</v>
+      </c>
+      <c r="T34" s="6">
+        <v>11</v>
+      </c>
+      <c r="U34" s="6">
+        <v>8.4</v>
+      </c>
+      <c r="V34" s="6">
+        <v>1.4</v>
+      </c>
+      <c r="W34" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="X34" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="Y34" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="Z34" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>93</v>
+      </c>
+      <c r="B35" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35">
+        <v>11.56</v>
+      </c>
+      <c r="D35">
+        <v>30</v>
+      </c>
+      <c r="E35">
+        <v>2.8</v>
+      </c>
+      <c r="F35">
+        <v>4.5</v>
+      </c>
+      <c r="G35" s="2">
+        <v>1060</v>
+      </c>
+      <c r="H35" s="2">
+        <v>900</v>
+      </c>
+      <c r="I35" s="2">
+        <v>140</v>
+      </c>
+      <c r="J35" s="2">
+        <v>10</v>
+      </c>
+      <c r="K35" s="2">
+        <v>960</v>
+      </c>
+      <c r="L35" s="2">
+        <v>460</v>
+      </c>
+      <c r="M35" s="2">
+        <v>40</v>
+      </c>
+      <c r="N35" s="2">
+        <v>30</v>
+      </c>
+      <c r="O35" s="2">
+        <v>15</v>
+      </c>
+      <c r="P35" s="2">
+        <v>15</v>
+      </c>
+      <c r="Q35" s="6">
+        <v>1.2</v>
+      </c>
+      <c r="R35" s="2">
+        <v>15</v>
+      </c>
+      <c r="S35" s="2">
+        <v>46</v>
+      </c>
+      <c r="T35" s="6">
+        <v>7.87</v>
+      </c>
+      <c r="U35" s="6">
+        <v>5.63</v>
+      </c>
+      <c r="V35" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="W35" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="X35" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="Y35" s="6">
+        <v>0.85</v>
+      </c>
+      <c r="Z35" s="6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>105</v>
+      </c>
+      <c r="B36" t="s">
+        <v>88</v>
+      </c>
+      <c r="C36">
+        <v>45</v>
+      </c>
+      <c r="D36">
+        <v>30</v>
+      </c>
+      <c r="E36">
+        <v>4.5</v>
+      </c>
+      <c r="F36">
+        <v>10</v>
+      </c>
+      <c r="G36" s="2">
+        <v>2200</v>
+      </c>
+      <c r="H36" s="2">
+        <v>1300</v>
+      </c>
+      <c r="I36" s="2">
+        <v>300</v>
+      </c>
+      <c r="J36" s="2">
+        <v>15</v>
+      </c>
+      <c r="K36" s="2">
+        <v>1900</v>
+      </c>
+      <c r="L36" s="2">
+        <v>400</v>
+      </c>
+      <c r="M36" s="2">
+        <v>50</v>
+      </c>
+      <c r="N36" s="2">
+        <v>21.5</v>
+      </c>
+      <c r="O36" s="2">
+        <v>20</v>
+      </c>
+      <c r="P36" s="2">
+        <v>15</v>
+      </c>
+      <c r="Q36" s="6">
+        <v>3.6</v>
+      </c>
+      <c r="R36" s="2">
+        <v>15</v>
+      </c>
+      <c r="S36" s="2">
+        <v>165</v>
+      </c>
+      <c r="T36" s="10">
+        <v>2.8</v>
+      </c>
+      <c r="U36" s="10">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="V36" s="6">
+        <v>1.8</v>
+      </c>
+      <c r="W36" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="X36" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="Y36" s="3">
+        <v>0.68</v>
+      </c>
+      <c r="Z36" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>94</v>
+      </c>
+      <c r="B37" t="s">
+        <v>88</v>
+      </c>
+      <c r="C37">
+        <v>45</v>
+      </c>
+      <c r="D37">
+        <v>60</v>
+      </c>
+      <c r="E37">
+        <v>10</v>
+      </c>
+      <c r="F37">
+        <v>10</v>
+      </c>
+      <c r="G37" s="2">
+        <v>4000</v>
+      </c>
+      <c r="H37" s="2">
+        <v>3000</v>
+      </c>
+      <c r="I37" s="2">
+        <v>700</v>
+      </c>
+      <c r="J37" s="2">
+        <v>25</v>
+      </c>
+      <c r="K37" s="2">
+        <v>3300</v>
+      </c>
+      <c r="L37" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M37" s="2">
+        <v>50</v>
+      </c>
+      <c r="N37" s="2">
+        <v>73</v>
+      </c>
+      <c r="O37" s="2">
+        <v>20</v>
+      </c>
+      <c r="P37" s="2">
+        <v>30</v>
+      </c>
+      <c r="Q37" s="6">
+        <v>8.5</v>
+      </c>
+      <c r="R37" s="2">
+        <v>30</v>
+      </c>
+      <c r="S37" s="2">
+        <v>100</v>
+      </c>
+      <c r="T37" s="6">
+        <v>3.1</v>
+      </c>
+      <c r="U37" s="6">
+        <v>2.4</v>
+      </c>
+      <c r="V37" s="6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="W37" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="X37" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="Y37" s="3">
+        <v>0.69</v>
+      </c>
+      <c r="Z37" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>96</v>
+      </c>
+      <c r="B38" t="s">
+        <v>95</v>
+      </c>
+      <c r="C38">
+        <v>11.56</v>
+      </c>
+      <c r="D38">
+        <v>30</v>
+      </c>
+      <c r="E38">
+        <v>3.8</v>
+      </c>
+      <c r="F38">
+        <v>5</v>
+      </c>
+      <c r="G38" s="2">
+        <v>1050</v>
+      </c>
+      <c r="H38" s="2">
+        <v>1000</v>
+      </c>
+      <c r="I38" s="2">
+        <v>150</v>
+      </c>
+      <c r="J38" s="2">
+        <v>10</v>
+      </c>
+      <c r="K38" s="2">
+        <v>1000</v>
+      </c>
+      <c r="L38" s="2">
+        <v>460</v>
+      </c>
+      <c r="M38" s="2">
+        <v>39</v>
+      </c>
+      <c r="N38" s="2">
+        <v>3</v>
+      </c>
+      <c r="O38" s="2">
+        <v>15</v>
+      </c>
+      <c r="P38" s="2">
+        <v>15</v>
+      </c>
+      <c r="Q38" s="6">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="R38" s="2">
+        <v>15</v>
+      </c>
+      <c r="S38" s="2">
+        <v>57</v>
+      </c>
+      <c r="T38" s="6">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="U38" s="6">
+        <v>2.7</v>
+      </c>
+      <c r="V38" s="6">
+        <v>1.2</v>
+      </c>
+      <c r="W38" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="X38" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="Y38" s="3">
+        <v>0.85</v>
+      </c>
+      <c r="Z38" s="6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>97</v>
+      </c>
+      <c r="B39" t="s">
+        <v>95</v>
+      </c>
+      <c r="C39">
+        <v>11.56</v>
+      </c>
+      <c r="D39">
+        <v>30</v>
+      </c>
+      <c r="E39">
+        <v>5.5</v>
+      </c>
+      <c r="F39">
+        <v>5</v>
+      </c>
+      <c r="G39" s="2">
+        <v>1500</v>
+      </c>
+      <c r="H39" s="2">
+        <v>1500</v>
+      </c>
+      <c r="I39" s="2">
+        <v>200</v>
+      </c>
+      <c r="J39" s="2">
+        <v>10</v>
+      </c>
+      <c r="K39" s="2">
+        <v>1450</v>
+      </c>
+      <c r="L39" s="2">
+        <v>700</v>
+      </c>
+      <c r="M39" s="2">
+        <v>48</v>
+      </c>
+      <c r="N39" s="2">
+        <v>6</v>
+      </c>
+      <c r="O39" s="2">
+        <v>15</v>
+      </c>
+      <c r="P39" s="2">
+        <v>15</v>
+      </c>
+      <c r="Q39" s="6">
+        <v>1.7</v>
+      </c>
+      <c r="R39" s="2">
+        <v>15</v>
+      </c>
+      <c r="S39" s="2">
+        <v>61</v>
+      </c>
+      <c r="T39" s="6">
+        <v>2.9</v>
+      </c>
+      <c r="U39" s="6">
+        <v>2</v>
+      </c>
+      <c r="V39" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="W39" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="X39" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="Y39" s="3">
+        <v>0.85</v>
+      </c>
+      <c r="Z39" s="6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>99</v>
+      </c>
+      <c r="B40" t="s">
+        <v>98</v>
+      </c>
+      <c r="C40">
+        <v>11.56</v>
+      </c>
+      <c r="D40">
+        <v>30</v>
+      </c>
+      <c r="E40">
+        <v>4</v>
+      </c>
+      <c r="F40">
+        <v>10</v>
+      </c>
+      <c r="G40" s="2">
+        <v>1700</v>
+      </c>
+      <c r="H40" s="2">
+        <v>1050</v>
+      </c>
+      <c r="I40" s="2">
+        <v>200</v>
+      </c>
+      <c r="J40" s="2">
+        <v>20</v>
+      </c>
+      <c r="K40" s="2">
+        <v>1500</v>
+      </c>
+      <c r="L40" s="2">
+        <v>300</v>
+      </c>
+      <c r="M40" s="2">
+        <v>50</v>
+      </c>
+      <c r="N40" s="2">
+        <v>21</v>
+      </c>
+      <c r="O40" s="2">
+        <v>20</v>
+      </c>
+      <c r="P40" s="2">
+        <v>15</v>
+      </c>
+      <c r="Q40" s="6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="R40" s="2">
+        <v>15</v>
+      </c>
+      <c r="S40" s="2">
+        <v>108</v>
+      </c>
+      <c r="T40" s="3">
+        <v>3.7</v>
+      </c>
+      <c r="U40" s="3">
+        <v>3.05</v>
+      </c>
+      <c r="V40" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="W40" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="X40" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="Y40" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="Z40" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>100</v>
+      </c>
+      <c r="B41" t="s">
+        <v>98</v>
+      </c>
+      <c r="C41">
+        <v>11.56</v>
+      </c>
+      <c r="D41">
+        <v>30</v>
+      </c>
+      <c r="E41">
+        <v>3.2</v>
+      </c>
+      <c r="F41">
+        <v>10</v>
+      </c>
+      <c r="G41" s="2">
+        <v>1340</v>
+      </c>
+      <c r="H41" s="2">
+        <v>900</v>
+      </c>
+      <c r="I41" s="2">
+        <v>140</v>
+      </c>
+      <c r="J41" s="2">
+        <v>20</v>
+      </c>
+      <c r="K41" s="2">
+        <v>1210</v>
+      </c>
+      <c r="L41" s="2">
+        <v>240</v>
+      </c>
+      <c r="M41" s="2">
+        <v>30</v>
+      </c>
+      <c r="N41" s="2">
+        <v>15</v>
+      </c>
+      <c r="O41" s="2">
+        <v>20</v>
+      </c>
+      <c r="P41" s="2">
+        <v>15</v>
+      </c>
+      <c r="Q41" s="6">
+        <v>1</v>
+      </c>
+      <c r="R41" s="2">
+        <v>15</v>
+      </c>
+      <c r="S41" s="2">
+        <v>125</v>
+      </c>
+      <c r="T41" s="6">
+        <v>4.7</v>
+      </c>
+      <c r="U41" s="6">
+        <v>3.9</v>
+      </c>
+      <c r="V41" s="6">
+        <v>1.9</v>
+      </c>
+      <c r="W41" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="X41" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="Y41" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="Z41" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>101</v>
+      </c>
+      <c r="B42" t="s">
+        <v>102</v>
+      </c>
+      <c r="C42">
+        <v>45</v>
+      </c>
+      <c r="D42">
+        <v>30</v>
+      </c>
+      <c r="E42">
+        <v>2.5</v>
+      </c>
+      <c r="F42">
+        <v>10</v>
+      </c>
+      <c r="G42" s="2">
+        <v>1250</v>
+      </c>
+      <c r="H42" s="2">
+        <v>1100</v>
+      </c>
+      <c r="I42" s="2">
+        <v>200</v>
+      </c>
+      <c r="J42" s="2">
+        <v>15</v>
+      </c>
+      <c r="K42" s="2">
+        <v>1200</v>
+      </c>
+      <c r="L42" s="2">
+        <v>400</v>
+      </c>
+      <c r="M42" s="2">
+        <v>62</v>
+      </c>
+      <c r="N42" s="2">
+        <v>20</v>
+      </c>
+      <c r="O42" s="2">
+        <v>20</v>
+      </c>
+      <c r="P42" s="2">
+        <v>15</v>
+      </c>
+      <c r="Q42" s="6">
+        <v>3</v>
+      </c>
+      <c r="R42" s="2">
+        <v>15</v>
+      </c>
+      <c r="S42" s="2">
+        <v>57</v>
+      </c>
+      <c r="T42" s="6">
+        <v>5.2</v>
+      </c>
+      <c r="U42" s="6">
+        <v>3.5</v>
+      </c>
+      <c r="V42" s="6">
+        <v>1.2</v>
+      </c>
+      <c r="W42" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="X42" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="Y42" s="6">
+        <v>0.7</v>
+      </c>
+      <c r="Z42" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>103</v>
+      </c>
+      <c r="B43" t="s">
+        <v>102</v>
+      </c>
+      <c r="C43">
+        <v>45</v>
+      </c>
+      <c r="D43">
+        <v>30</v>
+      </c>
+      <c r="E43">
+        <v>5.5</v>
+      </c>
+      <c r="F43">
+        <v>10</v>
+      </c>
+      <c r="G43" s="2">
+        <v>2550</v>
+      </c>
+      <c r="H43" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I43" s="2">
+        <v>400</v>
+      </c>
+      <c r="J43" s="2">
+        <v>15</v>
+      </c>
+      <c r="K43" s="2">
+        <v>2250</v>
+      </c>
+      <c r="L43" s="2">
+        <v>650</v>
+      </c>
+      <c r="M43" s="2">
+        <v>100</v>
+      </c>
+      <c r="N43" s="2">
+        <v>30</v>
+      </c>
+      <c r="O43" s="2">
+        <v>20</v>
+      </c>
+      <c r="P43" s="2">
+        <v>15</v>
+      </c>
+      <c r="Q43" s="6">
+        <v>4.5</v>
+      </c>
+      <c r="R43" s="2">
+        <v>15</v>
+      </c>
+      <c r="S43" s="2">
+        <v>110</v>
+      </c>
+      <c r="T43" s="6">
+        <v>2.6</v>
+      </c>
+      <c r="U43" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="V43" s="6">
+        <v>1.4</v>
+      </c>
+      <c r="W43" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="X43" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="Y43" s="6">
+        <v>0.7</v>
+      </c>
+      <c r="Z43" s="2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E69B3F4A-D7AE-43B6-8CEC-20724C077B7B}">
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:Z47"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="I13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="D42" sqref="D42"/>
+      <selection pane="bottomRight" activeCell="O56" sqref="O56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4225,6 +7699,7 @@
     <col min="15" max="15" width="13.85546875" customWidth="1"/>
     <col min="16" max="16" width="12.28515625" customWidth="1"/>
     <col min="18" max="18" width="12.42578125" customWidth="1"/>
+    <col min="21" max="21" width="11.140625" customWidth="1"/>
     <col min="23" max="23" width="11.140625" customWidth="1"/>
     <col min="24" max="24" width="11.5703125" customWidth="1"/>
     <col min="25" max="25" width="15.7109375" customWidth="1"/>
@@ -4311,7 +7786,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -4391,7 +7866,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -4471,7 +7946,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -4551,7 +8026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>75</v>
       </c>
@@ -4631,7 +8106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -4712,7 +8187,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -4793,7 +8268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>68</v>
       </c>
@@ -4873,7 +8348,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>89</v>
       </c>
@@ -4953,7 +8428,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>90</v>
       </c>
@@ -5033,9 +8508,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B11" t="s">
         <v>8</v>
@@ -5047,73 +8522,73 @@
         <v>40</v>
       </c>
       <c r="E11">
-        <v>0.9</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="F11">
         <v>4.5</v>
       </c>
       <c r="G11">
-        <v>760</v>
+        <v>4100</v>
       </c>
       <c r="H11">
-        <v>900</v>
+        <v>2000</v>
       </c>
       <c r="I11">
-        <v>100</v>
+        <v>350</v>
       </c>
       <c r="J11">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K11">
-        <v>650</v>
+        <v>3700</v>
       </c>
       <c r="L11">
-        <v>95</v>
+        <v>600</v>
       </c>
       <c r="M11">
-        <v>11</v>
+        <v>90</v>
       </c>
       <c r="N11">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="O11">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="P11">
         <v>20</v>
       </c>
       <c r="Q11">
-        <v>0.65</v>
+        <v>4</v>
       </c>
       <c r="R11">
         <v>20</v>
       </c>
       <c r="S11">
-        <v>64</v>
+        <v>98</v>
       </c>
       <c r="T11">
-        <v>7</v>
+        <v>2.4</v>
       </c>
       <c r="U11">
-        <v>5.0999999999999996</v>
+        <v>1.8</v>
       </c>
       <c r="V11">
-        <v>2.2999999999999998</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="W11">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="X11">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="Y11">
-        <v>0.85</v>
+        <v>0.73</v>
       </c>
       <c r="Z11">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>69</v>
       </c>
@@ -5195,167 +8670,167 @@
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>71</v>
       </c>
       <c r="C13">
-        <v>11.56</v>
+        <v>45</v>
       </c>
       <c r="D13">
         <v>40</v>
       </c>
       <c r="E13">
-        <v>9.3000000000000007</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="F13">
-        <v>4.5</v>
-      </c>
-      <c r="G13">
-        <v>4100</v>
-      </c>
-      <c r="H13">
-        <v>2000</v>
-      </c>
-      <c r="I13">
-        <v>350</v>
-      </c>
-      <c r="J13">
-        <v>24</v>
-      </c>
-      <c r="K13">
-        <v>3700</v>
-      </c>
-      <c r="L13">
-        <v>600</v>
-      </c>
-      <c r="M13">
-        <v>90</v>
-      </c>
-      <c r="N13">
-        <v>23</v>
-      </c>
-      <c r="O13">
-        <v>10</v>
-      </c>
-      <c r="P13">
-        <v>20</v>
-      </c>
-      <c r="Q13">
-        <v>4</v>
-      </c>
-      <c r="R13">
-        <v>20</v>
-      </c>
-      <c r="S13">
-        <v>98</v>
-      </c>
-      <c r="T13">
-        <v>2.4</v>
-      </c>
-      <c r="U13">
-        <v>1.8</v>
-      </c>
-      <c r="V13">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="W13">
-        <v>0.5</v>
-      </c>
-      <c r="X13">
-        <v>0.5</v>
-      </c>
-      <c r="Y13">
-        <v>0.73</v>
-      </c>
-      <c r="Z13">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="G13" s="2">
+        <v>2900</v>
+      </c>
+      <c r="H13" s="2">
+        <v>2500</v>
+      </c>
+      <c r="I13" s="2">
+        <v>250</v>
+      </c>
+      <c r="J13" s="2">
+        <v>30</v>
+      </c>
+      <c r="K13" s="2">
+        <v>2800</v>
+      </c>
+      <c r="L13" s="2">
+        <v>400</v>
+      </c>
+      <c r="M13" s="2">
+        <v>30</v>
+      </c>
+      <c r="N13" s="2">
+        <v>41</v>
+      </c>
+      <c r="O13" s="2">
+        <v>20</v>
+      </c>
+      <c r="P13" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q13" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="R13" s="2">
+        <v>20</v>
+      </c>
+      <c r="S13" s="2">
+        <v>203</v>
+      </c>
+      <c r="T13" s="6">
+        <v>3.5</v>
+      </c>
+      <c r="U13" s="6">
+        <v>2.6</v>
+      </c>
+      <c r="V13" s="3">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="W13" s="6">
+        <v>1</v>
+      </c>
+      <c r="X13" s="6">
+        <v>1</v>
+      </c>
+      <c r="Y13" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="Z13" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="B14" t="s">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="C14">
-        <v>45</v>
+        <v>11.56</v>
       </c>
       <c r="D14">
         <v>40</v>
       </c>
       <c r="E14">
-        <v>6.3</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="F14">
         <v>4.5</v>
       </c>
-      <c r="G14" s="2">
-        <v>2100</v>
-      </c>
-      <c r="H14" s="2">
+      <c r="G14">
+        <v>2700</v>
+      </c>
+      <c r="H14">
         <v>1400</v>
       </c>
-      <c r="I14" s="2">
-        <v>150</v>
-      </c>
-      <c r="J14" s="2">
-        <v>24</v>
-      </c>
-      <c r="K14" s="2">
-        <v>2000</v>
-      </c>
-      <c r="L14" s="2">
+      <c r="I14">
+        <v>70</v>
+      </c>
+      <c r="J14">
+        <v>30</v>
+      </c>
+      <c r="K14">
+        <v>2450</v>
+      </c>
+      <c r="L14">
         <v>350</v>
       </c>
-      <c r="M14" s="2">
-        <v>14</v>
-      </c>
-      <c r="N14" s="2">
-        <v>13</v>
-      </c>
-      <c r="O14" s="2">
-        <v>10</v>
-      </c>
-      <c r="P14" s="2">
-        <v>20</v>
-      </c>
-      <c r="Q14" s="2">
-        <v>2.1</v>
-      </c>
-      <c r="R14" s="2">
-        <v>20</v>
-      </c>
-      <c r="S14" s="2">
-        <v>50</v>
-      </c>
-      <c r="T14" s="3">
-        <v>5</v>
-      </c>
-      <c r="U14" s="3">
-        <v>3.5</v>
-      </c>
-      <c r="V14" s="3">
-        <v>1.45</v>
-      </c>
-      <c r="W14" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="X14" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="Y14" s="3">
+      <c r="M14">
+        <v>20</v>
+      </c>
+      <c r="N14">
+        <v>10</v>
+      </c>
+      <c r="O14">
+        <v>20.8</v>
+      </c>
+      <c r="P14">
+        <v>20</v>
+      </c>
+      <c r="Q14">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="R14">
+        <v>20</v>
+      </c>
+      <c r="S14">
+        <v>76</v>
+      </c>
+      <c r="T14">
+        <v>3.88</v>
+      </c>
+      <c r="U14">
+        <v>2.71</v>
+      </c>
+      <c r="V14">
+        <v>1.3</v>
+      </c>
+      <c r="W14">
+        <v>0.8</v>
+      </c>
+      <c r="X14">
+        <v>0.8</v>
+      </c>
+      <c r="Y14">
         <v>0.74</v>
       </c>
-      <c r="Z14" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="B15" t="s">
         <v>71</v>
@@ -5364,60 +8839,60 @@
         <v>45</v>
       </c>
       <c r="D15">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E15">
-        <v>7.6</v>
+        <v>4.5</v>
       </c>
       <c r="F15">
-        <v>10</v>
+        <v>4.5</v>
       </c>
       <c r="G15" s="2">
-        <v>2400</v>
+        <v>1600</v>
       </c>
       <c r="H15" s="2">
-        <v>1800</v>
+        <v>1500</v>
       </c>
       <c r="I15" s="2">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="J15" s="2">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="K15" s="2">
-        <v>2200</v>
+        <v>1500</v>
       </c>
       <c r="L15" s="2">
-        <v>380</v>
+        <v>520</v>
       </c>
       <c r="M15" s="2">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="N15" s="2">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="O15" s="2">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="P15" s="2">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="Q15" s="2">
-        <v>3.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="R15" s="2">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="S15" s="2">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="T15" s="6">
-        <v>6.8</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="U15" s="6">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="V15" s="6">
+        <v>2.8</v>
+      </c>
+      <c r="V15" s="3">
         <v>1.4</v>
       </c>
       <c r="W15" s="6">
@@ -5427,95 +8902,95 @@
         <v>1</v>
       </c>
       <c r="Y15" s="3">
-        <v>0.88</v>
-      </c>
-      <c r="Z15" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+        <v>0.75</v>
+      </c>
+      <c r="Z15" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B16" t="s">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="C16">
-        <v>45</v>
+        <v>11.56</v>
       </c>
       <c r="D16">
         <v>40</v>
       </c>
       <c r="E16">
-        <v>2.1</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="F16">
-        <v>10</v>
-      </c>
-      <c r="G16" s="2">
-        <v>750</v>
-      </c>
-      <c r="H16" s="2">
-        <v>900</v>
-      </c>
-      <c r="I16" s="2">
-        <v>100</v>
-      </c>
-      <c r="J16" s="2">
-        <v>25</v>
-      </c>
-      <c r="K16" s="2">
-        <v>650</v>
-      </c>
-      <c r="L16" s="2">
-        <v>190</v>
-      </c>
-      <c r="M16" s="2">
-        <v>12</v>
-      </c>
-      <c r="N16" s="2">
-        <v>22</v>
-      </c>
-      <c r="O16" s="2">
-        <v>10</v>
-      </c>
-      <c r="P16" s="2">
-        <v>20</v>
-      </c>
-      <c r="Q16" s="6">
+        <v>4.5</v>
+      </c>
+      <c r="G16">
+        <v>3600</v>
+      </c>
+      <c r="H16">
+        <v>1600</v>
+      </c>
+      <c r="I16">
+        <v>350</v>
+      </c>
+      <c r="J16">
+        <v>24</v>
+      </c>
+      <c r="K16">
+        <v>3250</v>
+      </c>
+      <c r="L16">
+        <v>400</v>
+      </c>
+      <c r="M16">
+        <v>50</v>
+      </c>
+      <c r="N16">
+        <v>23</v>
+      </c>
+      <c r="O16">
+        <v>10</v>
+      </c>
+      <c r="P16">
+        <v>20</v>
+      </c>
+      <c r="Q16">
+        <v>4.2</v>
+      </c>
+      <c r="R16">
+        <v>20</v>
+      </c>
+      <c r="S16">
+        <v>70</v>
+      </c>
+      <c r="T16">
+        <v>3.85</v>
+      </c>
+      <c r="U16">
+        <v>2.85</v>
+      </c>
+      <c r="V16">
         <v>1.4</v>
       </c>
-      <c r="R16" s="2">
-        <v>20</v>
-      </c>
-      <c r="S16" s="2">
-        <v>100</v>
-      </c>
-      <c r="T16" s="6">
-        <v>6.8</v>
-      </c>
-      <c r="U16" s="6">
-        <v>4.7</v>
-      </c>
-      <c r="V16" s="6">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="W16" s="6">
-        <v>1</v>
-      </c>
-      <c r="X16" s="6">
-        <v>1</v>
-      </c>
-      <c r="Y16" s="3">
-        <v>0.92</v>
-      </c>
-      <c r="Z16" s="2">
-        <v>50</v>
+      <c r="W16">
+        <v>0.5</v>
+      </c>
+      <c r="X16">
+        <v>0.5</v>
+      </c>
+      <c r="Y16">
+        <v>0.74</v>
+      </c>
+      <c r="Z16">
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="B17" t="s">
         <v>71</v>
@@ -5527,114 +9002,114 @@
         <v>40</v>
       </c>
       <c r="E17">
-        <v>8.6999999999999993</v>
+        <v>6.3</v>
       </c>
       <c r="F17">
-        <v>10</v>
+        <v>4.5</v>
       </c>
       <c r="G17" s="2">
-        <v>2900</v>
+        <v>2100</v>
       </c>
       <c r="H17" s="2">
-        <v>2500</v>
+        <v>1400</v>
       </c>
       <c r="I17" s="2">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="J17" s="2">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="K17" s="2">
-        <v>2800</v>
+        <v>2000</v>
       </c>
       <c r="L17" s="2">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="M17" s="2">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="N17" s="2">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="O17" s="2">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="P17" s="2">
         <v>20</v>
       </c>
-      <c r="Q17" s="2">
-        <v>2.5</v>
+      <c r="Q17" s="6">
+        <v>2.1</v>
       </c>
       <c r="R17" s="2">
         <v>20</v>
       </c>
       <c r="S17" s="2">
-        <v>203</v>
-      </c>
-      <c r="T17" s="6">
+        <v>50</v>
+      </c>
+      <c r="T17" s="3">
+        <v>5</v>
+      </c>
+      <c r="U17" s="3">
         <v>3.5</v>
       </c>
-      <c r="U17" s="6">
-        <v>2.6</v>
-      </c>
       <c r="V17" s="3">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="W17" s="6">
-        <v>1</v>
-      </c>
-      <c r="X17" s="6">
+        <v>1.45</v>
+      </c>
+      <c r="W17" s="3">
+        <v>1</v>
+      </c>
+      <c r="X17" s="3">
         <v>1</v>
       </c>
       <c r="Y17" s="3">
-        <v>0.7</v>
-      </c>
-      <c r="Z17" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
+        <v>0.74</v>
+      </c>
+      <c r="Z17" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B18" t="s">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="C18">
-        <v>45</v>
+        <v>11.56</v>
       </c>
       <c r="D18">
         <v>40</v>
       </c>
       <c r="E18">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="F18">
         <v>4.5</v>
       </c>
       <c r="G18" s="2">
+        <v>2500</v>
+      </c>
+      <c r="H18" s="2">
         <v>1500</v>
       </c>
-      <c r="H18" s="2">
-        <v>900</v>
-      </c>
       <c r="I18" s="2">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="J18" s="2">
         <v>24</v>
       </c>
       <c r="K18" s="2">
-        <v>1150</v>
+        <v>1375</v>
       </c>
       <c r="L18" s="2">
-        <v>150</v>
+        <v>1130</v>
       </c>
       <c r="M18" s="2">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="N18" s="2">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="O18" s="2">
         <v>10</v>
@@ -5649,33 +9124,33 @@
         <v>20</v>
       </c>
       <c r="S18" s="2">
-        <v>43</v>
-      </c>
-      <c r="T18" s="6">
-        <v>10.4</v>
-      </c>
-      <c r="U18" s="6">
-        <v>8.5</v>
+        <v>65</v>
+      </c>
+      <c r="T18" s="3">
+        <v>6.2</v>
+      </c>
+      <c r="U18" s="3">
+        <v>4.5</v>
       </c>
       <c r="V18" s="3">
-        <v>0.8</v>
-      </c>
-      <c r="W18" s="6">
-        <v>1</v>
-      </c>
-      <c r="X18" s="6">
-        <v>1</v>
+        <v>0.9</v>
+      </c>
+      <c r="W18" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="X18" s="3">
+        <v>0.5</v>
       </c>
       <c r="Y18" s="3">
-        <v>0.77</v>
-      </c>
-      <c r="Z18" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="Z18" s="3">
         <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>108</v>
+        <v>79</v>
       </c>
       <c r="B19" t="s">
         <v>71</v>
@@ -5687,59 +9162,59 @@
         <v>40</v>
       </c>
       <c r="E19">
-        <v>4.5</v>
+        <v>2.1</v>
       </c>
       <c r="F19">
-        <v>4.5</v>
+        <v>10</v>
       </c>
       <c r="G19" s="2">
-        <v>1600</v>
+        <v>750</v>
       </c>
       <c r="H19" s="2">
-        <v>1500</v>
+        <v>900</v>
       </c>
       <c r="I19" s="2">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J19" s="2">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="K19" s="2">
-        <v>1500</v>
+        <v>650</v>
       </c>
       <c r="L19" s="2">
-        <v>520</v>
+        <v>190</v>
       </c>
       <c r="M19" s="2">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="N19" s="2">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="O19" s="2">
         <v>10</v>
       </c>
       <c r="P19" s="2">
-        <v>15</v>
-      </c>
-      <c r="Q19" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q19" s="6">
+        <v>1.4</v>
+      </c>
+      <c r="R19" s="2">
+        <v>20</v>
+      </c>
+      <c r="S19" s="2">
+        <v>100</v>
+      </c>
+      <c r="T19" s="6">
+        <v>6.8</v>
+      </c>
+      <c r="U19" s="6">
+        <v>4.7</v>
+      </c>
+      <c r="V19" s="6">
         <v>2.2000000000000002</v>
       </c>
-      <c r="R19" s="2">
-        <v>15</v>
-      </c>
-      <c r="S19" s="2">
-        <v>80</v>
-      </c>
-      <c r="T19" s="6">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="U19" s="6">
-        <v>2.8</v>
-      </c>
-      <c r="V19" s="3">
-        <v>1.4</v>
-      </c>
       <c r="W19" s="6">
         <v>1</v>
       </c>
@@ -5747,95 +9222,95 @@
         <v>1</v>
       </c>
       <c r="Y19" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="Z19" s="6">
-        <v>10</v>
+        <v>0.92</v>
+      </c>
+      <c r="Z19" s="2">
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>71</v>
       </c>
       <c r="C20">
-        <v>11.56</v>
+        <v>45</v>
       </c>
       <c r="D20">
         <v>40</v>
       </c>
       <c r="E20">
+        <v>7.6</v>
+      </c>
+      <c r="F20">
+        <v>10</v>
+      </c>
+      <c r="G20" s="2">
+        <v>2400</v>
+      </c>
+      <c r="H20" s="2">
+        <v>1800</v>
+      </c>
+      <c r="I20" s="2">
+        <v>300</v>
+      </c>
+      <c r="J20" s="2">
+        <v>30</v>
+      </c>
+      <c r="K20" s="2">
+        <v>2200</v>
+      </c>
+      <c r="L20" s="2">
+        <v>380</v>
+      </c>
+      <c r="M20" s="2">
+        <v>15</v>
+      </c>
+      <c r="N20" s="2">
+        <v>23</v>
+      </c>
+      <c r="O20" s="2">
+        <v>42</v>
+      </c>
+      <c r="P20" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q20" s="6">
         <v>3.2</v>
       </c>
-      <c r="F20">
-        <v>4.5</v>
-      </c>
-      <c r="G20" s="2">
-        <v>2500</v>
-      </c>
-      <c r="H20" s="2">
-        <v>1500</v>
-      </c>
-      <c r="I20" s="2">
-        <v>200</v>
-      </c>
-      <c r="J20" s="2">
-        <v>24</v>
-      </c>
-      <c r="K20" s="2">
-        <v>1375</v>
-      </c>
-      <c r="L20" s="2">
-        <v>1130</v>
-      </c>
-      <c r="M20" s="2">
+      <c r="R20" s="2">
+        <v>20</v>
+      </c>
+      <c r="S20" s="2">
+        <v>96</v>
+      </c>
+      <c r="T20" s="6">
+        <v>6.8</v>
+      </c>
+      <c r="U20" s="6">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="V20" s="6">
+        <v>1.4</v>
+      </c>
+      <c r="W20" s="6">
+        <v>1</v>
+      </c>
+      <c r="X20" s="6">
+        <v>1</v>
+      </c>
+      <c r="Y20" s="3">
+        <v>0.88</v>
+      </c>
+      <c r="Z20" s="2">
         <v>50</v>
       </c>
-      <c r="N20" s="2">
-        <v>17</v>
-      </c>
-      <c r="O20" s="2">
-        <v>10</v>
-      </c>
-      <c r="P20" s="2">
-        <v>20</v>
-      </c>
-      <c r="Q20" s="2">
-        <v>2.5</v>
-      </c>
-      <c r="R20" s="2">
-        <v>20</v>
-      </c>
-      <c r="S20" s="2">
-        <v>65</v>
-      </c>
-      <c r="T20" s="3">
-        <v>6.2</v>
-      </c>
-      <c r="U20" s="3">
-        <v>4.5</v>
-      </c>
-      <c r="V20" s="3">
-        <v>0.9</v>
-      </c>
-      <c r="W20" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="X20" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="Y20" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="Z20" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="B21" t="s">
         <v>8</v>
@@ -5846,76 +9321,76 @@
       <c r="D21">
         <v>40</v>
       </c>
-      <c r="E21">
-        <v>2.9</v>
-      </c>
-      <c r="F21">
+      <c r="E21" s="7">
+        <v>2.75</v>
+      </c>
+      <c r="F21" s="7">
         <v>4.5</v>
       </c>
-      <c r="G21">
-        <v>950</v>
-      </c>
-      <c r="H21">
-        <v>500</v>
-      </c>
-      <c r="I21">
+      <c r="G21" s="2">
+        <v>1550</v>
+      </c>
+      <c r="H21" s="2">
+        <v>1000</v>
+      </c>
+      <c r="I21" s="2">
+        <v>100</v>
+      </c>
+      <c r="J21" s="2">
+        <v>30</v>
+      </c>
+      <c r="K21" s="2">
+        <v>1450</v>
+      </c>
+      <c r="L21" s="2">
+        <v>200</v>
+      </c>
+      <c r="M21" s="2">
+        <v>13</v>
+      </c>
+      <c r="N21" s="2">
+        <v>21</v>
+      </c>
+      <c r="O21" s="2">
+        <v>20</v>
+      </c>
+      <c r="P21" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q21" s="6">
+        <v>3</v>
+      </c>
+      <c r="R21" s="2">
+        <v>20</v>
+      </c>
+      <c r="S21" s="2">
         <v>70</v>
       </c>
-      <c r="J21">
-        <v>25</v>
-      </c>
-      <c r="K21" s="2">
-        <v>875</v>
-      </c>
-      <c r="L21" s="2">
-        <v>150</v>
-      </c>
-      <c r="M21" s="2">
-        <v>16</v>
-      </c>
-      <c r="N21" s="2">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="O21" s="2">
-        <v>10</v>
-      </c>
-      <c r="P21" s="2">
-        <v>20</v>
-      </c>
-      <c r="Q21" s="6">
-        <v>0.9</v>
-      </c>
-      <c r="R21">
-        <v>20</v>
-      </c>
-      <c r="S21" s="2">
-        <v>45</v>
-      </c>
-      <c r="T21">
-        <v>9.6</v>
-      </c>
-      <c r="U21">
-        <v>6.7</v>
-      </c>
-      <c r="V21" s="4">
-        <v>3.2</v>
-      </c>
-      <c r="W21" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="X21" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="Y21" s="3">
-        <v>0.82</v>
+      <c r="T21" s="6">
+        <v>7.4</v>
+      </c>
+      <c r="U21" s="6">
+        <v>5</v>
+      </c>
+      <c r="V21" s="6">
+        <v>1.8</v>
+      </c>
+      <c r="W21" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="X21" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="Y21" s="6">
+        <v>0.7</v>
       </c>
       <c r="Z21" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B22" t="s">
         <v>8</v>
@@ -5926,76 +9401,76 @@
       <c r="D22">
         <v>40</v>
       </c>
-      <c r="E22" s="7">
-        <v>2.75</v>
-      </c>
-      <c r="F22" s="7">
+      <c r="E22">
+        <v>0.9</v>
+      </c>
+      <c r="F22">
         <v>4.5</v>
       </c>
-      <c r="G22" s="2">
-        <v>1550</v>
-      </c>
-      <c r="H22" s="2">
-        <v>1000</v>
-      </c>
-      <c r="I22" s="2">
+      <c r="G22">
+        <v>760</v>
+      </c>
+      <c r="H22">
+        <v>900</v>
+      </c>
+      <c r="I22">
         <v>100</v>
       </c>
-      <c r="J22" s="2">
-        <v>30</v>
-      </c>
-      <c r="K22" s="2">
-        <v>1450</v>
-      </c>
-      <c r="L22" s="2">
-        <v>200</v>
-      </c>
-      <c r="M22" s="2">
-        <v>13</v>
-      </c>
-      <c r="N22" s="2">
+      <c r="J22">
+        <v>25</v>
+      </c>
+      <c r="K22">
+        <v>650</v>
+      </c>
+      <c r="L22">
+        <v>95</v>
+      </c>
+      <c r="M22">
+        <v>11</v>
+      </c>
+      <c r="N22">
         <v>21</v>
       </c>
-      <c r="O22" s="2">
-        <v>20</v>
-      </c>
-      <c r="P22" s="2">
-        <v>20</v>
-      </c>
-      <c r="Q22" s="6">
-        <v>3</v>
-      </c>
-      <c r="R22" s="2">
-        <v>20</v>
-      </c>
-      <c r="S22" s="2">
-        <v>70</v>
-      </c>
-      <c r="T22" s="6">
-        <v>7.4</v>
-      </c>
-      <c r="U22" s="6">
-        <v>5</v>
-      </c>
-      <c r="V22" s="6">
-        <v>1.8</v>
-      </c>
-      <c r="W22" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="X22" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="Y22" s="6">
-        <v>0.7</v>
-      </c>
-      <c r="Z22" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="O22">
+        <v>20</v>
+      </c>
+      <c r="P22">
+        <v>20</v>
+      </c>
+      <c r="Q22">
+        <v>0.65</v>
+      </c>
+      <c r="R22">
+        <v>20</v>
+      </c>
+      <c r="S22">
+        <v>64</v>
+      </c>
+      <c r="T22">
+        <v>7</v>
+      </c>
+      <c r="U22">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="V22">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="W22">
+        <v>1</v>
+      </c>
+      <c r="X22">
+        <v>1</v>
+      </c>
+      <c r="Y22">
+        <v>0.85</v>
+      </c>
+      <c r="Z22">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="B23" t="s">
         <v>8</v>
@@ -6007,75 +9482,75 @@
         <v>40</v>
       </c>
       <c r="E23">
-        <v>8.6999999999999993</v>
+        <v>2.9</v>
       </c>
       <c r="F23">
         <v>4.5</v>
       </c>
       <c r="G23">
-        <v>3600</v>
+        <v>950</v>
       </c>
       <c r="H23">
-        <v>1600</v>
+        <v>500</v>
       </c>
       <c r="I23">
-        <v>350</v>
+        <v>70</v>
       </c>
       <c r="J23">
-        <v>24</v>
-      </c>
-      <c r="K23">
-        <v>3250</v>
-      </c>
-      <c r="L23">
-        <v>400</v>
-      </c>
-      <c r="M23">
-        <v>50</v>
-      </c>
-      <c r="N23">
-        <v>23</v>
-      </c>
-      <c r="O23">
-        <v>10</v>
-      </c>
-      <c r="P23">
-        <v>20</v>
-      </c>
-      <c r="Q23">
-        <v>4.2</v>
+        <v>25</v>
+      </c>
+      <c r="K23" s="2">
+        <v>875</v>
+      </c>
+      <c r="L23" s="2">
+        <v>150</v>
+      </c>
+      <c r="M23" s="2">
+        <v>16</v>
+      </c>
+      <c r="N23" s="2">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="O23" s="2">
+        <v>10</v>
+      </c>
+      <c r="P23" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q23" s="6">
+        <v>0.9</v>
       </c>
       <c r="R23">
         <v>20</v>
       </c>
-      <c r="S23">
-        <v>70</v>
+      <c r="S23" s="2">
+        <v>45</v>
       </c>
       <c r="T23">
-        <v>3.85</v>
+        <v>9.6</v>
       </c>
       <c r="U23">
-        <v>2.85</v>
-      </c>
-      <c r="V23">
-        <v>1.4</v>
-      </c>
-      <c r="W23">
-        <v>0.5</v>
-      </c>
-      <c r="X23">
-        <v>0.5</v>
-      </c>
-      <c r="Y23">
-        <v>0.74</v>
-      </c>
-      <c r="Z23">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
+        <v>6.7</v>
+      </c>
+      <c r="V23" s="4">
+        <v>3.2</v>
+      </c>
+      <c r="W23" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="X23" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="Y23" s="3">
+        <v>0.82</v>
+      </c>
+      <c r="Z23" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="B24" t="s">
         <v>8</v>
@@ -6084,78 +9559,78 @@
         <v>11.56</v>
       </c>
       <c r="D24">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E24">
-        <v>8.1999999999999993</v>
+        <v>3.7</v>
       </c>
       <c r="F24">
         <v>4.5</v>
       </c>
-      <c r="G24">
-        <v>2700</v>
-      </c>
-      <c r="H24">
-        <v>1400</v>
-      </c>
-      <c r="I24">
-        <v>70</v>
-      </c>
-      <c r="J24">
-        <v>30</v>
-      </c>
-      <c r="K24">
-        <v>2450</v>
-      </c>
-      <c r="L24">
-        <v>350</v>
-      </c>
-      <c r="M24">
-        <v>20</v>
-      </c>
-      <c r="N24">
-        <v>10</v>
-      </c>
-      <c r="O24">
-        <v>20.8</v>
+      <c r="G24" s="2">
+        <v>1200</v>
+      </c>
+      <c r="H24" s="2">
+        <v>1200</v>
+      </c>
+      <c r="I24" s="2">
+        <v>150</v>
+      </c>
+      <c r="J24" s="2">
+        <v>12</v>
+      </c>
+      <c r="K24" s="2">
+        <v>1175</v>
+      </c>
+      <c r="L24" s="2">
+        <v>450</v>
+      </c>
+      <c r="M24" s="2">
+        <v>30</v>
+      </c>
+      <c r="N24" s="2">
+        <v>10</v>
+      </c>
+      <c r="O24" s="2">
+        <v>10</v>
       </c>
       <c r="P24">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="Q24">
-        <v>2.2999999999999998</v>
+        <v>1.4</v>
       </c>
       <c r="R24">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="S24">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="T24">
-        <v>3.88</v>
+        <v>3.8</v>
       </c>
       <c r="U24">
-        <v>2.71</v>
+        <v>2.7</v>
       </c>
       <c r="V24">
-        <v>1.3</v>
-      </c>
-      <c r="W24">
+        <v>0.9</v>
+      </c>
+      <c r="W24" s="3">
         <v>0.8</v>
       </c>
-      <c r="X24">
+      <c r="X24" s="3">
         <v>0.8</v>
       </c>
       <c r="Y24">
-        <v>0.74</v>
+        <v>0.76</v>
       </c>
       <c r="Z24">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>66</v>
+        <v>106</v>
       </c>
       <c r="B25" t="s">
         <v>8</v>
@@ -6167,58 +9642,58 @@
         <v>30</v>
       </c>
       <c r="E25">
-        <v>3.7</v>
+        <v>4.2</v>
       </c>
       <c r="F25">
         <v>4.5</v>
       </c>
       <c r="G25" s="2">
-        <v>1200</v>
+        <v>1700</v>
       </c>
       <c r="H25" s="2">
-        <v>1200</v>
+        <v>1600</v>
       </c>
       <c r="I25" s="2">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="J25" s="2">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="K25" s="2">
-        <v>1175</v>
+        <v>1550</v>
       </c>
       <c r="L25" s="2">
-        <v>450</v>
+        <v>550</v>
       </c>
       <c r="M25" s="2">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="N25" s="2">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="O25" s="2">
         <v>10</v>
       </c>
-      <c r="P25">
-        <v>15</v>
-      </c>
-      <c r="Q25">
+      <c r="P25" s="2">
+        <v>15</v>
+      </c>
+      <c r="Q25" s="2">
+        <v>2.6</v>
+      </c>
+      <c r="R25" s="2">
+        <v>15</v>
+      </c>
+      <c r="S25" s="2">
+        <v>67</v>
+      </c>
+      <c r="T25" s="3">
+        <v>4.8</v>
+      </c>
+      <c r="U25" s="3">
+        <v>2.7</v>
+      </c>
+      <c r="V25" s="2">
         <v>1.4</v>
-      </c>
-      <c r="R25">
-        <v>15</v>
-      </c>
-      <c r="S25">
-        <v>53</v>
-      </c>
-      <c r="T25">
-        <v>3.8</v>
-      </c>
-      <c r="U25">
-        <v>2.7</v>
-      </c>
-      <c r="V25">
-        <v>0.9</v>
       </c>
       <c r="W25" s="3">
         <v>0.8</v>
@@ -6226,16 +9701,16 @@
       <c r="X25" s="3">
         <v>0.8</v>
       </c>
-      <c r="Y25">
-        <v>0.76</v>
-      </c>
-      <c r="Z25">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="Z25" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>106</v>
+        <v>65</v>
       </c>
       <c r="B26" t="s">
         <v>8</v>
@@ -6247,58 +9722,58 @@
         <v>30</v>
       </c>
       <c r="E26">
-        <v>4.2</v>
+        <v>9.6</v>
       </c>
       <c r="F26">
         <v>4.5</v>
       </c>
       <c r="G26" s="2">
-        <v>1700</v>
+        <v>3000</v>
       </c>
       <c r="H26" s="2">
-        <v>1600</v>
+        <v>3000</v>
       </c>
       <c r="I26" s="2">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="J26" s="2">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="K26" s="2">
-        <v>1550</v>
+        <v>2975</v>
       </c>
       <c r="L26" s="2">
-        <v>550</v>
+        <v>1200</v>
       </c>
       <c r="M26" s="2">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="N26" s="2">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="O26" s="2">
         <v>10</v>
       </c>
-      <c r="P26" s="2">
-        <v>15</v>
-      </c>
-      <c r="Q26" s="2">
-        <v>2.6</v>
-      </c>
-      <c r="R26" s="2">
-        <v>15</v>
-      </c>
-      <c r="S26" s="2">
-        <v>67</v>
-      </c>
-      <c r="T26" s="3">
-        <v>4.8</v>
-      </c>
-      <c r="U26" s="3">
-        <v>2.7</v>
-      </c>
-      <c r="V26" s="2">
-        <v>1.4</v>
+      <c r="P26">
+        <v>15</v>
+      </c>
+      <c r="Q26">
+        <v>3.9</v>
+      </c>
+      <c r="R26">
+        <v>15</v>
+      </c>
+      <c r="S26">
+        <v>95</v>
+      </c>
+      <c r="T26">
+        <v>1.5</v>
+      </c>
+      <c r="U26">
+        <v>0.95</v>
+      </c>
+      <c r="V26">
+        <v>0.42</v>
       </c>
       <c r="W26" s="3">
         <v>0.8</v>
@@ -6306,16 +9781,16 @@
       <c r="X26" s="3">
         <v>0.8</v>
       </c>
-      <c r="Y26" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="Z26" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Y26">
+        <v>0.73</v>
+      </c>
+      <c r="Z26">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="B27" t="s">
         <v>8</v>
@@ -6327,13 +9802,13 @@
         <v>30</v>
       </c>
       <c r="E27">
-        <v>9.6</v>
+        <v>11.3</v>
       </c>
       <c r="F27">
         <v>4.5</v>
       </c>
       <c r="G27" s="2">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="H27" s="2">
         <v>3000</v>
@@ -6345,16 +9820,16 @@
         <v>12</v>
       </c>
       <c r="K27" s="2">
-        <v>2975</v>
+        <v>3500</v>
       </c>
       <c r="L27" s="2">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="M27" s="2">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N27" s="2">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="O27" s="2">
         <v>10</v>
@@ -6363,22 +9838,22 @@
         <v>15</v>
       </c>
       <c r="Q27">
-        <v>3.9</v>
+        <v>3</v>
       </c>
       <c r="R27">
         <v>15</v>
       </c>
       <c r="S27">
-        <v>95</v>
+        <v>117</v>
       </c>
       <c r="T27">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="U27">
-        <v>0.95</v>
+        <v>0.88</v>
       </c>
       <c r="V27">
-        <v>0.42</v>
+        <v>0.75</v>
       </c>
       <c r="W27" s="3">
         <v>0.8</v>
@@ -6393,9 +9868,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B28" t="s">
         <v>8</v>
@@ -6407,7 +9882,7 @@
         <v>30</v>
       </c>
       <c r="E28">
-        <v>11.3</v>
+        <v>11.2</v>
       </c>
       <c r="F28">
         <v>4.5</v>
@@ -6416,49 +9891,49 @@
         <v>4000</v>
       </c>
       <c r="H28" s="2">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="I28" s="2">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="J28" s="2">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="K28" s="2">
-        <v>3500</v>
+        <v>3700</v>
       </c>
       <c r="L28" s="2">
-        <v>1400</v>
+        <v>1800</v>
       </c>
       <c r="M28" s="2">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="N28" s="2">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="O28" s="2">
         <v>10</v>
       </c>
-      <c r="P28">
-        <v>15</v>
-      </c>
-      <c r="Q28">
-        <v>3</v>
-      </c>
-      <c r="R28">
-        <v>15</v>
-      </c>
-      <c r="S28">
-        <v>117</v>
-      </c>
-      <c r="T28">
-        <v>1.25</v>
-      </c>
-      <c r="U28">
-        <v>0.88</v>
-      </c>
-      <c r="V28">
-        <v>0.75</v>
+      <c r="P28" s="2">
+        <v>15</v>
+      </c>
+      <c r="Q28" s="2">
+        <v>5.8</v>
+      </c>
+      <c r="R28" s="2">
+        <v>15</v>
+      </c>
+      <c r="S28" s="2">
+        <v>84</v>
+      </c>
+      <c r="T28" s="3">
+        <v>1.75</v>
+      </c>
+      <c r="U28" s="3">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="V28" s="3">
+        <v>0.6</v>
       </c>
       <c r="W28" s="3">
         <v>0.8</v>
@@ -6466,16 +9941,16 @@
       <c r="X28" s="3">
         <v>0.8</v>
       </c>
-      <c r="Y28">
-        <v>0.73</v>
-      </c>
-      <c r="Z28">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0.45</v>
+      </c>
+      <c r="Z28" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="B29" t="s">
         <v>8</v>
@@ -6487,75 +9962,75 @@
         <v>30</v>
       </c>
       <c r="E29">
-        <v>11.2</v>
+        <v>3.6</v>
       </c>
       <c r="F29">
-        <v>4.5</v>
+        <v>10</v>
       </c>
       <c r="G29" s="2">
-        <v>4000</v>
+        <v>1450</v>
       </c>
       <c r="H29" s="2">
-        <v>4000</v>
+        <v>1100</v>
       </c>
       <c r="I29" s="2">
-        <v>550</v>
+        <v>200</v>
       </c>
       <c r="J29" s="2">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="K29" s="2">
-        <v>3700</v>
+        <v>1300</v>
       </c>
       <c r="L29" s="2">
-        <v>1800</v>
+        <v>250</v>
       </c>
       <c r="M29" s="2">
-        <v>160</v>
+        <v>30</v>
       </c>
       <c r="N29" s="2">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="O29" s="2">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="P29" s="2">
         <v>15</v>
       </c>
-      <c r="Q29" s="2">
-        <v>5.8</v>
+      <c r="Q29" s="6">
+        <v>2.2000000000000002</v>
       </c>
       <c r="R29" s="2">
         <v>15</v>
       </c>
       <c r="S29" s="2">
+        <v>77</v>
+      </c>
+      <c r="T29" s="6">
+        <v>6</v>
+      </c>
+      <c r="U29" s="6">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="V29" s="6">
+        <v>1.7</v>
+      </c>
+      <c r="W29" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="X29" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="Y29" s="6">
+        <v>0.7</v>
+      </c>
+      <c r="Z29" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
         <v>84</v>
-      </c>
-      <c r="T29" s="3">
-        <v>1.75</v>
-      </c>
-      <c r="U29" s="3">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="V29" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="W29" s="3">
-        <v>0.8</v>
-      </c>
-      <c r="X29" s="3">
-        <v>0.8</v>
-      </c>
-      <c r="Y29" s="3">
-        <v>0.45</v>
-      </c>
-      <c r="Z29" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>77</v>
       </c>
       <c r="B30" t="s">
         <v>8</v>
@@ -6567,34 +10042,34 @@
         <v>30</v>
       </c>
       <c r="E30">
-        <v>3.6</v>
+        <v>8.5</v>
       </c>
       <c r="F30">
         <v>10</v>
       </c>
       <c r="G30" s="2">
-        <v>1450</v>
+        <v>3200</v>
       </c>
       <c r="H30" s="2">
-        <v>1100</v>
+        <v>2500</v>
       </c>
       <c r="I30" s="2">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="J30" s="2">
         <v>25</v>
       </c>
       <c r="K30" s="2">
-        <v>1300</v>
+        <v>2800</v>
       </c>
       <c r="L30" s="2">
-        <v>250</v>
+        <v>600</v>
       </c>
       <c r="M30" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="N30" s="2">
-        <v>18</v>
+        <v>36.5</v>
       </c>
       <c r="O30" s="2">
         <v>20</v>
@@ -6603,39 +10078,39 @@
         <v>15</v>
       </c>
       <c r="Q30" s="6">
-        <v>2.2000000000000002</v>
+        <v>4</v>
       </c>
       <c r="R30" s="2">
         <v>15</v>
       </c>
       <c r="S30" s="2">
-        <v>77</v>
+        <v>125</v>
       </c>
       <c r="T30" s="6">
-        <v>6</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="U30" s="6">
-        <v>4.0999999999999996</v>
+        <v>1.55</v>
       </c>
       <c r="V30" s="6">
-        <v>1.7</v>
+        <v>0.7</v>
       </c>
       <c r="W30" s="6">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="X30" s="6">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="Y30" s="6">
-        <v>0.7</v>
+        <v>0.68</v>
       </c>
       <c r="Z30" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B31" t="s">
         <v>8</v>
@@ -6647,235 +10122,235 @@
         <v>30</v>
       </c>
       <c r="E31">
-        <v>8.5</v>
+        <v>4</v>
       </c>
       <c r="F31">
-        <v>10</v>
-      </c>
-      <c r="G31" s="2">
-        <v>3200</v>
-      </c>
-      <c r="H31" s="2">
-        <v>2500</v>
-      </c>
-      <c r="I31" s="2">
-        <v>500</v>
+        <v>4.5</v>
+      </c>
+      <c r="G31">
+        <v>1600</v>
+      </c>
+      <c r="H31">
+        <v>1280</v>
+      </c>
+      <c r="I31">
+        <v>200</v>
       </c>
       <c r="J31" s="2">
         <v>25</v>
       </c>
-      <c r="K31" s="2">
-        <v>2800</v>
-      </c>
-      <c r="L31" s="2">
-        <v>600</v>
-      </c>
-      <c r="M31" s="2">
-        <v>50</v>
+      <c r="K31">
+        <v>1400</v>
+      </c>
+      <c r="L31">
+        <v>250</v>
+      </c>
+      <c r="M31">
+        <v>36</v>
       </c>
       <c r="N31" s="2">
-        <v>36.5</v>
+        <v>14</v>
       </c>
       <c r="O31" s="2">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="P31" s="2">
         <v>15</v>
       </c>
-      <c r="Q31" s="6">
-        <v>4</v>
+      <c r="Q31" s="2">
+        <v>1.8</v>
       </c>
       <c r="R31" s="2">
         <v>15</v>
       </c>
       <c r="S31" s="2">
-        <v>125</v>
-      </c>
-      <c r="T31" s="6">
-        <v>2.4500000000000002</v>
-      </c>
-      <c r="U31" s="6">
-        <v>1.55</v>
-      </c>
-      <c r="V31" s="6">
-        <v>0.7</v>
-      </c>
-      <c r="W31" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="X31" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="Y31" s="6">
-        <v>0.68</v>
-      </c>
-      <c r="Z31" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+      <c r="T31">
+        <v>6.8</v>
+      </c>
+      <c r="U31">
+        <v>4.25</v>
+      </c>
+      <c r="V31">
+        <v>1.65</v>
+      </c>
+      <c r="W31">
+        <v>0.8</v>
+      </c>
+      <c r="X31">
+        <v>0.8</v>
+      </c>
+      <c r="Y31">
+        <v>0.76</v>
+      </c>
+      <c r="Z31">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>88</v>
       </c>
       <c r="C32">
-        <v>11.56</v>
+        <v>45</v>
       </c>
       <c r="D32">
         <v>30</v>
       </c>
       <c r="E32">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="F32">
         <v>4.5</v>
       </c>
-      <c r="G32">
-        <v>1600</v>
-      </c>
-      <c r="H32">
-        <v>1280</v>
-      </c>
-      <c r="I32">
-        <v>200</v>
+      <c r="G32" s="2">
+        <v>8500</v>
+      </c>
+      <c r="H32" s="2">
+        <v>6000</v>
+      </c>
+      <c r="I32" s="2">
+        <v>1000</v>
       </c>
       <c r="J32" s="2">
-        <v>25</v>
-      </c>
-      <c r="K32">
+        <v>24</v>
+      </c>
+      <c r="K32" s="2">
+        <v>7500</v>
+      </c>
+      <c r="L32" s="2">
         <v>1400</v>
       </c>
-      <c r="L32">
-        <v>250</v>
-      </c>
-      <c r="M32">
-        <v>36</v>
+      <c r="M32" s="2">
+        <v>75</v>
       </c>
       <c r="N32" s="2">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="O32" s="2">
-        <v>10</v>
+        <v>87</v>
       </c>
       <c r="P32" s="2">
         <v>15</v>
       </c>
       <c r="Q32" s="2">
-        <v>1.8</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="R32" s="2">
         <v>15</v>
       </c>
       <c r="S32" s="2">
-        <v>65</v>
-      </c>
-      <c r="T32">
-        <v>6.8</v>
-      </c>
-      <c r="U32">
-        <v>4.25</v>
-      </c>
-      <c r="V32">
-        <v>1.65</v>
-      </c>
-      <c r="W32">
-        <v>0.8</v>
-      </c>
-      <c r="X32">
-        <v>0.8</v>
-      </c>
-      <c r="Y32">
-        <v>0.76</v>
-      </c>
-      <c r="Z32">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.2">
+        <v>120</v>
+      </c>
+      <c r="T32" s="3">
+        <v>2</v>
+      </c>
+      <c r="U32" s="3">
+        <v>1.7</v>
+      </c>
+      <c r="V32" s="3">
+        <v>1.9</v>
+      </c>
+      <c r="W32" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="X32" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="Y32" s="3">
+        <v>0.81</v>
+      </c>
+      <c r="Z32" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B33" t="s">
-        <v>88</v>
+        <v>8</v>
       </c>
       <c r="C33">
-        <v>45</v>
+        <v>11.56</v>
       </c>
       <c r="D33">
         <v>30</v>
       </c>
       <c r="E33">
-        <v>19</v>
+        <v>2.1</v>
       </c>
       <c r="F33">
         <v>4.5</v>
       </c>
       <c r="G33" s="2">
-        <v>8500</v>
+        <v>735</v>
       </c>
       <c r="H33" s="2">
-        <v>6000</v>
+        <v>680</v>
       </c>
       <c r="I33" s="2">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="J33" s="2">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="K33" s="2">
-        <v>7500</v>
+        <v>640</v>
       </c>
       <c r="L33" s="2">
-        <v>1400</v>
+        <v>310</v>
       </c>
       <c r="M33" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="N33" s="2">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="O33" s="2">
-        <v>87</v>
+        <v>10</v>
       </c>
       <c r="P33" s="2">
         <v>15</v>
       </c>
       <c r="Q33" s="2">
-        <v>9.6999999999999993</v>
+        <v>0.7</v>
       </c>
       <c r="R33" s="2">
         <v>15</v>
       </c>
       <c r="S33" s="2">
-        <v>120</v>
-      </c>
-      <c r="T33" s="3">
-        <v>2</v>
-      </c>
-      <c r="U33" s="3">
-        <v>1.7</v>
-      </c>
-      <c r="V33" s="3">
-        <v>1.9</v>
-      </c>
-      <c r="W33" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="X33" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="Y33" s="3">
-        <v>0.81</v>
-      </c>
-      <c r="Z33" s="2">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+      <c r="T33" s="6">
+        <v>11</v>
+      </c>
+      <c r="U33" s="6">
+        <v>8.4</v>
+      </c>
+      <c r="V33" s="6">
+        <v>1.4</v>
+      </c>
+      <c r="W33" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="X33" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="Y33" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="Z33" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B34" t="s">
         <v>8</v>
@@ -6887,58 +10362,58 @@
         <v>30</v>
       </c>
       <c r="E34">
-        <v>2.1</v>
+        <v>2.8</v>
       </c>
       <c r="F34">
         <v>4.5</v>
       </c>
       <c r="G34" s="2">
-        <v>735</v>
+        <v>1060</v>
       </c>
       <c r="H34" s="2">
-        <v>680</v>
+        <v>900</v>
       </c>
       <c r="I34" s="2">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="J34" s="2">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K34" s="2">
-        <v>640</v>
+        <v>960</v>
       </c>
       <c r="L34" s="2">
-        <v>310</v>
+        <v>460</v>
       </c>
       <c r="M34" s="2">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="N34" s="2">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="O34" s="2">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="P34" s="2">
         <v>15</v>
       </c>
-      <c r="Q34" s="2">
-        <v>0.7</v>
+      <c r="Q34" s="6">
+        <v>1.2</v>
       </c>
       <c r="R34" s="2">
         <v>15</v>
       </c>
       <c r="S34" s="2">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="T34" s="6">
-        <v>11</v>
+        <v>7.87</v>
       </c>
       <c r="U34" s="6">
-        <v>8.4</v>
+        <v>5.63</v>
       </c>
       <c r="V34" s="6">
-        <v>1.4</v>
+        <v>0.8</v>
       </c>
       <c r="W34" s="6">
         <v>0.5</v>
@@ -6947,95 +10422,95 @@
         <v>0.5</v>
       </c>
       <c r="Y34" s="6">
+        <v>0.85</v>
+      </c>
+      <c r="Z34" s="6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>105</v>
+      </c>
+      <c r="B35" t="s">
+        <v>88</v>
+      </c>
+      <c r="C35">
+        <v>45</v>
+      </c>
+      <c r="D35">
+        <v>30</v>
+      </c>
+      <c r="E35">
+        <v>4.5</v>
+      </c>
+      <c r="F35">
+        <v>10</v>
+      </c>
+      <c r="G35" s="2">
+        <v>2200</v>
+      </c>
+      <c r="H35" s="2">
+        <v>1300</v>
+      </c>
+      <c r="I35" s="2">
+        <v>300</v>
+      </c>
+      <c r="J35" s="2">
+        <v>15</v>
+      </c>
+      <c r="K35" s="2">
+        <v>1900</v>
+      </c>
+      <c r="L35" s="2">
+        <v>400</v>
+      </c>
+      <c r="M35" s="2">
+        <v>50</v>
+      </c>
+      <c r="N35" s="2">
+        <v>21.5</v>
+      </c>
+      <c r="O35" s="2">
+        <v>20</v>
+      </c>
+      <c r="P35" s="2">
+        <v>15</v>
+      </c>
+      <c r="Q35" s="6">
+        <v>3.6</v>
+      </c>
+      <c r="R35" s="2">
+        <v>15</v>
+      </c>
+      <c r="S35" s="2">
+        <v>165</v>
+      </c>
+      <c r="T35" s="10">
+        <v>2.8</v>
+      </c>
+      <c r="U35" s="10">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="V35" s="6">
+        <v>1.8</v>
+      </c>
+      <c r="W35" s="6">
         <v>0.8</v>
       </c>
-      <c r="Z34" s="6">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>93</v>
-      </c>
-      <c r="B35" t="s">
-        <v>8</v>
-      </c>
-      <c r="C35">
-        <v>11.56</v>
-      </c>
-      <c r="D35">
-        <v>30</v>
-      </c>
-      <c r="E35">
-        <v>2.8</v>
-      </c>
-      <c r="F35">
-        <v>4.5</v>
-      </c>
-      <c r="G35" s="2">
-        <v>1060</v>
-      </c>
-      <c r="H35" s="2">
-        <v>900</v>
-      </c>
-      <c r="I35" s="2">
-        <v>140</v>
-      </c>
-      <c r="J35" s="2">
-        <v>10</v>
-      </c>
-      <c r="K35" s="2">
-        <v>960</v>
-      </c>
-      <c r="L35" s="2">
-        <v>460</v>
-      </c>
-      <c r="M35" s="2">
-        <v>40</v>
-      </c>
-      <c r="N35" s="2">
-        <v>30</v>
-      </c>
-      <c r="O35" s="2">
-        <v>15</v>
-      </c>
-      <c r="P35" s="2">
-        <v>15</v>
-      </c>
-      <c r="Q35" s="6">
-        <v>1.2</v>
-      </c>
-      <c r="R35" s="2">
-        <v>15</v>
-      </c>
-      <c r="S35" s="2">
-        <v>46</v>
-      </c>
-      <c r="T35" s="6">
-        <v>7.87</v>
-      </c>
-      <c r="U35" s="6">
-        <v>5.63</v>
-      </c>
-      <c r="V35" s="6">
+      <c r="X35" s="6">
         <v>0.8</v>
       </c>
-      <c r="W35" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="X35" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="Y35" s="6">
-        <v>0.85</v>
+      <c r="Y35" s="3">
+        <v>0.68</v>
       </c>
       <c r="Z35" s="6">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="B36" t="s">
         <v>88</v>
@@ -7044,158 +10519,158 @@
         <v>45</v>
       </c>
       <c r="D36">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="E36">
-        <v>4.5</v>
+        <v>10</v>
       </c>
       <c r="F36">
         <v>10</v>
       </c>
       <c r="G36" s="2">
-        <v>2200</v>
+        <v>4000</v>
       </c>
       <c r="H36" s="2">
-        <v>1300</v>
+        <v>3000</v>
       </c>
       <c r="I36" s="2">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="J36" s="2">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="K36" s="2">
-        <v>1900</v>
+        <v>3300</v>
       </c>
       <c r="L36" s="2">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="M36" s="2">
         <v>50</v>
       </c>
       <c r="N36" s="2">
-        <v>21.5</v>
+        <v>73</v>
       </c>
       <c r="O36" s="2">
         <v>20</v>
       </c>
       <c r="P36" s="2">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="Q36" s="6">
-        <v>3.6</v>
+        <v>8.5</v>
       </c>
       <c r="R36" s="2">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="S36" s="2">
-        <v>165</v>
-      </c>
-      <c r="T36" s="10">
-        <v>2.8</v>
-      </c>
-      <c r="U36" s="10">
-        <v>2.2999999999999998</v>
+        <v>100</v>
+      </c>
+      <c r="T36" s="6">
+        <v>3.1</v>
+      </c>
+      <c r="U36" s="6">
+        <v>2.4</v>
       </c>
       <c r="V36" s="6">
-        <v>1.8</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="W36" s="6">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="X36" s="6">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="Y36" s="3">
-        <v>0.68</v>
+        <v>0.69</v>
       </c>
       <c r="Z36" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B37" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="C37">
-        <v>45</v>
+        <v>11.56</v>
       </c>
       <c r="D37">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="E37">
-        <v>10</v>
+        <v>3.8</v>
       </c>
       <c r="F37">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G37" s="2">
-        <v>4000</v>
+        <v>1050</v>
       </c>
       <c r="H37" s="2">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="I37" s="2">
-        <v>700</v>
+        <v>150</v>
       </c>
       <c r="J37" s="2">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="K37" s="2">
-        <v>3300</v>
+        <v>1000</v>
       </c>
       <c r="L37" s="2">
-        <v>1000</v>
+        <v>460</v>
       </c>
       <c r="M37" s="2">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="N37" s="2">
-        <v>73</v>
+        <v>3</v>
       </c>
       <c r="O37" s="2">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="P37" s="2">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="Q37" s="6">
-        <v>8.5</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="R37" s="2">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="S37" s="2">
-        <v>100</v>
+        <v>57</v>
       </c>
       <c r="T37" s="6">
-        <v>3.1</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="U37" s="6">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="V37" s="6">
-        <v>1.1000000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="W37" s="6">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="X37" s="6">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="Y37" s="3">
-        <v>0.69</v>
+        <v>0.85</v>
       </c>
       <c r="Z37" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B38" t="s">
         <v>95</v>
@@ -7207,34 +10682,34 @@
         <v>30</v>
       </c>
       <c r="E38">
-        <v>3.8</v>
+        <v>5.5</v>
       </c>
       <c r="F38">
         <v>5</v>
       </c>
       <c r="G38" s="2">
-        <v>1050</v>
+        <v>1500</v>
       </c>
       <c r="H38" s="2">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="I38" s="2">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="J38" s="2">
         <v>10</v>
       </c>
       <c r="K38" s="2">
-        <v>1000</v>
+        <v>1450</v>
       </c>
       <c r="L38" s="2">
-        <v>460</v>
+        <v>700</v>
       </c>
       <c r="M38" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="N38" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="O38" s="2">
         <v>15</v>
@@ -7243,22 +10718,22 @@
         <v>15</v>
       </c>
       <c r="Q38" s="6">
-        <v>1.1200000000000001</v>
+        <v>1.7</v>
       </c>
       <c r="R38" s="2">
         <v>15</v>
       </c>
       <c r="S38" s="2">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="T38" s="6">
-        <v>4.4000000000000004</v>
+        <v>2.9</v>
       </c>
       <c r="U38" s="6">
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="V38" s="6">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="W38" s="6">
         <v>0.5</v>
@@ -7273,12 +10748,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B39" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C39">
         <v>11.56</v>
@@ -7287,75 +10762,75 @@
         <v>30</v>
       </c>
       <c r="E39">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="F39">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G39" s="2">
-        <v>1500</v>
+        <v>1700</v>
       </c>
       <c r="H39" s="2">
-        <v>1500</v>
+        <v>1050</v>
       </c>
       <c r="I39" s="2">
         <v>200</v>
       </c>
       <c r="J39" s="2">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="K39" s="2">
-        <v>1450</v>
+        <v>1500</v>
       </c>
       <c r="L39" s="2">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="M39" s="2">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="N39" s="2">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="O39" s="2">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="P39" s="2">
         <v>15</v>
       </c>
       <c r="Q39" s="6">
-        <v>1.7</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="R39" s="2">
         <v>15</v>
       </c>
       <c r="S39" s="2">
-        <v>61</v>
-      </c>
-      <c r="T39" s="6">
-        <v>2.9</v>
-      </c>
-      <c r="U39" s="6">
-        <v>2</v>
-      </c>
-      <c r="V39" s="6">
-        <v>0.9</v>
-      </c>
-      <c r="W39" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="X39" s="6">
+        <v>108</v>
+      </c>
+      <c r="T39" s="3">
+        <v>3.7</v>
+      </c>
+      <c r="U39" s="3">
+        <v>3.05</v>
+      </c>
+      <c r="V39" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="W39" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="X39" s="3">
         <v>0.5</v>
       </c>
       <c r="Y39" s="3">
-        <v>0.85</v>
-      </c>
-      <c r="Z39" s="6">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.2">
+        <v>0.7</v>
+      </c>
+      <c r="Z39" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B40" t="s">
         <v>98</v>
@@ -7367,34 +10842,34 @@
         <v>30</v>
       </c>
       <c r="E40">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="F40">
         <v>10</v>
       </c>
       <c r="G40" s="2">
-        <v>1700</v>
+        <v>1340</v>
       </c>
       <c r="H40" s="2">
-        <v>1050</v>
+        <v>900</v>
       </c>
       <c r="I40" s="2">
-        <v>200</v>
+        <v>140</v>
       </c>
       <c r="J40" s="2">
         <v>20</v>
       </c>
       <c r="K40" s="2">
-        <v>1500</v>
+        <v>1210</v>
       </c>
       <c r="L40" s="2">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="M40" s="2">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="N40" s="2">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="O40" s="2">
         <v>20</v>
@@ -7403,22 +10878,22 @@
         <v>15</v>
       </c>
       <c r="Q40" s="6">
-        <v>2.2000000000000002</v>
+        <v>1</v>
       </c>
       <c r="R40" s="2">
         <v>15</v>
       </c>
       <c r="S40" s="2">
-        <v>108</v>
-      </c>
-      <c r="T40" s="3">
-        <v>3.7</v>
-      </c>
-      <c r="U40" s="3">
-        <v>3.05</v>
-      </c>
-      <c r="V40" s="3">
-        <v>0.8</v>
+        <v>125</v>
+      </c>
+      <c r="T40" s="6">
+        <v>4.7</v>
+      </c>
+      <c r="U40" s="6">
+        <v>3.9</v>
+      </c>
+      <c r="V40" s="6">
+        <v>1.9</v>
       </c>
       <c r="W40" s="3">
         <v>0.5</v>
@@ -7433,48 +10908,48 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B41" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C41">
-        <v>11.56</v>
+        <v>45</v>
       </c>
       <c r="D41">
         <v>30</v>
       </c>
       <c r="E41">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
       <c r="F41">
         <v>10</v>
       </c>
       <c r="G41" s="2">
-        <v>1340</v>
+        <v>1250</v>
       </c>
       <c r="H41" s="2">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="I41" s="2">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="J41" s="2">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="K41" s="2">
-        <v>1210</v>
+        <v>1200</v>
       </c>
       <c r="L41" s="2">
-        <v>240</v>
+        <v>400</v>
       </c>
       <c r="M41" s="2">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="N41" s="2">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="O41" s="2">
         <v>20</v>
@@ -7483,39 +10958,39 @@
         <v>15</v>
       </c>
       <c r="Q41" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R41" s="2">
         <v>15</v>
       </c>
       <c r="S41" s="2">
-        <v>125</v>
+        <v>57</v>
       </c>
       <c r="T41" s="6">
-        <v>4.7</v>
+        <v>5.2</v>
       </c>
       <c r="U41" s="6">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="V41" s="6">
-        <v>1.9</v>
-      </c>
-      <c r="W41" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="X41" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="Y41" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="W41" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="X41" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="Y41" s="6">
         <v>0.7</v>
       </c>
-      <c r="Z41" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z41" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B42" t="s">
         <v>102</v>
@@ -7527,34 +11002,34 @@
         <v>30</v>
       </c>
       <c r="E42">
-        <v>2.5</v>
+        <v>5.5</v>
       </c>
       <c r="F42">
         <v>10</v>
       </c>
       <c r="G42" s="2">
-        <v>1250</v>
+        <v>2550</v>
       </c>
       <c r="H42" s="2">
-        <v>1100</v>
+        <v>2000</v>
       </c>
       <c r="I42" s="2">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="J42" s="2">
         <v>15</v>
       </c>
       <c r="K42" s="2">
-        <v>1200</v>
+        <v>2250</v>
       </c>
       <c r="L42" s="2">
-        <v>400</v>
+        <v>650</v>
       </c>
       <c r="M42" s="2">
-        <v>62</v>
+        <v>100</v>
       </c>
       <c r="N42" s="2">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="O42" s="2">
         <v>20</v>
@@ -7563,42 +11038,42 @@
         <v>15</v>
       </c>
       <c r="Q42" s="6">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="R42" s="2">
         <v>15</v>
       </c>
       <c r="S42" s="2">
-        <v>57</v>
+        <v>110</v>
       </c>
       <c r="T42" s="6">
-        <v>5.2</v>
+        <v>2.6</v>
       </c>
       <c r="U42" s="6">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
       <c r="V42" s="6">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="W42" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="X42" s="6">
         <v>0.2</v>
-      </c>
-      <c r="X42" s="6">
-        <v>0.5</v>
       </c>
       <c r="Y42" s="6">
         <v>0.7</v>
       </c>
-      <c r="Z42" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z42" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="B43" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="C43">
         <v>45</v>
@@ -7607,79 +11082,413 @@
         <v>30</v>
       </c>
       <c r="E43">
+        <v>11.4</v>
+      </c>
+      <c r="F43">
+        <v>4.5</v>
+      </c>
+      <c r="G43" s="2">
+        <v>4600</v>
+      </c>
+      <c r="H43" s="2">
+        <v>5500</v>
+      </c>
+      <c r="I43" s="2">
+        <v>250</v>
+      </c>
+      <c r="J43" s="2">
+        <v>15</v>
+      </c>
+      <c r="K43" s="2">
+        <v>4200</v>
+      </c>
+      <c r="L43" s="2">
+        <v>1800</v>
+      </c>
+      <c r="M43" s="2">
+        <v>68</v>
+      </c>
+      <c r="N43" s="2">
+        <v>45</v>
+      </c>
+      <c r="O43" s="2">
+        <v>10</v>
+      </c>
+      <c r="P43" s="2">
+        <v>15</v>
+      </c>
+      <c r="Q43" s="6">
+        <v>2.4</v>
+      </c>
+      <c r="R43" s="2">
+        <v>15</v>
+      </c>
+      <c r="S43" s="2">
+        <v>67</v>
+      </c>
+      <c r="T43" s="6">
+        <v>1.8</v>
+      </c>
+      <c r="U43" s="6">
+        <v>1</v>
+      </c>
+      <c r="V43" s="6">
+        <v>1.2</v>
+      </c>
+      <c r="W43" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="X43" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="Y43" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="Z43" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>110</v>
+      </c>
+      <c r="B44" t="s">
+        <v>71</v>
+      </c>
+      <c r="C44">
+        <v>45</v>
+      </c>
+      <c r="D44">
+        <v>40</v>
+      </c>
+      <c r="E44">
         <v>5.5</v>
       </c>
-      <c r="F43">
-        <v>10</v>
-      </c>
-      <c r="G43" s="2">
-        <v>2550</v>
-      </c>
-      <c r="H43" s="2">
+      <c r="F44">
+        <v>10</v>
+      </c>
+      <c r="G44" s="2">
+        <v>2200</v>
+      </c>
+      <c r="H44" s="2">
+        <v>2400</v>
+      </c>
+      <c r="I44" s="2">
+        <v>300</v>
+      </c>
+      <c r="J44" s="2">
+        <v>15</v>
+      </c>
+      <c r="K44" s="2">
         <v>2000</v>
       </c>
-      <c r="I43" s="2">
-        <v>400</v>
-      </c>
-      <c r="J43" s="2">
-        <v>15</v>
-      </c>
-      <c r="K43" s="2">
-        <v>2250</v>
-      </c>
-      <c r="L43" s="2">
-        <v>650</v>
-      </c>
-      <c r="M43" s="2">
+      <c r="L44" s="2">
+        <v>900</v>
+      </c>
+      <c r="M44" s="2">
+        <v>28</v>
+      </c>
+      <c r="N44" s="2">
+        <v>42</v>
+      </c>
+      <c r="O44" s="2">
+        <v>10</v>
+      </c>
+      <c r="P44" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q44" s="6">
+        <v>3.6</v>
+      </c>
+      <c r="R44" s="2">
+        <v>20</v>
+      </c>
+      <c r="S44" s="2">
+        <v>170</v>
+      </c>
+      <c r="T44" s="6">
+        <v>2.4</v>
+      </c>
+      <c r="U44" s="6">
+        <v>1.8</v>
+      </c>
+      <c r="V44" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="W44" s="6">
+        <v>1</v>
+      </c>
+      <c r="X44" s="6">
+        <v>1</v>
+      </c>
+      <c r="Y44" s="3">
+        <v>0.84</v>
+      </c>
+      <c r="Z44" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="45" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>111</v>
+      </c>
+      <c r="B45" t="s">
+        <v>71</v>
+      </c>
+      <c r="C45">
+        <v>45</v>
+      </c>
+      <c r="D45">
+        <v>40</v>
+      </c>
+      <c r="E45">
+        <v>5</v>
+      </c>
+      <c r="F45">
+        <v>10</v>
+      </c>
+      <c r="G45" s="2">
+        <v>1400</v>
+      </c>
+      <c r="H45" s="2">
+        <v>1500</v>
+      </c>
+      <c r="I45" s="2">
+        <v>200</v>
+      </c>
+      <c r="J45" s="2">
+        <v>15</v>
+      </c>
+      <c r="K45" s="2">
+        <v>1100</v>
+      </c>
+      <c r="L45" s="2">
+        <v>580</v>
+      </c>
+      <c r="M45" s="2">
+        <v>60</v>
+      </c>
+      <c r="N45" s="2">
+        <v>19</v>
+      </c>
+      <c r="O45" s="2">
+        <v>50</v>
+      </c>
+      <c r="P45" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q45" s="6">
+        <v>3</v>
+      </c>
+      <c r="R45" s="2">
+        <v>20</v>
+      </c>
+      <c r="S45" s="2">
         <v>100</v>
       </c>
-      <c r="N43" s="2">
-        <v>30</v>
-      </c>
-      <c r="O43" s="2">
-        <v>20</v>
-      </c>
-      <c r="P43" s="2">
-        <v>15</v>
-      </c>
-      <c r="Q43" s="6">
-        <v>4.5</v>
-      </c>
-      <c r="R43" s="2">
-        <v>15</v>
-      </c>
-      <c r="S43" s="2">
-        <v>110</v>
-      </c>
-      <c r="T43" s="6">
-        <v>2.6</v>
-      </c>
-      <c r="U43" s="6">
-        <v>1.5</v>
-      </c>
-      <c r="V43" s="6">
-        <v>1.4</v>
-      </c>
-      <c r="W43" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="X43" s="6">
-        <v>0.2</v>
-      </c>
-      <c r="Y43" s="6">
-        <v>0.7</v>
-      </c>
-      <c r="Z43" s="2">
-        <v>1</v>
+      <c r="T45" s="6">
+        <v>4</v>
+      </c>
+      <c r="U45" s="6">
+        <v>3.5</v>
+      </c>
+      <c r="V45" s="3">
+        <v>2.1</v>
+      </c>
+      <c r="W45" s="3">
+        <v>1</v>
+      </c>
+      <c r="X45" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y45" s="3">
+        <v>0.88</v>
+      </c>
+      <c r="Z45" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="46" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>112</v>
+      </c>
+      <c r="B46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46">
+        <v>45</v>
+      </c>
+      <c r="D46">
+        <v>40</v>
+      </c>
+      <c r="E46">
+        <v>7</v>
+      </c>
+      <c r="F46">
+        <v>10</v>
+      </c>
+      <c r="G46" s="2">
+        <v>1900</v>
+      </c>
+      <c r="H46" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I46" s="2">
+        <v>300</v>
+      </c>
+      <c r="J46" s="2">
+        <v>15</v>
+      </c>
+      <c r="K46" s="2">
+        <v>1600</v>
+      </c>
+      <c r="L46" s="2">
+        <v>780</v>
+      </c>
+      <c r="M46" s="2">
+        <v>80</v>
+      </c>
+      <c r="N46" s="2">
+        <v>23</v>
+      </c>
+      <c r="O46" s="2">
+        <v>50</v>
+      </c>
+      <c r="P46" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q46" s="6">
+        <v>4</v>
+      </c>
+      <c r="R46" s="2">
+        <v>20</v>
+      </c>
+      <c r="S46" s="2">
+        <v>140</v>
+      </c>
+      <c r="T46" s="6">
+        <v>3.1</v>
+      </c>
+      <c r="U46" s="6">
+        <v>2.7</v>
+      </c>
+      <c r="V46" s="3">
+        <v>2.8</v>
+      </c>
+      <c r="W46" s="6">
+        <v>1</v>
+      </c>
+      <c r="X46" s="6">
+        <v>1</v>
+      </c>
+      <c r="Y46" s="3">
+        <v>0.89</v>
+      </c>
+      <c r="Z46" s="2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="47" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>113</v>
+      </c>
+      <c r="B47" t="s">
+        <v>71</v>
+      </c>
+      <c r="C47">
+        <v>45</v>
+      </c>
+      <c r="D47">
+        <v>40</v>
+      </c>
+      <c r="E47">
+        <v>4.8</v>
+      </c>
+      <c r="F47">
+        <v>10</v>
+      </c>
+      <c r="G47" s="2">
+        <v>2000</v>
+      </c>
+      <c r="H47" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I47" s="2">
+        <v>300</v>
+      </c>
+      <c r="J47" s="2">
+        <v>15</v>
+      </c>
+      <c r="K47" s="2">
+        <v>1800</v>
+      </c>
+      <c r="L47" s="2">
+        <v>750</v>
+      </c>
+      <c r="M47" s="2">
+        <v>90</v>
+      </c>
+      <c r="N47" s="2">
+        <v>52</v>
+      </c>
+      <c r="O47" s="2">
+        <v>50</v>
+      </c>
+      <c r="P47" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q47" s="6">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="R47" s="2">
+        <v>20</v>
+      </c>
+      <c r="S47" s="2">
+        <v>150</v>
+      </c>
+      <c r="T47" s="6">
+        <v>3.3</v>
+      </c>
+      <c r="U47" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="V47" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="W47" s="6">
+        <v>1</v>
+      </c>
+      <c r="X47" s="6">
+        <v>1</v>
+      </c>
+      <c r="Y47" s="3">
+        <v>0.88</v>
+      </c>
+      <c r="Z47" s="2">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Z43" xr:uid="{E69B3F4A-D7AE-43B6-8CEC-20724C077B7B}"/>
+  <autoFilter ref="A1:Z47" xr:uid="{E69B3F4A-D7AE-43B6-8CEC-20724C077B7B}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="PPAK5x6"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="3">
+      <filters>
+        <filter val="40"/>
+      </filters>
+    </filterColumn>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A11:Z23">
+      <sortCondition ref="U1:U43"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{391B8B8E-5D47-4FAB-9A21-65241D68C284}">
   <dimension ref="A1:Z40"/>
   <sheetViews>

--- a/data/mosfet_data.xlsx
+++ b/data/mosfet_data.xlsx
@@ -8,19 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://renesasgroup-my.sharepoint.com/personal/gary_kidwell_wz_renesas_com/Documents/python/charger/mathmodels/pdis_2or3lvl_bb/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="427" documentId="13_ncr:1_{B6E73BC3-DAD1-4207-9F29-342E0D899D99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{623C26D0-4C27-4574-874E-276D52D836EA}"/>
+  <xr:revisionPtr revIDLastSave="430" documentId="13_ncr:1_{B6E73BC3-DAD1-4207-9F29-342E0D899D99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F7907EE5-2855-4AD0-BF4E-CD8241F92E50}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16920" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="16260" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="column_data" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="6" r:id="rId2"/>
-    <sheet name="transpose" sheetId="5" r:id="rId3"/>
-    <sheet name="transpose1" sheetId="4" r:id="rId4"/>
+    <sheet name="column_data_old" sheetId="1" r:id="rId1"/>
+    <sheet name="transpose" sheetId="5" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">transpose!$A$1:$Z$47</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">transpose1!$A$1:$Z$40</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">transpose!$A$1:$Z$47</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="114">
   <si>
     <t>description</t>
   </si>
@@ -777,7 +774,7 @@
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane xSplit="1" topLeftCell="AF1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" sqref="A1:AQ26"/>
+      <selection pane="topRight" activeCell="AG35" sqref="AG35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4217,3463 +4214,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FA5D773-A122-4889-8A90-0D77BBD1290D}">
-  <dimension ref="A1:Z43"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:Z43"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G1" t="s">
-        <v>59</v>
-      </c>
-      <c r="H1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K1" t="s">
-        <v>27</v>
-      </c>
-      <c r="L1" t="s">
-        <v>29</v>
-      </c>
-      <c r="M1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N1" t="s">
-        <v>33</v>
-      </c>
-      <c r="O1" t="s">
-        <v>35</v>
-      </c>
-      <c r="P1" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>40</v>
-      </c>
-      <c r="R1" t="s">
-        <v>42</v>
-      </c>
-      <c r="S1" t="s">
-        <v>44</v>
-      </c>
-      <c r="T1" t="s">
-        <v>61</v>
-      </c>
-      <c r="U1" t="s">
-        <v>63</v>
-      </c>
-      <c r="V1" t="s">
-        <v>47</v>
-      </c>
-      <c r="W1" t="s">
-        <v>50</v>
-      </c>
-      <c r="X1" t="s">
-        <v>53</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>55</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" t="s">
-        <v>60</v>
-      </c>
-      <c r="H2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J2" t="s">
-        <v>26</v>
-      </c>
-      <c r="K2" t="s">
-        <v>28</v>
-      </c>
-      <c r="L2" t="s">
-        <v>30</v>
-      </c>
-      <c r="M2" t="s">
-        <v>32</v>
-      </c>
-      <c r="N2" t="s">
-        <v>34</v>
-      </c>
-      <c r="O2" t="s">
-        <v>36</v>
-      </c>
-      <c r="P2" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>41</v>
-      </c>
-      <c r="R2" t="s">
-        <v>43</v>
-      </c>
-      <c r="S2" t="s">
-        <v>45</v>
-      </c>
-      <c r="T2" t="s">
-        <v>62</v>
-      </c>
-      <c r="U2" t="s">
-        <v>64</v>
-      </c>
-      <c r="V2" t="s">
-        <v>48</v>
-      </c>
-      <c r="W2" t="s">
-        <v>51</v>
-      </c>
-      <c r="X2" t="s">
-        <v>54</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>56</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L3" t="s">
-        <v>20</v>
-      </c>
-      <c r="M3" t="s">
-        <v>20</v>
-      </c>
-      <c r="N3" t="s">
-        <v>17</v>
-      </c>
-      <c r="O3" t="s">
-        <v>37</v>
-      </c>
-      <c r="P3" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>17</v>
-      </c>
-      <c r="R3" t="s">
-        <v>14</v>
-      </c>
-      <c r="S3" t="s">
-        <v>67</v>
-      </c>
-      <c r="T3" t="s">
-        <v>46</v>
-      </c>
-      <c r="U3" t="s">
-        <v>46</v>
-      </c>
-      <c r="V3" t="s">
-        <v>49</v>
-      </c>
-      <c r="W3" t="s">
-        <v>52</v>
-      </c>
-      <c r="X3" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>14</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="D4" s="1">
-        <v>1</v>
-      </c>
-      <c r="E4" s="1">
-        <v>1.0000000000000001E-9</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4" s="1">
-        <v>9.9999999999999998E-13</v>
-      </c>
-      <c r="H4" s="1">
-        <v>9.9999999999999998E-13</v>
-      </c>
-      <c r="I4" s="1">
-        <v>9.9999999999999998E-13</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4" s="1">
-        <v>9.9999999999999998E-13</v>
-      </c>
-      <c r="L4" s="1">
-        <v>9.9999999999999998E-13</v>
-      </c>
-      <c r="M4" s="1">
-        <v>9.9999999999999998E-13</v>
-      </c>
-      <c r="N4" s="1">
-        <v>1.0000000000000001E-9</v>
-      </c>
-      <c r="O4">
-        <v>1</v>
-      </c>
-      <c r="P4">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="1">
-        <v>1.0000000000000001E-9</v>
-      </c>
-      <c r="R4">
-        <v>1</v>
-      </c>
-      <c r="S4" s="1">
-        <v>1</v>
-      </c>
-      <c r="T4" s="1">
-        <v>1E-3</v>
-      </c>
-      <c r="U4" s="1">
-        <v>1E-3</v>
-      </c>
-      <c r="V4">
-        <v>1</v>
-      </c>
-      <c r="W4" s="1">
-        <v>1.0000000000000001E-9</v>
-      </c>
-      <c r="X4" s="1">
-        <v>1.0000000000000001E-9</v>
-      </c>
-      <c r="Y4">
-        <v>1</v>
-      </c>
-      <c r="Z4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>75</v>
-      </c>
-      <c r="B5" t="s">
-        <v>76</v>
-      </c>
-      <c r="C5" s="2">
-        <v>1</v>
-      </c>
-      <c r="D5" s="2">
-        <v>0</v>
-      </c>
-      <c r="E5" s="5">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="F5" s="5">
-        <v>4.5</v>
-      </c>
-      <c r="G5" s="5">
-        <v>1</v>
-      </c>
-      <c r="H5" s="5">
-        <v>1</v>
-      </c>
-      <c r="I5" s="5">
-        <v>1</v>
-      </c>
-      <c r="J5" s="5">
-        <v>25</v>
-      </c>
-      <c r="K5" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="L5" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="M5" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="N5" s="5">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="O5" s="5">
-        <v>1</v>
-      </c>
-      <c r="P5" s="5">
-        <v>20</v>
-      </c>
-      <c r="Q5" s="5">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="R5" s="5">
-        <v>20</v>
-      </c>
-      <c r="S5" s="5">
-        <v>20</v>
-      </c>
-      <c r="T5" s="6">
-        <v>1E-3</v>
-      </c>
-      <c r="U5" s="6">
-        <v>1E-3</v>
-      </c>
-      <c r="V5" s="5">
-        <v>1</v>
-      </c>
-      <c r="W5" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="X5" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="Y5" s="5">
-        <v>0.01</v>
-      </c>
-      <c r="Z5" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6">
-        <f>3.4*3.4</f>
-        <v>11.559999999999999</v>
-      </c>
-      <c r="D6">
-        <v>80</v>
-      </c>
-      <c r="E6">
-        <v>5</v>
-      </c>
-      <c r="F6">
-        <v>4.5</v>
-      </c>
-      <c r="G6">
-        <v>2100</v>
-      </c>
-      <c r="H6">
-        <v>1200</v>
-      </c>
-      <c r="I6">
-        <v>300</v>
-      </c>
-      <c r="J6">
-        <v>40</v>
-      </c>
-      <c r="K6">
-        <v>1900</v>
-      </c>
-      <c r="L6">
-        <v>280</v>
-      </c>
-      <c r="M6">
-        <v>12</v>
-      </c>
-      <c r="N6">
-        <v>27</v>
-      </c>
-      <c r="O6">
-        <v>20</v>
-      </c>
-      <c r="P6">
-        <v>40</v>
-      </c>
-      <c r="Q6">
-        <v>4</v>
-      </c>
-      <c r="R6">
-        <v>40</v>
-      </c>
-      <c r="S6">
-        <v>52</v>
-      </c>
-      <c r="T6">
-        <v>7.4</v>
-      </c>
-      <c r="U6">
-        <v>5.9</v>
-      </c>
-      <c r="V6">
-        <v>1.3</v>
-      </c>
-      <c r="W6">
-        <v>0.5</v>
-      </c>
-      <c r="X6">
-        <v>0.5</v>
-      </c>
-      <c r="Y6">
-        <v>0.85</v>
-      </c>
-      <c r="Z6">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7">
-        <f>3.4*3.4</f>
-        <v>11.559999999999999</v>
-      </c>
-      <c r="D7">
-        <v>80</v>
-      </c>
-      <c r="E7">
-        <v>7.5</v>
-      </c>
-      <c r="F7">
-        <v>10</v>
-      </c>
-      <c r="G7">
-        <v>2750</v>
-      </c>
-      <c r="H7">
-        <v>1700</v>
-      </c>
-      <c r="I7">
-        <v>200</v>
-      </c>
-      <c r="J7">
-        <v>40</v>
-      </c>
-      <c r="K7">
-        <v>2400</v>
-      </c>
-      <c r="L7">
-        <v>250</v>
-      </c>
-      <c r="M7">
-        <v>10</v>
-      </c>
-      <c r="N7">
-        <v>100</v>
-      </c>
-      <c r="O7">
-        <v>18</v>
-      </c>
-      <c r="P7">
-        <v>40</v>
-      </c>
-      <c r="Q7">
-        <v>4</v>
-      </c>
-      <c r="R7">
-        <v>40</v>
-      </c>
-      <c r="S7">
-        <v>54</v>
-      </c>
-      <c r="T7">
-        <v>5.5</v>
-      </c>
-      <c r="U7">
-        <v>5.5</v>
-      </c>
-      <c r="V7">
-        <v>1.35</v>
-      </c>
-      <c r="W7">
-        <v>0.5</v>
-      </c>
-      <c r="X7">
-        <v>0.5</v>
-      </c>
-      <c r="Y7">
-        <v>0.7</v>
-      </c>
-      <c r="Z7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>68</v>
-      </c>
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8">
-        <v>11.56</v>
-      </c>
-      <c r="D8">
-        <v>60</v>
-      </c>
-      <c r="E8">
-        <v>5</v>
-      </c>
-      <c r="F8">
-        <v>4.5</v>
-      </c>
-      <c r="G8">
-        <v>2300</v>
-      </c>
-      <c r="H8">
-        <v>1500</v>
-      </c>
-      <c r="I8">
-        <v>400</v>
-      </c>
-      <c r="J8">
-        <v>40</v>
-      </c>
-      <c r="K8">
-        <v>1900</v>
-      </c>
-      <c r="L8">
-        <v>330</v>
-      </c>
-      <c r="M8">
-        <v>16</v>
-      </c>
-      <c r="N8">
-        <v>17</v>
-      </c>
-      <c r="O8">
-        <v>20</v>
-      </c>
-      <c r="P8">
-        <v>30</v>
-      </c>
-      <c r="Q8">
-        <v>4.8</v>
-      </c>
-      <c r="R8">
-        <v>30</v>
-      </c>
-      <c r="S8">
-        <v>66</v>
-      </c>
-      <c r="T8">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="U8">
-        <v>3.9</v>
-      </c>
-      <c r="V8">
-        <v>1.8</v>
-      </c>
-      <c r="W8">
-        <v>0.5</v>
-      </c>
-      <c r="X8">
-        <v>0.5</v>
-      </c>
-      <c r="Y8">
-        <v>0.83</v>
-      </c>
-      <c r="Z8">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>89</v>
-      </c>
-      <c r="B9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9">
-        <v>11.56</v>
-      </c>
-      <c r="D9">
-        <v>60</v>
-      </c>
-      <c r="E9">
-        <v>7</v>
-      </c>
-      <c r="F9">
-        <v>4.5</v>
-      </c>
-      <c r="G9">
-        <v>3000</v>
-      </c>
-      <c r="H9">
-        <v>2000</v>
-      </c>
-      <c r="I9">
-        <v>300</v>
-      </c>
-      <c r="J9">
-        <v>24</v>
-      </c>
-      <c r="K9">
-        <v>2500</v>
-      </c>
-      <c r="L9">
-        <v>700</v>
-      </c>
-      <c r="M9">
-        <v>35</v>
-      </c>
-      <c r="N9">
-        <v>25</v>
-      </c>
-      <c r="O9">
-        <v>10</v>
-      </c>
-      <c r="P9">
-        <v>30</v>
-      </c>
-      <c r="Q9">
-        <v>4.7</v>
-      </c>
-      <c r="R9">
-        <v>30</v>
-      </c>
-      <c r="S9">
-        <v>57</v>
-      </c>
-      <c r="T9">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="U9">
-        <v>2.9</v>
-      </c>
-      <c r="V9">
-        <v>0.85</v>
-      </c>
-      <c r="W9">
-        <v>0.5</v>
-      </c>
-      <c r="X9">
-        <v>0.5</v>
-      </c>
-      <c r="Y9">
-        <v>0.74</v>
-      </c>
-      <c r="Z9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>90</v>
-      </c>
-      <c r="B10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10">
-        <v>11.56</v>
-      </c>
-      <c r="D10">
-        <v>60</v>
-      </c>
-      <c r="E10">
-        <v>6.2</v>
-      </c>
-      <c r="F10">
-        <v>4.5</v>
-      </c>
-      <c r="G10">
-        <v>2200</v>
-      </c>
-      <c r="H10">
-        <v>1600</v>
-      </c>
-      <c r="I10">
-        <v>300</v>
-      </c>
-      <c r="J10">
-        <v>24</v>
-      </c>
-      <c r="K10">
-        <v>2000</v>
-      </c>
-      <c r="L10">
-        <v>560</v>
-      </c>
-      <c r="M10">
-        <v>32</v>
-      </c>
-      <c r="N10">
-        <v>20</v>
-      </c>
-      <c r="O10">
-        <v>10</v>
-      </c>
-      <c r="P10">
-        <v>30</v>
-      </c>
-      <c r="Q10">
-        <v>4.5</v>
-      </c>
-      <c r="R10">
-        <v>30</v>
-      </c>
-      <c r="S10">
-        <v>54</v>
-      </c>
-      <c r="T10">
-        <v>4.8</v>
-      </c>
-      <c r="U10">
-        <v>3.4</v>
-      </c>
-      <c r="V10">
-        <v>0.85</v>
-      </c>
-      <c r="W10">
-        <v>0.5</v>
-      </c>
-      <c r="X10">
-        <v>0.5</v>
-      </c>
-      <c r="Y10">
-        <v>0.75</v>
-      </c>
-      <c r="Z10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>86</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11">
-        <v>11.56</v>
-      </c>
-      <c r="D11">
-        <v>40</v>
-      </c>
-      <c r="E11">
-        <v>0.9</v>
-      </c>
-      <c r="F11">
-        <v>4.5</v>
-      </c>
-      <c r="G11">
-        <v>760</v>
-      </c>
-      <c r="H11">
-        <v>900</v>
-      </c>
-      <c r="I11">
-        <v>100</v>
-      </c>
-      <c r="J11">
-        <v>25</v>
-      </c>
-      <c r="K11">
-        <v>650</v>
-      </c>
-      <c r="L11">
-        <v>95</v>
-      </c>
-      <c r="M11">
-        <v>11</v>
-      </c>
-      <c r="N11">
-        <v>21</v>
-      </c>
-      <c r="O11">
-        <v>20</v>
-      </c>
-      <c r="P11">
-        <v>20</v>
-      </c>
-      <c r="Q11">
-        <v>0.65</v>
-      </c>
-      <c r="R11">
-        <v>20</v>
-      </c>
-      <c r="S11">
-        <v>64</v>
-      </c>
-      <c r="T11">
-        <v>7</v>
-      </c>
-      <c r="U11">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="V11">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="W11">
-        <v>1</v>
-      </c>
-      <c r="X11">
-        <v>1</v>
-      </c>
-      <c r="Y11">
-        <v>0.85</v>
-      </c>
-      <c r="Z11">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>69</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12">
-        <v>11.56</v>
-      </c>
-      <c r="D12">
-        <v>40</v>
-      </c>
-      <c r="E12">
-        <v>4.7</v>
-      </c>
-      <c r="F12">
-        <v>10</v>
-      </c>
-      <c r="G12">
-        <v>2000</v>
-      </c>
-      <c r="H12">
-        <v>2500</v>
-      </c>
-      <c r="I12">
-        <v>360</v>
-      </c>
-      <c r="J12">
-        <v>25</v>
-      </c>
-      <c r="K12">
-        <v>1800</v>
-      </c>
-      <c r="L12">
-        <v>500</v>
-      </c>
-      <c r="M12">
-        <v>17</v>
-      </c>
-      <c r="N12">
-        <v>44</v>
-      </c>
-      <c r="O12">
-        <v>20</v>
-      </c>
-      <c r="P12">
-        <v>20</v>
-      </c>
-      <c r="Q12">
-        <v>3.2</v>
-      </c>
-      <c r="R12">
-        <v>20</v>
-      </c>
-      <c r="S12">
-        <v>100</v>
-      </c>
-      <c r="T12">
-        <v>2.8</v>
-      </c>
-      <c r="U12">
-        <v>2.1</v>
-      </c>
-      <c r="V12">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="W12">
-        <v>0.5</v>
-      </c>
-      <c r="X12">
-        <v>0.5</v>
-      </c>
-      <c r="Y12">
-        <v>0.79</v>
-      </c>
-      <c r="Z12">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>91</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13">
-        <v>11.56</v>
-      </c>
-      <c r="D13">
-        <v>40</v>
-      </c>
-      <c r="E13">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="F13">
-        <v>4.5</v>
-      </c>
-      <c r="G13">
-        <v>4100</v>
-      </c>
-      <c r="H13">
-        <v>2000</v>
-      </c>
-      <c r="I13">
-        <v>350</v>
-      </c>
-      <c r="J13">
-        <v>24</v>
-      </c>
-      <c r="K13">
-        <v>3700</v>
-      </c>
-      <c r="L13">
-        <v>600</v>
-      </c>
-      <c r="M13">
-        <v>90</v>
-      </c>
-      <c r="N13">
-        <v>23</v>
-      </c>
-      <c r="O13">
-        <v>10</v>
-      </c>
-      <c r="P13">
-        <v>20</v>
-      </c>
-      <c r="Q13">
-        <v>4</v>
-      </c>
-      <c r="R13">
-        <v>20</v>
-      </c>
-      <c r="S13">
-        <v>98</v>
-      </c>
-      <c r="T13">
-        <v>2.4</v>
-      </c>
-      <c r="U13">
-        <v>1.8</v>
-      </c>
-      <c r="V13">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="W13">
-        <v>0.5</v>
-      </c>
-      <c r="X13">
-        <v>0.5</v>
-      </c>
-      <c r="Y13">
-        <v>0.73</v>
-      </c>
-      <c r="Z13">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>70</v>
-      </c>
-      <c r="B14" t="s">
-        <v>71</v>
-      </c>
-      <c r="C14">
-        <v>45</v>
-      </c>
-      <c r="D14">
-        <v>40</v>
-      </c>
-      <c r="E14">
-        <v>6.3</v>
-      </c>
-      <c r="F14">
-        <v>4.5</v>
-      </c>
-      <c r="G14" s="2">
-        <v>2100</v>
-      </c>
-      <c r="H14" s="2">
-        <v>1400</v>
-      </c>
-      <c r="I14" s="2">
-        <v>150</v>
-      </c>
-      <c r="J14" s="2">
-        <v>24</v>
-      </c>
-      <c r="K14" s="2">
-        <v>2000</v>
-      </c>
-      <c r="L14" s="2">
-        <v>350</v>
-      </c>
-      <c r="M14" s="2">
-        <v>14</v>
-      </c>
-      <c r="N14" s="2">
-        <v>13</v>
-      </c>
-      <c r="O14" s="2">
-        <v>10</v>
-      </c>
-      <c r="P14" s="2">
-        <v>20</v>
-      </c>
-      <c r="Q14" s="2">
-        <v>2.1</v>
-      </c>
-      <c r="R14" s="2">
-        <v>20</v>
-      </c>
-      <c r="S14" s="2">
-        <v>50</v>
-      </c>
-      <c r="T14" s="3">
-        <v>5</v>
-      </c>
-      <c r="U14" s="3">
-        <v>3.5</v>
-      </c>
-      <c r="V14" s="3">
-        <v>1.45</v>
-      </c>
-      <c r="W14" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="X14" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="Y14" s="3">
-        <v>0.74</v>
-      </c>
-      <c r="Z14" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>78</v>
-      </c>
-      <c r="B15" t="s">
-        <v>71</v>
-      </c>
-      <c r="C15">
-        <v>45</v>
-      </c>
-      <c r="D15">
-        <v>40</v>
-      </c>
-      <c r="E15">
-        <v>7.6</v>
-      </c>
-      <c r="F15">
-        <v>10</v>
-      </c>
-      <c r="G15" s="2">
-        <v>2400</v>
-      </c>
-      <c r="H15" s="2">
-        <v>1800</v>
-      </c>
-      <c r="I15" s="2">
-        <v>300</v>
-      </c>
-      <c r="J15" s="2">
-        <v>30</v>
-      </c>
-      <c r="K15" s="2">
-        <v>2200</v>
-      </c>
-      <c r="L15" s="2">
-        <v>380</v>
-      </c>
-      <c r="M15" s="2">
-        <v>15</v>
-      </c>
-      <c r="N15" s="2">
-        <v>23</v>
-      </c>
-      <c r="O15" s="2">
-        <v>42</v>
-      </c>
-      <c r="P15" s="2">
-        <v>20</v>
-      </c>
-      <c r="Q15" s="2">
-        <v>3.2</v>
-      </c>
-      <c r="R15" s="2">
-        <v>20</v>
-      </c>
-      <c r="S15" s="2">
-        <v>96</v>
-      </c>
-      <c r="T15" s="6">
-        <v>6.8</v>
-      </c>
-      <c r="U15" s="6">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="V15" s="6">
-        <v>1.4</v>
-      </c>
-      <c r="W15" s="6">
-        <v>1</v>
-      </c>
-      <c r="X15" s="6">
-        <v>1</v>
-      </c>
-      <c r="Y15" s="3">
-        <v>0.88</v>
-      </c>
-      <c r="Z15" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>79</v>
-      </c>
-      <c r="B16" t="s">
-        <v>71</v>
-      </c>
-      <c r="C16">
-        <v>45</v>
-      </c>
-      <c r="D16">
-        <v>40</v>
-      </c>
-      <c r="E16">
-        <v>2.1</v>
-      </c>
-      <c r="F16">
-        <v>10</v>
-      </c>
-      <c r="G16" s="2">
-        <v>750</v>
-      </c>
-      <c r="H16" s="2">
-        <v>900</v>
-      </c>
-      <c r="I16" s="2">
-        <v>100</v>
-      </c>
-      <c r="J16" s="2">
-        <v>25</v>
-      </c>
-      <c r="K16" s="2">
-        <v>650</v>
-      </c>
-      <c r="L16" s="2">
-        <v>190</v>
-      </c>
-      <c r="M16" s="2">
-        <v>12</v>
-      </c>
-      <c r="N16" s="2">
-        <v>22</v>
-      </c>
-      <c r="O16" s="2">
-        <v>10</v>
-      </c>
-      <c r="P16" s="2">
-        <v>20</v>
-      </c>
-      <c r="Q16" s="6">
-        <v>1.4</v>
-      </c>
-      <c r="R16" s="2">
-        <v>20</v>
-      </c>
-      <c r="S16" s="2">
-        <v>100</v>
-      </c>
-      <c r="T16" s="6">
-        <v>6.8</v>
-      </c>
-      <c r="U16" s="6">
-        <v>4.7</v>
-      </c>
-      <c r="V16" s="6">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="W16" s="6">
-        <v>1</v>
-      </c>
-      <c r="X16" s="6">
-        <v>1</v>
-      </c>
-      <c r="Y16" s="3">
-        <v>0.92</v>
-      </c>
-      <c r="Z16" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>80</v>
-      </c>
-      <c r="B17" t="s">
-        <v>71</v>
-      </c>
-      <c r="C17">
-        <v>45</v>
-      </c>
-      <c r="D17">
-        <v>40</v>
-      </c>
-      <c r="E17">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="F17">
-        <v>10</v>
-      </c>
-      <c r="G17" s="2">
-        <v>2900</v>
-      </c>
-      <c r="H17" s="2">
-        <v>2500</v>
-      </c>
-      <c r="I17" s="2">
-        <v>250</v>
-      </c>
-      <c r="J17" s="2">
-        <v>30</v>
-      </c>
-      <c r="K17" s="2">
-        <v>2800</v>
-      </c>
-      <c r="L17" s="2">
-        <v>400</v>
-      </c>
-      <c r="M17" s="2">
-        <v>30</v>
-      </c>
-      <c r="N17" s="2">
-        <v>41</v>
-      </c>
-      <c r="O17" s="2">
-        <v>20</v>
-      </c>
-      <c r="P17" s="2">
-        <v>20</v>
-      </c>
-      <c r="Q17" s="2">
-        <v>2.5</v>
-      </c>
-      <c r="R17" s="2">
-        <v>20</v>
-      </c>
-      <c r="S17" s="2">
-        <v>203</v>
-      </c>
-      <c r="T17" s="6">
-        <v>3.5</v>
-      </c>
-      <c r="U17" s="6">
-        <v>2.6</v>
-      </c>
-      <c r="V17" s="3">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="W17" s="6">
-        <v>1</v>
-      </c>
-      <c r="X17" s="6">
-        <v>1</v>
-      </c>
-      <c r="Y17" s="3">
-        <v>0.7</v>
-      </c>
-      <c r="Z17" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>72</v>
-      </c>
-      <c r="B18" t="s">
-        <v>71</v>
-      </c>
-      <c r="C18">
-        <v>45</v>
-      </c>
-      <c r="D18">
-        <v>40</v>
-      </c>
-      <c r="E18">
-        <v>3.1</v>
-      </c>
-      <c r="F18">
-        <v>4.5</v>
-      </c>
-      <c r="G18" s="2">
-        <v>1500</v>
-      </c>
-      <c r="H18" s="2">
-        <v>900</v>
-      </c>
-      <c r="I18" s="2">
-        <v>300</v>
-      </c>
-      <c r="J18" s="2">
-        <v>24</v>
-      </c>
-      <c r="K18" s="2">
-        <v>1150</v>
-      </c>
-      <c r="L18" s="2">
-        <v>150</v>
-      </c>
-      <c r="M18" s="2">
-        <v>60</v>
-      </c>
-      <c r="N18" s="2">
-        <v>19</v>
-      </c>
-      <c r="O18" s="2">
-        <v>10</v>
-      </c>
-      <c r="P18" s="2">
-        <v>20</v>
-      </c>
-      <c r="Q18" s="2">
-        <v>2.5</v>
-      </c>
-      <c r="R18" s="2">
-        <v>20</v>
-      </c>
-      <c r="S18" s="2">
-        <v>43</v>
-      </c>
-      <c r="T18" s="6">
-        <v>10.4</v>
-      </c>
-      <c r="U18" s="6">
-        <v>8.5</v>
-      </c>
-      <c r="V18" s="3">
-        <v>0.8</v>
-      </c>
-      <c r="W18" s="6">
-        <v>1</v>
-      </c>
-      <c r="X18" s="6">
-        <v>1</v>
-      </c>
-      <c r="Y18" s="3">
-        <v>0.77</v>
-      </c>
-      <c r="Z18" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>108</v>
-      </c>
-      <c r="B19" t="s">
-        <v>71</v>
-      </c>
-      <c r="C19">
-        <v>45</v>
-      </c>
-      <c r="D19">
-        <v>40</v>
-      </c>
-      <c r="E19">
-        <v>4.5</v>
-      </c>
-      <c r="F19">
-        <v>4.5</v>
-      </c>
-      <c r="G19" s="2">
-        <v>1600</v>
-      </c>
-      <c r="H19" s="2">
-        <v>1500</v>
-      </c>
-      <c r="I19" s="2">
-        <v>200</v>
-      </c>
-      <c r="J19" s="2">
-        <v>15</v>
-      </c>
-      <c r="K19" s="2">
-        <v>1500</v>
-      </c>
-      <c r="L19" s="2">
-        <v>520</v>
-      </c>
-      <c r="M19" s="2">
-        <v>38</v>
-      </c>
-      <c r="N19" s="2">
-        <v>13</v>
-      </c>
-      <c r="O19" s="2">
-        <v>10</v>
-      </c>
-      <c r="P19" s="2">
-        <v>15</v>
-      </c>
-      <c r="Q19" s="2">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="R19" s="2">
-        <v>15</v>
-      </c>
-      <c r="S19" s="2">
-        <v>80</v>
-      </c>
-      <c r="T19" s="6">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="U19" s="6">
-        <v>2.8</v>
-      </c>
-      <c r="V19" s="3">
-        <v>1.4</v>
-      </c>
-      <c r="W19" s="6">
-        <v>1</v>
-      </c>
-      <c r="X19" s="6">
-        <v>1</v>
-      </c>
-      <c r="Y19" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="Z19" s="6">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>73</v>
-      </c>
-      <c r="B20" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20">
-        <v>11.56</v>
-      </c>
-      <c r="D20">
-        <v>40</v>
-      </c>
-      <c r="E20">
-        <v>3.2</v>
-      </c>
-      <c r="F20">
-        <v>4.5</v>
-      </c>
-      <c r="G20" s="2">
-        <v>2500</v>
-      </c>
-      <c r="H20" s="2">
-        <v>1500</v>
-      </c>
-      <c r="I20" s="2">
-        <v>200</v>
-      </c>
-      <c r="J20" s="2">
-        <v>24</v>
-      </c>
-      <c r="K20" s="2">
-        <v>1375</v>
-      </c>
-      <c r="L20" s="2">
-        <v>1130</v>
-      </c>
-      <c r="M20" s="2">
-        <v>50</v>
-      </c>
-      <c r="N20" s="2">
-        <v>17</v>
-      </c>
-      <c r="O20" s="2">
-        <v>10</v>
-      </c>
-      <c r="P20" s="2">
-        <v>20</v>
-      </c>
-      <c r="Q20" s="2">
-        <v>2.5</v>
-      </c>
-      <c r="R20" s="2">
-        <v>20</v>
-      </c>
-      <c r="S20" s="2">
-        <v>65</v>
-      </c>
-      <c r="T20" s="3">
-        <v>6.2</v>
-      </c>
-      <c r="U20" s="3">
-        <v>4.5</v>
-      </c>
-      <c r="V20" s="3">
-        <v>0.9</v>
-      </c>
-      <c r="W20" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="X20" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="Y20" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="Z20" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>74</v>
-      </c>
-      <c r="B21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C21">
-        <v>11.56</v>
-      </c>
-      <c r="D21">
-        <v>40</v>
-      </c>
-      <c r="E21">
-        <v>2.9</v>
-      </c>
-      <c r="F21">
-        <v>4.5</v>
-      </c>
-      <c r="G21">
-        <v>950</v>
-      </c>
-      <c r="H21">
-        <v>500</v>
-      </c>
-      <c r="I21">
-        <v>70</v>
-      </c>
-      <c r="J21">
-        <v>25</v>
-      </c>
-      <c r="K21" s="2">
-        <v>875</v>
-      </c>
-      <c r="L21" s="2">
-        <v>150</v>
-      </c>
-      <c r="M21" s="2">
-        <v>16</v>
-      </c>
-      <c r="N21" s="2">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="O21" s="2">
-        <v>10</v>
-      </c>
-      <c r="P21" s="2">
-        <v>20</v>
-      </c>
-      <c r="Q21" s="6">
-        <v>0.9</v>
-      </c>
-      <c r="R21">
-        <v>20</v>
-      </c>
-      <c r="S21" s="2">
-        <v>45</v>
-      </c>
-      <c r="T21">
-        <v>9.6</v>
-      </c>
-      <c r="U21">
-        <v>6.7</v>
-      </c>
-      <c r="V21" s="4">
-        <v>3.2</v>
-      </c>
-      <c r="W21" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="X21" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="Y21" s="3">
-        <v>0.82</v>
-      </c>
-      <c r="Z21" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>85</v>
-      </c>
-      <c r="B22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C22">
-        <v>11.56</v>
-      </c>
-      <c r="D22">
-        <v>40</v>
-      </c>
-      <c r="E22" s="7">
-        <v>2.75</v>
-      </c>
-      <c r="F22" s="7">
-        <v>4.5</v>
-      </c>
-      <c r="G22" s="2">
-        <v>1550</v>
-      </c>
-      <c r="H22" s="2">
-        <v>1000</v>
-      </c>
-      <c r="I22" s="2">
-        <v>100</v>
-      </c>
-      <c r="J22" s="2">
-        <v>30</v>
-      </c>
-      <c r="K22" s="2">
-        <v>1450</v>
-      </c>
-      <c r="L22" s="2">
-        <v>200</v>
-      </c>
-      <c r="M22" s="2">
-        <v>13</v>
-      </c>
-      <c r="N22" s="2">
-        <v>21</v>
-      </c>
-      <c r="O22" s="2">
-        <v>20</v>
-      </c>
-      <c r="P22" s="2">
-        <v>20</v>
-      </c>
-      <c r="Q22" s="6">
-        <v>3</v>
-      </c>
-      <c r="R22" s="2">
-        <v>20</v>
-      </c>
-      <c r="S22" s="2">
-        <v>70</v>
-      </c>
-      <c r="T22" s="6">
-        <v>7.4</v>
-      </c>
-      <c r="U22" s="6">
-        <v>5</v>
-      </c>
-      <c r="V22" s="6">
-        <v>1.8</v>
-      </c>
-      <c r="W22" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="X22" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="Y22" s="6">
-        <v>0.7</v>
-      </c>
-      <c r="Z22" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>82</v>
-      </c>
-      <c r="B23" t="s">
-        <v>8</v>
-      </c>
-      <c r="C23">
-        <v>11.56</v>
-      </c>
-      <c r="D23">
-        <v>40</v>
-      </c>
-      <c r="E23">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="F23">
-        <v>4.5</v>
-      </c>
-      <c r="G23">
-        <v>3600</v>
-      </c>
-      <c r="H23">
-        <v>1600</v>
-      </c>
-      <c r="I23">
-        <v>350</v>
-      </c>
-      <c r="J23">
-        <v>24</v>
-      </c>
-      <c r="K23">
-        <v>3250</v>
-      </c>
-      <c r="L23">
-        <v>400</v>
-      </c>
-      <c r="M23">
-        <v>50</v>
-      </c>
-      <c r="N23">
-        <v>23</v>
-      </c>
-      <c r="O23">
-        <v>10</v>
-      </c>
-      <c r="P23">
-        <v>20</v>
-      </c>
-      <c r="Q23">
-        <v>4.2</v>
-      </c>
-      <c r="R23">
-        <v>20</v>
-      </c>
-      <c r="S23">
-        <v>70</v>
-      </c>
-      <c r="T23">
-        <v>3.85</v>
-      </c>
-      <c r="U23">
-        <v>2.85</v>
-      </c>
-      <c r="V23">
-        <v>1.4</v>
-      </c>
-      <c r="W23">
-        <v>0.5</v>
-      </c>
-      <c r="X23">
-        <v>0.5</v>
-      </c>
-      <c r="Y23">
-        <v>0.74</v>
-      </c>
-      <c r="Z23">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>83</v>
-      </c>
-      <c r="B24" t="s">
-        <v>8</v>
-      </c>
-      <c r="C24">
-        <v>11.56</v>
-      </c>
-      <c r="D24">
-        <v>40</v>
-      </c>
-      <c r="E24">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="F24">
-        <v>4.5</v>
-      </c>
-      <c r="G24">
-        <v>2700</v>
-      </c>
-      <c r="H24">
-        <v>1400</v>
-      </c>
-      <c r="I24">
-        <v>70</v>
-      </c>
-      <c r="J24">
-        <v>30</v>
-      </c>
-      <c r="K24">
-        <v>2450</v>
-      </c>
-      <c r="L24">
-        <v>350</v>
-      </c>
-      <c r="M24">
-        <v>20</v>
-      </c>
-      <c r="N24">
-        <v>10</v>
-      </c>
-      <c r="O24">
-        <v>20.8</v>
-      </c>
-      <c r="P24">
-        <v>20</v>
-      </c>
-      <c r="Q24">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="R24">
-        <v>20</v>
-      </c>
-      <c r="S24">
-        <v>76</v>
-      </c>
-      <c r="T24">
-        <v>3.88</v>
-      </c>
-      <c r="U24">
-        <v>2.71</v>
-      </c>
-      <c r="V24">
-        <v>1.3</v>
-      </c>
-      <c r="W24">
-        <v>0.8</v>
-      </c>
-      <c r="X24">
-        <v>0.8</v>
-      </c>
-      <c r="Y24">
-        <v>0.74</v>
-      </c>
-      <c r="Z24">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>66</v>
-      </c>
-      <c r="B25" t="s">
-        <v>8</v>
-      </c>
-      <c r="C25">
-        <v>11.56</v>
-      </c>
-      <c r="D25">
-        <v>30</v>
-      </c>
-      <c r="E25">
-        <v>3.7</v>
-      </c>
-      <c r="F25">
-        <v>4.5</v>
-      </c>
-      <c r="G25" s="2">
-        <v>1200</v>
-      </c>
-      <c r="H25" s="2">
-        <v>1200</v>
-      </c>
-      <c r="I25" s="2">
-        <v>150</v>
-      </c>
-      <c r="J25" s="2">
-        <v>12</v>
-      </c>
-      <c r="K25" s="2">
-        <v>1175</v>
-      </c>
-      <c r="L25" s="2">
-        <v>450</v>
-      </c>
-      <c r="M25" s="2">
-        <v>30</v>
-      </c>
-      <c r="N25" s="2">
-        <v>10</v>
-      </c>
-      <c r="O25" s="2">
-        <v>10</v>
-      </c>
-      <c r="P25">
-        <v>15</v>
-      </c>
-      <c r="Q25">
-        <v>1.4</v>
-      </c>
-      <c r="R25">
-        <v>15</v>
-      </c>
-      <c r="S25">
-        <v>53</v>
-      </c>
-      <c r="T25">
-        <v>3.8</v>
-      </c>
-      <c r="U25">
-        <v>2.7</v>
-      </c>
-      <c r="V25">
-        <v>0.9</v>
-      </c>
-      <c r="W25" s="3">
-        <v>0.8</v>
-      </c>
-      <c r="X25" s="3">
-        <v>0.8</v>
-      </c>
-      <c r="Y25">
-        <v>0.76</v>
-      </c>
-      <c r="Z25">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>106</v>
-      </c>
-      <c r="B26" t="s">
-        <v>8</v>
-      </c>
-      <c r="C26">
-        <v>11.56</v>
-      </c>
-      <c r="D26">
-        <v>30</v>
-      </c>
-      <c r="E26">
-        <v>4.2</v>
-      </c>
-      <c r="F26">
-        <v>4.5</v>
-      </c>
-      <c r="G26" s="2">
-        <v>1700</v>
-      </c>
-      <c r="H26" s="2">
-        <v>1600</v>
-      </c>
-      <c r="I26" s="2">
-        <v>250</v>
-      </c>
-      <c r="J26" s="2">
-        <v>15</v>
-      </c>
-      <c r="K26" s="2">
-        <v>1550</v>
-      </c>
-      <c r="L26" s="2">
-        <v>550</v>
-      </c>
-      <c r="M26" s="2">
-        <v>60</v>
-      </c>
-      <c r="N26" s="2">
-        <v>37</v>
-      </c>
-      <c r="O26" s="2">
-        <v>10</v>
-      </c>
-      <c r="P26" s="2">
-        <v>15</v>
-      </c>
-      <c r="Q26" s="2">
-        <v>2.6</v>
-      </c>
-      <c r="R26" s="2">
-        <v>15</v>
-      </c>
-      <c r="S26" s="2">
-        <v>67</v>
-      </c>
-      <c r="T26" s="3">
-        <v>4.8</v>
-      </c>
-      <c r="U26" s="3">
-        <v>2.7</v>
-      </c>
-      <c r="V26" s="2">
-        <v>1.4</v>
-      </c>
-      <c r="W26" s="3">
-        <v>0.8</v>
-      </c>
-      <c r="X26" s="3">
-        <v>0.8</v>
-      </c>
-      <c r="Y26" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="Z26" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>65</v>
-      </c>
-      <c r="B27" t="s">
-        <v>8</v>
-      </c>
-      <c r="C27">
-        <v>11.56</v>
-      </c>
-      <c r="D27">
-        <v>30</v>
-      </c>
-      <c r="E27">
-        <v>9.6</v>
-      </c>
-      <c r="F27">
-        <v>4.5</v>
-      </c>
-      <c r="G27" s="2">
-        <v>3000</v>
-      </c>
-      <c r="H27" s="2">
-        <v>3000</v>
-      </c>
-      <c r="I27" s="2">
-        <v>500</v>
-      </c>
-      <c r="J27" s="2">
-        <v>12</v>
-      </c>
-      <c r="K27" s="2">
-        <v>2975</v>
-      </c>
-      <c r="L27" s="2">
-        <v>1200</v>
-      </c>
-      <c r="M27" s="2">
-        <v>200</v>
-      </c>
-      <c r="N27" s="2">
-        <v>25</v>
-      </c>
-      <c r="O27" s="2">
-        <v>10</v>
-      </c>
-      <c r="P27">
-        <v>15</v>
-      </c>
-      <c r="Q27">
-        <v>3.9</v>
-      </c>
-      <c r="R27">
-        <v>15</v>
-      </c>
-      <c r="S27">
-        <v>95</v>
-      </c>
-      <c r="T27">
-        <v>1.5</v>
-      </c>
-      <c r="U27">
-        <v>0.95</v>
-      </c>
-      <c r="V27">
-        <v>0.42</v>
-      </c>
-      <c r="W27" s="3">
-        <v>0.8</v>
-      </c>
-      <c r="X27" s="3">
-        <v>0.8</v>
-      </c>
-      <c r="Y27">
-        <v>0.73</v>
-      </c>
-      <c r="Z27">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>104</v>
-      </c>
-      <c r="B28" t="s">
-        <v>8</v>
-      </c>
-      <c r="C28">
-        <v>11.56</v>
-      </c>
-      <c r="D28">
-        <v>30</v>
-      </c>
-      <c r="E28">
-        <v>11.3</v>
-      </c>
-      <c r="F28">
-        <v>4.5</v>
-      </c>
-      <c r="G28" s="2">
-        <v>4000</v>
-      </c>
-      <c r="H28" s="2">
-        <v>3000</v>
-      </c>
-      <c r="I28" s="2">
-        <v>500</v>
-      </c>
-      <c r="J28" s="2">
-        <v>12</v>
-      </c>
-      <c r="K28" s="2">
-        <v>3500</v>
-      </c>
-      <c r="L28" s="2">
-        <v>1400</v>
-      </c>
-      <c r="M28" s="2">
-        <v>100</v>
-      </c>
-      <c r="N28" s="2">
-        <v>34</v>
-      </c>
-      <c r="O28" s="2">
-        <v>10</v>
-      </c>
-      <c r="P28">
-        <v>15</v>
-      </c>
-      <c r="Q28">
-        <v>3</v>
-      </c>
-      <c r="R28">
-        <v>15</v>
-      </c>
-      <c r="S28">
-        <v>117</v>
-      </c>
-      <c r="T28">
-        <v>1.25</v>
-      </c>
-      <c r="U28">
-        <v>0.88</v>
-      </c>
-      <c r="V28">
-        <v>0.75</v>
-      </c>
-      <c r="W28" s="3">
-        <v>0.8</v>
-      </c>
-      <c r="X28" s="3">
-        <v>0.8</v>
-      </c>
-      <c r="Y28">
-        <v>0.73</v>
-      </c>
-      <c r="Z28">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>107</v>
-      </c>
-      <c r="B29" t="s">
-        <v>8</v>
-      </c>
-      <c r="C29">
-        <v>11.56</v>
-      </c>
-      <c r="D29">
-        <v>30</v>
-      </c>
-      <c r="E29">
-        <v>11.2</v>
-      </c>
-      <c r="F29">
-        <v>4.5</v>
-      </c>
-      <c r="G29" s="2">
-        <v>4000</v>
-      </c>
-      <c r="H29" s="2">
-        <v>4000</v>
-      </c>
-      <c r="I29" s="2">
-        <v>550</v>
-      </c>
-      <c r="J29" s="2">
-        <v>15</v>
-      </c>
-      <c r="K29" s="2">
-        <v>3700</v>
-      </c>
-      <c r="L29" s="2">
-        <v>1800</v>
-      </c>
-      <c r="M29" s="2">
-        <v>160</v>
-      </c>
-      <c r="N29" s="2">
-        <v>45</v>
-      </c>
-      <c r="O29" s="2">
-        <v>10</v>
-      </c>
-      <c r="P29" s="2">
-        <v>15</v>
-      </c>
-      <c r="Q29" s="2">
-        <v>5.8</v>
-      </c>
-      <c r="R29" s="2">
-        <v>15</v>
-      </c>
-      <c r="S29" s="2">
-        <v>84</v>
-      </c>
-      <c r="T29" s="3">
-        <v>1.75</v>
-      </c>
-      <c r="U29" s="3">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="V29" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="W29" s="3">
-        <v>0.8</v>
-      </c>
-      <c r="X29" s="3">
-        <v>0.8</v>
-      </c>
-      <c r="Y29" s="3">
-        <v>0.45</v>
-      </c>
-      <c r="Z29" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>77</v>
-      </c>
-      <c r="B30" t="s">
-        <v>8</v>
-      </c>
-      <c r="C30">
-        <v>11.56</v>
-      </c>
-      <c r="D30">
-        <v>30</v>
-      </c>
-      <c r="E30">
-        <v>3.6</v>
-      </c>
-      <c r="F30">
-        <v>10</v>
-      </c>
-      <c r="G30" s="2">
-        <v>1450</v>
-      </c>
-      <c r="H30" s="2">
-        <v>1100</v>
-      </c>
-      <c r="I30" s="2">
-        <v>200</v>
-      </c>
-      <c r="J30" s="2">
-        <v>25</v>
-      </c>
-      <c r="K30" s="2">
-        <v>1300</v>
-      </c>
-      <c r="L30" s="2">
-        <v>250</v>
-      </c>
-      <c r="M30" s="2">
-        <v>30</v>
-      </c>
-      <c r="N30" s="2">
-        <v>18</v>
-      </c>
-      <c r="O30" s="2">
-        <v>20</v>
-      </c>
-      <c r="P30" s="2">
-        <v>15</v>
-      </c>
-      <c r="Q30" s="6">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="R30" s="2">
-        <v>15</v>
-      </c>
-      <c r="S30" s="2">
-        <v>77</v>
-      </c>
-      <c r="T30" s="6">
-        <v>6</v>
-      </c>
-      <c r="U30" s="6">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="V30" s="6">
-        <v>1.7</v>
-      </c>
-      <c r="W30" s="6">
-        <v>0.8</v>
-      </c>
-      <c r="X30" s="6">
-        <v>0.8</v>
-      </c>
-      <c r="Y30" s="6">
-        <v>0.7</v>
-      </c>
-      <c r="Z30" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>84</v>
-      </c>
-      <c r="B31" t="s">
-        <v>8</v>
-      </c>
-      <c r="C31">
-        <v>11.56</v>
-      </c>
-      <c r="D31">
-        <v>30</v>
-      </c>
-      <c r="E31">
-        <v>8.5</v>
-      </c>
-      <c r="F31">
-        <v>10</v>
-      </c>
-      <c r="G31" s="2">
-        <v>3200</v>
-      </c>
-      <c r="H31" s="2">
-        <v>2500</v>
-      </c>
-      <c r="I31" s="2">
-        <v>500</v>
-      </c>
-      <c r="J31" s="2">
-        <v>25</v>
-      </c>
-      <c r="K31" s="2">
-        <v>2800</v>
-      </c>
-      <c r="L31" s="2">
-        <v>600</v>
-      </c>
-      <c r="M31" s="2">
-        <v>50</v>
-      </c>
-      <c r="N31" s="2">
-        <v>36.5</v>
-      </c>
-      <c r="O31" s="2">
-        <v>20</v>
-      </c>
-      <c r="P31" s="2">
-        <v>15</v>
-      </c>
-      <c r="Q31" s="6">
-        <v>4</v>
-      </c>
-      <c r="R31" s="2">
-        <v>15</v>
-      </c>
-      <c r="S31" s="2">
-        <v>125</v>
-      </c>
-      <c r="T31" s="6">
-        <v>2.4500000000000002</v>
-      </c>
-      <c r="U31" s="6">
-        <v>1.55</v>
-      </c>
-      <c r="V31" s="6">
-        <v>0.7</v>
-      </c>
-      <c r="W31" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="X31" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="Y31" s="6">
-        <v>0.68</v>
-      </c>
-      <c r="Z31" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>81</v>
-      </c>
-      <c r="B32" t="s">
-        <v>8</v>
-      </c>
-      <c r="C32">
-        <v>11.56</v>
-      </c>
-      <c r="D32">
-        <v>30</v>
-      </c>
-      <c r="E32">
-        <v>4</v>
-      </c>
-      <c r="F32">
-        <v>4.5</v>
-      </c>
-      <c r="G32">
-        <v>1600</v>
-      </c>
-      <c r="H32">
-        <v>1280</v>
-      </c>
-      <c r="I32">
-        <v>200</v>
-      </c>
-      <c r="J32" s="2">
-        <v>25</v>
-      </c>
-      <c r="K32">
-        <v>1400</v>
-      </c>
-      <c r="L32">
-        <v>250</v>
-      </c>
-      <c r="M32">
-        <v>36</v>
-      </c>
-      <c r="N32" s="2">
-        <v>14</v>
-      </c>
-      <c r="O32" s="2">
-        <v>10</v>
-      </c>
-      <c r="P32" s="2">
-        <v>15</v>
-      </c>
-      <c r="Q32" s="2">
-        <v>1.8</v>
-      </c>
-      <c r="R32" s="2">
-        <v>15</v>
-      </c>
-      <c r="S32" s="2">
-        <v>65</v>
-      </c>
-      <c r="T32">
-        <v>6.8</v>
-      </c>
-      <c r="U32">
-        <v>4.25</v>
-      </c>
-      <c r="V32">
-        <v>1.65</v>
-      </c>
-      <c r="W32">
-        <v>0.8</v>
-      </c>
-      <c r="X32">
-        <v>0.8</v>
-      </c>
-      <c r="Y32">
-        <v>0.76</v>
-      </c>
-      <c r="Z32">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>87</v>
-      </c>
-      <c r="B33" t="s">
-        <v>88</v>
-      </c>
-      <c r="C33">
-        <v>45</v>
-      </c>
-      <c r="D33">
-        <v>30</v>
-      </c>
-      <c r="E33">
-        <v>19</v>
-      </c>
-      <c r="F33">
-        <v>4.5</v>
-      </c>
-      <c r="G33" s="2">
-        <v>8500</v>
-      </c>
-      <c r="H33" s="2">
-        <v>6000</v>
-      </c>
-      <c r="I33" s="2">
-        <v>1000</v>
-      </c>
-      <c r="J33" s="2">
-        <v>24</v>
-      </c>
-      <c r="K33" s="2">
-        <v>7500</v>
-      </c>
-      <c r="L33" s="2">
-        <v>1400</v>
-      </c>
-      <c r="M33" s="2">
-        <v>75</v>
-      </c>
-      <c r="N33" s="2">
-        <v>20</v>
-      </c>
-      <c r="O33" s="2">
-        <v>87</v>
-      </c>
-      <c r="P33" s="2">
-        <v>15</v>
-      </c>
-      <c r="Q33" s="2">
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="R33" s="2">
-        <v>15</v>
-      </c>
-      <c r="S33" s="2">
-        <v>120</v>
-      </c>
-      <c r="T33" s="3">
-        <v>2</v>
-      </c>
-      <c r="U33" s="3">
-        <v>1.7</v>
-      </c>
-      <c r="V33" s="3">
-        <v>1.9</v>
-      </c>
-      <c r="W33" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="X33" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="Y33" s="3">
-        <v>0.81</v>
-      </c>
-      <c r="Z33" s="2">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>92</v>
-      </c>
-      <c r="B34" t="s">
-        <v>8</v>
-      </c>
-      <c r="C34">
-        <v>11.56</v>
-      </c>
-      <c r="D34">
-        <v>30</v>
-      </c>
-      <c r="E34">
-        <v>2.1</v>
-      </c>
-      <c r="F34">
-        <v>4.5</v>
-      </c>
-      <c r="G34" s="2">
-        <v>735</v>
-      </c>
-      <c r="H34" s="2">
-        <v>680</v>
-      </c>
-      <c r="I34" s="2">
-        <v>100</v>
-      </c>
-      <c r="J34" s="2">
-        <v>12</v>
-      </c>
-      <c r="K34" s="2">
-        <v>640</v>
-      </c>
-      <c r="L34" s="2">
-        <v>310</v>
-      </c>
-      <c r="M34" s="2">
-        <v>21</v>
-      </c>
-      <c r="N34" s="2">
-        <v>10</v>
-      </c>
-      <c r="O34" s="2">
-        <v>10</v>
-      </c>
-      <c r="P34" s="2">
-        <v>15</v>
-      </c>
-      <c r="Q34" s="2">
-        <v>0.7</v>
-      </c>
-      <c r="R34" s="2">
-        <v>15</v>
-      </c>
-      <c r="S34" s="2">
-        <v>37</v>
-      </c>
-      <c r="T34" s="6">
-        <v>11</v>
-      </c>
-      <c r="U34" s="6">
-        <v>8.4</v>
-      </c>
-      <c r="V34" s="6">
-        <v>1.4</v>
-      </c>
-      <c r="W34" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="X34" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="Y34" s="6">
-        <v>0.8</v>
-      </c>
-      <c r="Z34" s="6">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>93</v>
-      </c>
-      <c r="B35" t="s">
-        <v>8</v>
-      </c>
-      <c r="C35">
-        <v>11.56</v>
-      </c>
-      <c r="D35">
-        <v>30</v>
-      </c>
-      <c r="E35">
-        <v>2.8</v>
-      </c>
-      <c r="F35">
-        <v>4.5</v>
-      </c>
-      <c r="G35" s="2">
-        <v>1060</v>
-      </c>
-      <c r="H35" s="2">
-        <v>900</v>
-      </c>
-      <c r="I35" s="2">
-        <v>140</v>
-      </c>
-      <c r="J35" s="2">
-        <v>10</v>
-      </c>
-      <c r="K35" s="2">
-        <v>960</v>
-      </c>
-      <c r="L35" s="2">
-        <v>460</v>
-      </c>
-      <c r="M35" s="2">
-        <v>40</v>
-      </c>
-      <c r="N35" s="2">
-        <v>30</v>
-      </c>
-      <c r="O35" s="2">
-        <v>15</v>
-      </c>
-      <c r="P35" s="2">
-        <v>15</v>
-      </c>
-      <c r="Q35" s="6">
-        <v>1.2</v>
-      </c>
-      <c r="R35" s="2">
-        <v>15</v>
-      </c>
-      <c r="S35" s="2">
-        <v>46</v>
-      </c>
-      <c r="T35" s="6">
-        <v>7.87</v>
-      </c>
-      <c r="U35" s="6">
-        <v>5.63</v>
-      </c>
-      <c r="V35" s="6">
-        <v>0.8</v>
-      </c>
-      <c r="W35" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="X35" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="Y35" s="6">
-        <v>0.85</v>
-      </c>
-      <c r="Z35" s="6">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>105</v>
-      </c>
-      <c r="B36" t="s">
-        <v>88</v>
-      </c>
-      <c r="C36">
-        <v>45</v>
-      </c>
-      <c r="D36">
-        <v>30</v>
-      </c>
-      <c r="E36">
-        <v>4.5</v>
-      </c>
-      <c r="F36">
-        <v>10</v>
-      </c>
-      <c r="G36" s="2">
-        <v>2200</v>
-      </c>
-      <c r="H36" s="2">
-        <v>1300</v>
-      </c>
-      <c r="I36" s="2">
-        <v>300</v>
-      </c>
-      <c r="J36" s="2">
-        <v>15</v>
-      </c>
-      <c r="K36" s="2">
-        <v>1900</v>
-      </c>
-      <c r="L36" s="2">
-        <v>400</v>
-      </c>
-      <c r="M36" s="2">
-        <v>50</v>
-      </c>
-      <c r="N36" s="2">
-        <v>21.5</v>
-      </c>
-      <c r="O36" s="2">
-        <v>20</v>
-      </c>
-      <c r="P36" s="2">
-        <v>15</v>
-      </c>
-      <c r="Q36" s="6">
-        <v>3.6</v>
-      </c>
-      <c r="R36" s="2">
-        <v>15</v>
-      </c>
-      <c r="S36" s="2">
-        <v>165</v>
-      </c>
-      <c r="T36" s="10">
-        <v>2.8</v>
-      </c>
-      <c r="U36" s="10">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="V36" s="6">
-        <v>1.8</v>
-      </c>
-      <c r="W36" s="6">
-        <v>0.8</v>
-      </c>
-      <c r="X36" s="6">
-        <v>0.8</v>
-      </c>
-      <c r="Y36" s="3">
-        <v>0.68</v>
-      </c>
-      <c r="Z36" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>94</v>
-      </c>
-      <c r="B37" t="s">
-        <v>88</v>
-      </c>
-      <c r="C37">
-        <v>45</v>
-      </c>
-      <c r="D37">
-        <v>60</v>
-      </c>
-      <c r="E37">
-        <v>10</v>
-      </c>
-      <c r="F37">
-        <v>10</v>
-      </c>
-      <c r="G37" s="2">
-        <v>4000</v>
-      </c>
-      <c r="H37" s="2">
-        <v>3000</v>
-      </c>
-      <c r="I37" s="2">
-        <v>700</v>
-      </c>
-      <c r="J37" s="2">
-        <v>25</v>
-      </c>
-      <c r="K37" s="2">
-        <v>3300</v>
-      </c>
-      <c r="L37" s="2">
-        <v>1000</v>
-      </c>
-      <c r="M37" s="2">
-        <v>50</v>
-      </c>
-      <c r="N37" s="2">
-        <v>73</v>
-      </c>
-      <c r="O37" s="2">
-        <v>20</v>
-      </c>
-      <c r="P37" s="2">
-        <v>30</v>
-      </c>
-      <c r="Q37" s="6">
-        <v>8.5</v>
-      </c>
-      <c r="R37" s="2">
-        <v>30</v>
-      </c>
-      <c r="S37" s="2">
-        <v>100</v>
-      </c>
-      <c r="T37" s="6">
-        <v>3.1</v>
-      </c>
-      <c r="U37" s="6">
-        <v>2.4</v>
-      </c>
-      <c r="V37" s="6">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="W37" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="X37" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="Y37" s="3">
-        <v>0.69</v>
-      </c>
-      <c r="Z37" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>96</v>
-      </c>
-      <c r="B38" t="s">
-        <v>95</v>
-      </c>
-      <c r="C38">
-        <v>11.56</v>
-      </c>
-      <c r="D38">
-        <v>30</v>
-      </c>
-      <c r="E38">
-        <v>3.8</v>
-      </c>
-      <c r="F38">
-        <v>5</v>
-      </c>
-      <c r="G38" s="2">
-        <v>1050</v>
-      </c>
-      <c r="H38" s="2">
-        <v>1000</v>
-      </c>
-      <c r="I38" s="2">
-        <v>150</v>
-      </c>
-      <c r="J38" s="2">
-        <v>10</v>
-      </c>
-      <c r="K38" s="2">
-        <v>1000</v>
-      </c>
-      <c r="L38" s="2">
-        <v>460</v>
-      </c>
-      <c r="M38" s="2">
-        <v>39</v>
-      </c>
-      <c r="N38" s="2">
-        <v>3</v>
-      </c>
-      <c r="O38" s="2">
-        <v>15</v>
-      </c>
-      <c r="P38" s="2">
-        <v>15</v>
-      </c>
-      <c r="Q38" s="6">
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="R38" s="2">
-        <v>15</v>
-      </c>
-      <c r="S38" s="2">
-        <v>57</v>
-      </c>
-      <c r="T38" s="6">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="U38" s="6">
-        <v>2.7</v>
-      </c>
-      <c r="V38" s="6">
-        <v>1.2</v>
-      </c>
-      <c r="W38" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="X38" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="Y38" s="3">
-        <v>0.85</v>
-      </c>
-      <c r="Z38" s="6">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>97</v>
-      </c>
-      <c r="B39" t="s">
-        <v>95</v>
-      </c>
-      <c r="C39">
-        <v>11.56</v>
-      </c>
-      <c r="D39">
-        <v>30</v>
-      </c>
-      <c r="E39">
-        <v>5.5</v>
-      </c>
-      <c r="F39">
-        <v>5</v>
-      </c>
-      <c r="G39" s="2">
-        <v>1500</v>
-      </c>
-      <c r="H39" s="2">
-        <v>1500</v>
-      </c>
-      <c r="I39" s="2">
-        <v>200</v>
-      </c>
-      <c r="J39" s="2">
-        <v>10</v>
-      </c>
-      <c r="K39" s="2">
-        <v>1450</v>
-      </c>
-      <c r="L39" s="2">
-        <v>700</v>
-      </c>
-      <c r="M39" s="2">
-        <v>48</v>
-      </c>
-      <c r="N39" s="2">
-        <v>6</v>
-      </c>
-      <c r="O39" s="2">
-        <v>15</v>
-      </c>
-      <c r="P39" s="2">
-        <v>15</v>
-      </c>
-      <c r="Q39" s="6">
-        <v>1.7</v>
-      </c>
-      <c r="R39" s="2">
-        <v>15</v>
-      </c>
-      <c r="S39" s="2">
-        <v>61</v>
-      </c>
-      <c r="T39" s="6">
-        <v>2.9</v>
-      </c>
-      <c r="U39" s="6">
-        <v>2</v>
-      </c>
-      <c r="V39" s="6">
-        <v>0.9</v>
-      </c>
-      <c r="W39" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="X39" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="Y39" s="3">
-        <v>0.85</v>
-      </c>
-      <c r="Z39" s="6">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>99</v>
-      </c>
-      <c r="B40" t="s">
-        <v>98</v>
-      </c>
-      <c r="C40">
-        <v>11.56</v>
-      </c>
-      <c r="D40">
-        <v>30</v>
-      </c>
-      <c r="E40">
-        <v>4</v>
-      </c>
-      <c r="F40">
-        <v>10</v>
-      </c>
-      <c r="G40" s="2">
-        <v>1700</v>
-      </c>
-      <c r="H40" s="2">
-        <v>1050</v>
-      </c>
-      <c r="I40" s="2">
-        <v>200</v>
-      </c>
-      <c r="J40" s="2">
-        <v>20</v>
-      </c>
-      <c r="K40" s="2">
-        <v>1500</v>
-      </c>
-      <c r="L40" s="2">
-        <v>300</v>
-      </c>
-      <c r="M40" s="2">
-        <v>50</v>
-      </c>
-      <c r="N40" s="2">
-        <v>21</v>
-      </c>
-      <c r="O40" s="2">
-        <v>20</v>
-      </c>
-      <c r="P40" s="2">
-        <v>15</v>
-      </c>
-      <c r="Q40" s="6">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="R40" s="2">
-        <v>15</v>
-      </c>
-      <c r="S40" s="2">
-        <v>108</v>
-      </c>
-      <c r="T40" s="3">
-        <v>3.7</v>
-      </c>
-      <c r="U40" s="3">
-        <v>3.05</v>
-      </c>
-      <c r="V40" s="3">
-        <v>0.8</v>
-      </c>
-      <c r="W40" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="X40" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="Y40" s="3">
-        <v>0.7</v>
-      </c>
-      <c r="Z40" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>100</v>
-      </c>
-      <c r="B41" t="s">
-        <v>98</v>
-      </c>
-      <c r="C41">
-        <v>11.56</v>
-      </c>
-      <c r="D41">
-        <v>30</v>
-      </c>
-      <c r="E41">
-        <v>3.2</v>
-      </c>
-      <c r="F41">
-        <v>10</v>
-      </c>
-      <c r="G41" s="2">
-        <v>1340</v>
-      </c>
-      <c r="H41" s="2">
-        <v>900</v>
-      </c>
-      <c r="I41" s="2">
-        <v>140</v>
-      </c>
-      <c r="J41" s="2">
-        <v>20</v>
-      </c>
-      <c r="K41" s="2">
-        <v>1210</v>
-      </c>
-      <c r="L41" s="2">
-        <v>240</v>
-      </c>
-      <c r="M41" s="2">
-        <v>30</v>
-      </c>
-      <c r="N41" s="2">
-        <v>15</v>
-      </c>
-      <c r="O41" s="2">
-        <v>20</v>
-      </c>
-      <c r="P41" s="2">
-        <v>15</v>
-      </c>
-      <c r="Q41" s="6">
-        <v>1</v>
-      </c>
-      <c r="R41" s="2">
-        <v>15</v>
-      </c>
-      <c r="S41" s="2">
-        <v>125</v>
-      </c>
-      <c r="T41" s="6">
-        <v>4.7</v>
-      </c>
-      <c r="U41" s="6">
-        <v>3.9</v>
-      </c>
-      <c r="V41" s="6">
-        <v>1.9</v>
-      </c>
-      <c r="W41" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="X41" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="Y41" s="3">
-        <v>0.7</v>
-      </c>
-      <c r="Z41" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>101</v>
-      </c>
-      <c r="B42" t="s">
-        <v>102</v>
-      </c>
-      <c r="C42">
-        <v>45</v>
-      </c>
-      <c r="D42">
-        <v>30</v>
-      </c>
-      <c r="E42">
-        <v>2.5</v>
-      </c>
-      <c r="F42">
-        <v>10</v>
-      </c>
-      <c r="G42" s="2">
-        <v>1250</v>
-      </c>
-      <c r="H42" s="2">
-        <v>1100</v>
-      </c>
-      <c r="I42" s="2">
-        <v>200</v>
-      </c>
-      <c r="J42" s="2">
-        <v>15</v>
-      </c>
-      <c r="K42" s="2">
-        <v>1200</v>
-      </c>
-      <c r="L42" s="2">
-        <v>400</v>
-      </c>
-      <c r="M42" s="2">
-        <v>62</v>
-      </c>
-      <c r="N42" s="2">
-        <v>20</v>
-      </c>
-      <c r="O42" s="2">
-        <v>20</v>
-      </c>
-      <c r="P42" s="2">
-        <v>15</v>
-      </c>
-      <c r="Q42" s="6">
-        <v>3</v>
-      </c>
-      <c r="R42" s="2">
-        <v>15</v>
-      </c>
-      <c r="S42" s="2">
-        <v>57</v>
-      </c>
-      <c r="T42" s="6">
-        <v>5.2</v>
-      </c>
-      <c r="U42" s="6">
-        <v>3.5</v>
-      </c>
-      <c r="V42" s="6">
-        <v>1.2</v>
-      </c>
-      <c r="W42" s="6">
-        <v>0.2</v>
-      </c>
-      <c r="X42" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="Y42" s="6">
-        <v>0.7</v>
-      </c>
-      <c r="Z42" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>103</v>
-      </c>
-      <c r="B43" t="s">
-        <v>102</v>
-      </c>
-      <c r="C43">
-        <v>45</v>
-      </c>
-      <c r="D43">
-        <v>30</v>
-      </c>
-      <c r="E43">
-        <v>5.5</v>
-      </c>
-      <c r="F43">
-        <v>10</v>
-      </c>
-      <c r="G43" s="2">
-        <v>2550</v>
-      </c>
-      <c r="H43" s="2">
-        <v>2000</v>
-      </c>
-      <c r="I43" s="2">
-        <v>400</v>
-      </c>
-      <c r="J43" s="2">
-        <v>15</v>
-      </c>
-      <c r="K43" s="2">
-        <v>2250</v>
-      </c>
-      <c r="L43" s="2">
-        <v>650</v>
-      </c>
-      <c r="M43" s="2">
-        <v>100</v>
-      </c>
-      <c r="N43" s="2">
-        <v>30</v>
-      </c>
-      <c r="O43" s="2">
-        <v>20</v>
-      </c>
-      <c r="P43" s="2">
-        <v>15</v>
-      </c>
-      <c r="Q43" s="6">
-        <v>4.5</v>
-      </c>
-      <c r="R43" s="2">
-        <v>15</v>
-      </c>
-      <c r="S43" s="2">
-        <v>110</v>
-      </c>
-      <c r="T43" s="6">
-        <v>2.6</v>
-      </c>
-      <c r="U43" s="6">
-        <v>1.5</v>
-      </c>
-      <c r="V43" s="6">
-        <v>1.4</v>
-      </c>
-      <c r="W43" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="X43" s="6">
-        <v>0.2</v>
-      </c>
-      <c r="Y43" s="6">
-        <v>0.7</v>
-      </c>
-      <c r="Z43" s="2">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E69B3F4A-D7AE-43B6-8CEC-20724C077B7B}">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:Z47"/>
@@ -11486,3241 +8026,4 @@
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{391B8B8E-5D47-4FAB-9A21-65241D68C284}">
-  <dimension ref="A1:Z40"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="18.7109375" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" customWidth="1"/>
-    <col min="6" max="6" width="13.28515625" customWidth="1"/>
-    <col min="10" max="10" width="13.5703125" customWidth="1"/>
-    <col min="15" max="15" width="18.5703125" customWidth="1"/>
-    <col min="16" max="16" width="13.5703125" customWidth="1"/>
-    <col min="18" max="18" width="13.42578125" customWidth="1"/>
-    <col min="19" max="19" width="17.42578125" customWidth="1"/>
-    <col min="20" max="20" width="17" customWidth="1"/>
-    <col min="21" max="21" width="15.28515625" customWidth="1"/>
-    <col min="22" max="22" width="14.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:26" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="J1" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="K1" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="L1" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="M1" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="N1" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="O1" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="P1" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q1" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="R1" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="S1" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="T1" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="U1" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="V1" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="W1" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="X1" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="Y1" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="Z1" s="9" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" t="s">
-        <v>60</v>
-      </c>
-      <c r="H2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J2" t="s">
-        <v>26</v>
-      </c>
-      <c r="K2" t="s">
-        <v>28</v>
-      </c>
-      <c r="L2" t="s">
-        <v>30</v>
-      </c>
-      <c r="M2" t="s">
-        <v>32</v>
-      </c>
-      <c r="N2" t="s">
-        <v>34</v>
-      </c>
-      <c r="O2" t="s">
-        <v>36</v>
-      </c>
-      <c r="P2" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>41</v>
-      </c>
-      <c r="R2" t="s">
-        <v>43</v>
-      </c>
-      <c r="S2" t="s">
-        <v>45</v>
-      </c>
-      <c r="T2" t="s">
-        <v>62</v>
-      </c>
-      <c r="U2" t="s">
-        <v>64</v>
-      </c>
-      <c r="V2" t="s">
-        <v>48</v>
-      </c>
-      <c r="W2" t="s">
-        <v>51</v>
-      </c>
-      <c r="X2" t="s">
-        <v>54</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>56</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L3" t="s">
-        <v>20</v>
-      </c>
-      <c r="M3" t="s">
-        <v>20</v>
-      </c>
-      <c r="N3" t="s">
-        <v>17</v>
-      </c>
-      <c r="O3" t="s">
-        <v>37</v>
-      </c>
-      <c r="P3" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>17</v>
-      </c>
-      <c r="R3" t="s">
-        <v>14</v>
-      </c>
-      <c r="S3" t="s">
-        <v>67</v>
-      </c>
-      <c r="T3" t="s">
-        <v>46</v>
-      </c>
-      <c r="U3" t="s">
-        <v>46</v>
-      </c>
-      <c r="V3" t="s">
-        <v>49</v>
-      </c>
-      <c r="W3" t="s">
-        <v>52</v>
-      </c>
-      <c r="X3" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>14</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="D4" s="1">
-        <v>1</v>
-      </c>
-      <c r="E4" s="1">
-        <v>1.0000000000000001E-9</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4" s="1">
-        <v>9.9999999999999998E-13</v>
-      </c>
-      <c r="H4" s="1">
-        <v>9.9999999999999998E-13</v>
-      </c>
-      <c r="I4" s="1">
-        <v>9.9999999999999998E-13</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4" s="1">
-        <v>9.9999999999999998E-13</v>
-      </c>
-      <c r="L4" s="1">
-        <v>9.9999999999999998E-13</v>
-      </c>
-      <c r="M4" s="1">
-        <v>9.9999999999999998E-13</v>
-      </c>
-      <c r="N4" s="1">
-        <v>1.0000000000000001E-9</v>
-      </c>
-      <c r="O4">
-        <v>1</v>
-      </c>
-      <c r="P4">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="1">
-        <v>1.0000000000000001E-9</v>
-      </c>
-      <c r="R4">
-        <v>1</v>
-      </c>
-      <c r="S4" s="1">
-        <v>1</v>
-      </c>
-      <c r="T4" s="1">
-        <v>1E-3</v>
-      </c>
-      <c r="U4" s="1">
-        <v>1E-3</v>
-      </c>
-      <c r="V4">
-        <v>1</v>
-      </c>
-      <c r="W4" s="1">
-        <v>1.0000000000000001E-9</v>
-      </c>
-      <c r="X4" s="1">
-        <v>1.0000000000000001E-9</v>
-      </c>
-      <c r="Y4">
-        <v>1</v>
-      </c>
-      <c r="Z4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>75</v>
-      </c>
-      <c r="B5" t="s">
-        <v>76</v>
-      </c>
-      <c r="C5" s="2">
-        <v>1</v>
-      </c>
-      <c r="D5" s="2">
-        <v>0</v>
-      </c>
-      <c r="E5" s="5">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="F5" s="5">
-        <v>4.5</v>
-      </c>
-      <c r="G5" s="5">
-        <v>1</v>
-      </c>
-      <c r="H5" s="5">
-        <v>1</v>
-      </c>
-      <c r="I5" s="5">
-        <v>1</v>
-      </c>
-      <c r="J5" s="5">
-        <v>25</v>
-      </c>
-      <c r="K5" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="L5" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="M5" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="N5" s="5">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="O5" s="5">
-        <v>1</v>
-      </c>
-      <c r="P5" s="5">
-        <v>20</v>
-      </c>
-      <c r="Q5" s="5">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="R5" s="5">
-        <v>20</v>
-      </c>
-      <c r="S5" s="5">
-        <v>20</v>
-      </c>
-      <c r="T5" s="6">
-        <v>1E-3</v>
-      </c>
-      <c r="U5" s="6">
-        <v>1E-3</v>
-      </c>
-      <c r="V5" s="5">
-        <v>1</v>
-      </c>
-      <c r="W5" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="X5" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="Y5" s="5">
-        <v>0.01</v>
-      </c>
-      <c r="Z5" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6">
-        <f>3.4*3.4</f>
-        <v>11.559999999999999</v>
-      </c>
-      <c r="D6">
-        <v>80</v>
-      </c>
-      <c r="E6">
-        <v>5</v>
-      </c>
-      <c r="F6">
-        <v>4.5</v>
-      </c>
-      <c r="G6">
-        <v>2100</v>
-      </c>
-      <c r="H6">
-        <v>1200</v>
-      </c>
-      <c r="I6">
-        <v>300</v>
-      </c>
-      <c r="J6">
-        <v>40</v>
-      </c>
-      <c r="K6">
-        <v>1900</v>
-      </c>
-      <c r="L6">
-        <v>280</v>
-      </c>
-      <c r="M6">
-        <v>12</v>
-      </c>
-      <c r="N6">
-        <v>27</v>
-      </c>
-      <c r="O6">
-        <v>20</v>
-      </c>
-      <c r="P6">
-        <v>40</v>
-      </c>
-      <c r="Q6">
-        <v>4</v>
-      </c>
-      <c r="R6">
-        <v>40</v>
-      </c>
-      <c r="S6">
-        <v>52</v>
-      </c>
-      <c r="T6">
-        <v>7.4</v>
-      </c>
-      <c r="U6">
-        <v>5.9</v>
-      </c>
-      <c r="V6">
-        <v>1.3</v>
-      </c>
-      <c r="W6">
-        <v>0.5</v>
-      </c>
-      <c r="X6">
-        <v>0.5</v>
-      </c>
-      <c r="Y6">
-        <v>0.85</v>
-      </c>
-      <c r="Z6">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7">
-        <f>3.4*3.4</f>
-        <v>11.559999999999999</v>
-      </c>
-      <c r="D7">
-        <v>80</v>
-      </c>
-      <c r="E7">
-        <v>7.5</v>
-      </c>
-      <c r="F7">
-        <v>10</v>
-      </c>
-      <c r="G7">
-        <v>2750</v>
-      </c>
-      <c r="H7">
-        <v>1700</v>
-      </c>
-      <c r="I7">
-        <v>200</v>
-      </c>
-      <c r="J7">
-        <v>40</v>
-      </c>
-      <c r="K7">
-        <v>2400</v>
-      </c>
-      <c r="L7">
-        <v>250</v>
-      </c>
-      <c r="M7">
-        <v>10</v>
-      </c>
-      <c r="N7">
-        <v>100</v>
-      </c>
-      <c r="O7">
-        <v>18</v>
-      </c>
-      <c r="P7">
-        <v>40</v>
-      </c>
-      <c r="Q7">
-        <v>4</v>
-      </c>
-      <c r="R7">
-        <v>40</v>
-      </c>
-      <c r="S7">
-        <v>54</v>
-      </c>
-      <c r="T7">
-        <v>5.5</v>
-      </c>
-      <c r="U7">
-        <v>5.5</v>
-      </c>
-      <c r="V7">
-        <v>1.35</v>
-      </c>
-      <c r="W7">
-        <v>0.5</v>
-      </c>
-      <c r="X7">
-        <v>0.5</v>
-      </c>
-      <c r="Y7">
-        <v>0.7</v>
-      </c>
-      <c r="Z7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>68</v>
-      </c>
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8">
-        <v>11.56</v>
-      </c>
-      <c r="D8">
-        <v>60</v>
-      </c>
-      <c r="E8">
-        <v>5</v>
-      </c>
-      <c r="F8">
-        <v>4.5</v>
-      </c>
-      <c r="G8">
-        <v>2300</v>
-      </c>
-      <c r="H8">
-        <v>1500</v>
-      </c>
-      <c r="I8">
-        <v>400</v>
-      </c>
-      <c r="J8">
-        <v>40</v>
-      </c>
-      <c r="K8">
-        <v>1900</v>
-      </c>
-      <c r="L8">
-        <v>330</v>
-      </c>
-      <c r="M8">
-        <v>16</v>
-      </c>
-      <c r="N8">
-        <v>17</v>
-      </c>
-      <c r="O8">
-        <v>20</v>
-      </c>
-      <c r="P8">
-        <v>30</v>
-      </c>
-      <c r="Q8">
-        <v>4.8</v>
-      </c>
-      <c r="R8">
-        <v>30</v>
-      </c>
-      <c r="S8">
-        <v>66</v>
-      </c>
-      <c r="T8">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="U8">
-        <v>3.9</v>
-      </c>
-      <c r="V8">
-        <v>1.8</v>
-      </c>
-      <c r="W8">
-        <v>0.5</v>
-      </c>
-      <c r="X8">
-        <v>0.5</v>
-      </c>
-      <c r="Y8">
-        <v>0.83</v>
-      </c>
-      <c r="Z8">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>89</v>
-      </c>
-      <c r="B9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9">
-        <v>11.56</v>
-      </c>
-      <c r="D9">
-        <v>60</v>
-      </c>
-      <c r="E9">
-        <v>7</v>
-      </c>
-      <c r="F9">
-        <v>4.5</v>
-      </c>
-      <c r="G9">
-        <v>3000</v>
-      </c>
-      <c r="H9">
-        <v>2000</v>
-      </c>
-      <c r="I9">
-        <v>300</v>
-      </c>
-      <c r="J9">
-        <v>24</v>
-      </c>
-      <c r="K9">
-        <v>2500</v>
-      </c>
-      <c r="L9">
-        <v>700</v>
-      </c>
-      <c r="M9">
-        <v>35</v>
-      </c>
-      <c r="N9">
-        <v>25</v>
-      </c>
-      <c r="O9">
-        <v>10</v>
-      </c>
-      <c r="P9">
-        <v>30</v>
-      </c>
-      <c r="Q9">
-        <v>4.7</v>
-      </c>
-      <c r="R9">
-        <v>30</v>
-      </c>
-      <c r="S9">
-        <v>57</v>
-      </c>
-      <c r="T9">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="U9">
-        <v>2.9</v>
-      </c>
-      <c r="V9">
-        <v>0.85</v>
-      </c>
-      <c r="W9">
-        <v>0.5</v>
-      </c>
-      <c r="X9">
-        <v>0.5</v>
-      </c>
-      <c r="Y9">
-        <v>0.74</v>
-      </c>
-      <c r="Z9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>90</v>
-      </c>
-      <c r="B10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10">
-        <v>11.56</v>
-      </c>
-      <c r="D10">
-        <v>60</v>
-      </c>
-      <c r="E10">
-        <v>6.2</v>
-      </c>
-      <c r="F10">
-        <v>4.5</v>
-      </c>
-      <c r="G10">
-        <v>2200</v>
-      </c>
-      <c r="H10">
-        <v>1600</v>
-      </c>
-      <c r="I10">
-        <v>300</v>
-      </c>
-      <c r="J10">
-        <v>24</v>
-      </c>
-      <c r="K10">
-        <v>2000</v>
-      </c>
-      <c r="L10">
-        <v>560</v>
-      </c>
-      <c r="M10">
-        <v>32</v>
-      </c>
-      <c r="N10">
-        <v>20</v>
-      </c>
-      <c r="O10">
-        <v>10</v>
-      </c>
-      <c r="P10">
-        <v>30</v>
-      </c>
-      <c r="Q10">
-        <v>4.5</v>
-      </c>
-      <c r="R10">
-        <v>30</v>
-      </c>
-      <c r="S10">
-        <v>54</v>
-      </c>
-      <c r="T10">
-        <v>4.8</v>
-      </c>
-      <c r="U10">
-        <v>3.4</v>
-      </c>
-      <c r="V10">
-        <v>0.85</v>
-      </c>
-      <c r="W10">
-        <v>0.5</v>
-      </c>
-      <c r="X10">
-        <v>0.5</v>
-      </c>
-      <c r="Y10">
-        <v>0.75</v>
-      </c>
-      <c r="Z10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>86</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11">
-        <v>11.56</v>
-      </c>
-      <c r="D11">
-        <v>40</v>
-      </c>
-      <c r="E11">
-        <v>0.9</v>
-      </c>
-      <c r="F11">
-        <v>4.5</v>
-      </c>
-      <c r="G11">
-        <v>760</v>
-      </c>
-      <c r="H11">
-        <v>900</v>
-      </c>
-      <c r="I11">
-        <v>100</v>
-      </c>
-      <c r="J11">
-        <v>25</v>
-      </c>
-      <c r="K11">
-        <v>650</v>
-      </c>
-      <c r="L11">
-        <v>95</v>
-      </c>
-      <c r="M11">
-        <v>11</v>
-      </c>
-      <c r="N11">
-        <v>21</v>
-      </c>
-      <c r="O11">
-        <v>20</v>
-      </c>
-      <c r="P11">
-        <v>20</v>
-      </c>
-      <c r="Q11">
-        <v>0.65</v>
-      </c>
-      <c r="R11">
-        <v>20</v>
-      </c>
-      <c r="S11">
-        <v>64</v>
-      </c>
-      <c r="T11">
-        <v>7</v>
-      </c>
-      <c r="U11">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="V11">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="W11">
-        <v>1</v>
-      </c>
-      <c r="X11">
-        <v>1</v>
-      </c>
-      <c r="Y11">
-        <v>0.85</v>
-      </c>
-      <c r="Z11">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>74</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12">
-        <v>11.56</v>
-      </c>
-      <c r="D12">
-        <v>40</v>
-      </c>
-      <c r="E12">
-        <v>2.9</v>
-      </c>
-      <c r="F12">
-        <v>4.5</v>
-      </c>
-      <c r="G12">
-        <v>950</v>
-      </c>
-      <c r="H12">
-        <v>500</v>
-      </c>
-      <c r="I12">
-        <v>70</v>
-      </c>
-      <c r="J12">
-        <v>25</v>
-      </c>
-      <c r="K12" s="2">
-        <v>875</v>
-      </c>
-      <c r="L12" s="2">
-        <v>150</v>
-      </c>
-      <c r="M12" s="2">
-        <v>16</v>
-      </c>
-      <c r="N12" s="2">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="O12" s="2">
-        <v>10</v>
-      </c>
-      <c r="P12" s="2">
-        <v>20</v>
-      </c>
-      <c r="Q12" s="6">
-        <v>0.9</v>
-      </c>
-      <c r="R12">
-        <v>20</v>
-      </c>
-      <c r="S12" s="2">
-        <v>45</v>
-      </c>
-      <c r="T12">
-        <v>9.6</v>
-      </c>
-      <c r="U12">
-        <v>6.7</v>
-      </c>
-      <c r="V12">
-        <v>3.2</v>
-      </c>
-      <c r="W12" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="X12" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="Y12" s="3">
-        <v>0.82</v>
-      </c>
-      <c r="Z12" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>85</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13">
-        <v>11.56</v>
-      </c>
-      <c r="D13">
-        <v>40</v>
-      </c>
-      <c r="E13">
-        <v>2.75</v>
-      </c>
-      <c r="F13">
-        <v>4.5</v>
-      </c>
-      <c r="G13" s="2">
-        <v>1550</v>
-      </c>
-      <c r="H13" s="2">
-        <v>1000</v>
-      </c>
-      <c r="I13" s="2">
-        <v>100</v>
-      </c>
-      <c r="J13" s="2">
-        <v>30</v>
-      </c>
-      <c r="K13" s="2">
-        <v>1450</v>
-      </c>
-      <c r="L13" s="2">
-        <v>200</v>
-      </c>
-      <c r="M13" s="2">
-        <v>13</v>
-      </c>
-      <c r="N13" s="2">
-        <v>21</v>
-      </c>
-      <c r="O13" s="2">
-        <v>20</v>
-      </c>
-      <c r="P13" s="2">
-        <v>20</v>
-      </c>
-      <c r="Q13" s="6">
-        <v>3</v>
-      </c>
-      <c r="R13" s="2">
-        <v>20</v>
-      </c>
-      <c r="S13" s="2">
-        <v>70</v>
-      </c>
-      <c r="T13" s="6">
-        <v>7.4</v>
-      </c>
-      <c r="U13" s="6">
-        <v>5</v>
-      </c>
-      <c r="V13" s="6">
-        <v>1.8</v>
-      </c>
-      <c r="W13" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="X13" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="Y13" s="6">
-        <v>0.7</v>
-      </c>
-      <c r="Z13" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>70</v>
-      </c>
-      <c r="B14" t="s">
-        <v>71</v>
-      </c>
-      <c r="C14">
-        <v>45</v>
-      </c>
-      <c r="D14">
-        <v>40</v>
-      </c>
-      <c r="E14">
-        <v>6.3</v>
-      </c>
-      <c r="F14">
-        <v>4.5</v>
-      </c>
-      <c r="G14" s="2">
-        <v>2100</v>
-      </c>
-      <c r="H14" s="2">
-        <v>1400</v>
-      </c>
-      <c r="I14" s="2">
-        <v>150</v>
-      </c>
-      <c r="J14" s="2">
-        <v>24</v>
-      </c>
-      <c r="K14" s="2">
-        <v>2000</v>
-      </c>
-      <c r="L14" s="2">
-        <v>350</v>
-      </c>
-      <c r="M14" s="2">
-        <v>14</v>
-      </c>
-      <c r="N14" s="2">
-        <v>13</v>
-      </c>
-      <c r="O14" s="2">
-        <v>10</v>
-      </c>
-      <c r="P14" s="2">
-        <v>20</v>
-      </c>
-      <c r="Q14" s="2">
-        <v>2.1</v>
-      </c>
-      <c r="R14" s="2">
-        <v>20</v>
-      </c>
-      <c r="S14" s="2">
-        <v>50</v>
-      </c>
-      <c r="T14" s="3">
-        <v>5</v>
-      </c>
-      <c r="U14" s="3">
-        <v>3.5</v>
-      </c>
-      <c r="V14" s="3">
-        <v>1.45</v>
-      </c>
-      <c r="W14" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="X14" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="Y14" s="3">
-        <v>0.74</v>
-      </c>
-      <c r="Z14" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>78</v>
-      </c>
-      <c r="B15" t="s">
-        <v>71</v>
-      </c>
-      <c r="C15">
-        <v>45</v>
-      </c>
-      <c r="D15">
-        <v>40</v>
-      </c>
-      <c r="E15">
-        <v>7.6</v>
-      </c>
-      <c r="F15">
-        <v>10</v>
-      </c>
-      <c r="G15" s="2">
-        <v>2400</v>
-      </c>
-      <c r="H15" s="2">
-        <v>1800</v>
-      </c>
-      <c r="I15" s="2">
-        <v>300</v>
-      </c>
-      <c r="J15" s="2">
-        <v>30</v>
-      </c>
-      <c r="K15" s="2">
-        <v>2200</v>
-      </c>
-      <c r="L15" s="2">
-        <v>380</v>
-      </c>
-      <c r="M15" s="2">
-        <v>15</v>
-      </c>
-      <c r="N15" s="2">
-        <v>23</v>
-      </c>
-      <c r="O15" s="2">
-        <v>42</v>
-      </c>
-      <c r="P15" s="2">
-        <v>20</v>
-      </c>
-      <c r="Q15" s="2">
-        <v>3.2</v>
-      </c>
-      <c r="R15" s="2">
-        <v>20</v>
-      </c>
-      <c r="S15" s="2">
-        <v>96</v>
-      </c>
-      <c r="T15" s="6">
-        <v>6.8</v>
-      </c>
-      <c r="U15" s="6">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="V15" s="6">
-        <v>1.4</v>
-      </c>
-      <c r="W15" s="6">
-        <v>1</v>
-      </c>
-      <c r="X15" s="6">
-        <v>1</v>
-      </c>
-      <c r="Y15" s="3">
-        <v>0.88</v>
-      </c>
-      <c r="Z15" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>79</v>
-      </c>
-      <c r="B16" t="s">
-        <v>71</v>
-      </c>
-      <c r="C16">
-        <v>45</v>
-      </c>
-      <c r="D16">
-        <v>40</v>
-      </c>
-      <c r="E16">
-        <v>2.1</v>
-      </c>
-      <c r="F16">
-        <v>10</v>
-      </c>
-      <c r="G16" s="2">
-        <v>750</v>
-      </c>
-      <c r="H16" s="2">
-        <v>900</v>
-      </c>
-      <c r="I16" s="2">
-        <v>100</v>
-      </c>
-      <c r="J16" s="2">
-        <v>25</v>
-      </c>
-      <c r="K16" s="2">
-        <v>650</v>
-      </c>
-      <c r="L16" s="2">
-        <v>190</v>
-      </c>
-      <c r="M16" s="2">
-        <v>12</v>
-      </c>
-      <c r="N16" s="2">
-        <v>22</v>
-      </c>
-      <c r="O16" s="2">
-        <v>10</v>
-      </c>
-      <c r="P16" s="2">
-        <v>20</v>
-      </c>
-      <c r="Q16" s="6">
-        <v>1.4</v>
-      </c>
-      <c r="R16" s="2">
-        <v>20</v>
-      </c>
-      <c r="S16" s="2">
-        <v>100</v>
-      </c>
-      <c r="T16" s="6">
-        <v>6.8</v>
-      </c>
-      <c r="U16" s="6">
-        <v>4.7</v>
-      </c>
-      <c r="V16" s="6">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="W16" s="6">
-        <v>1</v>
-      </c>
-      <c r="X16" s="6">
-        <v>1</v>
-      </c>
-      <c r="Y16" s="3">
-        <v>0.92</v>
-      </c>
-      <c r="Z16" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>80</v>
-      </c>
-      <c r="B17" t="s">
-        <v>71</v>
-      </c>
-      <c r="C17">
-        <v>45</v>
-      </c>
-      <c r="D17">
-        <v>40</v>
-      </c>
-      <c r="E17">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="F17">
-        <v>10</v>
-      </c>
-      <c r="G17" s="2">
-        <v>2900</v>
-      </c>
-      <c r="H17" s="2">
-        <v>2500</v>
-      </c>
-      <c r="I17" s="2">
-        <v>250</v>
-      </c>
-      <c r="J17" s="2">
-        <v>30</v>
-      </c>
-      <c r="K17" s="2">
-        <v>2800</v>
-      </c>
-      <c r="L17" s="2">
-        <v>400</v>
-      </c>
-      <c r="M17" s="2">
-        <v>30</v>
-      </c>
-      <c r="N17" s="2">
-        <v>41</v>
-      </c>
-      <c r="O17" s="2">
-        <v>20</v>
-      </c>
-      <c r="P17" s="2">
-        <v>20</v>
-      </c>
-      <c r="Q17" s="2">
-        <v>2.5</v>
-      </c>
-      <c r="R17" s="2">
-        <v>20</v>
-      </c>
-      <c r="S17" s="2">
-        <v>203</v>
-      </c>
-      <c r="T17" s="6">
-        <v>3.5</v>
-      </c>
-      <c r="U17" s="6">
-        <v>2.6</v>
-      </c>
-      <c r="V17" s="3">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="W17" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="X17" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="Y17" s="3">
-        <v>0.7</v>
-      </c>
-      <c r="Z17" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>72</v>
-      </c>
-      <c r="B18" t="s">
-        <v>71</v>
-      </c>
-      <c r="C18">
-        <v>45</v>
-      </c>
-      <c r="D18">
-        <v>40</v>
-      </c>
-      <c r="E18">
-        <v>3.1</v>
-      </c>
-      <c r="F18">
-        <v>4.5</v>
-      </c>
-      <c r="G18" s="2">
-        <v>1500</v>
-      </c>
-      <c r="H18" s="2">
-        <v>900</v>
-      </c>
-      <c r="I18" s="2">
-        <v>300</v>
-      </c>
-      <c r="J18" s="2">
-        <v>24</v>
-      </c>
-      <c r="K18" s="2">
-        <v>1150</v>
-      </c>
-      <c r="L18" s="2">
-        <v>150</v>
-      </c>
-      <c r="M18" s="2">
-        <v>60</v>
-      </c>
-      <c r="N18" s="2">
-        <v>19</v>
-      </c>
-      <c r="O18" s="2">
-        <v>10</v>
-      </c>
-      <c r="P18" s="2">
-        <v>20</v>
-      </c>
-      <c r="Q18" s="2">
-        <v>2.5</v>
-      </c>
-      <c r="R18" s="2">
-        <v>20</v>
-      </c>
-      <c r="S18" s="2">
-        <v>43</v>
-      </c>
-      <c r="T18" s="6">
-        <v>10.4</v>
-      </c>
-      <c r="U18" s="6">
-        <v>8.5</v>
-      </c>
-      <c r="V18" s="3">
-        <v>0.8</v>
-      </c>
-      <c r="W18" s="6">
-        <v>1</v>
-      </c>
-      <c r="X18" s="6">
-        <v>1</v>
-      </c>
-      <c r="Y18" s="3">
-        <v>0.77</v>
-      </c>
-      <c r="Z18" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>69</v>
-      </c>
-      <c r="B19" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19">
-        <v>11.56</v>
-      </c>
-      <c r="D19">
-        <v>40</v>
-      </c>
-      <c r="E19">
-        <v>4.7</v>
-      </c>
-      <c r="F19">
-        <v>10</v>
-      </c>
-      <c r="G19">
-        <v>2000</v>
-      </c>
-      <c r="H19">
-        <v>2500</v>
-      </c>
-      <c r="I19">
-        <v>360</v>
-      </c>
-      <c r="J19">
-        <v>25</v>
-      </c>
-      <c r="K19">
-        <v>1800</v>
-      </c>
-      <c r="L19">
-        <v>500</v>
-      </c>
-      <c r="M19">
-        <v>17</v>
-      </c>
-      <c r="N19">
-        <v>44</v>
-      </c>
-      <c r="O19">
-        <v>20</v>
-      </c>
-      <c r="P19">
-        <v>20</v>
-      </c>
-      <c r="Q19">
-        <v>3.2</v>
-      </c>
-      <c r="R19">
-        <v>20</v>
-      </c>
-      <c r="S19">
-        <v>100</v>
-      </c>
-      <c r="T19">
-        <v>2.8</v>
-      </c>
-      <c r="U19">
-        <v>2.1</v>
-      </c>
-      <c r="V19">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="W19">
-        <v>0.5</v>
-      </c>
-      <c r="X19">
-        <v>0.5</v>
-      </c>
-      <c r="Y19">
-        <v>0.79</v>
-      </c>
-      <c r="Z19">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>73</v>
-      </c>
-      <c r="B20" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20">
-        <v>11.56</v>
-      </c>
-      <c r="D20">
-        <v>40</v>
-      </c>
-      <c r="E20">
-        <v>3.2</v>
-      </c>
-      <c r="F20">
-        <v>4.5</v>
-      </c>
-      <c r="G20" s="2">
-        <v>2500</v>
-      </c>
-      <c r="H20" s="2">
-        <v>1500</v>
-      </c>
-      <c r="I20" s="2">
-        <v>200</v>
-      </c>
-      <c r="J20" s="2">
-        <v>24</v>
-      </c>
-      <c r="K20" s="2">
-        <v>1375</v>
-      </c>
-      <c r="L20" s="2">
-        <v>1130</v>
-      </c>
-      <c r="M20" s="2">
-        <v>50</v>
-      </c>
-      <c r="N20" s="2">
-        <v>17</v>
-      </c>
-      <c r="O20" s="2">
-        <v>10</v>
-      </c>
-      <c r="P20" s="2">
-        <v>20</v>
-      </c>
-      <c r="Q20" s="2">
-        <v>2.5</v>
-      </c>
-      <c r="R20" s="2">
-        <v>20</v>
-      </c>
-      <c r="S20" s="2">
-        <v>65</v>
-      </c>
-      <c r="T20" s="3">
-        <v>6.2</v>
-      </c>
-      <c r="U20" s="3">
-        <v>4.5</v>
-      </c>
-      <c r="V20" s="3">
-        <v>0.9</v>
-      </c>
-      <c r="W20" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="X20" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="Y20" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="Z20" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>83</v>
-      </c>
-      <c r="B21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C21">
-        <v>11.56</v>
-      </c>
-      <c r="D21">
-        <v>40</v>
-      </c>
-      <c r="E21">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="F21">
-        <v>4.5</v>
-      </c>
-      <c r="G21">
-        <v>2700</v>
-      </c>
-      <c r="H21">
-        <v>1400</v>
-      </c>
-      <c r="I21">
-        <v>70</v>
-      </c>
-      <c r="J21">
-        <v>30</v>
-      </c>
-      <c r="K21">
-        <v>2450</v>
-      </c>
-      <c r="L21">
-        <v>350</v>
-      </c>
-      <c r="M21">
-        <v>20</v>
-      </c>
-      <c r="N21">
-        <v>10</v>
-      </c>
-      <c r="O21">
-        <v>20.8</v>
-      </c>
-      <c r="P21">
-        <v>20</v>
-      </c>
-      <c r="Q21">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="R21">
-        <v>20</v>
-      </c>
-      <c r="S21">
-        <v>76</v>
-      </c>
-      <c r="T21">
-        <v>3.88</v>
-      </c>
-      <c r="U21">
-        <v>2.71</v>
-      </c>
-      <c r="V21">
-        <v>1.3</v>
-      </c>
-      <c r="W21">
-        <v>0.8</v>
-      </c>
-      <c r="X21">
-        <v>0.8</v>
-      </c>
-      <c r="Y21">
-        <v>0.74</v>
-      </c>
-      <c r="Z21">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>82</v>
-      </c>
-      <c r="B22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C22">
-        <v>11.56</v>
-      </c>
-      <c r="D22">
-        <v>40</v>
-      </c>
-      <c r="E22">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="F22">
-        <v>4.5</v>
-      </c>
-      <c r="G22">
-        <v>3600</v>
-      </c>
-      <c r="H22">
-        <v>1600</v>
-      </c>
-      <c r="I22">
-        <v>350</v>
-      </c>
-      <c r="J22">
-        <v>24</v>
-      </c>
-      <c r="K22">
-        <v>3250</v>
-      </c>
-      <c r="L22">
-        <v>400</v>
-      </c>
-      <c r="M22">
-        <v>50</v>
-      </c>
-      <c r="N22">
-        <v>23</v>
-      </c>
-      <c r="O22">
-        <v>10</v>
-      </c>
-      <c r="P22">
-        <v>20</v>
-      </c>
-      <c r="Q22">
-        <v>4.2</v>
-      </c>
-      <c r="R22">
-        <v>20</v>
-      </c>
-      <c r="S22">
-        <v>70</v>
-      </c>
-      <c r="T22">
-        <v>3.85</v>
-      </c>
-      <c r="U22">
-        <v>2.85</v>
-      </c>
-      <c r="V22">
-        <v>1.4</v>
-      </c>
-      <c r="W22">
-        <v>0.5</v>
-      </c>
-      <c r="X22">
-        <v>0.5</v>
-      </c>
-      <c r="Y22">
-        <v>0.74</v>
-      </c>
-      <c r="Z22">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>91</v>
-      </c>
-      <c r="B23" t="s">
-        <v>8</v>
-      </c>
-      <c r="C23">
-        <v>11.56</v>
-      </c>
-      <c r="D23">
-        <v>40</v>
-      </c>
-      <c r="E23">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="F23">
-        <v>4.5</v>
-      </c>
-      <c r="G23">
-        <v>4100</v>
-      </c>
-      <c r="H23">
-        <v>2000</v>
-      </c>
-      <c r="I23">
-        <v>350</v>
-      </c>
-      <c r="J23">
-        <v>24</v>
-      </c>
-      <c r="K23">
-        <v>3700</v>
-      </c>
-      <c r="L23">
-        <v>600</v>
-      </c>
-      <c r="M23">
-        <v>90</v>
-      </c>
-      <c r="N23">
-        <v>23</v>
-      </c>
-      <c r="O23">
-        <v>10</v>
-      </c>
-      <c r="P23">
-        <v>20</v>
-      </c>
-      <c r="Q23">
-        <v>4</v>
-      </c>
-      <c r="R23">
-        <v>20</v>
-      </c>
-      <c r="S23">
-        <v>98</v>
-      </c>
-      <c r="T23">
-        <v>2.4</v>
-      </c>
-      <c r="U23">
-        <v>1.8</v>
-      </c>
-      <c r="V23">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="W23">
-        <v>0.5</v>
-      </c>
-      <c r="X23">
-        <v>0.5</v>
-      </c>
-      <c r="Y23">
-        <v>0.73</v>
-      </c>
-      <c r="Z23">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>92</v>
-      </c>
-      <c r="B24" t="s">
-        <v>8</v>
-      </c>
-      <c r="C24">
-        <v>11.56</v>
-      </c>
-      <c r="D24">
-        <v>30</v>
-      </c>
-      <c r="E24">
-        <v>2.1</v>
-      </c>
-      <c r="F24">
-        <v>4.5</v>
-      </c>
-      <c r="G24" s="2">
-        <v>735</v>
-      </c>
-      <c r="H24" s="2">
-        <v>680</v>
-      </c>
-      <c r="I24" s="2">
-        <v>100</v>
-      </c>
-      <c r="J24" s="2">
-        <v>12</v>
-      </c>
-      <c r="K24" s="2">
-        <v>640</v>
-      </c>
-      <c r="L24" s="2">
-        <v>310</v>
-      </c>
-      <c r="M24" s="2">
-        <v>21</v>
-      </c>
-      <c r="N24" s="2">
-        <v>10</v>
-      </c>
-      <c r="O24" s="2">
-        <v>10</v>
-      </c>
-      <c r="P24" s="2">
-        <v>15</v>
-      </c>
-      <c r="Q24" s="2">
-        <v>0.7</v>
-      </c>
-      <c r="R24" s="2">
-        <v>15</v>
-      </c>
-      <c r="S24" s="2">
-        <v>37</v>
-      </c>
-      <c r="T24" s="6">
-        <v>11</v>
-      </c>
-      <c r="U24" s="6">
-        <v>8.4</v>
-      </c>
-      <c r="V24" s="6">
-        <v>1.4</v>
-      </c>
-      <c r="W24" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="X24" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="Y24" s="6">
-        <v>0.8</v>
-      </c>
-      <c r="Z24" s="6">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>93</v>
-      </c>
-      <c r="B25" t="s">
-        <v>8</v>
-      </c>
-      <c r="C25">
-        <v>11.56</v>
-      </c>
-      <c r="D25">
-        <v>30</v>
-      </c>
-      <c r="E25">
-        <v>2.8</v>
-      </c>
-      <c r="F25">
-        <v>4.5</v>
-      </c>
-      <c r="G25" s="2">
-        <v>1060</v>
-      </c>
-      <c r="H25" s="2">
-        <v>900</v>
-      </c>
-      <c r="I25" s="2">
-        <v>140</v>
-      </c>
-      <c r="J25" s="2">
-        <v>10</v>
-      </c>
-      <c r="K25" s="2">
-        <v>960</v>
-      </c>
-      <c r="L25" s="2">
-        <v>460</v>
-      </c>
-      <c r="M25" s="2">
-        <v>40</v>
-      </c>
-      <c r="N25" s="2">
-        <v>30</v>
-      </c>
-      <c r="O25" s="2">
-        <v>15</v>
-      </c>
-      <c r="P25" s="2">
-        <v>15</v>
-      </c>
-      <c r="Q25" s="6">
-        <v>1.2</v>
-      </c>
-      <c r="R25" s="2">
-        <v>15</v>
-      </c>
-      <c r="S25" s="2">
-        <v>46</v>
-      </c>
-      <c r="T25" s="6">
-        <v>7.87</v>
-      </c>
-      <c r="U25" s="6">
-        <v>5.63</v>
-      </c>
-      <c r="V25" s="6">
-        <v>0.8</v>
-      </c>
-      <c r="W25" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="X25" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="Y25" s="6">
-        <v>0.85</v>
-      </c>
-      <c r="Z25" s="6">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>77</v>
-      </c>
-      <c r="B26" t="s">
-        <v>8</v>
-      </c>
-      <c r="C26">
-        <v>11.56</v>
-      </c>
-      <c r="D26">
-        <v>30</v>
-      </c>
-      <c r="E26">
-        <v>3.6</v>
-      </c>
-      <c r="F26">
-        <v>10</v>
-      </c>
-      <c r="G26" s="2">
-        <v>1450</v>
-      </c>
-      <c r="H26" s="2">
-        <v>1100</v>
-      </c>
-      <c r="I26" s="2">
-        <v>200</v>
-      </c>
-      <c r="J26" s="2">
-        <v>25</v>
-      </c>
-      <c r="K26" s="2">
-        <v>1300</v>
-      </c>
-      <c r="L26" s="2">
-        <v>250</v>
-      </c>
-      <c r="M26" s="2">
-        <v>30</v>
-      </c>
-      <c r="N26" s="2">
-        <v>18</v>
-      </c>
-      <c r="O26" s="2">
-        <v>20</v>
-      </c>
-      <c r="P26" s="2">
-        <v>15</v>
-      </c>
-      <c r="Q26" s="6">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="R26" s="2">
-        <v>15</v>
-      </c>
-      <c r="S26" s="2">
-        <v>77</v>
-      </c>
-      <c r="T26" s="6">
-        <v>6</v>
-      </c>
-      <c r="U26" s="6">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="V26" s="6">
-        <v>1.7</v>
-      </c>
-      <c r="W26" s="6">
-        <v>0.8</v>
-      </c>
-      <c r="X26" s="6">
-        <v>0.8</v>
-      </c>
-      <c r="Y26" s="6">
-        <v>0.7</v>
-      </c>
-      <c r="Z26" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>66</v>
-      </c>
-      <c r="B27" t="s">
-        <v>8</v>
-      </c>
-      <c r="C27">
-        <v>11.56</v>
-      </c>
-      <c r="D27">
-        <v>30</v>
-      </c>
-      <c r="E27">
-        <v>3.7</v>
-      </c>
-      <c r="F27">
-        <v>4.5</v>
-      </c>
-      <c r="G27" s="2">
-        <v>1200</v>
-      </c>
-      <c r="H27" s="2">
-        <v>1200</v>
-      </c>
-      <c r="I27" s="2">
-        <v>150</v>
-      </c>
-      <c r="J27" s="2">
-        <v>12</v>
-      </c>
-      <c r="K27" s="2">
-        <v>1175</v>
-      </c>
-      <c r="L27" s="2">
-        <v>450</v>
-      </c>
-      <c r="M27" s="2">
-        <v>30</v>
-      </c>
-      <c r="N27" s="2">
-        <v>10</v>
-      </c>
-      <c r="O27" s="2">
-        <v>10</v>
-      </c>
-      <c r="P27">
-        <v>15</v>
-      </c>
-      <c r="Q27">
-        <v>1.4</v>
-      </c>
-      <c r="R27">
-        <v>15</v>
-      </c>
-      <c r="S27">
-        <v>53</v>
-      </c>
-      <c r="T27">
-        <v>3.8</v>
-      </c>
-      <c r="U27">
-        <v>2.7</v>
-      </c>
-      <c r="V27">
-        <v>0.9</v>
-      </c>
-      <c r="W27" s="3">
-        <v>0.8</v>
-      </c>
-      <c r="X27" s="3">
-        <v>0.8</v>
-      </c>
-      <c r="Y27">
-        <v>0.76</v>
-      </c>
-      <c r="Z27">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>96</v>
-      </c>
-      <c r="B28" t="s">
-        <v>95</v>
-      </c>
-      <c r="C28">
-        <v>11.56</v>
-      </c>
-      <c r="D28">
-        <v>30</v>
-      </c>
-      <c r="E28">
-        <v>3.8</v>
-      </c>
-      <c r="F28">
-        <v>5</v>
-      </c>
-      <c r="G28" s="2">
-        <v>1050</v>
-      </c>
-      <c r="H28" s="2">
-        <v>1000</v>
-      </c>
-      <c r="I28" s="2">
-        <v>150</v>
-      </c>
-      <c r="J28" s="2">
-        <v>10</v>
-      </c>
-      <c r="K28" s="2">
-        <v>1000</v>
-      </c>
-      <c r="L28" s="2">
-        <v>460</v>
-      </c>
-      <c r="M28" s="2">
-        <v>39</v>
-      </c>
-      <c r="N28" s="2">
-        <v>3</v>
-      </c>
-      <c r="O28" s="2">
-        <v>15</v>
-      </c>
-      <c r="P28" s="2">
-        <v>15</v>
-      </c>
-      <c r="Q28" s="6">
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="R28" s="2">
-        <v>15</v>
-      </c>
-      <c r="S28" s="2">
-        <v>57</v>
-      </c>
-      <c r="T28" s="6">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="U28" s="6">
-        <v>2.7</v>
-      </c>
-      <c r="V28" s="6">
-        <v>1.2</v>
-      </c>
-      <c r="W28" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="X28" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="Y28" s="3">
-        <v>0.85</v>
-      </c>
-      <c r="Z28" s="6">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>81</v>
-      </c>
-      <c r="B29" t="s">
-        <v>8</v>
-      </c>
-      <c r="C29">
-        <v>11.56</v>
-      </c>
-      <c r="D29">
-        <v>30</v>
-      </c>
-      <c r="E29">
-        <v>4</v>
-      </c>
-      <c r="F29">
-        <v>4.5</v>
-      </c>
-      <c r="G29">
-        <v>1600</v>
-      </c>
-      <c r="H29">
-        <v>1280</v>
-      </c>
-      <c r="I29">
-        <v>200</v>
-      </c>
-      <c r="J29" s="2">
-        <v>25</v>
-      </c>
-      <c r="K29">
-        <v>1400</v>
-      </c>
-      <c r="L29">
-        <v>250</v>
-      </c>
-      <c r="M29">
-        <v>36</v>
-      </c>
-      <c r="N29" s="2">
-        <v>14</v>
-      </c>
-      <c r="O29" s="2">
-        <v>10</v>
-      </c>
-      <c r="P29" s="2">
-        <v>15</v>
-      </c>
-      <c r="Q29" s="2">
-        <v>1.8</v>
-      </c>
-      <c r="R29" s="2">
-        <v>15</v>
-      </c>
-      <c r="S29" s="2">
-        <v>65</v>
-      </c>
-      <c r="T29">
-        <v>6.8</v>
-      </c>
-      <c r="U29">
-        <v>4.25</v>
-      </c>
-      <c r="V29">
-        <v>1.65</v>
-      </c>
-      <c r="W29">
-        <v>0.8</v>
-      </c>
-      <c r="X29">
-        <v>0.8</v>
-      </c>
-      <c r="Y29">
-        <v>0.76</v>
-      </c>
-      <c r="Z29">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>87</v>
-      </c>
-      <c r="B30" t="s">
-        <v>88</v>
-      </c>
-      <c r="C30">
-        <v>45</v>
-      </c>
-      <c r="D30">
-        <v>30</v>
-      </c>
-      <c r="E30">
-        <v>19</v>
-      </c>
-      <c r="F30">
-        <v>4.5</v>
-      </c>
-      <c r="G30" s="2">
-        <v>8500</v>
-      </c>
-      <c r="H30" s="2">
-        <v>6000</v>
-      </c>
-      <c r="I30" s="2">
-        <v>1000</v>
-      </c>
-      <c r="J30" s="2">
-        <v>24</v>
-      </c>
-      <c r="K30" s="2">
-        <v>7500</v>
-      </c>
-      <c r="L30" s="2">
-        <v>1400</v>
-      </c>
-      <c r="M30" s="2">
-        <v>75</v>
-      </c>
-      <c r="N30" s="2">
-        <v>20</v>
-      </c>
-      <c r="O30" s="2">
-        <v>87</v>
-      </c>
-      <c r="P30" s="2">
-        <v>15</v>
-      </c>
-      <c r="Q30" s="2">
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="R30" s="2">
-        <v>15</v>
-      </c>
-      <c r="S30" s="2">
-        <v>120</v>
-      </c>
-      <c r="T30" s="3">
-        <v>2</v>
-      </c>
-      <c r="U30" s="3">
-        <v>1.7</v>
-      </c>
-      <c r="V30" s="3">
-        <v>1.9</v>
-      </c>
-      <c r="W30" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="X30" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="Y30" s="3">
-        <v>0.81</v>
-      </c>
-      <c r="Z30" s="2">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>97</v>
-      </c>
-      <c r="B31" t="s">
-        <v>95</v>
-      </c>
-      <c r="C31">
-        <v>11.56</v>
-      </c>
-      <c r="D31">
-        <v>30</v>
-      </c>
-      <c r="E31">
-        <v>5.5</v>
-      </c>
-      <c r="F31">
-        <v>5</v>
-      </c>
-      <c r="G31" s="2">
-        <v>1500</v>
-      </c>
-      <c r="H31" s="2">
-        <v>1500</v>
-      </c>
-      <c r="I31" s="2">
-        <v>200</v>
-      </c>
-      <c r="J31" s="2">
-        <v>10</v>
-      </c>
-      <c r="K31" s="2">
-        <v>1450</v>
-      </c>
-      <c r="L31" s="2">
-        <v>700</v>
-      </c>
-      <c r="M31" s="2">
-        <v>48</v>
-      </c>
-      <c r="N31" s="2">
-        <v>6</v>
-      </c>
-      <c r="O31" s="2">
-        <v>15</v>
-      </c>
-      <c r="P31" s="2">
-        <v>15</v>
-      </c>
-      <c r="Q31" s="6">
-        <v>1.7</v>
-      </c>
-      <c r="R31" s="2">
-        <v>15</v>
-      </c>
-      <c r="S31" s="2">
-        <v>61</v>
-      </c>
-      <c r="T31" s="6">
-        <v>2.9</v>
-      </c>
-      <c r="U31" s="6">
-        <v>2</v>
-      </c>
-      <c r="V31" s="6">
-        <v>0.9</v>
-      </c>
-      <c r="W31" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="X31" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="Y31" s="3">
-        <v>0.85</v>
-      </c>
-      <c r="Z31" s="6">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>84</v>
-      </c>
-      <c r="B32" t="s">
-        <v>8</v>
-      </c>
-      <c r="C32">
-        <v>11.56</v>
-      </c>
-      <c r="D32">
-        <v>30</v>
-      </c>
-      <c r="E32">
-        <v>8.5</v>
-      </c>
-      <c r="F32">
-        <v>10</v>
-      </c>
-      <c r="G32" s="2">
-        <v>3200</v>
-      </c>
-      <c r="H32" s="2">
-        <v>2500</v>
-      </c>
-      <c r="I32" s="2">
-        <v>500</v>
-      </c>
-      <c r="J32" s="2">
-        <v>25</v>
-      </c>
-      <c r="K32" s="2">
-        <v>2800</v>
-      </c>
-      <c r="L32" s="2">
-        <v>600</v>
-      </c>
-      <c r="M32" s="2">
-        <v>50</v>
-      </c>
-      <c r="N32" s="2">
-        <v>36.5</v>
-      </c>
-      <c r="O32" s="2">
-        <v>20</v>
-      </c>
-      <c r="P32" s="2">
-        <v>15</v>
-      </c>
-      <c r="Q32" s="6">
-        <v>4</v>
-      </c>
-      <c r="R32" s="2">
-        <v>15</v>
-      </c>
-      <c r="S32" s="2">
-        <v>125</v>
-      </c>
-      <c r="T32" s="6">
-        <v>2.4500000000000002</v>
-      </c>
-      <c r="U32" s="6">
-        <v>1.55</v>
-      </c>
-      <c r="V32" s="6">
-        <v>0.7</v>
-      </c>
-      <c r="W32" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="X32" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="Y32" s="6">
-        <v>0.68</v>
-      </c>
-      <c r="Z32" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>105</v>
-      </c>
-      <c r="B33" t="s">
-        <v>88</v>
-      </c>
-      <c r="C33">
-        <v>45</v>
-      </c>
-      <c r="D33">
-        <v>30</v>
-      </c>
-      <c r="E33">
-        <v>4.5</v>
-      </c>
-      <c r="F33">
-        <v>10</v>
-      </c>
-      <c r="G33" s="2">
-        <v>2200</v>
-      </c>
-      <c r="H33" s="2">
-        <v>1300</v>
-      </c>
-      <c r="I33" s="2">
-        <v>300</v>
-      </c>
-      <c r="J33" s="2">
-        <v>15</v>
-      </c>
-      <c r="K33" s="2">
-        <v>1900</v>
-      </c>
-      <c r="L33" s="2">
-        <v>400</v>
-      </c>
-      <c r="M33" s="2">
-        <v>50</v>
-      </c>
-      <c r="N33" s="2">
-        <v>21.5</v>
-      </c>
-      <c r="O33" s="2">
-        <v>20</v>
-      </c>
-      <c r="P33" s="2">
-        <v>15</v>
-      </c>
-      <c r="Q33" s="6">
-        <v>3.6</v>
-      </c>
-      <c r="R33" s="2">
-        <v>15</v>
-      </c>
-      <c r="S33" s="2">
-        <v>165</v>
-      </c>
-      <c r="T33" s="10">
-        <v>2.8</v>
-      </c>
-      <c r="U33" s="10">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="V33" s="6">
-        <v>1.8</v>
-      </c>
-      <c r="W33" s="6">
-        <v>0.8</v>
-      </c>
-      <c r="X33" s="6">
-        <v>0.8</v>
-      </c>
-      <c r="Y33" s="3">
-        <v>0.68</v>
-      </c>
-      <c r="Z33" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>94</v>
-      </c>
-      <c r="B34" t="s">
-        <v>88</v>
-      </c>
-      <c r="C34">
-        <v>45</v>
-      </c>
-      <c r="D34">
-        <v>60</v>
-      </c>
-      <c r="E34">
-        <v>10</v>
-      </c>
-      <c r="F34">
-        <v>10</v>
-      </c>
-      <c r="G34" s="2">
-        <v>4000</v>
-      </c>
-      <c r="H34" s="2">
-        <v>3000</v>
-      </c>
-      <c r="I34" s="2">
-        <v>700</v>
-      </c>
-      <c r="J34" s="2">
-        <v>25</v>
-      </c>
-      <c r="K34" s="2">
-        <v>3300</v>
-      </c>
-      <c r="L34" s="2">
-        <v>1000</v>
-      </c>
-      <c r="M34" s="2">
-        <v>50</v>
-      </c>
-      <c r="N34" s="2">
-        <v>73</v>
-      </c>
-      <c r="O34" s="2">
-        <v>20</v>
-      </c>
-      <c r="P34" s="2">
-        <v>30</v>
-      </c>
-      <c r="Q34" s="6">
-        <v>8.5</v>
-      </c>
-      <c r="R34" s="2">
-        <v>30</v>
-      </c>
-      <c r="S34" s="2">
-        <v>100</v>
-      </c>
-      <c r="T34" s="6">
-        <v>3.1</v>
-      </c>
-      <c r="U34" s="6">
-        <v>2.4</v>
-      </c>
-      <c r="V34" s="6">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="W34" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="X34" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="Y34" s="3">
-        <v>0.69</v>
-      </c>
-      <c r="Z34" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>65</v>
-      </c>
-      <c r="B35" t="s">
-        <v>8</v>
-      </c>
-      <c r="C35">
-        <v>11.56</v>
-      </c>
-      <c r="D35">
-        <v>30</v>
-      </c>
-      <c r="E35">
-        <v>9.6</v>
-      </c>
-      <c r="F35">
-        <v>4.5</v>
-      </c>
-      <c r="G35" s="2">
-        <v>3000</v>
-      </c>
-      <c r="H35" s="2">
-        <v>3000</v>
-      </c>
-      <c r="I35" s="2">
-        <v>500</v>
-      </c>
-      <c r="J35" s="2">
-        <v>12</v>
-      </c>
-      <c r="K35" s="2">
-        <v>2975</v>
-      </c>
-      <c r="L35" s="2">
-        <v>1200</v>
-      </c>
-      <c r="M35" s="2">
-        <v>200</v>
-      </c>
-      <c r="N35" s="2">
-        <v>25</v>
-      </c>
-      <c r="O35" s="2">
-        <v>10</v>
-      </c>
-      <c r="P35">
-        <v>15</v>
-      </c>
-      <c r="Q35">
-        <v>3.9</v>
-      </c>
-      <c r="R35">
-        <v>15</v>
-      </c>
-      <c r="S35">
-        <v>95</v>
-      </c>
-      <c r="T35">
-        <v>1.5</v>
-      </c>
-      <c r="U35">
-        <v>0.95</v>
-      </c>
-      <c r="V35">
-        <v>0.42</v>
-      </c>
-      <c r="W35" s="3">
-        <v>0.8</v>
-      </c>
-      <c r="X35" s="3">
-        <v>0.8</v>
-      </c>
-      <c r="Y35">
-        <v>0.73</v>
-      </c>
-      <c r="Z35">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>104</v>
-      </c>
-      <c r="B36" t="s">
-        <v>8</v>
-      </c>
-      <c r="C36">
-        <v>11.56</v>
-      </c>
-      <c r="D36">
-        <v>30</v>
-      </c>
-      <c r="E36">
-        <v>11.3</v>
-      </c>
-      <c r="F36">
-        <v>4.5</v>
-      </c>
-      <c r="G36" s="2">
-        <v>4000</v>
-      </c>
-      <c r="H36" s="2">
-        <v>3000</v>
-      </c>
-      <c r="I36" s="2">
-        <v>500</v>
-      </c>
-      <c r="J36" s="2">
-        <v>12</v>
-      </c>
-      <c r="K36" s="2">
-        <v>3500</v>
-      </c>
-      <c r="L36" s="2">
-        <v>1400</v>
-      </c>
-      <c r="M36" s="2">
-        <v>100</v>
-      </c>
-      <c r="N36" s="2">
-        <v>34</v>
-      </c>
-      <c r="O36" s="2">
-        <v>10</v>
-      </c>
-      <c r="P36">
-        <v>15</v>
-      </c>
-      <c r="Q36">
-        <v>3</v>
-      </c>
-      <c r="R36">
-        <v>15</v>
-      </c>
-      <c r="S36">
-        <v>117</v>
-      </c>
-      <c r="T36">
-        <v>1.25</v>
-      </c>
-      <c r="U36">
-        <v>0.88</v>
-      </c>
-      <c r="V36">
-        <v>0.75</v>
-      </c>
-      <c r="W36" s="3">
-        <v>0.8</v>
-      </c>
-      <c r="X36" s="3">
-        <v>0.8</v>
-      </c>
-      <c r="Y36">
-        <v>0.73</v>
-      </c>
-      <c r="Z36">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>99</v>
-      </c>
-      <c r="B37" t="s">
-        <v>98</v>
-      </c>
-      <c r="C37">
-        <v>11.56</v>
-      </c>
-      <c r="D37">
-        <v>30</v>
-      </c>
-      <c r="E37">
-        <v>4</v>
-      </c>
-      <c r="F37">
-        <v>10</v>
-      </c>
-      <c r="G37" s="2">
-        <v>1700</v>
-      </c>
-      <c r="H37" s="2">
-        <v>1050</v>
-      </c>
-      <c r="I37" s="2">
-        <v>200</v>
-      </c>
-      <c r="J37" s="2">
-        <v>20</v>
-      </c>
-      <c r="K37" s="2">
-        <v>1500</v>
-      </c>
-      <c r="L37" s="2">
-        <v>300</v>
-      </c>
-      <c r="M37" s="2">
-        <v>50</v>
-      </c>
-      <c r="N37" s="2">
-        <v>21</v>
-      </c>
-      <c r="O37" s="2">
-        <v>20</v>
-      </c>
-      <c r="P37" s="2">
-        <v>15</v>
-      </c>
-      <c r="Q37" s="6">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="R37" s="2">
-        <v>15</v>
-      </c>
-      <c r="S37" s="2">
-        <v>108</v>
-      </c>
-      <c r="T37" s="3">
-        <v>3.7</v>
-      </c>
-      <c r="U37" s="3">
-        <v>3.05</v>
-      </c>
-      <c r="V37" s="3">
-        <v>0.8</v>
-      </c>
-      <c r="W37" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="X37" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="Y37" s="3">
-        <v>0.7</v>
-      </c>
-      <c r="Z37" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>100</v>
-      </c>
-      <c r="B38" t="s">
-        <v>98</v>
-      </c>
-      <c r="C38">
-        <v>11.56</v>
-      </c>
-      <c r="D38">
-        <v>30</v>
-      </c>
-      <c r="E38">
-        <v>3.2</v>
-      </c>
-      <c r="F38">
-        <v>10</v>
-      </c>
-      <c r="G38" s="2">
-        <v>1340</v>
-      </c>
-      <c r="H38" s="2">
-        <v>900</v>
-      </c>
-      <c r="I38" s="2">
-        <v>140</v>
-      </c>
-      <c r="J38" s="2">
-        <v>20</v>
-      </c>
-      <c r="K38" s="2">
-        <v>1210</v>
-      </c>
-      <c r="L38" s="2">
-        <v>240</v>
-      </c>
-      <c r="M38" s="2">
-        <v>30</v>
-      </c>
-      <c r="N38" s="2">
-        <v>15</v>
-      </c>
-      <c r="O38" s="2">
-        <v>20</v>
-      </c>
-      <c r="P38" s="2">
-        <v>15</v>
-      </c>
-      <c r="Q38" s="6">
-        <v>1</v>
-      </c>
-      <c r="R38" s="2">
-        <v>15</v>
-      </c>
-      <c r="S38" s="2">
-        <v>125</v>
-      </c>
-      <c r="T38" s="6">
-        <v>4.7</v>
-      </c>
-      <c r="U38" s="6">
-        <v>3.9</v>
-      </c>
-      <c r="V38" s="6">
-        <v>1.9</v>
-      </c>
-      <c r="W38" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="X38" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="Y38" s="3">
-        <v>0.7</v>
-      </c>
-      <c r="Z38" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>101</v>
-      </c>
-      <c r="B39" t="s">
-        <v>102</v>
-      </c>
-      <c r="C39">
-        <v>45</v>
-      </c>
-      <c r="D39">
-        <v>30</v>
-      </c>
-      <c r="E39">
-        <v>2.5</v>
-      </c>
-      <c r="F39">
-        <v>10</v>
-      </c>
-      <c r="G39" s="2">
-        <v>1250</v>
-      </c>
-      <c r="H39" s="2">
-        <v>1100</v>
-      </c>
-      <c r="I39" s="2">
-        <v>200</v>
-      </c>
-      <c r="J39" s="2">
-        <v>15</v>
-      </c>
-      <c r="K39" s="2">
-        <v>1200</v>
-      </c>
-      <c r="L39" s="2">
-        <v>400</v>
-      </c>
-      <c r="M39" s="2">
-        <v>62</v>
-      </c>
-      <c r="N39" s="2">
-        <v>20</v>
-      </c>
-      <c r="O39" s="2">
-        <v>20</v>
-      </c>
-      <c r="P39" s="2">
-        <v>15</v>
-      </c>
-      <c r="Q39" s="6">
-        <v>3</v>
-      </c>
-      <c r="R39" s="2">
-        <v>15</v>
-      </c>
-      <c r="S39" s="2">
-        <v>57</v>
-      </c>
-      <c r="T39" s="6">
-        <v>5.2</v>
-      </c>
-      <c r="U39" s="6">
-        <v>3.5</v>
-      </c>
-      <c r="V39" s="6">
-        <v>1.2</v>
-      </c>
-      <c r="W39" s="6">
-        <v>0.2</v>
-      </c>
-      <c r="X39" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="Y39" s="6">
-        <v>0.7</v>
-      </c>
-      <c r="Z39" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>103</v>
-      </c>
-      <c r="B40" t="s">
-        <v>102</v>
-      </c>
-      <c r="C40">
-        <v>45</v>
-      </c>
-      <c r="D40">
-        <v>30</v>
-      </c>
-      <c r="E40">
-        <v>5.5</v>
-      </c>
-      <c r="F40">
-        <v>10</v>
-      </c>
-      <c r="G40" s="2">
-        <v>2550</v>
-      </c>
-      <c r="H40" s="2">
-        <v>2000</v>
-      </c>
-      <c r="I40" s="2">
-        <v>400</v>
-      </c>
-      <c r="J40" s="2">
-        <v>15</v>
-      </c>
-      <c r="K40" s="2">
-        <v>2250</v>
-      </c>
-      <c r="L40" s="2">
-        <v>650</v>
-      </c>
-      <c r="M40" s="2">
-        <v>100</v>
-      </c>
-      <c r="N40" s="2">
-        <v>30</v>
-      </c>
-      <c r="O40" s="2">
-        <v>20</v>
-      </c>
-      <c r="P40" s="2">
-        <v>15</v>
-      </c>
-      <c r="Q40" s="6">
-        <v>4.5</v>
-      </c>
-      <c r="R40" s="2">
-        <v>15</v>
-      </c>
-      <c r="S40" s="2">
-        <v>110</v>
-      </c>
-      <c r="T40" s="6">
-        <v>2.6</v>
-      </c>
-      <c r="U40" s="6">
-        <v>1.5</v>
-      </c>
-      <c r="V40" s="6">
-        <v>1.4</v>
-      </c>
-      <c r="W40" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="X40" s="6">
-        <v>0.2</v>
-      </c>
-      <c r="Y40" s="6">
-        <v>0.7</v>
-      </c>
-      <c r="Z40" s="2">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:Z40" xr:uid="{391B8B8E-5D47-4FAB-9A21-65241D68C284}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A11:Z23">
-      <sortCondition ref="G1:G40"/>
-    </sortState>
-  </autoFilter>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/data/mosfet_data.xlsx
+++ b/data/mosfet_data.xlsx
@@ -1,26 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28816"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://renesasgroup-my.sharepoint.com/personal/gary_kidwell_wz_renesas_com/Documents/python/charger/mathmodels/pdis_2or3lvl_bb/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="430" documentId="13_ncr:1_{B6E73BC3-DAD1-4207-9F29-342E0D899D99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F7907EE5-2855-4AD0-BF4E-CD8241F92E50}"/>
+  <xr:revisionPtr revIDLastSave="515" documentId="13_ncr:1_{B6E73BC3-DAD1-4207-9F29-342E0D899D99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9EA46ED5-F74C-4AE1-AB8F-5E5AA3994842}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="16260" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29190" yWindow="1515" windowWidth="28230" windowHeight="12720" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="column_data_old" sheetId="1" r:id="rId1"/>
     <sheet name="transpose" sheetId="5" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">transpose!$A$1:$Z$47</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">transpose!$A$4:$Z$49</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -40,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="116">
   <si>
     <t>description</t>
   </si>
@@ -54,21 +57,150 @@
     <t>multiplier</t>
   </si>
   <si>
+    <t>SHORT</t>
+  </si>
+  <si>
     <t>BSZ070N08</t>
   </si>
   <si>
     <t>AONR62818</t>
   </si>
   <si>
+    <t>ISZ0702NLS</t>
+  </si>
+  <si>
+    <t>SISS22LDN</t>
+  </si>
+  <si>
+    <t>SISS26LDN</t>
+  </si>
+  <si>
+    <t>BSZ063N04LS6</t>
+  </si>
+  <si>
+    <t>BSZ024N04LS6</t>
+  </si>
+  <si>
+    <t>SISS4402DN</t>
+  </si>
+  <si>
+    <t>SIRA74DP</t>
+  </si>
+  <si>
+    <t>BSC059N04LSG</t>
+  </si>
+  <si>
+    <t>BSC059N04LS6</t>
+  </si>
+  <si>
+    <t>AONS66408</t>
+  </si>
+  <si>
+    <t>SIR426DP</t>
+  </si>
+  <si>
+    <t>SIRA12DDP</t>
+  </si>
+  <si>
+    <t>SIS488DN</t>
+  </si>
+  <si>
+    <t>SISS4410DN</t>
+  </si>
+  <si>
+    <t>AONR66406</t>
+  </si>
+  <si>
+    <t>SISA72DN</t>
+  </si>
+  <si>
+    <t>SISA72ADN</t>
+  </si>
+  <si>
+    <t>SISH536DN</t>
+  </si>
+  <si>
+    <t>SISA12BDN</t>
+  </si>
+  <si>
+    <t>SISS52DN</t>
+  </si>
+  <si>
+    <t>SISS54DN</t>
+  </si>
+  <si>
+    <t>SISS66DN</t>
+  </si>
+  <si>
+    <t>AONR36368</t>
+  </si>
+  <si>
+    <t>AON7318</t>
+  </si>
+  <si>
+    <t>SISA14DN</t>
+  </si>
+  <si>
+    <t>BSC020N03MSG</t>
+  </si>
+  <si>
+    <t>SIZ342</t>
+  </si>
+  <si>
+    <t>SIZ350</t>
+  </si>
+  <si>
+    <t>AON6314</t>
+  </si>
+  <si>
+    <t>AONS66614</t>
+  </si>
+  <si>
+    <t>SIZF5302DT</t>
+  </si>
+  <si>
+    <t>SIZF5300DT</t>
+  </si>
+  <si>
+    <t>AONP36332_HS</t>
+  </si>
+  <si>
+    <t>AONP36332_LS</t>
+  </si>
+  <si>
+    <t>AOE6936_HS</t>
+  </si>
+  <si>
+    <t>AOE6936_LS</t>
+  </si>
+  <si>
     <t>package</t>
   </si>
   <si>
     <t>na</t>
   </si>
   <si>
+    <t>NA</t>
+  </si>
+  <si>
     <t>DFN3x3</t>
   </si>
   <si>
+    <t>PPAK5x6</t>
+  </si>
+  <si>
+    <t>DFN5x6</t>
+  </si>
+  <si>
+    <t>PPAIR3x3</t>
+  </si>
+  <si>
+    <t>copak3x3</t>
+  </si>
+  <si>
+    <t>copak5x6</t>
+  </si>
+  <si>
     <t>footprint</t>
   </si>
   <si>
@@ -102,6 +234,12 @@
     <t>Vgs</t>
   </si>
   <si>
+    <t>At Vds=0V, Ciss:</t>
+  </si>
+  <si>
+    <t>Ciss_0V</t>
+  </si>
+  <si>
     <t>pF</t>
   </si>
   <si>
@@ -180,9 +318,24 @@
     <t>Gm</t>
   </si>
   <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>On-Resistance at 4.5V</t>
+  </si>
+  <si>
+    <t>Rdson_4.5V</t>
+  </si>
+  <si>
     <t>mohm</t>
   </si>
   <si>
+    <t>On-Resistance at 10V</t>
+  </si>
+  <si>
+    <t>Rdson_10V</t>
+  </si>
+  <si>
     <t>Gate Resistance</t>
   </si>
   <si>
@@ -219,169 +372,25 @@
     <t>Id_vbd</t>
   </si>
   <si>
-    <t>At Vds=0V, Ciss:</t>
-  </si>
-  <si>
-    <t>Ciss_0V</t>
-  </si>
-  <si>
-    <t>On-Resistance at 4.5V</t>
-  </si>
-  <si>
-    <t>Rdson_4.5V</t>
-  </si>
-  <si>
-    <t>On-Resistance at 10V</t>
-  </si>
-  <si>
-    <t>Rdson_10V</t>
-  </si>
-  <si>
-    <t>SISS52DN</t>
-  </si>
-  <si>
-    <t>SISH536DN</t>
-  </si>
-  <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t>ISZ0702NLS</t>
-  </si>
-  <si>
-    <t>BSZ024N04LS6</t>
-  </si>
-  <si>
-    <t>SIRA74DP</t>
-  </si>
-  <si>
-    <t>PPAK5x6</t>
-  </si>
-  <si>
-    <t>SIR426DP</t>
-  </si>
-  <si>
-    <t>SIS488DN</t>
-  </si>
-  <si>
-    <t>SISS4410DN</t>
-  </si>
-  <si>
-    <t>SHORT</t>
-  </si>
-  <si>
-    <t>NA</t>
-  </si>
-  <si>
-    <t>AONR36368</t>
-  </si>
-  <si>
-    <t>BSC059N04LSG</t>
-  </si>
-  <si>
-    <t>BSC059N04LS6</t>
-  </si>
-  <si>
-    <t>AONS66408</t>
-  </si>
-  <si>
-    <t>SISA14DN</t>
-  </si>
-  <si>
-    <t>SISA72DN</t>
-  </si>
-  <si>
-    <t>SISA72ADN</t>
-  </si>
-  <si>
-    <t>AON7318</t>
-  </si>
-  <si>
-    <t>AONR66406</t>
-  </si>
-  <si>
-    <t>BSZ063N04LS6</t>
-  </si>
-  <si>
-    <t>BSC020N03MSG</t>
-  </si>
-  <si>
-    <t>DFN5x6</t>
-  </si>
-  <si>
-    <t>SISS22LDN</t>
-  </si>
-  <si>
-    <t>SISS26LDN</t>
-  </si>
-  <si>
-    <t>SISS4402DN</t>
-  </si>
-  <si>
-    <t>SIZ342</t>
-  </si>
-  <si>
-    <t>SIZ350</t>
-  </si>
-  <si>
-    <t>AONS66614</t>
-  </si>
-  <si>
-    <t>PPAIR3x3</t>
-  </si>
-  <si>
-    <t>SIZF5302DT</t>
-  </si>
-  <si>
-    <t>SIZF5300DT</t>
-  </si>
-  <si>
-    <t>copak3x3</t>
-  </si>
-  <si>
-    <t>AONP36332_HS</t>
-  </si>
-  <si>
-    <t>AONP36332_LS</t>
-  </si>
-  <si>
-    <t>AOE6936_HS</t>
-  </si>
-  <si>
-    <t>copak5x6</t>
-  </si>
-  <si>
-    <t>AOE6936_LS</t>
-  </si>
-  <si>
-    <t>SISS54DN</t>
-  </si>
-  <si>
-    <t>AON6314</t>
-  </si>
-  <si>
-    <t>SISA12BDN</t>
-  </si>
-  <si>
-    <t>SISS66DN</t>
-  </si>
-  <si>
-    <t>SIRA12DDP</t>
+    <t>BSC022N04LS6</t>
+  </si>
+  <si>
+    <t>BSC032N04LS</t>
+  </si>
+  <si>
+    <t>ISC036N04NM5</t>
+  </si>
+  <si>
+    <t>ISC046N04NM5</t>
   </si>
   <si>
     <t>SIRA62DDP</t>
   </si>
   <si>
-    <t>BSC022N04LS6</t>
-  </si>
-  <si>
-    <t>ISC046N04NM5</t>
-  </si>
-  <si>
-    <t>ISC036N04NM5</t>
-  </si>
-  <si>
-    <t>BSC032N04LS</t>
+    <t>RBE030N04</t>
+  </si>
+  <si>
+    <t>RBE023N04</t>
   </si>
 </sst>
 </file>
@@ -392,7 +401,7 @@
     <numFmt numFmtId="164" formatCode="0.E+00"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -442,7 +451,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -456,6 +465,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -474,9 +484,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -514,7 +524,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -620,7 +630,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -762,7 +772,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -773,11 +783,11 @@
   <dimension ref="A1:AQ26"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AF1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="P1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="AG35" sqref="AG35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="41.85546875" customWidth="1"/>
     <col min="11" max="11" width="16.85546875" customWidth="1"/>
@@ -794,7 +804,7 @@
     <col min="43" max="43" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:43">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -808,263 +818,263 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>75</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>68</v>
+        <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>89</v>
+        <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>90</v>
+        <v>9</v>
       </c>
       <c r="K1" t="s">
-        <v>86</v>
+        <v>10</v>
       </c>
       <c r="L1" t="s">
-        <v>69</v>
+        <v>11</v>
       </c>
       <c r="M1" t="s">
-        <v>91</v>
+        <v>12</v>
       </c>
       <c r="N1" t="s">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="O1" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="P1" t="s">
-        <v>79</v>
+        <v>15</v>
       </c>
       <c r="Q1" t="s">
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="R1" t="s">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="S1" t="s">
-        <v>108</v>
+        <v>18</v>
       </c>
       <c r="T1" t="s">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="U1" t="s">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="V1" t="s">
-        <v>85</v>
+        <v>21</v>
       </c>
       <c r="W1" t="s">
-        <v>82</v>
+        <v>22</v>
       </c>
       <c r="X1" t="s">
-        <v>83</v>
+        <v>23</v>
       </c>
       <c r="Y1" t="s">
-        <v>66</v>
+        <v>24</v>
       </c>
       <c r="Z1" t="s">
-        <v>106</v>
+        <v>25</v>
       </c>
       <c r="AA1" t="s">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="AB1" t="s">
-        <v>104</v>
+        <v>27</v>
       </c>
       <c r="AC1" t="s">
-        <v>107</v>
+        <v>28</v>
       </c>
       <c r="AD1" t="s">
-        <v>77</v>
+        <v>29</v>
       </c>
       <c r="AE1" t="s">
-        <v>84</v>
+        <v>30</v>
       </c>
       <c r="AF1" t="s">
-        <v>81</v>
+        <v>31</v>
       </c>
       <c r="AG1" t="s">
-        <v>87</v>
+        <v>32</v>
       </c>
       <c r="AH1" t="s">
-        <v>92</v>
+        <v>33</v>
       </c>
       <c r="AI1" t="s">
-        <v>93</v>
+        <v>34</v>
       </c>
       <c r="AJ1" t="s">
-        <v>105</v>
+        <v>35</v>
       </c>
       <c r="AK1" t="s">
-        <v>94</v>
+        <v>36</v>
       </c>
       <c r="AL1" t="s">
-        <v>96</v>
+        <v>37</v>
       </c>
       <c r="AM1" t="s">
-        <v>97</v>
+        <v>38</v>
       </c>
       <c r="AN1" t="s">
-        <v>99</v>
+        <v>39</v>
       </c>
       <c r="AO1" t="s">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="AP1" t="s">
-        <v>101</v>
+        <v>41</v>
       </c>
       <c r="AQ1" t="s">
-        <v>103</v>
+        <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:43">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>43</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>43</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="I2" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="J2" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="K2" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="L2" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="M2" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="N2" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="O2" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="P2" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="Q2" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="R2" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="S2" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="T2" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="U2" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="V2" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="W2" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="X2" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="Y2" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="Z2" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="AA2" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="AB2" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="AC2" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="AD2" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="AE2" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="AF2" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="AG2" t="s">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="AH2" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="AI2" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="AJ2" t="s">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="AK2" t="s">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="AL2" t="s">
-        <v>95</v>
+        <v>49</v>
       </c>
       <c r="AM2" t="s">
-        <v>95</v>
+        <v>49</v>
       </c>
       <c r="AN2" t="s">
-        <v>98</v>
+        <v>50</v>
       </c>
       <c r="AO2" t="s">
-        <v>98</v>
+        <v>50</v>
       </c>
       <c r="AP2" t="s">
-        <v>102</v>
+        <v>51</v>
       </c>
       <c r="AQ2" t="s">
-        <v>102</v>
+        <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:43">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="D3" s="1">
         <v>9.9999999999999995E-7</v>
@@ -1189,15 +1199,15 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:43">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="D4" s="1">
         <v>1</v>
@@ -1320,15 +1330,15 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:43">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="D5" s="1">
         <v>1.0000000000000001E-9</v>
@@ -1451,15 +1461,15 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:43">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -1582,15 +1592,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:43">
       <c r="A7" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B7" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="D7" s="1">
         <v>9.9999999999999998E-13</v>
@@ -1713,15 +1723,15 @@
         <v>2550</v>
       </c>
     </row>
-    <row r="8" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:43">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>66</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>67</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="D8" s="1">
         <v>9.9999999999999998E-13</v>
@@ -1844,15 +1854,15 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="9" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:43">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>68</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>69</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="D9" s="1">
         <v>9.9999999999999998E-13</v>
@@ -1975,15 +1985,15 @@
         <v>400</v>
       </c>
     </row>
-    <row r="10" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:43">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>71</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -2106,15 +2116,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:43">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>72</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>73</v>
       </c>
       <c r="C11" t="s">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="D11" s="1">
         <v>9.9999999999999998E-13</v>
@@ -2237,15 +2247,15 @@
         <v>2250</v>
       </c>
     </row>
-    <row r="12" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:43">
       <c r="A12" t="s">
-        <v>29</v>
+        <v>74</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="C12" t="s">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="D12" s="1">
         <v>9.9999999999999998E-13</v>
@@ -2368,15 +2378,15 @@
         <v>650</v>
       </c>
     </row>
-    <row r="13" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:43">
       <c r="A13" t="s">
-        <v>31</v>
+        <v>76</v>
       </c>
       <c r="B13" t="s">
-        <v>32</v>
+        <v>77</v>
       </c>
       <c r="C13" t="s">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="D13" s="1">
         <v>9.9999999999999998E-13</v>
@@ -2499,15 +2509,15 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:43">
       <c r="A14" t="s">
-        <v>33</v>
+        <v>78</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>79</v>
       </c>
       <c r="C14" t="s">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="D14" s="1">
         <v>1.0000000000000001E-9</v>
@@ -2630,15 +2640,15 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:43">
       <c r="A15" t="s">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="B15" t="s">
-        <v>36</v>
+        <v>81</v>
       </c>
       <c r="C15" t="s">
-        <v>37</v>
+        <v>82</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -2761,15 +2771,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:43">
       <c r="A16" t="s">
-        <v>38</v>
+        <v>83</v>
       </c>
       <c r="B16" t="s">
-        <v>39</v>
+        <v>84</v>
       </c>
       <c r="C16" t="s">
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -2892,15 +2902,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:43">
       <c r="A17" t="s">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="B17" t="s">
-        <v>41</v>
+        <v>86</v>
       </c>
       <c r="C17" t="s">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="D17" s="1">
         <v>1.0000000000000001E-9</v>
@@ -3023,15 +3033,15 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="18" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:43">
       <c r="A18" t="s">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="B18" t="s">
-        <v>43</v>
+        <v>88</v>
       </c>
       <c r="C18" t="s">
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -3154,15 +3164,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:43">
       <c r="A19" t="s">
-        <v>44</v>
+        <v>89</v>
       </c>
       <c r="B19" t="s">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="C19" t="s">
-        <v>67</v>
+        <v>91</v>
       </c>
       <c r="D19" s="1">
         <v>1</v>
@@ -3285,15 +3295,15 @@
         <v>110</v>
       </c>
     </row>
-    <row r="20" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:43">
       <c r="A20" t="s">
-        <v>61</v>
+        <v>92</v>
       </c>
       <c r="B20" t="s">
-        <v>62</v>
+        <v>93</v>
       </c>
       <c r="C20" t="s">
-        <v>46</v>
+        <v>94</v>
       </c>
       <c r="D20" s="1">
         <v>1E-3</v>
@@ -3416,15 +3426,15 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="21" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:43">
       <c r="A21" t="s">
-        <v>63</v>
+        <v>95</v>
       </c>
       <c r="B21" t="s">
-        <v>64</v>
+        <v>96</v>
       </c>
       <c r="C21" t="s">
-        <v>46</v>
+        <v>94</v>
       </c>
       <c r="D21" s="1">
         <v>1E-3</v>
@@ -3547,15 +3557,15 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="22" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:43">
       <c r="A22" t="s">
-        <v>47</v>
+        <v>97</v>
       </c>
       <c r="B22" t="s">
-        <v>48</v>
+        <v>98</v>
       </c>
       <c r="C22" t="s">
-        <v>49</v>
+        <v>99</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -3678,15 +3688,15 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="23" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:43">
       <c r="A23" t="s">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="B23" t="s">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="C23" t="s">
-        <v>52</v>
+        <v>102</v>
       </c>
       <c r="D23" s="1">
         <v>1.0000000000000001E-9</v>
@@ -3809,15 +3819,15 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="24" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:43">
       <c r="A24" t="s">
-        <v>53</v>
+        <v>103</v>
       </c>
       <c r="B24" t="s">
-        <v>54</v>
+        <v>104</v>
       </c>
       <c r="C24" t="s">
-        <v>52</v>
+        <v>102</v>
       </c>
       <c r="D24" s="1">
         <v>1.0000000000000001E-9</v>
@@ -3940,15 +3950,15 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="25" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:43">
       <c r="A25" t="s">
-        <v>55</v>
+        <v>105</v>
       </c>
       <c r="B25" t="s">
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="C25" t="s">
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -4071,15 +4081,15 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="26" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:43">
       <c r="A26" t="s">
-        <v>57</v>
+        <v>107</v>
       </c>
       <c r="B26" t="s">
-        <v>58</v>
+        <v>108</v>
       </c>
       <c r="C26" t="s">
-        <v>37</v>
+        <v>82</v>
       </c>
       <c r="D26">
         <v>1</v>
@@ -4216,16 +4226,14 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E69B3F4A-D7AE-43B6-8CEC-20724C077B7B}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:Z47"/>
+  <dimension ref="A1:Z49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="I13" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="O56" sqref="O56"/>
+      <pane ySplit="4" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M56" sqref="M56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="14.28515625" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" customWidth="1"/>
@@ -4246,2574 +4254,2574 @@
     <col min="26" max="26" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="51" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:26">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K1" t="s">
+        <v>73</v>
+      </c>
+      <c r="L1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M1" t="s">
+        <v>77</v>
+      </c>
+      <c r="N1" t="s">
+        <v>79</v>
+      </c>
+      <c r="O1" t="s">
+        <v>81</v>
+      </c>
+      <c r="P1" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>86</v>
+      </c>
+      <c r="R1" t="s">
+        <v>88</v>
+      </c>
+      <c r="S1" t="s">
+        <v>90</v>
+      </c>
+      <c r="T1" t="s">
+        <v>93</v>
+      </c>
+      <c r="U1" t="s">
+        <v>96</v>
+      </c>
+      <c r="V1" t="s">
+        <v>98</v>
+      </c>
+      <c r="W1" t="s">
+        <v>101</v>
+      </c>
+      <c r="X1" t="s">
+        <v>104</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>106</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H2" t="s">
+        <v>65</v>
+      </c>
+      <c r="I2" t="s">
+        <v>65</v>
+      </c>
+      <c r="J2" t="s">
+        <v>57</v>
+      </c>
+      <c r="K2" t="s">
+        <v>65</v>
+      </c>
+      <c r="L2" t="s">
+        <v>65</v>
+      </c>
+      <c r="M2" t="s">
+        <v>65</v>
+      </c>
+      <c r="N2" t="s">
+        <v>60</v>
+      </c>
+      <c r="O2" t="s">
+        <v>82</v>
+      </c>
+      <c r="P2" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>60</v>
+      </c>
+      <c r="R2" t="s">
+        <v>57</v>
+      </c>
+      <c r="S2" t="s">
+        <v>91</v>
+      </c>
+      <c r="T2" t="s">
+        <v>94</v>
+      </c>
+      <c r="U2" t="s">
+        <v>94</v>
+      </c>
+      <c r="V2" t="s">
+        <v>99</v>
+      </c>
+      <c r="W2" t="s">
+        <v>102</v>
+      </c>
+      <c r="X2" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1.0000000000000001E-9</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1">
+        <v>9.9999999999999998E-13</v>
+      </c>
+      <c r="H3" s="1">
+        <v>9.9999999999999998E-13</v>
+      </c>
+      <c r="I3" s="1">
+        <v>9.9999999999999998E-13</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3" s="1">
+        <v>9.9999999999999998E-13</v>
+      </c>
+      <c r="L3" s="1">
+        <v>9.9999999999999998E-13</v>
+      </c>
+      <c r="M3" s="1">
+        <v>9.9999999999999998E-13</v>
+      </c>
+      <c r="N3" s="1">
+        <v>1.0000000000000001E-9</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>1.0000000000000001E-9</v>
+      </c>
+      <c r="R3">
+        <v>1</v>
+      </c>
+      <c r="S3" s="1">
+        <v>1</v>
+      </c>
+      <c r="T3" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="U3" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="V3">
+        <v>1</v>
+      </c>
+      <c r="W3" s="1">
+        <v>1.0000000000000001E-9</v>
+      </c>
+      <c r="X3" s="1">
+        <v>1.0000000000000001E-9</v>
+      </c>
+      <c r="Y3">
+        <v>1</v>
+      </c>
+      <c r="Z3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" ht="51">
+      <c r="A4" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B4" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="M4" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="N4" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="O4" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="P4" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q4" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="R4" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="S4" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="T4" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="U4" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="V4" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="W4" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="X4" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y4" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="Z4" s="9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" hidden="1">
+      <c r="A5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5">
+        <v>45</v>
+      </c>
+      <c r="D5">
+        <v>30</v>
+      </c>
+      <c r="E5">
+        <v>2.5</v>
+      </c>
+      <c r="F5">
+        <v>10</v>
+      </c>
+      <c r="G5" s="2">
+        <v>1250</v>
+      </c>
+      <c r="H5" s="2">
+        <v>1100</v>
+      </c>
+      <c r="I5" s="2">
+        <v>200</v>
+      </c>
+      <c r="J5" s="2">
+        <v>15</v>
+      </c>
+      <c r="K5" s="2">
+        <v>1200</v>
+      </c>
+      <c r="L5" s="2">
+        <v>400</v>
+      </c>
+      <c r="M5" s="2">
+        <v>62</v>
+      </c>
+      <c r="N5" s="2">
+        <v>20</v>
+      </c>
+      <c r="O5" s="2">
+        <v>20</v>
+      </c>
+      <c r="P5" s="2">
+        <v>15</v>
+      </c>
+      <c r="Q5" s="6">
+        <v>3</v>
+      </c>
+      <c r="R5" s="2">
+        <v>15</v>
+      </c>
+      <c r="S5" s="2">
+        <v>57</v>
+      </c>
+      <c r="T5" s="6">
+        <v>5.2</v>
+      </c>
+      <c r="U5" s="6">
+        <v>3.5</v>
+      </c>
+      <c r="V5" s="6">
+        <v>1.2</v>
+      </c>
+      <c r="W5" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="X5" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="Y5" s="6">
+        <v>0.7</v>
+      </c>
+      <c r="Z5" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" hidden="1">
+      <c r="A6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6">
+        <v>45</v>
+      </c>
+      <c r="D6">
+        <v>30</v>
+      </c>
+      <c r="E6">
+        <v>5.5</v>
+      </c>
+      <c r="F6">
+        <v>10</v>
+      </c>
+      <c r="G6" s="2">
+        <v>2550</v>
+      </c>
+      <c r="H6" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I6" s="2">
+        <v>400</v>
+      </c>
+      <c r="J6" s="2">
+        <v>15</v>
+      </c>
+      <c r="K6" s="2">
+        <v>2250</v>
+      </c>
+      <c r="L6" s="2">
+        <v>650</v>
+      </c>
+      <c r="M6" s="2">
+        <v>100</v>
+      </c>
+      <c r="N6" s="2">
+        <v>30</v>
+      </c>
+      <c r="O6" s="2">
+        <v>20</v>
+      </c>
+      <c r="P6" s="2">
+        <v>15</v>
+      </c>
+      <c r="Q6" s="6">
+        <v>4.5</v>
+      </c>
+      <c r="R6" s="2">
+        <v>15</v>
+      </c>
+      <c r="S6" s="2">
+        <v>110</v>
+      </c>
+      <c r="T6" s="6">
+        <v>2.6</v>
+      </c>
+      <c r="U6" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="V6" s="6">
+        <v>1.4</v>
+      </c>
+      <c r="W6" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="X6" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="Y6" s="6">
+        <v>0.7</v>
+      </c>
+      <c r="Z6" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" hidden="1">
+      <c r="A7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7">
+        <v>45</v>
+      </c>
+      <c r="D7">
+        <v>30</v>
+      </c>
+      <c r="E7">
+        <v>4.5</v>
+      </c>
+      <c r="F7">
+        <v>10</v>
+      </c>
+      <c r="G7" s="2">
+        <v>2200</v>
+      </c>
+      <c r="H7" s="2">
+        <v>1300</v>
+      </c>
+      <c r="I7" s="2">
+        <v>300</v>
+      </c>
+      <c r="J7" s="2">
+        <v>15</v>
+      </c>
+      <c r="K7" s="2">
+        <v>1900</v>
+      </c>
+      <c r="L7" s="2">
+        <v>400</v>
+      </c>
+      <c r="M7" s="2">
+        <v>50</v>
+      </c>
+      <c r="N7" s="2">
+        <v>21.5</v>
+      </c>
+      <c r="O7" s="2">
+        <v>20</v>
+      </c>
+      <c r="P7" s="2">
+        <v>15</v>
+      </c>
+      <c r="Q7" s="6">
+        <v>3.6</v>
+      </c>
+      <c r="R7" s="2">
+        <v>15</v>
+      </c>
+      <c r="S7" s="2">
+        <v>165</v>
+      </c>
+      <c r="T7" s="10">
+        <v>2.8</v>
+      </c>
+      <c r="U7" s="10">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="V7" s="6">
+        <v>1.8</v>
+      </c>
+      <c r="W7" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="X7" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="Y7" s="3">
+        <v>0.68</v>
+      </c>
+      <c r="Z7" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" hidden="1">
+      <c r="A8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8">
+        <v>11.56</v>
+      </c>
+      <c r="D8">
+        <v>30</v>
+      </c>
+      <c r="E8">
+        <v>8.5</v>
+      </c>
+      <c r="F8">
+        <v>10</v>
+      </c>
+      <c r="G8" s="2">
+        <v>3200</v>
+      </c>
+      <c r="H8" s="2">
+        <v>2500</v>
+      </c>
+      <c r="I8" s="2">
+        <v>500</v>
+      </c>
+      <c r="J8" s="2">
+        <v>25</v>
+      </c>
+      <c r="K8" s="2">
+        <v>2800</v>
+      </c>
+      <c r="L8" s="2">
+        <v>600</v>
+      </c>
+      <c r="M8" s="2">
+        <v>50</v>
+      </c>
+      <c r="N8" s="2">
+        <v>36.5</v>
+      </c>
+      <c r="O8" s="2">
+        <v>20</v>
+      </c>
+      <c r="P8" s="2">
+        <v>15</v>
+      </c>
+      <c r="Q8" s="6">
+        <v>4</v>
+      </c>
+      <c r="R8" s="2">
+        <v>15</v>
+      </c>
+      <c r="S8" s="2">
+        <v>125</v>
+      </c>
+      <c r="T8" s="6">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="U8" s="6">
+        <v>1.55</v>
+      </c>
+      <c r="V8" s="6">
+        <v>0.7</v>
+      </c>
+      <c r="W8" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="X8" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="Y8" s="6">
+        <v>0.68</v>
+      </c>
+      <c r="Z8" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" hidden="1">
+      <c r="A9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9">
+        <v>11.56</v>
+      </c>
+      <c r="D9">
+        <v>30</v>
+      </c>
+      <c r="E9">
+        <v>4</v>
+      </c>
+      <c r="F9">
+        <v>10</v>
+      </c>
+      <c r="G9" s="2">
+        <v>1700</v>
+      </c>
+      <c r="H9" s="2">
+        <v>1050</v>
+      </c>
+      <c r="I9" s="2">
+        <v>200</v>
+      </c>
+      <c r="J9" s="2">
+        <v>20</v>
+      </c>
+      <c r="K9" s="2">
+        <v>1500</v>
+      </c>
+      <c r="L9" s="2">
+        <v>300</v>
+      </c>
+      <c r="M9" s="2">
+        <v>50</v>
+      </c>
+      <c r="N9" s="2">
+        <v>21</v>
+      </c>
+      <c r="O9" s="2">
+        <v>20</v>
+      </c>
+      <c r="P9" s="2">
+        <v>15</v>
+      </c>
+      <c r="Q9" s="6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="R9" s="2">
+        <v>15</v>
+      </c>
+      <c r="S9" s="2">
+        <v>108</v>
+      </c>
+      <c r="T9" s="3">
+        <v>3.7</v>
+      </c>
+      <c r="U9" s="3">
+        <v>3.05</v>
+      </c>
+      <c r="V9" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="W9" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="X9" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="Y9" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="Z9" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" hidden="1">
+      <c r="A10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10">
+        <v>11.56</v>
+      </c>
+      <c r="D10">
+        <v>30</v>
+      </c>
+      <c r="E10">
+        <v>3.2</v>
+      </c>
+      <c r="F10">
+        <v>10</v>
+      </c>
+      <c r="G10" s="2">
+        <v>1340</v>
+      </c>
+      <c r="H10" s="2">
+        <v>900</v>
+      </c>
+      <c r="I10" s="2">
+        <v>140</v>
+      </c>
+      <c r="J10" s="2">
+        <v>20</v>
+      </c>
+      <c r="K10" s="2">
+        <v>1210</v>
+      </c>
+      <c r="L10" s="2">
+        <v>240</v>
+      </c>
+      <c r="M10" s="2">
+        <v>30</v>
+      </c>
+      <c r="N10" s="2">
+        <v>15</v>
+      </c>
+      <c r="O10" s="2">
+        <v>20</v>
+      </c>
+      <c r="P10" s="2">
+        <v>15</v>
+      </c>
+      <c r="Q10" s="6">
+        <v>1</v>
+      </c>
+      <c r="R10" s="2">
+        <v>15</v>
+      </c>
+      <c r="S10" s="2">
+        <v>125</v>
+      </c>
+      <c r="T10" s="6">
+        <v>4.7</v>
+      </c>
+      <c r="U10" s="6">
+        <v>3.9</v>
+      </c>
+      <c r="V10" s="6">
+        <v>1.9</v>
+      </c>
+      <c r="W10" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="X10" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="Y10" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="Z10" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" hidden="1">
+      <c r="A11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11">
+        <v>11.56</v>
+      </c>
+      <c r="D11">
+        <v>30</v>
+      </c>
+      <c r="E11">
+        <v>3.6</v>
+      </c>
+      <c r="F11">
+        <v>10</v>
+      </c>
+      <c r="G11" s="2">
+        <v>1450</v>
+      </c>
+      <c r="H11" s="2">
+        <v>1100</v>
+      </c>
+      <c r="I11" s="2">
+        <v>200</v>
+      </c>
+      <c r="J11" s="2">
+        <v>25</v>
+      </c>
+      <c r="K11" s="2">
+        <v>1300</v>
+      </c>
+      <c r="L11" s="2">
+        <v>250</v>
+      </c>
+      <c r="M11" s="2">
+        <v>30</v>
+      </c>
+      <c r="N11" s="2">
+        <v>18</v>
+      </c>
+      <c r="O11" s="2">
+        <v>20</v>
+      </c>
+      <c r="P11" s="2">
+        <v>15</v>
+      </c>
+      <c r="Q11" s="6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="R11" s="2">
+        <v>15</v>
+      </c>
+      <c r="S11" s="2">
+        <v>77</v>
+      </c>
+      <c r="T11" s="6">
         <v>6</v>
       </c>
-      <c r="C1" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="J1" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="K1" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="L1" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="M1" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="N1" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="O1" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="P1" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q1" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="R1" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="S1" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="T1" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="U1" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="V1" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="W1" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="X1" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="Y1" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="Z1" s="9" t="s">
-        <v>57</v>
+      <c r="U11" s="6">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="V11" s="6">
+        <v>1.7</v>
+      </c>
+      <c r="W11" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="X11" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="Y11" s="6">
+        <v>0.7</v>
+      </c>
+      <c r="Z11" s="6">
+        <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="12" spans="1:26" hidden="1">
+      <c r="A12" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" t="s">
-        <v>60</v>
-      </c>
-      <c r="H2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J2" t="s">
-        <v>26</v>
-      </c>
-      <c r="K2" t="s">
-        <v>28</v>
-      </c>
-      <c r="L2" t="s">
-        <v>30</v>
-      </c>
-      <c r="M2" t="s">
-        <v>32</v>
-      </c>
-      <c r="N2" t="s">
-        <v>34</v>
-      </c>
-      <c r="O2" t="s">
-        <v>36</v>
-      </c>
-      <c r="P2" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>41</v>
-      </c>
-      <c r="R2" t="s">
-        <v>43</v>
-      </c>
-      <c r="S2" t="s">
-        <v>45</v>
-      </c>
-      <c r="T2" t="s">
-        <v>62</v>
-      </c>
-      <c r="U2" t="s">
-        <v>64</v>
-      </c>
-      <c r="V2" t="s">
-        <v>48</v>
-      </c>
-      <c r="W2" t="s">
-        <v>51</v>
-      </c>
-      <c r="X2" t="s">
-        <v>54</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>56</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L3" t="s">
-        <v>20</v>
-      </c>
-      <c r="M3" t="s">
-        <v>20</v>
-      </c>
-      <c r="N3" t="s">
-        <v>17</v>
-      </c>
-      <c r="O3" t="s">
-        <v>37</v>
-      </c>
-      <c r="P3" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>17</v>
-      </c>
-      <c r="R3" t="s">
-        <v>14</v>
-      </c>
-      <c r="S3" t="s">
-        <v>67</v>
-      </c>
-      <c r="T3" t="s">
+      <c r="B12" t="s">
         <v>46</v>
       </c>
-      <c r="U3" t="s">
-        <v>46</v>
-      </c>
-      <c r="V3" t="s">
-        <v>49</v>
-      </c>
-      <c r="W3" t="s">
-        <v>52</v>
-      </c>
-      <c r="X3" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>14</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="D4" s="1">
-        <v>1</v>
-      </c>
-      <c r="E4" s="1">
-        <v>1.0000000000000001E-9</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4" s="1">
-        <v>9.9999999999999998E-13</v>
-      </c>
-      <c r="H4" s="1">
-        <v>9.9999999999999998E-13</v>
-      </c>
-      <c r="I4" s="1">
-        <v>9.9999999999999998E-13</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4" s="1">
-        <v>9.9999999999999998E-13</v>
-      </c>
-      <c r="L4" s="1">
-        <v>9.9999999999999998E-13</v>
-      </c>
-      <c r="M4" s="1">
-        <v>9.9999999999999998E-13</v>
-      </c>
-      <c r="N4" s="1">
-        <v>1.0000000000000001E-9</v>
-      </c>
-      <c r="O4">
-        <v>1</v>
-      </c>
-      <c r="P4">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="1">
-        <v>1.0000000000000001E-9</v>
-      </c>
-      <c r="R4">
-        <v>1</v>
-      </c>
-      <c r="S4" s="1">
-        <v>1</v>
-      </c>
-      <c r="T4" s="1">
-        <v>1E-3</v>
-      </c>
-      <c r="U4" s="1">
-        <v>1E-3</v>
-      </c>
-      <c r="V4">
-        <v>1</v>
-      </c>
-      <c r="W4" s="1">
-        <v>1.0000000000000001E-9</v>
-      </c>
-      <c r="X4" s="1">
-        <v>1.0000000000000001E-9</v>
-      </c>
-      <c r="Y4">
-        <v>1</v>
-      </c>
-      <c r="Z4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>75</v>
-      </c>
-      <c r="B5" t="s">
-        <v>76</v>
-      </c>
-      <c r="C5" s="2">
-        <v>1</v>
-      </c>
-      <c r="D5" s="2">
-        <v>0</v>
-      </c>
-      <c r="E5" s="5">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="F5" s="5">
-        <v>4.5</v>
-      </c>
-      <c r="G5" s="5">
-        <v>1</v>
-      </c>
-      <c r="H5" s="5">
-        <v>1</v>
-      </c>
-      <c r="I5" s="5">
-        <v>1</v>
-      </c>
-      <c r="J5" s="5">
-        <v>25</v>
-      </c>
-      <c r="K5" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="L5" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="M5" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="N5" s="5">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="O5" s="5">
-        <v>1</v>
-      </c>
-      <c r="P5" s="5">
-        <v>20</v>
-      </c>
-      <c r="Q5" s="5">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="R5" s="5">
-        <v>20</v>
-      </c>
-      <c r="S5" s="5">
-        <v>20</v>
-      </c>
-      <c r="T5" s="6">
-        <v>1E-3</v>
-      </c>
-      <c r="U5" s="6">
-        <v>1E-3</v>
-      </c>
-      <c r="V5" s="5">
-        <v>1</v>
-      </c>
-      <c r="W5" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="X5" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="Y5" s="5">
-        <v>0.01</v>
-      </c>
-      <c r="Z5" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6">
+      <c r="C12">
         <f>3.4*3.4</f>
         <v>11.559999999999999</v>
       </c>
-      <c r="D6">
+      <c r="D12">
         <v>80</v>
       </c>
-      <c r="E6">
+      <c r="E12">
+        <v>7.5</v>
+      </c>
+      <c r="F12">
+        <v>10</v>
+      </c>
+      <c r="G12">
+        <v>2750</v>
+      </c>
+      <c r="H12">
+        <v>1700</v>
+      </c>
+      <c r="I12">
+        <v>200</v>
+      </c>
+      <c r="J12">
+        <v>40</v>
+      </c>
+      <c r="K12">
+        <v>2400</v>
+      </c>
+      <c r="L12">
+        <v>250</v>
+      </c>
+      <c r="M12">
+        <v>10</v>
+      </c>
+      <c r="N12">
+        <v>100</v>
+      </c>
+      <c r="O12">
+        <v>18</v>
+      </c>
+      <c r="P12">
+        <v>40</v>
+      </c>
+      <c r="Q12">
+        <v>4</v>
+      </c>
+      <c r="R12">
+        <v>40</v>
+      </c>
+      <c r="S12">
+        <v>54</v>
+      </c>
+      <c r="T12">
+        <v>5.5</v>
+      </c>
+      <c r="U12">
+        <v>5.5</v>
+      </c>
+      <c r="V12">
+        <v>1.35</v>
+      </c>
+      <c r="W12">
+        <v>0.5</v>
+      </c>
+      <c r="X12">
+        <v>0.5</v>
+      </c>
+      <c r="Y12">
+        <v>0.7</v>
+      </c>
+      <c r="Z12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" hidden="1">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13">
+        <v>11.56</v>
+      </c>
+      <c r="D13">
+        <v>40</v>
+      </c>
+      <c r="E13" s="7">
+        <v>2.75</v>
+      </c>
+      <c r="F13" s="7">
+        <v>4.5</v>
+      </c>
+      <c r="G13" s="2">
+        <v>1550</v>
+      </c>
+      <c r="H13" s="2">
+        <v>1000</v>
+      </c>
+      <c r="I13" s="2">
+        <v>100</v>
+      </c>
+      <c r="J13" s="2">
+        <v>30</v>
+      </c>
+      <c r="K13" s="2">
+        <v>1450</v>
+      </c>
+      <c r="L13" s="2">
+        <v>200</v>
+      </c>
+      <c r="M13" s="2">
+        <v>13</v>
+      </c>
+      <c r="N13" s="2">
+        <v>21</v>
+      </c>
+      <c r="O13" s="2">
+        <v>20</v>
+      </c>
+      <c r="P13" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q13" s="6">
+        <v>3</v>
+      </c>
+      <c r="R13" s="2">
+        <v>20</v>
+      </c>
+      <c r="S13" s="2">
+        <v>70</v>
+      </c>
+      <c r="T13" s="6">
+        <v>7.4</v>
+      </c>
+      <c r="U13" s="6">
         <v>5</v>
       </c>
-      <c r="F6">
+      <c r="V13" s="6">
+        <v>1.8</v>
+      </c>
+      <c r="W13" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="X13" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="Y13" s="6">
+        <v>0.7</v>
+      </c>
+      <c r="Z13" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14">
+        <v>45</v>
+      </c>
+      <c r="D14">
+        <v>40</v>
+      </c>
+      <c r="E14">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="F14">
+        <v>10</v>
+      </c>
+      <c r="G14" s="2">
+        <v>2900</v>
+      </c>
+      <c r="H14" s="2">
+        <v>2500</v>
+      </c>
+      <c r="I14" s="2">
+        <v>250</v>
+      </c>
+      <c r="J14" s="2">
+        <v>30</v>
+      </c>
+      <c r="K14" s="2">
+        <v>2800</v>
+      </c>
+      <c r="L14" s="2">
+        <v>400</v>
+      </c>
+      <c r="M14" s="2">
+        <v>30</v>
+      </c>
+      <c r="N14" s="2">
+        <v>41</v>
+      </c>
+      <c r="O14" s="2">
+        <v>20</v>
+      </c>
+      <c r="P14" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q14" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="R14" s="2">
+        <v>20</v>
+      </c>
+      <c r="S14" s="2">
+        <v>203</v>
+      </c>
+      <c r="T14" s="6">
+        <v>3.5</v>
+      </c>
+      <c r="U14" s="6">
+        <v>2.6</v>
+      </c>
+      <c r="V14" s="3">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="W14" s="6">
+        <v>1</v>
+      </c>
+      <c r="X14" s="6">
+        <v>1</v>
+      </c>
+      <c r="Y14" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="Z14" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" hidden="1">
+      <c r="A15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15">
+        <v>45</v>
+      </c>
+      <c r="D15">
+        <v>60</v>
+      </c>
+      <c r="E15">
+        <v>10</v>
+      </c>
+      <c r="F15">
+        <v>10</v>
+      </c>
+      <c r="G15" s="2">
+        <v>4000</v>
+      </c>
+      <c r="H15" s="2">
+        <v>3000</v>
+      </c>
+      <c r="I15" s="2">
+        <v>700</v>
+      </c>
+      <c r="J15" s="2">
+        <v>25</v>
+      </c>
+      <c r="K15" s="2">
+        <v>3300</v>
+      </c>
+      <c r="L15" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M15" s="2">
+        <v>50</v>
+      </c>
+      <c r="N15" s="2">
+        <v>73</v>
+      </c>
+      <c r="O15" s="2">
+        <v>20</v>
+      </c>
+      <c r="P15" s="2">
+        <v>30</v>
+      </c>
+      <c r="Q15" s="6">
+        <v>8.5</v>
+      </c>
+      <c r="R15" s="2">
+        <v>30</v>
+      </c>
+      <c r="S15" s="2">
+        <v>100</v>
+      </c>
+      <c r="T15" s="6">
+        <v>3.1</v>
+      </c>
+      <c r="U15" s="6">
+        <v>2.4</v>
+      </c>
+      <c r="V15" s="6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="W15" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="X15" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="Y15" s="3">
+        <v>0.69</v>
+      </c>
+      <c r="Z15" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" hidden="1">
+      <c r="A16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16">
+        <v>45</v>
+      </c>
+      <c r="D16">
+        <v>30</v>
+      </c>
+      <c r="E16">
+        <v>19</v>
+      </c>
+      <c r="F16">
         <v>4.5</v>
       </c>
-      <c r="G6">
-        <v>2100</v>
-      </c>
-      <c r="H6">
-        <v>1200</v>
-      </c>
-      <c r="I6">
+      <c r="G16" s="2">
+        <v>8500</v>
+      </c>
+      <c r="H16" s="2">
+        <v>6000</v>
+      </c>
+      <c r="I16" s="2">
+        <v>1000</v>
+      </c>
+      <c r="J16" s="2">
+        <v>24</v>
+      </c>
+      <c r="K16" s="2">
+        <v>7500</v>
+      </c>
+      <c r="L16" s="2">
+        <v>1400</v>
+      </c>
+      <c r="M16" s="2">
+        <v>75</v>
+      </c>
+      <c r="N16" s="2">
+        <v>20</v>
+      </c>
+      <c r="O16" s="2">
+        <v>87</v>
+      </c>
+      <c r="P16" s="2">
+        <v>15</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="R16" s="2">
+        <v>15</v>
+      </c>
+      <c r="S16" s="2">
+        <v>120</v>
+      </c>
+      <c r="T16" s="3">
+        <v>2</v>
+      </c>
+      <c r="U16" s="3">
+        <v>1.7</v>
+      </c>
+      <c r="V16" s="3">
+        <v>1.9</v>
+      </c>
+      <c r="W16" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="X16" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="Y16" s="3">
+        <v>0.81</v>
+      </c>
+      <c r="Z16" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26">
+      <c r="A17" t="s">
+        <v>109</v>
+      </c>
+      <c r="B17" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17">
+        <v>45</v>
+      </c>
+      <c r="D17">
+        <v>40</v>
+      </c>
+      <c r="E17">
+        <v>5.5</v>
+      </c>
+      <c r="F17">
+        <v>10</v>
+      </c>
+      <c r="G17" s="2">
+        <v>2200</v>
+      </c>
+      <c r="H17" s="2">
+        <v>2400</v>
+      </c>
+      <c r="I17" s="2">
         <v>300</v>
       </c>
-      <c r="J6">
+      <c r="J17" s="2">
+        <v>15</v>
+      </c>
+      <c r="K17" s="2">
+        <v>2000</v>
+      </c>
+      <c r="L17" s="2">
+        <v>900</v>
+      </c>
+      <c r="M17" s="2">
+        <v>28</v>
+      </c>
+      <c r="N17" s="2">
+        <v>42</v>
+      </c>
+      <c r="O17" s="2">
+        <v>10</v>
+      </c>
+      <c r="P17" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q17" s="6">
+        <v>3.6</v>
+      </c>
+      <c r="R17" s="2">
+        <v>20</v>
+      </c>
+      <c r="S17" s="2">
+        <v>170</v>
+      </c>
+      <c r="T17" s="6">
+        <v>2.4</v>
+      </c>
+      <c r="U17" s="6">
+        <v>1.8</v>
+      </c>
+      <c r="V17" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="W17" s="6">
+        <v>1</v>
+      </c>
+      <c r="X17" s="6">
+        <v>1</v>
+      </c>
+      <c r="Y17" s="3">
+        <v>0.84</v>
+      </c>
+      <c r="Z17" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26">
+      <c r="A18" t="s">
+        <v>110</v>
+      </c>
+      <c r="B18" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18">
+        <v>45</v>
+      </c>
+      <c r="D18">
         <v>40</v>
       </c>
-      <c r="K6">
-        <v>1900</v>
-      </c>
-      <c r="L6">
-        <v>280</v>
-      </c>
-      <c r="M6">
+      <c r="E18">
+        <v>4.8</v>
+      </c>
+      <c r="F18">
+        <v>10</v>
+      </c>
+      <c r="G18" s="2">
+        <v>2000</v>
+      </c>
+      <c r="H18" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I18" s="2">
+        <v>300</v>
+      </c>
+      <c r="J18" s="2">
+        <v>15</v>
+      </c>
+      <c r="K18" s="2">
+        <v>1800</v>
+      </c>
+      <c r="L18" s="2">
+        <v>750</v>
+      </c>
+      <c r="M18" s="2">
+        <v>90</v>
+      </c>
+      <c r="N18" s="2">
+        <v>52</v>
+      </c>
+      <c r="O18" s="2">
+        <v>50</v>
+      </c>
+      <c r="P18" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q18" s="6">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="R18" s="2">
+        <v>20</v>
+      </c>
+      <c r="S18" s="2">
+        <v>150</v>
+      </c>
+      <c r="T18" s="6">
+        <v>3.3</v>
+      </c>
+      <c r="U18" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="V18" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="W18" s="6">
+        <v>1</v>
+      </c>
+      <c r="X18" s="6">
+        <v>1</v>
+      </c>
+      <c r="Y18" s="3">
+        <v>0.88</v>
+      </c>
+      <c r="Z18" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26">
+      <c r="A19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19">
+        <v>45</v>
+      </c>
+      <c r="D19">
+        <v>40</v>
+      </c>
+      <c r="E19">
+        <v>2.1</v>
+      </c>
+      <c r="F19">
+        <v>10</v>
+      </c>
+      <c r="G19" s="2">
+        <v>750</v>
+      </c>
+      <c r="H19" s="2">
+        <v>900</v>
+      </c>
+      <c r="I19" s="2">
+        <v>100</v>
+      </c>
+      <c r="J19" s="2">
+        <v>25</v>
+      </c>
+      <c r="K19" s="2">
+        <v>650</v>
+      </c>
+      <c r="L19" s="2">
+        <v>190</v>
+      </c>
+      <c r="M19" s="2">
         <v>12</v>
       </c>
-      <c r="N6">
-        <v>27</v>
-      </c>
-      <c r="O6">
-        <v>20</v>
-      </c>
-      <c r="P6">
+      <c r="N19" s="2">
+        <v>22</v>
+      </c>
+      <c r="O19" s="2">
+        <v>10</v>
+      </c>
+      <c r="P19" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q19" s="6">
+        <v>1.4</v>
+      </c>
+      <c r="R19" s="2">
+        <v>20</v>
+      </c>
+      <c r="S19" s="2">
+        <v>100</v>
+      </c>
+      <c r="T19" s="6">
+        <v>6.8</v>
+      </c>
+      <c r="U19" s="6">
+        <v>4.7</v>
+      </c>
+      <c r="V19" s="6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="W19" s="6">
+        <v>1</v>
+      </c>
+      <c r="X19" s="6">
+        <v>1</v>
+      </c>
+      <c r="Y19" s="3">
+        <v>0.92</v>
+      </c>
+      <c r="Z19" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26">
+      <c r="A20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20">
+        <v>45</v>
+      </c>
+      <c r="D20">
         <v>40</v>
       </c>
-      <c r="Q6">
-        <v>4</v>
-      </c>
-      <c r="R6">
+      <c r="E20">
+        <v>7.6</v>
+      </c>
+      <c r="F20">
+        <v>10</v>
+      </c>
+      <c r="G20" s="2">
+        <v>2400</v>
+      </c>
+      <c r="H20" s="2">
+        <v>1800</v>
+      </c>
+      <c r="I20" s="2">
+        <v>300</v>
+      </c>
+      <c r="J20" s="2">
+        <v>30</v>
+      </c>
+      <c r="K20" s="2">
+        <v>2200</v>
+      </c>
+      <c r="L20" s="2">
+        <v>380</v>
+      </c>
+      <c r="M20" s="2">
+        <v>15</v>
+      </c>
+      <c r="N20" s="2">
+        <v>23</v>
+      </c>
+      <c r="O20" s="2">
+        <v>42</v>
+      </c>
+      <c r="P20" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q20" s="6">
+        <v>3.2</v>
+      </c>
+      <c r="R20" s="2">
+        <v>20</v>
+      </c>
+      <c r="S20" s="2">
+        <v>96</v>
+      </c>
+      <c r="T20" s="6">
+        <v>6.8</v>
+      </c>
+      <c r="U20" s="6">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="V20" s="6">
+        <v>1.4</v>
+      </c>
+      <c r="W20" s="6">
+        <v>1</v>
+      </c>
+      <c r="X20" s="6">
+        <v>1</v>
+      </c>
+      <c r="Y20" s="3">
+        <v>0.88</v>
+      </c>
+      <c r="Z20" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" hidden="1">
+      <c r="A21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21">
+        <v>11.56</v>
+      </c>
+      <c r="D21">
         <v>40</v>
       </c>
-      <c r="S6">
-        <v>52</v>
-      </c>
-      <c r="T6">
-        <v>7.4</v>
-      </c>
-      <c r="U6">
-        <v>5.9</v>
-      </c>
-      <c r="V6">
-        <v>1.3</v>
-      </c>
-      <c r="W6">
+      <c r="E21">
+        <v>4.7</v>
+      </c>
+      <c r="F21">
+        <v>10</v>
+      </c>
+      <c r="G21">
+        <v>2000</v>
+      </c>
+      <c r="H21">
+        <v>2500</v>
+      </c>
+      <c r="I21">
+        <v>360</v>
+      </c>
+      <c r="J21">
+        <v>25</v>
+      </c>
+      <c r="K21">
+        <v>1800</v>
+      </c>
+      <c r="L21">
+        <v>500</v>
+      </c>
+      <c r="M21">
+        <v>17</v>
+      </c>
+      <c r="N21">
+        <v>44</v>
+      </c>
+      <c r="O21">
+        <v>20</v>
+      </c>
+      <c r="P21">
+        <v>20</v>
+      </c>
+      <c r="Q21">
+        <v>3.2</v>
+      </c>
+      <c r="R21">
+        <v>20</v>
+      </c>
+      <c r="S21">
+        <v>100</v>
+      </c>
+      <c r="T21">
+        <v>2.8</v>
+      </c>
+      <c r="U21">
+        <v>2.1</v>
+      </c>
+      <c r="V21">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="W21">
         <v>0.5</v>
       </c>
-      <c r="X6">
+      <c r="X21">
         <v>0.5</v>
       </c>
-      <c r="Y6">
+      <c r="Y21">
+        <v>0.79</v>
+      </c>
+      <c r="Z21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" hidden="1">
+      <c r="A22" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22">
+        <v>11.56</v>
+      </c>
+      <c r="D22">
+        <v>40</v>
+      </c>
+      <c r="E22">
+        <v>0.9</v>
+      </c>
+      <c r="F22">
+        <v>4.5</v>
+      </c>
+      <c r="G22">
+        <v>760</v>
+      </c>
+      <c r="H22">
+        <v>900</v>
+      </c>
+      <c r="I22">
+        <v>100</v>
+      </c>
+      <c r="J22">
+        <v>25</v>
+      </c>
+      <c r="K22">
+        <v>650</v>
+      </c>
+      <c r="L22">
+        <v>95</v>
+      </c>
+      <c r="M22">
+        <v>11</v>
+      </c>
+      <c r="N22">
+        <v>21</v>
+      </c>
+      <c r="O22">
+        <v>20</v>
+      </c>
+      <c r="P22">
+        <v>20</v>
+      </c>
+      <c r="Q22">
+        <v>0.65</v>
+      </c>
+      <c r="R22">
+        <v>20</v>
+      </c>
+      <c r="S22">
+        <v>64</v>
+      </c>
+      <c r="T22">
+        <v>7</v>
+      </c>
+      <c r="U22">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="V22">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="W22">
+        <v>1</v>
+      </c>
+      <c r="X22">
+        <v>1</v>
+      </c>
+      <c r="Y22">
         <v>0.85</v>
       </c>
-      <c r="Z6">
+      <c r="Z22">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+    <row r="23" spans="1:26" hidden="1">
+      <c r="A23" t="s">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7">
+      <c r="B23" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23">
         <f>3.4*3.4</f>
         <v>11.559999999999999</v>
       </c>
-      <c r="D7">
+      <c r="D23">
         <v>80</v>
       </c>
-      <c r="E7">
-        <v>7.5</v>
-      </c>
-      <c r="F7">
-        <v>10</v>
-      </c>
-      <c r="G7">
-        <v>2750</v>
-      </c>
-      <c r="H7">
-        <v>1700</v>
-      </c>
-      <c r="I7">
-        <v>200</v>
-      </c>
-      <c r="J7">
-        <v>40</v>
-      </c>
-      <c r="K7">
-        <v>2400</v>
-      </c>
-      <c r="L7">
-        <v>250</v>
-      </c>
-      <c r="M7">
-        <v>10</v>
-      </c>
-      <c r="N7">
-        <v>100</v>
-      </c>
-      <c r="O7">
-        <v>18</v>
-      </c>
-      <c r="P7">
-        <v>40</v>
-      </c>
-      <c r="Q7">
-        <v>4</v>
-      </c>
-      <c r="R7">
-        <v>40</v>
-      </c>
-      <c r="S7">
-        <v>54</v>
-      </c>
-      <c r="T7">
-        <v>5.5</v>
-      </c>
-      <c r="U7">
-        <v>5.5</v>
-      </c>
-      <c r="V7">
-        <v>1.35</v>
-      </c>
-      <c r="W7">
-        <v>0.5</v>
-      </c>
-      <c r="X7">
-        <v>0.5</v>
-      </c>
-      <c r="Y7">
-        <v>0.7</v>
-      </c>
-      <c r="Z7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>68</v>
-      </c>
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8">
-        <v>11.56</v>
-      </c>
-      <c r="D8">
-        <v>60</v>
-      </c>
-      <c r="E8">
+      <c r="E23">
         <v>5</v>
-      </c>
-      <c r="F8">
-        <v>4.5</v>
-      </c>
-      <c r="G8">
-        <v>2300</v>
-      </c>
-      <c r="H8">
-        <v>1500</v>
-      </c>
-      <c r="I8">
-        <v>400</v>
-      </c>
-      <c r="J8">
-        <v>40</v>
-      </c>
-      <c r="K8">
-        <v>1900</v>
-      </c>
-      <c r="L8">
-        <v>330</v>
-      </c>
-      <c r="M8">
-        <v>16</v>
-      </c>
-      <c r="N8">
-        <v>17</v>
-      </c>
-      <c r="O8">
-        <v>20</v>
-      </c>
-      <c r="P8">
-        <v>30</v>
-      </c>
-      <c r="Q8">
-        <v>4.8</v>
-      </c>
-      <c r="R8">
-        <v>30</v>
-      </c>
-      <c r="S8">
-        <v>66</v>
-      </c>
-      <c r="T8">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="U8">
-        <v>3.9</v>
-      </c>
-      <c r="V8">
-        <v>1.8</v>
-      </c>
-      <c r="W8">
-        <v>0.5</v>
-      </c>
-      <c r="X8">
-        <v>0.5</v>
-      </c>
-      <c r="Y8">
-        <v>0.83</v>
-      </c>
-      <c r="Z8">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>89</v>
-      </c>
-      <c r="B9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9">
-        <v>11.56</v>
-      </c>
-      <c r="D9">
-        <v>60</v>
-      </c>
-      <c r="E9">
-        <v>7</v>
-      </c>
-      <c r="F9">
-        <v>4.5</v>
-      </c>
-      <c r="G9">
-        <v>3000</v>
-      </c>
-      <c r="H9">
-        <v>2000</v>
-      </c>
-      <c r="I9">
-        <v>300</v>
-      </c>
-      <c r="J9">
-        <v>24</v>
-      </c>
-      <c r="K9">
-        <v>2500</v>
-      </c>
-      <c r="L9">
-        <v>700</v>
-      </c>
-      <c r="M9">
-        <v>35</v>
-      </c>
-      <c r="N9">
-        <v>25</v>
-      </c>
-      <c r="O9">
-        <v>10</v>
-      </c>
-      <c r="P9">
-        <v>30</v>
-      </c>
-      <c r="Q9">
-        <v>4.7</v>
-      </c>
-      <c r="R9">
-        <v>30</v>
-      </c>
-      <c r="S9">
-        <v>57</v>
-      </c>
-      <c r="T9">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="U9">
-        <v>2.9</v>
-      </c>
-      <c r="V9">
-        <v>0.85</v>
-      </c>
-      <c r="W9">
-        <v>0.5</v>
-      </c>
-      <c r="X9">
-        <v>0.5</v>
-      </c>
-      <c r="Y9">
-        <v>0.74</v>
-      </c>
-      <c r="Z9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>90</v>
-      </c>
-      <c r="B10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10">
-        <v>11.56</v>
-      </c>
-      <c r="D10">
-        <v>60</v>
-      </c>
-      <c r="E10">
-        <v>6.2</v>
-      </c>
-      <c r="F10">
-        <v>4.5</v>
-      </c>
-      <c r="G10">
-        <v>2200</v>
-      </c>
-      <c r="H10">
-        <v>1600</v>
-      </c>
-      <c r="I10">
-        <v>300</v>
-      </c>
-      <c r="J10">
-        <v>24</v>
-      </c>
-      <c r="K10">
-        <v>2000</v>
-      </c>
-      <c r="L10">
-        <v>560</v>
-      </c>
-      <c r="M10">
-        <v>32</v>
-      </c>
-      <c r="N10">
-        <v>20</v>
-      </c>
-      <c r="O10">
-        <v>10</v>
-      </c>
-      <c r="P10">
-        <v>30</v>
-      </c>
-      <c r="Q10">
-        <v>4.5</v>
-      </c>
-      <c r="R10">
-        <v>30</v>
-      </c>
-      <c r="S10">
-        <v>54</v>
-      </c>
-      <c r="T10">
-        <v>4.8</v>
-      </c>
-      <c r="U10">
-        <v>3.4</v>
-      </c>
-      <c r="V10">
-        <v>0.85</v>
-      </c>
-      <c r="W10">
-        <v>0.5</v>
-      </c>
-      <c r="X10">
-        <v>0.5</v>
-      </c>
-      <c r="Y10">
-        <v>0.75</v>
-      </c>
-      <c r="Z10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>91</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11">
-        <v>11.56</v>
-      </c>
-      <c r="D11">
-        <v>40</v>
-      </c>
-      <c r="E11">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="F11">
-        <v>4.5</v>
-      </c>
-      <c r="G11">
-        <v>4100</v>
-      </c>
-      <c r="H11">
-        <v>2000</v>
-      </c>
-      <c r="I11">
-        <v>350</v>
-      </c>
-      <c r="J11">
-        <v>24</v>
-      </c>
-      <c r="K11">
-        <v>3700</v>
-      </c>
-      <c r="L11">
-        <v>600</v>
-      </c>
-      <c r="M11">
-        <v>90</v>
-      </c>
-      <c r="N11">
-        <v>23</v>
-      </c>
-      <c r="O11">
-        <v>10</v>
-      </c>
-      <c r="P11">
-        <v>20</v>
-      </c>
-      <c r="Q11">
-        <v>4</v>
-      </c>
-      <c r="R11">
-        <v>20</v>
-      </c>
-      <c r="S11">
-        <v>98</v>
-      </c>
-      <c r="T11">
-        <v>2.4</v>
-      </c>
-      <c r="U11">
-        <v>1.8</v>
-      </c>
-      <c r="V11">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="W11">
-        <v>0.5</v>
-      </c>
-      <c r="X11">
-        <v>0.5</v>
-      </c>
-      <c r="Y11">
-        <v>0.73</v>
-      </c>
-      <c r="Z11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>69</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12">
-        <v>11.56</v>
-      </c>
-      <c r="D12">
-        <v>40</v>
-      </c>
-      <c r="E12">
-        <v>4.7</v>
-      </c>
-      <c r="F12">
-        <v>10</v>
-      </c>
-      <c r="G12">
-        <v>2000</v>
-      </c>
-      <c r="H12">
-        <v>2500</v>
-      </c>
-      <c r="I12">
-        <v>360</v>
-      </c>
-      <c r="J12">
-        <v>25</v>
-      </c>
-      <c r="K12">
-        <v>1800</v>
-      </c>
-      <c r="L12">
-        <v>500</v>
-      </c>
-      <c r="M12">
-        <v>17</v>
-      </c>
-      <c r="N12">
-        <v>44</v>
-      </c>
-      <c r="O12">
-        <v>20</v>
-      </c>
-      <c r="P12">
-        <v>20</v>
-      </c>
-      <c r="Q12">
-        <v>3.2</v>
-      </c>
-      <c r="R12">
-        <v>20</v>
-      </c>
-      <c r="S12">
-        <v>100</v>
-      </c>
-      <c r="T12">
-        <v>2.8</v>
-      </c>
-      <c r="U12">
-        <v>2.1</v>
-      </c>
-      <c r="V12">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="W12">
-        <v>0.5</v>
-      </c>
-      <c r="X12">
-        <v>0.5</v>
-      </c>
-      <c r="Y12">
-        <v>0.79</v>
-      </c>
-      <c r="Z12">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>80</v>
-      </c>
-      <c r="B13" t="s">
-        <v>71</v>
-      </c>
-      <c r="C13">
-        <v>45</v>
-      </c>
-      <c r="D13">
-        <v>40</v>
-      </c>
-      <c r="E13">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="F13">
-        <v>10</v>
-      </c>
-      <c r="G13" s="2">
-        <v>2900</v>
-      </c>
-      <c r="H13" s="2">
-        <v>2500</v>
-      </c>
-      <c r="I13" s="2">
-        <v>250</v>
-      </c>
-      <c r="J13" s="2">
-        <v>30</v>
-      </c>
-      <c r="K13" s="2">
-        <v>2800</v>
-      </c>
-      <c r="L13" s="2">
-        <v>400</v>
-      </c>
-      <c r="M13" s="2">
-        <v>30</v>
-      </c>
-      <c r="N13" s="2">
-        <v>41</v>
-      </c>
-      <c r="O13" s="2">
-        <v>20</v>
-      </c>
-      <c r="P13" s="2">
-        <v>20</v>
-      </c>
-      <c r="Q13" s="6">
-        <v>2.5</v>
-      </c>
-      <c r="R13" s="2">
-        <v>20</v>
-      </c>
-      <c r="S13" s="2">
-        <v>203</v>
-      </c>
-      <c r="T13" s="6">
-        <v>3.5</v>
-      </c>
-      <c r="U13" s="6">
-        <v>2.6</v>
-      </c>
-      <c r="V13" s="3">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="W13" s="6">
-        <v>1</v>
-      </c>
-      <c r="X13" s="6">
-        <v>1</v>
-      </c>
-      <c r="Y13" s="3">
-        <v>0.7</v>
-      </c>
-      <c r="Z13" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>83</v>
-      </c>
-      <c r="B14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14">
-        <v>11.56</v>
-      </c>
-      <c r="D14">
-        <v>40</v>
-      </c>
-      <c r="E14">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="F14">
-        <v>4.5</v>
-      </c>
-      <c r="G14">
-        <v>2700</v>
-      </c>
-      <c r="H14">
-        <v>1400</v>
-      </c>
-      <c r="I14">
-        <v>70</v>
-      </c>
-      <c r="J14">
-        <v>30</v>
-      </c>
-      <c r="K14">
-        <v>2450</v>
-      </c>
-      <c r="L14">
-        <v>350</v>
-      </c>
-      <c r="M14">
-        <v>20</v>
-      </c>
-      <c r="N14">
-        <v>10</v>
-      </c>
-      <c r="O14">
-        <v>20.8</v>
-      </c>
-      <c r="P14">
-        <v>20</v>
-      </c>
-      <c r="Q14">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="R14">
-        <v>20</v>
-      </c>
-      <c r="S14">
-        <v>76</v>
-      </c>
-      <c r="T14">
-        <v>3.88</v>
-      </c>
-      <c r="U14">
-        <v>2.71</v>
-      </c>
-      <c r="V14">
-        <v>1.3</v>
-      </c>
-      <c r="W14">
-        <v>0.8</v>
-      </c>
-      <c r="X14">
-        <v>0.8</v>
-      </c>
-      <c r="Y14">
-        <v>0.74</v>
-      </c>
-      <c r="Z14">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>108</v>
-      </c>
-      <c r="B15" t="s">
-        <v>71</v>
-      </c>
-      <c r="C15">
-        <v>45</v>
-      </c>
-      <c r="D15">
-        <v>30</v>
-      </c>
-      <c r="E15">
-        <v>4.5</v>
-      </c>
-      <c r="F15">
-        <v>4.5</v>
-      </c>
-      <c r="G15" s="2">
-        <v>1600</v>
-      </c>
-      <c r="H15" s="2">
-        <v>1500</v>
-      </c>
-      <c r="I15" s="2">
-        <v>200</v>
-      </c>
-      <c r="J15" s="2">
-        <v>15</v>
-      </c>
-      <c r="K15" s="2">
-        <v>1500</v>
-      </c>
-      <c r="L15" s="2">
-        <v>520</v>
-      </c>
-      <c r="M15" s="2">
-        <v>38</v>
-      </c>
-      <c r="N15" s="2">
-        <v>13</v>
-      </c>
-      <c r="O15" s="2">
-        <v>10</v>
-      </c>
-      <c r="P15" s="2">
-        <v>15</v>
-      </c>
-      <c r="Q15" s="2">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="R15" s="2">
-        <v>15</v>
-      </c>
-      <c r="S15" s="2">
-        <v>80</v>
-      </c>
-      <c r="T15" s="6">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="U15" s="6">
-        <v>2.8</v>
-      </c>
-      <c r="V15" s="3">
-        <v>1.4</v>
-      </c>
-      <c r="W15" s="6">
-        <v>1</v>
-      </c>
-      <c r="X15" s="6">
-        <v>1</v>
-      </c>
-      <c r="Y15" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="Z15" s="6">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>82</v>
-      </c>
-      <c r="B16" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16">
-        <v>11.56</v>
-      </c>
-      <c r="D16">
-        <v>40</v>
-      </c>
-      <c r="E16">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="F16">
-        <v>4.5</v>
-      </c>
-      <c r="G16">
-        <v>3600</v>
-      </c>
-      <c r="H16">
-        <v>1600</v>
-      </c>
-      <c r="I16">
-        <v>350</v>
-      </c>
-      <c r="J16">
-        <v>24</v>
-      </c>
-      <c r="K16">
-        <v>3250</v>
-      </c>
-      <c r="L16">
-        <v>400</v>
-      </c>
-      <c r="M16">
-        <v>50</v>
-      </c>
-      <c r="N16">
-        <v>23</v>
-      </c>
-      <c r="O16">
-        <v>10</v>
-      </c>
-      <c r="P16">
-        <v>20</v>
-      </c>
-      <c r="Q16">
-        <v>4.2</v>
-      </c>
-      <c r="R16">
-        <v>20</v>
-      </c>
-      <c r="S16">
-        <v>70</v>
-      </c>
-      <c r="T16">
-        <v>3.85</v>
-      </c>
-      <c r="U16">
-        <v>2.85</v>
-      </c>
-      <c r="V16">
-        <v>1.4</v>
-      </c>
-      <c r="W16">
-        <v>0.5</v>
-      </c>
-      <c r="X16">
-        <v>0.5</v>
-      </c>
-      <c r="Y16">
-        <v>0.74</v>
-      </c>
-      <c r="Z16">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>70</v>
-      </c>
-      <c r="B17" t="s">
-        <v>71</v>
-      </c>
-      <c r="C17">
-        <v>45</v>
-      </c>
-      <c r="D17">
-        <v>40</v>
-      </c>
-      <c r="E17">
-        <v>6.3</v>
-      </c>
-      <c r="F17">
-        <v>4.5</v>
-      </c>
-      <c r="G17" s="2">
-        <v>2100</v>
-      </c>
-      <c r="H17" s="2">
-        <v>1400</v>
-      </c>
-      <c r="I17" s="2">
-        <v>150</v>
-      </c>
-      <c r="J17" s="2">
-        <v>24</v>
-      </c>
-      <c r="K17" s="2">
-        <v>2000</v>
-      </c>
-      <c r="L17" s="2">
-        <v>350</v>
-      </c>
-      <c r="M17" s="2">
-        <v>14</v>
-      </c>
-      <c r="N17" s="2">
-        <v>13</v>
-      </c>
-      <c r="O17" s="2">
-        <v>10</v>
-      </c>
-      <c r="P17" s="2">
-        <v>20</v>
-      </c>
-      <c r="Q17" s="6">
-        <v>2.1</v>
-      </c>
-      <c r="R17" s="2">
-        <v>20</v>
-      </c>
-      <c r="S17" s="2">
-        <v>50</v>
-      </c>
-      <c r="T17" s="3">
-        <v>5</v>
-      </c>
-      <c r="U17" s="3">
-        <v>3.5</v>
-      </c>
-      <c r="V17" s="3">
-        <v>1.45</v>
-      </c>
-      <c r="W17" s="3">
-        <v>1</v>
-      </c>
-      <c r="X17" s="3">
-        <v>1</v>
-      </c>
-      <c r="Y17" s="3">
-        <v>0.74</v>
-      </c>
-      <c r="Z17" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>73</v>
-      </c>
-      <c r="B18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18">
-        <v>11.56</v>
-      </c>
-      <c r="D18">
-        <v>40</v>
-      </c>
-      <c r="E18">
-        <v>3.2</v>
-      </c>
-      <c r="F18">
-        <v>4.5</v>
-      </c>
-      <c r="G18" s="2">
-        <v>2500</v>
-      </c>
-      <c r="H18" s="2">
-        <v>1500</v>
-      </c>
-      <c r="I18" s="2">
-        <v>200</v>
-      </c>
-      <c r="J18" s="2">
-        <v>24</v>
-      </c>
-      <c r="K18" s="2">
-        <v>1375</v>
-      </c>
-      <c r="L18" s="2">
-        <v>1130</v>
-      </c>
-      <c r="M18" s="2">
-        <v>50</v>
-      </c>
-      <c r="N18" s="2">
-        <v>17</v>
-      </c>
-      <c r="O18" s="2">
-        <v>10</v>
-      </c>
-      <c r="P18" s="2">
-        <v>20</v>
-      </c>
-      <c r="Q18" s="2">
-        <v>2.5</v>
-      </c>
-      <c r="R18" s="2">
-        <v>20</v>
-      </c>
-      <c r="S18" s="2">
-        <v>65</v>
-      </c>
-      <c r="T18" s="3">
-        <v>6.2</v>
-      </c>
-      <c r="U18" s="3">
-        <v>4.5</v>
-      </c>
-      <c r="V18" s="3">
-        <v>0.9</v>
-      </c>
-      <c r="W18" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="X18" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="Y18" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="Z18" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>79</v>
-      </c>
-      <c r="B19" t="s">
-        <v>71</v>
-      </c>
-      <c r="C19">
-        <v>45</v>
-      </c>
-      <c r="D19">
-        <v>40</v>
-      </c>
-      <c r="E19">
-        <v>2.1</v>
-      </c>
-      <c r="F19">
-        <v>10</v>
-      </c>
-      <c r="G19" s="2">
-        <v>750</v>
-      </c>
-      <c r="H19" s="2">
-        <v>900</v>
-      </c>
-      <c r="I19" s="2">
-        <v>100</v>
-      </c>
-      <c r="J19" s="2">
-        <v>25</v>
-      </c>
-      <c r="K19" s="2">
-        <v>650</v>
-      </c>
-      <c r="L19" s="2">
-        <v>190</v>
-      </c>
-      <c r="M19" s="2">
-        <v>12</v>
-      </c>
-      <c r="N19" s="2">
-        <v>22</v>
-      </c>
-      <c r="O19" s="2">
-        <v>10</v>
-      </c>
-      <c r="P19" s="2">
-        <v>20</v>
-      </c>
-      <c r="Q19" s="6">
-        <v>1.4</v>
-      </c>
-      <c r="R19" s="2">
-        <v>20</v>
-      </c>
-      <c r="S19" s="2">
-        <v>100</v>
-      </c>
-      <c r="T19" s="6">
-        <v>6.8</v>
-      </c>
-      <c r="U19" s="6">
-        <v>4.7</v>
-      </c>
-      <c r="V19" s="6">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="W19" s="6">
-        <v>1</v>
-      </c>
-      <c r="X19" s="6">
-        <v>1</v>
-      </c>
-      <c r="Y19" s="3">
-        <v>0.92</v>
-      </c>
-      <c r="Z19" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>78</v>
-      </c>
-      <c r="B20" t="s">
-        <v>71</v>
-      </c>
-      <c r="C20">
-        <v>45</v>
-      </c>
-      <c r="D20">
-        <v>40</v>
-      </c>
-      <c r="E20">
-        <v>7.6</v>
-      </c>
-      <c r="F20">
-        <v>10</v>
-      </c>
-      <c r="G20" s="2">
-        <v>2400</v>
-      </c>
-      <c r="H20" s="2">
-        <v>1800</v>
-      </c>
-      <c r="I20" s="2">
-        <v>300</v>
-      </c>
-      <c r="J20" s="2">
-        <v>30</v>
-      </c>
-      <c r="K20" s="2">
-        <v>2200</v>
-      </c>
-      <c r="L20" s="2">
-        <v>380</v>
-      </c>
-      <c r="M20" s="2">
-        <v>15</v>
-      </c>
-      <c r="N20" s="2">
-        <v>23</v>
-      </c>
-      <c r="O20" s="2">
-        <v>42</v>
-      </c>
-      <c r="P20" s="2">
-        <v>20</v>
-      </c>
-      <c r="Q20" s="6">
-        <v>3.2</v>
-      </c>
-      <c r="R20" s="2">
-        <v>20</v>
-      </c>
-      <c r="S20" s="2">
-        <v>96</v>
-      </c>
-      <c r="T20" s="6">
-        <v>6.8</v>
-      </c>
-      <c r="U20" s="6">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="V20" s="6">
-        <v>1.4</v>
-      </c>
-      <c r="W20" s="6">
-        <v>1</v>
-      </c>
-      <c r="X20" s="6">
-        <v>1</v>
-      </c>
-      <c r="Y20" s="3">
-        <v>0.88</v>
-      </c>
-      <c r="Z20" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="21" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>85</v>
-      </c>
-      <c r="B21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C21">
-        <v>11.56</v>
-      </c>
-      <c r="D21">
-        <v>40</v>
-      </c>
-      <c r="E21" s="7">
-        <v>2.75</v>
-      </c>
-      <c r="F21" s="7">
-        <v>4.5</v>
-      </c>
-      <c r="G21" s="2">
-        <v>1550</v>
-      </c>
-      <c r="H21" s="2">
-        <v>1000</v>
-      </c>
-      <c r="I21" s="2">
-        <v>100</v>
-      </c>
-      <c r="J21" s="2">
-        <v>30</v>
-      </c>
-      <c r="K21" s="2">
-        <v>1450</v>
-      </c>
-      <c r="L21" s="2">
-        <v>200</v>
-      </c>
-      <c r="M21" s="2">
-        <v>13</v>
-      </c>
-      <c r="N21" s="2">
-        <v>21</v>
-      </c>
-      <c r="O21" s="2">
-        <v>20</v>
-      </c>
-      <c r="P21" s="2">
-        <v>20</v>
-      </c>
-      <c r="Q21" s="6">
-        <v>3</v>
-      </c>
-      <c r="R21" s="2">
-        <v>20</v>
-      </c>
-      <c r="S21" s="2">
-        <v>70</v>
-      </c>
-      <c r="T21" s="6">
-        <v>7.4</v>
-      </c>
-      <c r="U21" s="6">
-        <v>5</v>
-      </c>
-      <c r="V21" s="6">
-        <v>1.8</v>
-      </c>
-      <c r="W21" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="X21" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="Y21" s="6">
-        <v>0.7</v>
-      </c>
-      <c r="Z21" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>86</v>
-      </c>
-      <c r="B22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C22">
-        <v>11.56</v>
-      </c>
-      <c r="D22">
-        <v>40</v>
-      </c>
-      <c r="E22">
-        <v>0.9</v>
-      </c>
-      <c r="F22">
-        <v>4.5</v>
-      </c>
-      <c r="G22">
-        <v>760</v>
-      </c>
-      <c r="H22">
-        <v>900</v>
-      </c>
-      <c r="I22">
-        <v>100</v>
-      </c>
-      <c r="J22">
-        <v>25</v>
-      </c>
-      <c r="K22">
-        <v>650</v>
-      </c>
-      <c r="L22">
-        <v>95</v>
-      </c>
-      <c r="M22">
-        <v>11</v>
-      </c>
-      <c r="N22">
-        <v>21</v>
-      </c>
-      <c r="O22">
-        <v>20</v>
-      </c>
-      <c r="P22">
-        <v>20</v>
-      </c>
-      <c r="Q22">
-        <v>0.65</v>
-      </c>
-      <c r="R22">
-        <v>20</v>
-      </c>
-      <c r="S22">
-        <v>64</v>
-      </c>
-      <c r="T22">
-        <v>7</v>
-      </c>
-      <c r="U22">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="V22">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="W22">
-        <v>1</v>
-      </c>
-      <c r="X22">
-        <v>1</v>
-      </c>
-      <c r="Y22">
-        <v>0.85</v>
-      </c>
-      <c r="Z22">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>74</v>
-      </c>
-      <c r="B23" t="s">
-        <v>8</v>
-      </c>
-      <c r="C23">
-        <v>11.56</v>
-      </c>
-      <c r="D23">
-        <v>40</v>
-      </c>
-      <c r="E23">
-        <v>2.9</v>
       </c>
       <c r="F23">
         <v>4.5</v>
       </c>
       <c r="G23">
-        <v>950</v>
+        <v>2100</v>
       </c>
       <c r="H23">
-        <v>500</v>
+        <v>1200</v>
       </c>
       <c r="I23">
-        <v>70</v>
+        <v>300</v>
       </c>
       <c r="J23">
-        <v>25</v>
-      </c>
-      <c r="K23" s="2">
-        <v>875</v>
-      </c>
-      <c r="L23" s="2">
-        <v>150</v>
-      </c>
-      <c r="M23" s="2">
-        <v>16</v>
-      </c>
-      <c r="N23" s="2">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="O23" s="2">
-        <v>10</v>
-      </c>
-      <c r="P23" s="2">
-        <v>20</v>
-      </c>
-      <c r="Q23" s="6">
-        <v>0.9</v>
+        <v>40</v>
+      </c>
+      <c r="K23">
+        <v>1900</v>
+      </c>
+      <c r="L23">
+        <v>280</v>
+      </c>
+      <c r="M23">
+        <v>12</v>
+      </c>
+      <c r="N23">
+        <v>27</v>
+      </c>
+      <c r="O23">
+        <v>20</v>
+      </c>
+      <c r="P23">
+        <v>40</v>
+      </c>
+      <c r="Q23">
+        <v>4</v>
       </c>
       <c r="R23">
-        <v>20</v>
-      </c>
-      <c r="S23" s="2">
+        <v>40</v>
+      </c>
+      <c r="S23">
+        <v>52</v>
+      </c>
+      <c r="T23">
+        <v>7.4</v>
+      </c>
+      <c r="U23">
+        <v>5.9</v>
+      </c>
+      <c r="V23">
+        <v>1.3</v>
+      </c>
+      <c r="W23">
+        <v>0.5</v>
+      </c>
+      <c r="X23">
+        <v>0.5</v>
+      </c>
+      <c r="Y23">
+        <v>0.85</v>
+      </c>
+      <c r="Z23">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26">
+      <c r="A24" t="s">
+        <v>111</v>
+      </c>
+      <c r="B24" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24">
         <v>45</v>
       </c>
-      <c r="T23">
-        <v>9.6</v>
-      </c>
-      <c r="U23">
-        <v>6.7</v>
-      </c>
-      <c r="V23" s="4">
-        <v>3.2</v>
-      </c>
-      <c r="W23" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="X23" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="Y23" s="3">
-        <v>0.82</v>
-      </c>
-      <c r="Z23" s="3">
-        <v>10</v>
+      <c r="D24">
+        <v>40</v>
+      </c>
+      <c r="E24">
+        <v>7</v>
+      </c>
+      <c r="F24">
+        <v>10</v>
+      </c>
+      <c r="G24" s="2">
+        <v>1900</v>
+      </c>
+      <c r="H24" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I24" s="2">
+        <v>300</v>
+      </c>
+      <c r="J24" s="2">
+        <v>15</v>
+      </c>
+      <c r="K24" s="2">
+        <v>1600</v>
+      </c>
+      <c r="L24" s="2">
+        <v>780</v>
+      </c>
+      <c r="M24" s="2">
+        <v>80</v>
+      </c>
+      <c r="N24" s="2">
+        <v>23</v>
+      </c>
+      <c r="O24" s="2">
+        <v>50</v>
+      </c>
+      <c r="P24" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q24" s="6">
+        <v>4</v>
+      </c>
+      <c r="R24" s="2">
+        <v>20</v>
+      </c>
+      <c r="S24" s="2">
+        <v>140</v>
+      </c>
+      <c r="T24" s="6">
+        <v>3.1</v>
+      </c>
+      <c r="U24" s="6">
+        <v>2.7</v>
+      </c>
+      <c r="V24" s="3">
+        <v>2.8</v>
+      </c>
+      <c r="W24" s="6">
+        <v>1</v>
+      </c>
+      <c r="X24" s="6">
+        <v>1</v>
+      </c>
+      <c r="Y24" s="3">
+        <v>0.89</v>
+      </c>
+      <c r="Z24" s="2">
+        <v>49</v>
       </c>
     </row>
-    <row r="24" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>66</v>
-      </c>
-      <c r="B24" t="s">
-        <v>8</v>
-      </c>
-      <c r="C24">
-        <v>11.56</v>
-      </c>
-      <c r="D24">
-        <v>30</v>
-      </c>
-      <c r="E24">
-        <v>3.7</v>
-      </c>
-      <c r="F24">
-        <v>4.5</v>
-      </c>
-      <c r="G24" s="2">
-        <v>1200</v>
-      </c>
-      <c r="H24" s="2">
-        <v>1200</v>
-      </c>
-      <c r="I24" s="2">
-        <v>150</v>
-      </c>
-      <c r="J24" s="2">
-        <v>12</v>
-      </c>
-      <c r="K24" s="2">
-        <v>1175</v>
-      </c>
-      <c r="L24" s="2">
-        <v>450</v>
-      </c>
-      <c r="M24" s="2">
-        <v>30</v>
-      </c>
-      <c r="N24" s="2">
-        <v>10</v>
-      </c>
-      <c r="O24" s="2">
-        <v>10</v>
-      </c>
-      <c r="P24">
-        <v>15</v>
-      </c>
-      <c r="Q24">
-        <v>1.4</v>
-      </c>
-      <c r="R24">
-        <v>15</v>
-      </c>
-      <c r="S24">
-        <v>53</v>
-      </c>
-      <c r="T24">
-        <v>3.8</v>
-      </c>
-      <c r="U24">
-        <v>2.7</v>
-      </c>
-      <c r="V24">
-        <v>0.9</v>
-      </c>
-      <c r="W24" s="3">
-        <v>0.8</v>
-      </c>
-      <c r="X24" s="3">
-        <v>0.8</v>
-      </c>
-      <c r="Y24">
-        <v>0.76</v>
-      </c>
-      <c r="Z24">
+    <row r="25" spans="1:26">
+      <c r="A25" t="s">
+        <v>112</v>
+      </c>
+      <c r="B25" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25">
+        <v>45</v>
+      </c>
+      <c r="D25">
+        <v>40</v>
+      </c>
+      <c r="E25">
         <v>5</v>
       </c>
-    </row>
-    <row r="25" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>106</v>
-      </c>
-      <c r="B25" t="s">
-        <v>8</v>
-      </c>
-      <c r="C25">
-        <v>11.56</v>
-      </c>
-      <c r="D25">
-        <v>30</v>
-      </c>
-      <c r="E25">
-        <v>4.2</v>
-      </c>
       <c r="F25">
-        <v>4.5</v>
+        <v>10</v>
       </c>
       <c r="G25" s="2">
-        <v>1700</v>
+        <v>1400</v>
       </c>
       <c r="H25" s="2">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="I25" s="2">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="J25" s="2">
         <v>15</v>
       </c>
       <c r="K25" s="2">
-        <v>1550</v>
+        <v>1100</v>
       </c>
       <c r="L25" s="2">
-        <v>550</v>
+        <v>580</v>
       </c>
       <c r="M25" s="2">
         <v>60</v>
       </c>
       <c r="N25" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="O25" s="2">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="P25" s="2">
-        <v>15</v>
-      </c>
-      <c r="Q25" s="2">
-        <v>2.6</v>
+        <v>20</v>
+      </c>
+      <c r="Q25" s="6">
+        <v>3</v>
       </c>
       <c r="R25" s="2">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="S25" s="2">
-        <v>67</v>
-      </c>
-      <c r="T25" s="3">
-        <v>4.8</v>
-      </c>
-      <c r="U25" s="3">
-        <v>2.7</v>
-      </c>
-      <c r="V25" s="2">
-        <v>1.4</v>
+        <v>100</v>
+      </c>
+      <c r="T25" s="6">
+        <v>4</v>
+      </c>
+      <c r="U25" s="6">
+        <v>3.5</v>
+      </c>
+      <c r="V25" s="3">
+        <v>2.1</v>
       </c>
       <c r="W25" s="3">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="X25" s="3">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="Y25" s="3">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="Z25" s="2">
-        <v>10</v>
+        <v>35</v>
       </c>
     </row>
-    <row r="26" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:26" hidden="1">
       <c r="A26" t="s">
-        <v>65</v>
+        <v>7</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="C26">
         <v>11.56</v>
       </c>
       <c r="D26">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="E26">
-        <v>9.6</v>
+        <v>5</v>
       </c>
       <c r="F26">
         <v>4.5</v>
       </c>
-      <c r="G26" s="2">
-        <v>3000</v>
-      </c>
-      <c r="H26" s="2">
-        <v>3000</v>
-      </c>
-      <c r="I26" s="2">
-        <v>500</v>
-      </c>
-      <c r="J26" s="2">
-        <v>12</v>
-      </c>
-      <c r="K26" s="2">
-        <v>2975</v>
-      </c>
-      <c r="L26" s="2">
-        <v>1200</v>
-      </c>
-      <c r="M26" s="2">
-        <v>200</v>
-      </c>
-      <c r="N26" s="2">
+      <c r="G26">
+        <v>2300</v>
+      </c>
+      <c r="H26">
+        <v>1500</v>
+      </c>
+      <c r="I26">
+        <v>400</v>
+      </c>
+      <c r="J26">
+        <v>40</v>
+      </c>
+      <c r="K26">
+        <v>1900</v>
+      </c>
+      <c r="L26">
+        <v>330</v>
+      </c>
+      <c r="M26">
+        <v>16</v>
+      </c>
+      <c r="N26">
+        <v>17</v>
+      </c>
+      <c r="O26">
+        <v>20</v>
+      </c>
+      <c r="P26">
+        <v>30</v>
+      </c>
+      <c r="Q26">
+        <v>4.8</v>
+      </c>
+      <c r="R26">
+        <v>30</v>
+      </c>
+      <c r="S26">
+        <v>66</v>
+      </c>
+      <c r="T26">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="U26">
+        <v>3.9</v>
+      </c>
+      <c r="V26">
+        <v>1.8</v>
+      </c>
+      <c r="W26">
+        <v>0.5</v>
+      </c>
+      <c r="X26">
+        <v>0.5</v>
+      </c>
+      <c r="Y26">
+        <v>0.83</v>
+      </c>
+      <c r="Z26">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" hidden="1">
+      <c r="A27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" t="s">
+        <v>45</v>
+      </c>
+      <c r="C27" s="2">
+        <v>1</v>
+      </c>
+      <c r="D27" s="2">
+        <v>0</v>
+      </c>
+      <c r="E27" s="5">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="F27" s="5">
+        <v>4.5</v>
+      </c>
+      <c r="G27" s="5">
+        <v>1</v>
+      </c>
+      <c r="H27" s="5">
+        <v>1</v>
+      </c>
+      <c r="I27" s="5">
+        <v>1</v>
+      </c>
+      <c r="J27" s="5">
         <v>25</v>
       </c>
-      <c r="O26" s="2">
-        <v>10</v>
-      </c>
-      <c r="P26">
-        <v>15</v>
-      </c>
-      <c r="Q26">
-        <v>3.9</v>
-      </c>
-      <c r="R26">
-        <v>15</v>
-      </c>
-      <c r="S26">
-        <v>95</v>
-      </c>
-      <c r="T26">
-        <v>1.5</v>
-      </c>
-      <c r="U26">
-        <v>0.95</v>
-      </c>
-      <c r="V26">
-        <v>0.42</v>
-      </c>
-      <c r="W26" s="3">
-        <v>0.8</v>
-      </c>
-      <c r="X26" s="3">
-        <v>0.8</v>
-      </c>
-      <c r="Y26">
-        <v>0.73</v>
-      </c>
-      <c r="Z26">
-        <v>5</v>
+      <c r="K27" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="L27" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="M27" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="N27" s="5">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="O27" s="5">
+        <v>1</v>
+      </c>
+      <c r="P27" s="5">
+        <v>20</v>
+      </c>
+      <c r="Q27" s="5">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="R27" s="5">
+        <v>20</v>
+      </c>
+      <c r="S27" s="5">
+        <v>20</v>
+      </c>
+      <c r="T27" s="6">
+        <v>1E-3</v>
+      </c>
+      <c r="U27" s="6">
+        <v>1E-3</v>
+      </c>
+      <c r="V27" s="5">
+        <v>1</v>
+      </c>
+      <c r="W27" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="X27" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="Y27" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="Z27" s="5">
+        <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>104</v>
-      </c>
-      <c r="B27" t="s">
-        <v>8</v>
-      </c>
-      <c r="C27">
-        <v>11.56</v>
-      </c>
-      <c r="D27">
-        <v>30</v>
-      </c>
-      <c r="E27">
-        <v>11.3</v>
-      </c>
-      <c r="F27">
-        <v>4.5</v>
-      </c>
-      <c r="G27" s="2">
-        <v>4000</v>
-      </c>
-      <c r="H27" s="2">
-        <v>3000</v>
-      </c>
-      <c r="I27" s="2">
-        <v>500</v>
-      </c>
-      <c r="J27" s="2">
-        <v>12</v>
-      </c>
-      <c r="K27" s="2">
-        <v>3500</v>
-      </c>
-      <c r="L27" s="2">
-        <v>1400</v>
-      </c>
-      <c r="M27" s="2">
-        <v>100</v>
-      </c>
-      <c r="N27" s="2">
-        <v>34</v>
-      </c>
-      <c r="O27" s="2">
-        <v>10</v>
-      </c>
-      <c r="P27">
-        <v>15</v>
-      </c>
-      <c r="Q27">
-        <v>3</v>
-      </c>
-      <c r="R27">
-        <v>15</v>
-      </c>
-      <c r="S27">
-        <v>117</v>
-      </c>
-      <c r="T27">
-        <v>1.25</v>
-      </c>
-      <c r="U27">
-        <v>0.88</v>
-      </c>
-      <c r="V27">
-        <v>0.75</v>
-      </c>
-      <c r="W27" s="3">
-        <v>0.8</v>
-      </c>
-      <c r="X27" s="3">
-        <v>0.8</v>
-      </c>
-      <c r="Y27">
-        <v>0.73</v>
-      </c>
-      <c r="Z27">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:26" hidden="1">
       <c r="A28" t="s">
-        <v>107</v>
+        <v>18</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="C28">
-        <v>11.56</v>
+        <v>45</v>
       </c>
       <c r="D28">
         <v>30</v>
       </c>
       <c r="E28">
-        <v>11.2</v>
+        <v>4.5</v>
       </c>
       <c r="F28">
         <v>4.5</v>
       </c>
       <c r="G28" s="2">
-        <v>4000</v>
+        <v>1600</v>
       </c>
       <c r="H28" s="2">
-        <v>4000</v>
+        <v>1500</v>
       </c>
       <c r="I28" s="2">
-        <v>550</v>
+        <v>200</v>
       </c>
       <c r="J28" s="2">
         <v>15</v>
       </c>
       <c r="K28" s="2">
-        <v>3700</v>
+        <v>1500</v>
       </c>
       <c r="L28" s="2">
-        <v>1800</v>
+        <v>520</v>
       </c>
       <c r="M28" s="2">
-        <v>160</v>
+        <v>38</v>
       </c>
       <c r="N28" s="2">
+        <v>13</v>
+      </c>
+      <c r="O28" s="2">
+        <v>10</v>
+      </c>
+      <c r="P28" s="2">
+        <v>15</v>
+      </c>
+      <c r="Q28" s="2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="R28" s="2">
+        <v>15</v>
+      </c>
+      <c r="S28" s="2">
+        <v>80</v>
+      </c>
+      <c r="T28" s="6">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="U28" s="6">
+        <v>2.8</v>
+      </c>
+      <c r="V28" s="3">
+        <v>1.4</v>
+      </c>
+      <c r="W28" s="6">
+        <v>1</v>
+      </c>
+      <c r="X28" s="6">
+        <v>1</v>
+      </c>
+      <c r="Y28" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="Z28" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" hidden="1">
+      <c r="A29" t="s">
+        <v>113</v>
+      </c>
+      <c r="B29" t="s">
+        <v>47</v>
+      </c>
+      <c r="C29">
         <v>45</v>
-      </c>
-      <c r="O28" s="2">
-        <v>10</v>
-      </c>
-      <c r="P28" s="2">
-        <v>15</v>
-      </c>
-      <c r="Q28" s="2">
-        <v>5.8</v>
-      </c>
-      <c r="R28" s="2">
-        <v>15</v>
-      </c>
-      <c r="S28" s="2">
-        <v>84</v>
-      </c>
-      <c r="T28" s="3">
-        <v>1.75</v>
-      </c>
-      <c r="U28" s="3">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="V28" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="W28" s="3">
-        <v>0.8</v>
-      </c>
-      <c r="X28" s="3">
-        <v>0.8</v>
-      </c>
-      <c r="Y28" s="3">
-        <v>0.45</v>
-      </c>
-      <c r="Z28" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>77</v>
-      </c>
-      <c r="B29" t="s">
-        <v>8</v>
-      </c>
-      <c r="C29">
-        <v>11.56</v>
       </c>
       <c r="D29">
         <v>30</v>
       </c>
       <c r="E29">
-        <v>3.6</v>
+        <v>11.4</v>
       </c>
       <c r="F29">
-        <v>10</v>
+        <v>4.5</v>
       </c>
       <c r="G29" s="2">
-        <v>1450</v>
+        <v>4600</v>
       </c>
       <c r="H29" s="2">
-        <v>1100</v>
+        <v>5500</v>
       </c>
       <c r="I29" s="2">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="J29" s="2">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="K29" s="2">
-        <v>1300</v>
+        <v>4200</v>
       </c>
       <c r="L29" s="2">
-        <v>250</v>
+        <v>1800</v>
       </c>
       <c r="M29" s="2">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="N29" s="2">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="O29" s="2">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="P29" s="2">
         <v>15</v>
       </c>
       <c r="Q29" s="6">
-        <v>2.2000000000000002</v>
+        <v>2.4</v>
       </c>
       <c r="R29" s="2">
         <v>15</v>
       </c>
       <c r="S29" s="2">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="T29" s="6">
-        <v>6</v>
+        <v>1.8</v>
       </c>
       <c r="U29" s="6">
-        <v>4.0999999999999996</v>
+        <v>1</v>
       </c>
       <c r="V29" s="6">
-        <v>1.7</v>
+        <v>1.2</v>
       </c>
       <c r="W29" s="6">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="X29" s="6">
-        <v>0.8</v>
-      </c>
-      <c r="Y29" s="6">
-        <v>0.7</v>
+        <v>0.9</v>
+      </c>
+      <c r="Y29" s="3">
+        <v>0.75</v>
       </c>
       <c r="Z29" s="6">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:26">
       <c r="A30" t="s">
-        <v>84</v>
+        <v>13</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="C30">
-        <v>11.56</v>
+        <v>45</v>
       </c>
       <c r="D30">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E30">
-        <v>8.5</v>
+        <v>6.3</v>
       </c>
       <c r="F30">
-        <v>10</v>
+        <v>4.5</v>
       </c>
       <c r="G30" s="2">
-        <v>3200</v>
+        <v>2100</v>
       </c>
       <c r="H30" s="2">
-        <v>2500</v>
+        <v>1400</v>
       </c>
       <c r="I30" s="2">
-        <v>500</v>
+        <v>150</v>
       </c>
       <c r="J30" s="2">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K30" s="2">
-        <v>2800</v>
+        <v>2000</v>
       </c>
       <c r="L30" s="2">
-        <v>600</v>
+        <v>350</v>
       </c>
       <c r="M30" s="2">
+        <v>14</v>
+      </c>
+      <c r="N30" s="2">
+        <v>13</v>
+      </c>
+      <c r="O30" s="2">
+        <v>10</v>
+      </c>
+      <c r="P30" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q30" s="6">
+        <v>2.1</v>
+      </c>
+      <c r="R30" s="2">
+        <v>20</v>
+      </c>
+      <c r="S30" s="2">
         <v>50</v>
       </c>
-      <c r="N30" s="2">
-        <v>36.5</v>
-      </c>
-      <c r="O30" s="2">
-        <v>20</v>
-      </c>
-      <c r="P30" s="2">
-        <v>15</v>
-      </c>
-      <c r="Q30" s="6">
-        <v>4</v>
-      </c>
-      <c r="R30" s="2">
-        <v>15</v>
-      </c>
-      <c r="S30" s="2">
-        <v>125</v>
-      </c>
-      <c r="T30" s="6">
-        <v>2.4500000000000002</v>
-      </c>
-      <c r="U30" s="6">
-        <v>1.55</v>
-      </c>
-      <c r="V30" s="6">
-        <v>0.7</v>
-      </c>
-      <c r="W30" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="X30" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="Y30" s="6">
-        <v>0.68</v>
-      </c>
-      <c r="Z30" s="6">
-        <v>1</v>
+      <c r="T30" s="3">
+        <v>5</v>
+      </c>
+      <c r="U30" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="V30" s="3">
+        <v>1.45</v>
+      </c>
+      <c r="W30" s="3">
+        <v>1</v>
+      </c>
+      <c r="X30" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y30" s="3">
+        <v>0.74</v>
+      </c>
+      <c r="Z30" s="2">
+        <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:26" hidden="1">
       <c r="A31" t="s">
-        <v>81</v>
+        <v>19</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="C31">
         <v>11.56</v>
       </c>
       <c r="D31">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E31">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="F31">
         <v>4.5</v>
       </c>
-      <c r="G31">
-        <v>1600</v>
-      </c>
-      <c r="H31">
-        <v>1280</v>
-      </c>
-      <c r="I31">
+      <c r="G31" s="2">
+        <v>2500</v>
+      </c>
+      <c r="H31" s="2">
+        <v>1500</v>
+      </c>
+      <c r="I31" s="2">
         <v>200</v>
       </c>
       <c r="J31" s="2">
-        <v>25</v>
-      </c>
-      <c r="K31">
-        <v>1400</v>
-      </c>
-      <c r="L31">
-        <v>250</v>
-      </c>
-      <c r="M31">
-        <v>36</v>
+        <v>24</v>
+      </c>
+      <c r="K31" s="2">
+        <v>1375</v>
+      </c>
+      <c r="L31" s="2">
+        <v>1130</v>
+      </c>
+      <c r="M31" s="2">
+        <v>50</v>
       </c>
       <c r="N31" s="2">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="O31" s="2">
         <v>10</v>
       </c>
       <c r="P31" s="2">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="Q31" s="2">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="R31" s="2">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="S31" s="2">
         <v>65</v>
       </c>
-      <c r="T31">
-        <v>6.8</v>
-      </c>
-      <c r="U31">
-        <v>4.25</v>
-      </c>
-      <c r="V31">
-        <v>1.65</v>
-      </c>
-      <c r="W31">
-        <v>0.8</v>
-      </c>
-      <c r="X31">
-        <v>0.8</v>
-      </c>
-      <c r="Y31">
-        <v>0.76</v>
-      </c>
-      <c r="Z31">
-        <v>5</v>
+      <c r="T31" s="3">
+        <v>6.2</v>
+      </c>
+      <c r="U31" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="V31" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="W31" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="X31" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="Y31" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="Z31" s="3">
+        <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:26" hidden="1">
       <c r="A32" t="s">
-        <v>87</v>
+        <v>25</v>
       </c>
       <c r="B32" t="s">
-        <v>88</v>
+        <v>46</v>
       </c>
       <c r="C32">
-        <v>45</v>
+        <v>11.56</v>
       </c>
       <c r="D32">
         <v>30</v>
       </c>
       <c r="E32">
-        <v>19</v>
+        <v>4.2</v>
       </c>
       <c r="F32">
         <v>4.5</v>
       </c>
       <c r="G32" s="2">
-        <v>8500</v>
+        <v>1700</v>
       </c>
       <c r="H32" s="2">
-        <v>6000</v>
+        <v>1600</v>
       </c>
       <c r="I32" s="2">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="J32" s="2">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="K32" s="2">
-        <v>7500</v>
+        <v>1550</v>
       </c>
       <c r="L32" s="2">
-        <v>1400</v>
+        <v>550</v>
       </c>
       <c r="M32" s="2">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="N32" s="2">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="O32" s="2">
-        <v>87</v>
+        <v>10</v>
       </c>
       <c r="P32" s="2">
         <v>15</v>
       </c>
       <c r="Q32" s="2">
-        <v>9.6999999999999993</v>
+        <v>2.6</v>
       </c>
       <c r="R32" s="2">
         <v>15</v>
       </c>
       <c r="S32" s="2">
-        <v>120</v>
+        <v>67</v>
       </c>
       <c r="T32" s="3">
-        <v>2</v>
+        <v>4.8</v>
       </c>
       <c r="U32" s="3">
-        <v>1.7</v>
-      </c>
-      <c r="V32" s="3">
-        <v>1.9</v>
+        <v>2.7</v>
+      </c>
+      <c r="V32" s="2">
+        <v>1.4</v>
       </c>
       <c r="W32" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="X32" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="Y32" s="3">
         <v>0.75</v>
       </c>
-      <c r="X32" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="Y32" s="3">
-        <v>0.81</v>
-      </c>
       <c r="Z32" s="2">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:26" hidden="1">
       <c r="A33" t="s">
-        <v>92</v>
+        <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="C33">
         <v>11.56</v>
@@ -6822,34 +6830,34 @@
         <v>30</v>
       </c>
       <c r="E33">
-        <v>2.1</v>
+        <v>4</v>
       </c>
       <c r="F33">
         <v>4.5</v>
       </c>
-      <c r="G33" s="2">
-        <v>735</v>
-      </c>
-      <c r="H33" s="2">
-        <v>680</v>
-      </c>
-      <c r="I33" s="2">
-        <v>100</v>
+      <c r="G33">
+        <v>1600</v>
+      </c>
+      <c r="H33">
+        <v>1280</v>
+      </c>
+      <c r="I33">
+        <v>200</v>
       </c>
       <c r="J33" s="2">
-        <v>12</v>
-      </c>
-      <c r="K33" s="2">
-        <v>640</v>
-      </c>
-      <c r="L33" s="2">
-        <v>310</v>
-      </c>
-      <c r="M33" s="2">
-        <v>21</v>
+        <v>25</v>
+      </c>
+      <c r="K33">
+        <v>1400</v>
+      </c>
+      <c r="L33">
+        <v>250</v>
+      </c>
+      <c r="M33">
+        <v>36</v>
       </c>
       <c r="N33" s="2">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="O33" s="2">
         <v>10</v>
@@ -6858,582 +6866,582 @@
         <v>15</v>
       </c>
       <c r="Q33" s="2">
-        <v>0.7</v>
+        <v>1.8</v>
       </c>
       <c r="R33" s="2">
         <v>15</v>
       </c>
       <c r="S33" s="2">
-        <v>37</v>
-      </c>
-      <c r="T33" s="6">
-        <v>11</v>
-      </c>
-      <c r="U33" s="6">
-        <v>8.4</v>
-      </c>
-      <c r="V33" s="6">
-        <v>1.4</v>
-      </c>
-      <c r="W33" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="X33" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="Y33" s="6">
+        <v>65</v>
+      </c>
+      <c r="T33">
+        <v>6.8</v>
+      </c>
+      <c r="U33">
+        <v>4.25</v>
+      </c>
+      <c r="V33">
+        <v>1.65</v>
+      </c>
+      <c r="W33">
         <v>0.8</v>
       </c>
-      <c r="Z33" s="6">
-        <v>10</v>
+      <c r="X33">
+        <v>0.8</v>
+      </c>
+      <c r="Y33">
+        <v>0.76</v>
+      </c>
+      <c r="Z33">
+        <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:26" hidden="1">
       <c r="A34" t="s">
-        <v>93</v>
+        <v>23</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="C34">
         <v>11.56</v>
       </c>
       <c r="D34">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E34">
-        <v>2.8</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="F34">
         <v>4.5</v>
       </c>
-      <c r="G34" s="2">
-        <v>1060</v>
-      </c>
-      <c r="H34" s="2">
-        <v>900</v>
-      </c>
-      <c r="I34" s="2">
-        <v>140</v>
-      </c>
-      <c r="J34" s="2">
-        <v>10</v>
-      </c>
-      <c r="K34" s="2">
-        <v>960</v>
-      </c>
-      <c r="L34" s="2">
-        <v>460</v>
-      </c>
-      <c r="M34" s="2">
+      <c r="G34">
+        <v>2700</v>
+      </c>
+      <c r="H34">
+        <v>1400</v>
+      </c>
+      <c r="I34">
+        <v>70</v>
+      </c>
+      <c r="J34">
+        <v>30</v>
+      </c>
+      <c r="K34">
+        <v>2450</v>
+      </c>
+      <c r="L34">
+        <v>350</v>
+      </c>
+      <c r="M34">
+        <v>20</v>
+      </c>
+      <c r="N34">
+        <v>10</v>
+      </c>
+      <c r="O34">
+        <v>20.8</v>
+      </c>
+      <c r="P34">
+        <v>20</v>
+      </c>
+      <c r="Q34">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="R34">
+        <v>20</v>
+      </c>
+      <c r="S34">
+        <v>76</v>
+      </c>
+      <c r="T34">
+        <v>3.88</v>
+      </c>
+      <c r="U34">
+        <v>2.71</v>
+      </c>
+      <c r="V34">
+        <v>1.3</v>
+      </c>
+      <c r="W34">
+        <v>0.8</v>
+      </c>
+      <c r="X34">
+        <v>0.8</v>
+      </c>
+      <c r="Y34">
+        <v>0.74</v>
+      </c>
+      <c r="Z34">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:26" hidden="1">
+      <c r="A35" t="s">
+        <v>22</v>
+      </c>
+      <c r="B35" t="s">
+        <v>46</v>
+      </c>
+      <c r="C35">
+        <v>11.56</v>
+      </c>
+      <c r="D35">
         <v>40</v>
       </c>
-      <c r="N34" s="2">
+      <c r="E35">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="F35">
+        <v>4.5</v>
+      </c>
+      <c r="G35">
+        <v>3600</v>
+      </c>
+      <c r="H35">
+        <v>1600</v>
+      </c>
+      <c r="I35">
+        <v>350</v>
+      </c>
+      <c r="J35">
+        <v>24</v>
+      </c>
+      <c r="K35">
+        <v>3250</v>
+      </c>
+      <c r="L35">
+        <v>400</v>
+      </c>
+      <c r="M35">
+        <v>50</v>
+      </c>
+      <c r="N35">
+        <v>23</v>
+      </c>
+      <c r="O35">
+        <v>10</v>
+      </c>
+      <c r="P35">
+        <v>20</v>
+      </c>
+      <c r="Q35">
+        <v>4.2</v>
+      </c>
+      <c r="R35">
+        <v>20</v>
+      </c>
+      <c r="S35">
+        <v>70</v>
+      </c>
+      <c r="T35">
+        <v>3.85</v>
+      </c>
+      <c r="U35">
+        <v>2.85</v>
+      </c>
+      <c r="V35">
+        <v>1.4</v>
+      </c>
+      <c r="W35">
+        <v>0.5</v>
+      </c>
+      <c r="X35">
+        <v>0.5</v>
+      </c>
+      <c r="Y35">
+        <v>0.74</v>
+      </c>
+      <c r="Z35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:26" hidden="1">
+      <c r="A36" t="s">
+        <v>24</v>
+      </c>
+      <c r="B36" t="s">
+        <v>46</v>
+      </c>
+      <c r="C36">
+        <v>11.56</v>
+      </c>
+      <c r="D36">
         <v>30</v>
       </c>
-      <c r="O34" s="2">
-        <v>15</v>
-      </c>
-      <c r="P34" s="2">
-        <v>15</v>
-      </c>
-      <c r="Q34" s="6">
-        <v>1.2</v>
-      </c>
-      <c r="R34" s="2">
-        <v>15</v>
-      </c>
-      <c r="S34" s="2">
+      <c r="E36">
+        <v>3.7</v>
+      </c>
+      <c r="F36">
+        <v>4.5</v>
+      </c>
+      <c r="G36" s="2">
+        <v>1200</v>
+      </c>
+      <c r="H36" s="2">
+        <v>1200</v>
+      </c>
+      <c r="I36" s="2">
+        <v>150</v>
+      </c>
+      <c r="J36" s="2">
+        <v>12</v>
+      </c>
+      <c r="K36" s="2">
+        <v>1175</v>
+      </c>
+      <c r="L36" s="2">
+        <v>450</v>
+      </c>
+      <c r="M36" s="2">
+        <v>30</v>
+      </c>
+      <c r="N36" s="2">
+        <v>10</v>
+      </c>
+      <c r="O36" s="2">
+        <v>10</v>
+      </c>
+      <c r="P36">
+        <v>15</v>
+      </c>
+      <c r="Q36">
+        <v>1.4</v>
+      </c>
+      <c r="R36">
+        <v>15</v>
+      </c>
+      <c r="S36">
+        <v>53</v>
+      </c>
+      <c r="T36">
+        <v>3.8</v>
+      </c>
+      <c r="U36">
+        <v>2.7</v>
+      </c>
+      <c r="V36">
+        <v>0.9</v>
+      </c>
+      <c r="W36" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="X36" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="Y36">
+        <v>0.76</v>
+      </c>
+      <c r="Z36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:26" hidden="1">
+      <c r="A37" t="s">
+        <v>8</v>
+      </c>
+      <c r="B37" t="s">
         <v>46</v>
-      </c>
-      <c r="T34" s="6">
-        <v>7.87</v>
-      </c>
-      <c r="U34" s="6">
-        <v>5.63</v>
-      </c>
-      <c r="V34" s="6">
-        <v>0.8</v>
-      </c>
-      <c r="W34" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="X34" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="Y34" s="6">
-        <v>0.85</v>
-      </c>
-      <c r="Z34" s="6">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="35" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>105</v>
-      </c>
-      <c r="B35" t="s">
-        <v>88</v>
-      </c>
-      <c r="C35">
-        <v>45</v>
-      </c>
-      <c r="D35">
-        <v>30</v>
-      </c>
-      <c r="E35">
-        <v>4.5</v>
-      </c>
-      <c r="F35">
-        <v>10</v>
-      </c>
-      <c r="G35" s="2">
-        <v>2200</v>
-      </c>
-      <c r="H35" s="2">
-        <v>1300</v>
-      </c>
-      <c r="I35" s="2">
-        <v>300</v>
-      </c>
-      <c r="J35" s="2">
-        <v>15</v>
-      </c>
-      <c r="K35" s="2">
-        <v>1900</v>
-      </c>
-      <c r="L35" s="2">
-        <v>400</v>
-      </c>
-      <c r="M35" s="2">
-        <v>50</v>
-      </c>
-      <c r="N35" s="2">
-        <v>21.5</v>
-      </c>
-      <c r="O35" s="2">
-        <v>20</v>
-      </c>
-      <c r="P35" s="2">
-        <v>15</v>
-      </c>
-      <c r="Q35" s="6">
-        <v>3.6</v>
-      </c>
-      <c r="R35" s="2">
-        <v>15</v>
-      </c>
-      <c r="S35" s="2">
-        <v>165</v>
-      </c>
-      <c r="T35" s="10">
-        <v>2.8</v>
-      </c>
-      <c r="U35" s="10">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="V35" s="6">
-        <v>1.8</v>
-      </c>
-      <c r="W35" s="6">
-        <v>0.8</v>
-      </c>
-      <c r="X35" s="6">
-        <v>0.8</v>
-      </c>
-      <c r="Y35" s="3">
-        <v>0.68</v>
-      </c>
-      <c r="Z35" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>94</v>
-      </c>
-      <c r="B36" t="s">
-        <v>88</v>
-      </c>
-      <c r="C36">
-        <v>45</v>
-      </c>
-      <c r="D36">
-        <v>60</v>
-      </c>
-      <c r="E36">
-        <v>10</v>
-      </c>
-      <c r="F36">
-        <v>10</v>
-      </c>
-      <c r="G36" s="2">
-        <v>4000</v>
-      </c>
-      <c r="H36" s="2">
-        <v>3000</v>
-      </c>
-      <c r="I36" s="2">
-        <v>700</v>
-      </c>
-      <c r="J36" s="2">
-        <v>25</v>
-      </c>
-      <c r="K36" s="2">
-        <v>3300</v>
-      </c>
-      <c r="L36" s="2">
-        <v>1000</v>
-      </c>
-      <c r="M36" s="2">
-        <v>50</v>
-      </c>
-      <c r="N36" s="2">
-        <v>73</v>
-      </c>
-      <c r="O36" s="2">
-        <v>20</v>
-      </c>
-      <c r="P36" s="2">
-        <v>30</v>
-      </c>
-      <c r="Q36" s="6">
-        <v>8.5</v>
-      </c>
-      <c r="R36" s="2">
-        <v>30</v>
-      </c>
-      <c r="S36" s="2">
-        <v>100</v>
-      </c>
-      <c r="T36" s="6">
-        <v>3.1</v>
-      </c>
-      <c r="U36" s="6">
-        <v>2.4</v>
-      </c>
-      <c r="V36" s="6">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="W36" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="X36" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="Y36" s="3">
-        <v>0.69</v>
-      </c>
-      <c r="Z36" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>96</v>
-      </c>
-      <c r="B37" t="s">
-        <v>95</v>
       </c>
       <c r="C37">
         <v>11.56</v>
       </c>
       <c r="D37">
+        <v>60</v>
+      </c>
+      <c r="E37">
+        <v>7</v>
+      </c>
+      <c r="F37">
+        <v>4.5</v>
+      </c>
+      <c r="G37">
+        <v>3000</v>
+      </c>
+      <c r="H37">
+        <v>2000</v>
+      </c>
+      <c r="I37">
+        <v>300</v>
+      </c>
+      <c r="J37">
+        <v>24</v>
+      </c>
+      <c r="K37">
+        <v>2500</v>
+      </c>
+      <c r="L37">
+        <v>700</v>
+      </c>
+      <c r="M37">
+        <v>35</v>
+      </c>
+      <c r="N37">
+        <v>25</v>
+      </c>
+      <c r="O37">
+        <v>10</v>
+      </c>
+      <c r="P37">
         <v>30</v>
       </c>
-      <c r="E37">
-        <v>3.8</v>
-      </c>
-      <c r="F37">
+      <c r="Q37">
+        <v>4.7</v>
+      </c>
+      <c r="R37">
+        <v>30</v>
+      </c>
+      <c r="S37">
+        <v>57</v>
+      </c>
+      <c r="T37">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="U37">
+        <v>2.9</v>
+      </c>
+      <c r="V37">
+        <v>0.85</v>
+      </c>
+      <c r="W37">
+        <v>0.5</v>
+      </c>
+      <c r="X37">
+        <v>0.5</v>
+      </c>
+      <c r="Y37">
+        <v>0.74</v>
+      </c>
+      <c r="Z37">
         <v>5</v>
       </c>
-      <c r="G37" s="2">
-        <v>1050</v>
-      </c>
-      <c r="H37" s="2">
-        <v>1000</v>
-      </c>
-      <c r="I37" s="2">
-        <v>150</v>
-      </c>
-      <c r="J37" s="2">
-        <v>10</v>
-      </c>
-      <c r="K37" s="2">
-        <v>1000</v>
-      </c>
-      <c r="L37" s="2">
-        <v>460</v>
-      </c>
-      <c r="M37" s="2">
-        <v>39</v>
-      </c>
-      <c r="N37" s="2">
-        <v>3</v>
-      </c>
-      <c r="O37" s="2">
-        <v>15</v>
-      </c>
-      <c r="P37" s="2">
-        <v>15</v>
-      </c>
-      <c r="Q37" s="6">
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="R37" s="2">
-        <v>15</v>
-      </c>
-      <c r="S37" s="2">
-        <v>57</v>
-      </c>
-      <c r="T37" s="6">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="U37" s="6">
-        <v>2.7</v>
-      </c>
-      <c r="V37" s="6">
-        <v>1.2</v>
-      </c>
-      <c r="W37" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="X37" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="Y37" s="3">
-        <v>0.85</v>
-      </c>
-      <c r="Z37" s="6">
-        <v>15</v>
-      </c>
     </row>
-    <row r="38" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:26" hidden="1">
       <c r="A38" t="s">
-        <v>97</v>
+        <v>9</v>
       </c>
       <c r="B38" t="s">
-        <v>95</v>
+        <v>46</v>
       </c>
       <c r="C38">
         <v>11.56</v>
       </c>
       <c r="D38">
+        <v>60</v>
+      </c>
+      <c r="E38">
+        <v>6.2</v>
+      </c>
+      <c r="F38">
+        <v>4.5</v>
+      </c>
+      <c r="G38">
+        <v>2200</v>
+      </c>
+      <c r="H38">
+        <v>1600</v>
+      </c>
+      <c r="I38">
+        <v>300</v>
+      </c>
+      <c r="J38">
+        <v>24</v>
+      </c>
+      <c r="K38">
+        <v>2000</v>
+      </c>
+      <c r="L38">
+        <v>560</v>
+      </c>
+      <c r="M38">
+        <v>32</v>
+      </c>
+      <c r="N38">
+        <v>20</v>
+      </c>
+      <c r="O38">
+        <v>10</v>
+      </c>
+      <c r="P38">
         <v>30</v>
       </c>
-      <c r="E38">
-        <v>5.5</v>
-      </c>
-      <c r="F38">
+      <c r="Q38">
+        <v>4.5</v>
+      </c>
+      <c r="R38">
+        <v>30</v>
+      </c>
+      <c r="S38">
+        <v>54</v>
+      </c>
+      <c r="T38">
+        <v>4.8</v>
+      </c>
+      <c r="U38">
+        <v>3.4</v>
+      </c>
+      <c r="V38">
+        <v>0.85</v>
+      </c>
+      <c r="W38">
+        <v>0.5</v>
+      </c>
+      <c r="X38">
+        <v>0.5</v>
+      </c>
+      <c r="Y38">
+        <v>0.75</v>
+      </c>
+      <c r="Z38">
         <v>5</v>
       </c>
-      <c r="G38" s="2">
-        <v>1500</v>
-      </c>
-      <c r="H38" s="2">
-        <v>1500</v>
-      </c>
-      <c r="I38" s="2">
-        <v>200</v>
-      </c>
-      <c r="J38" s="2">
-        <v>10</v>
-      </c>
-      <c r="K38" s="2">
-        <v>1450</v>
-      </c>
-      <c r="L38" s="2">
-        <v>700</v>
-      </c>
-      <c r="M38" s="2">
-        <v>48</v>
-      </c>
-      <c r="N38" s="2">
-        <v>6</v>
-      </c>
-      <c r="O38" s="2">
-        <v>15</v>
-      </c>
-      <c r="P38" s="2">
-        <v>15</v>
-      </c>
-      <c r="Q38" s="6">
-        <v>1.7</v>
-      </c>
-      <c r="R38" s="2">
-        <v>15</v>
-      </c>
-      <c r="S38" s="2">
-        <v>61</v>
-      </c>
-      <c r="T38" s="6">
-        <v>2.9</v>
-      </c>
-      <c r="U38" s="6">
-        <v>2</v>
-      </c>
-      <c r="V38" s="6">
-        <v>0.9</v>
-      </c>
-      <c r="W38" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="X38" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="Y38" s="3">
-        <v>0.85</v>
-      </c>
-      <c r="Z38" s="6">
-        <v>15</v>
-      </c>
     </row>
-    <row r="39" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:26" hidden="1">
       <c r="A39" t="s">
-        <v>99</v>
+        <v>12</v>
       </c>
       <c r="B39" t="s">
-        <v>98</v>
+        <v>46</v>
       </c>
       <c r="C39">
         <v>11.56</v>
       </c>
       <c r="D39">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E39">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="F39">
+        <v>4.5</v>
+      </c>
+      <c r="G39">
+        <v>4100</v>
+      </c>
+      <c r="H39">
+        <v>2000</v>
+      </c>
+      <c r="I39">
+        <v>350</v>
+      </c>
+      <c r="J39">
+        <v>24</v>
+      </c>
+      <c r="K39">
+        <v>3700</v>
+      </c>
+      <c r="L39">
+        <v>600</v>
+      </c>
+      <c r="M39">
+        <v>90</v>
+      </c>
+      <c r="N39">
+        <v>23</v>
+      </c>
+      <c r="O39">
+        <v>10</v>
+      </c>
+      <c r="P39">
+        <v>20</v>
+      </c>
+      <c r="Q39">
         <v>4</v>
       </c>
-      <c r="F39">
-        <v>10</v>
-      </c>
-      <c r="G39" s="2">
-        <v>1700</v>
-      </c>
-      <c r="H39" s="2">
-        <v>1050</v>
-      </c>
-      <c r="I39" s="2">
-        <v>200</v>
-      </c>
-      <c r="J39" s="2">
-        <v>20</v>
-      </c>
-      <c r="K39" s="2">
-        <v>1500</v>
-      </c>
-      <c r="L39" s="2">
-        <v>300</v>
-      </c>
-      <c r="M39" s="2">
-        <v>50</v>
-      </c>
-      <c r="N39" s="2">
-        <v>21</v>
-      </c>
-      <c r="O39" s="2">
-        <v>20</v>
-      </c>
-      <c r="P39" s="2">
-        <v>15</v>
-      </c>
-      <c r="Q39" s="6">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="R39" s="2">
-        <v>15</v>
-      </c>
-      <c r="S39" s="2">
-        <v>108</v>
-      </c>
-      <c r="T39" s="3">
-        <v>3.7</v>
-      </c>
-      <c r="U39" s="3">
-        <v>3.05</v>
-      </c>
-      <c r="V39" s="3">
-        <v>0.8</v>
-      </c>
-      <c r="W39" s="3">
+      <c r="R39">
+        <v>20</v>
+      </c>
+      <c r="S39">
+        <v>98</v>
+      </c>
+      <c r="T39">
+        <v>2.4</v>
+      </c>
+      <c r="U39">
+        <v>1.8</v>
+      </c>
+      <c r="V39">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="W39">
         <v>0.5</v>
       </c>
-      <c r="X39" s="3">
+      <c r="X39">
         <v>0.5</v>
       </c>
-      <c r="Y39" s="3">
-        <v>0.7</v>
-      </c>
-      <c r="Z39" s="3">
-        <v>1</v>
+      <c r="Y39">
+        <v>0.73</v>
+      </c>
+      <c r="Z39">
+        <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:26" hidden="1">
       <c r="A40" t="s">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="B40" t="s">
-        <v>98</v>
+        <v>46</v>
       </c>
       <c r="C40">
         <v>11.56</v>
       </c>
       <c r="D40">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E40">
+        <v>2.9</v>
+      </c>
+      <c r="F40">
+        <v>4.5</v>
+      </c>
+      <c r="G40">
+        <v>950</v>
+      </c>
+      <c r="H40">
+        <v>500</v>
+      </c>
+      <c r="I40">
+        <v>70</v>
+      </c>
+      <c r="J40">
+        <v>25</v>
+      </c>
+      <c r="K40" s="2">
+        <v>875</v>
+      </c>
+      <c r="L40" s="2">
+        <v>150</v>
+      </c>
+      <c r="M40" s="2">
+        <v>16</v>
+      </c>
+      <c r="N40" s="2">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="O40" s="2">
+        <v>10</v>
+      </c>
+      <c r="P40" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q40" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="R40">
+        <v>20</v>
+      </c>
+      <c r="S40" s="2">
+        <v>45</v>
+      </c>
+      <c r="T40">
+        <v>9.6</v>
+      </c>
+      <c r="U40">
+        <v>6.7</v>
+      </c>
+      <c r="V40" s="4">
         <v>3.2</v>
-      </c>
-      <c r="F40">
-        <v>10</v>
-      </c>
-      <c r="G40" s="2">
-        <v>1340</v>
-      </c>
-      <c r="H40" s="2">
-        <v>900</v>
-      </c>
-      <c r="I40" s="2">
-        <v>140</v>
-      </c>
-      <c r="J40" s="2">
-        <v>20</v>
-      </c>
-      <c r="K40" s="2">
-        <v>1210</v>
-      </c>
-      <c r="L40" s="2">
-        <v>240</v>
-      </c>
-      <c r="M40" s="2">
-        <v>30</v>
-      </c>
-      <c r="N40" s="2">
-        <v>15</v>
-      </c>
-      <c r="O40" s="2">
-        <v>20</v>
-      </c>
-      <c r="P40" s="2">
-        <v>15</v>
-      </c>
-      <c r="Q40" s="6">
-        <v>1</v>
-      </c>
-      <c r="R40" s="2">
-        <v>15</v>
-      </c>
-      <c r="S40" s="2">
-        <v>125</v>
-      </c>
-      <c r="T40" s="6">
-        <v>4.7</v>
-      </c>
-      <c r="U40" s="6">
-        <v>3.9</v>
-      </c>
-      <c r="V40" s="6">
-        <v>1.9</v>
       </c>
       <c r="W40" s="3">
         <v>0.5</v>
@@ -7442,211 +7450,211 @@
         <v>0.5</v>
       </c>
       <c r="Y40" s="3">
-        <v>0.7</v>
+        <v>0.82</v>
       </c>
       <c r="Z40" s="3">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:26" hidden="1">
       <c r="A41" t="s">
-        <v>101</v>
+        <v>26</v>
       </c>
       <c r="B41" t="s">
-        <v>102</v>
+        <v>46</v>
       </c>
       <c r="C41">
-        <v>45</v>
+        <v>11.56</v>
       </c>
       <c r="D41">
         <v>30</v>
       </c>
       <c r="E41">
-        <v>2.5</v>
+        <v>9.6</v>
       </c>
       <c r="F41">
-        <v>10</v>
+        <v>4.5</v>
       </c>
       <c r="G41" s="2">
-        <v>1250</v>
+        <v>3000</v>
       </c>
       <c r="H41" s="2">
-        <v>1100</v>
+        <v>3000</v>
       </c>
       <c r="I41" s="2">
+        <v>500</v>
+      </c>
+      <c r="J41" s="2">
+        <v>12</v>
+      </c>
+      <c r="K41" s="2">
+        <v>2975</v>
+      </c>
+      <c r="L41" s="2">
+        <v>1200</v>
+      </c>
+      <c r="M41" s="2">
         <v>200</v>
       </c>
-      <c r="J41" s="2">
-        <v>15</v>
-      </c>
-      <c r="K41" s="2">
-        <v>1200</v>
-      </c>
-      <c r="L41" s="2">
-        <v>400</v>
-      </c>
-      <c r="M41" s="2">
-        <v>62</v>
-      </c>
       <c r="N41" s="2">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="O41" s="2">
-        <v>20</v>
-      </c>
-      <c r="P41" s="2">
-        <v>15</v>
-      </c>
-      <c r="Q41" s="6">
-        <v>3</v>
-      </c>
-      <c r="R41" s="2">
-        <v>15</v>
-      </c>
-      <c r="S41" s="2">
-        <v>57</v>
-      </c>
-      <c r="T41" s="6">
-        <v>5.2</v>
-      </c>
-      <c r="U41" s="6">
-        <v>3.5</v>
-      </c>
-      <c r="V41" s="6">
-        <v>1.2</v>
-      </c>
-      <c r="W41" s="6">
-        <v>0.2</v>
-      </c>
-      <c r="X41" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="Y41" s="6">
-        <v>0.7</v>
-      </c>
-      <c r="Z41" s="6">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="P41">
+        <v>15</v>
+      </c>
+      <c r="Q41">
+        <v>3.9</v>
+      </c>
+      <c r="R41">
+        <v>15</v>
+      </c>
+      <c r="S41">
+        <v>95</v>
+      </c>
+      <c r="T41">
+        <v>1.5</v>
+      </c>
+      <c r="U41">
+        <v>0.95</v>
+      </c>
+      <c r="V41">
+        <v>0.42</v>
+      </c>
+      <c r="W41" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="X41" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="Y41">
+        <v>0.73</v>
+      </c>
+      <c r="Z41">
+        <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:26" hidden="1">
       <c r="A42" t="s">
-        <v>103</v>
+        <v>27</v>
       </c>
       <c r="B42" t="s">
-        <v>102</v>
+        <v>46</v>
       </c>
       <c r="C42">
-        <v>45</v>
+        <v>11.56</v>
       </c>
       <c r="D42">
         <v>30</v>
       </c>
       <c r="E42">
-        <v>5.5</v>
+        <v>11.3</v>
       </c>
       <c r="F42">
-        <v>10</v>
+        <v>4.5</v>
       </c>
       <c r="G42" s="2">
-        <v>2550</v>
+        <v>4000</v>
       </c>
       <c r="H42" s="2">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="I42" s="2">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="J42" s="2">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="K42" s="2">
-        <v>2250</v>
+        <v>3500</v>
       </c>
       <c r="L42" s="2">
-        <v>650</v>
+        <v>1400</v>
       </c>
       <c r="M42" s="2">
         <v>100</v>
       </c>
       <c r="N42" s="2">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="O42" s="2">
-        <v>20</v>
-      </c>
-      <c r="P42" s="2">
-        <v>15</v>
-      </c>
-      <c r="Q42" s="6">
-        <v>4.5</v>
-      </c>
-      <c r="R42" s="2">
-        <v>15</v>
-      </c>
-      <c r="S42" s="2">
-        <v>110</v>
-      </c>
-      <c r="T42" s="6">
-        <v>2.6</v>
-      </c>
-      <c r="U42" s="6">
-        <v>1.5</v>
-      </c>
-      <c r="V42" s="6">
-        <v>1.4</v>
-      </c>
-      <c r="W42" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="X42" s="6">
-        <v>0.2</v>
-      </c>
-      <c r="Y42" s="6">
-        <v>0.7</v>
-      </c>
-      <c r="Z42" s="2">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="P42">
+        <v>15</v>
+      </c>
+      <c r="Q42">
+        <v>3</v>
+      </c>
+      <c r="R42">
+        <v>15</v>
+      </c>
+      <c r="S42">
+        <v>117</v>
+      </c>
+      <c r="T42">
+        <v>1.25</v>
+      </c>
+      <c r="U42">
+        <v>0.88</v>
+      </c>
+      <c r="V42">
+        <v>0.75</v>
+      </c>
+      <c r="W42" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="X42" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="Y42">
+        <v>0.73</v>
+      </c>
+      <c r="Z42">
+        <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:26" hidden="1">
       <c r="A43" t="s">
-        <v>109</v>
+        <v>28</v>
       </c>
       <c r="B43" t="s">
-        <v>88</v>
+        <v>46</v>
       </c>
       <c r="C43">
-        <v>45</v>
+        <v>11.56</v>
       </c>
       <c r="D43">
         <v>30</v>
       </c>
       <c r="E43">
-        <v>11.4</v>
+        <v>11.2</v>
       </c>
       <c r="F43">
         <v>4.5</v>
       </c>
       <c r="G43" s="2">
-        <v>4600</v>
+        <v>4000</v>
       </c>
       <c r="H43" s="2">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="I43" s="2">
-        <v>250</v>
+        <v>550</v>
       </c>
       <c r="J43" s="2">
         <v>15</v>
       </c>
       <c r="K43" s="2">
-        <v>4200</v>
+        <v>3700</v>
       </c>
       <c r="L43" s="2">
         <v>1800</v>
       </c>
       <c r="M43" s="2">
-        <v>68</v>
+        <v>160</v>
       </c>
       <c r="N43" s="2">
         <v>45</v>
@@ -7657,359 +7665,519 @@
       <c r="P43" s="2">
         <v>15</v>
       </c>
-      <c r="Q43" s="6">
-        <v>2.4</v>
+      <c r="Q43" s="2">
+        <v>5.8</v>
       </c>
       <c r="R43" s="2">
         <v>15</v>
       </c>
       <c r="S43" s="2">
-        <v>67</v>
-      </c>
-      <c r="T43" s="6">
-        <v>1.8</v>
-      </c>
-      <c r="U43" s="6">
-        <v>1</v>
-      </c>
-      <c r="V43" s="6">
+        <v>84</v>
+      </c>
+      <c r="T43" s="3">
+        <v>1.75</v>
+      </c>
+      <c r="U43" s="3">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="V43" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="W43" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="X43" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="Y43" s="3">
+        <v>0.45</v>
+      </c>
+      <c r="Z43" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:26" hidden="1">
+      <c r="A44" t="s">
+        <v>33</v>
+      </c>
+      <c r="B44" t="s">
+        <v>46</v>
+      </c>
+      <c r="C44">
+        <v>11.56</v>
+      </c>
+      <c r="D44">
+        <v>30</v>
+      </c>
+      <c r="E44">
+        <v>2.1</v>
+      </c>
+      <c r="F44">
+        <v>4.5</v>
+      </c>
+      <c r="G44" s="2">
+        <v>735</v>
+      </c>
+      <c r="H44" s="2">
+        <v>680</v>
+      </c>
+      <c r="I44" s="2">
+        <v>100</v>
+      </c>
+      <c r="J44" s="2">
+        <v>12</v>
+      </c>
+      <c r="K44" s="2">
+        <v>640</v>
+      </c>
+      <c r="L44" s="2">
+        <v>310</v>
+      </c>
+      <c r="M44" s="2">
+        <v>21</v>
+      </c>
+      <c r="N44" s="2">
+        <v>10</v>
+      </c>
+      <c r="O44" s="2">
+        <v>10</v>
+      </c>
+      <c r="P44" s="2">
+        <v>15</v>
+      </c>
+      <c r="Q44" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="R44" s="2">
+        <v>15</v>
+      </c>
+      <c r="S44" s="2">
+        <v>37</v>
+      </c>
+      <c r="T44" s="6">
+        <v>11</v>
+      </c>
+      <c r="U44" s="6">
+        <v>8.4</v>
+      </c>
+      <c r="V44" s="6">
+        <v>1.4</v>
+      </c>
+      <c r="W44" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="X44" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="Y44" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="Z44" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:26" hidden="1">
+      <c r="A45" t="s">
+        <v>34</v>
+      </c>
+      <c r="B45" t="s">
+        <v>46</v>
+      </c>
+      <c r="C45">
+        <v>11.56</v>
+      </c>
+      <c r="D45">
+        <v>30</v>
+      </c>
+      <c r="E45">
+        <v>2.8</v>
+      </c>
+      <c r="F45">
+        <v>4.5</v>
+      </c>
+      <c r="G45" s="2">
+        <v>1060</v>
+      </c>
+      <c r="H45" s="2">
+        <v>900</v>
+      </c>
+      <c r="I45" s="2">
+        <v>140</v>
+      </c>
+      <c r="J45" s="2">
+        <v>10</v>
+      </c>
+      <c r="K45" s="2">
+        <v>960</v>
+      </c>
+      <c r="L45" s="2">
+        <v>460</v>
+      </c>
+      <c r="M45" s="2">
+        <v>40</v>
+      </c>
+      <c r="N45" s="2">
+        <v>30</v>
+      </c>
+      <c r="O45" s="2">
+        <v>15</v>
+      </c>
+      <c r="P45" s="2">
+        <v>15</v>
+      </c>
+      <c r="Q45" s="6">
         <v>1.2</v>
       </c>
-      <c r="W43" s="6">
+      <c r="R45" s="2">
+        <v>15</v>
+      </c>
+      <c r="S45" s="2">
+        <v>46</v>
+      </c>
+      <c r="T45" s="6">
+        <v>7.87</v>
+      </c>
+      <c r="U45" s="6">
+        <v>5.63</v>
+      </c>
+      <c r="V45" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="W45" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="X45" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="Y45" s="6">
+        <v>0.85</v>
+      </c>
+      <c r="Z45" s="6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="46" spans="1:26" hidden="1">
+      <c r="A46" t="s">
+        <v>38</v>
+      </c>
+      <c r="B46" t="s">
+        <v>49</v>
+      </c>
+      <c r="C46">
+        <v>11.56</v>
+      </c>
+      <c r="D46">
+        <v>30</v>
+      </c>
+      <c r="E46">
+        <v>5.5</v>
+      </c>
+      <c r="F46">
+        <v>5</v>
+      </c>
+      <c r="G46" s="2">
+        <v>1500</v>
+      </c>
+      <c r="H46" s="2">
+        <v>1500</v>
+      </c>
+      <c r="I46" s="2">
+        <v>200</v>
+      </c>
+      <c r="J46" s="2">
+        <v>10</v>
+      </c>
+      <c r="K46" s="2">
+        <v>1450</v>
+      </c>
+      <c r="L46" s="2">
+        <v>700</v>
+      </c>
+      <c r="M46" s="2">
+        <v>48</v>
+      </c>
+      <c r="N46" s="2">
+        <v>6</v>
+      </c>
+      <c r="O46" s="2">
+        <v>15</v>
+      </c>
+      <c r="P46" s="2">
+        <v>15</v>
+      </c>
+      <c r="Q46" s="6">
+        <v>1.7</v>
+      </c>
+      <c r="R46" s="2">
+        <v>15</v>
+      </c>
+      <c r="S46" s="2">
+        <v>61</v>
+      </c>
+      <c r="T46" s="6">
+        <v>2.9</v>
+      </c>
+      <c r="U46" s="6">
+        <v>2</v>
+      </c>
+      <c r="V46" s="6">
         <v>0.9</v>
       </c>
-      <c r="X43" s="6">
-        <v>0.9</v>
-      </c>
-      <c r="Y43" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="Z43" s="6">
-        <v>10</v>
+      <c r="W46" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="X46" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="Y46" s="3">
+        <v>0.85</v>
+      </c>
+      <c r="Z46" s="6">
+        <v>15</v>
       </c>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>110</v>
-      </c>
-      <c r="B44" t="s">
-        <v>71</v>
-      </c>
-      <c r="C44">
+    <row r="47" spans="1:26" hidden="1">
+      <c r="A47" t="s">
+        <v>37</v>
+      </c>
+      <c r="B47" t="s">
+        <v>49</v>
+      </c>
+      <c r="C47">
+        <v>11.56</v>
+      </c>
+      <c r="D47">
+        <v>30</v>
+      </c>
+      <c r="E47">
+        <v>3.8</v>
+      </c>
+      <c r="F47">
+        <v>5</v>
+      </c>
+      <c r="G47" s="2">
+        <v>1050</v>
+      </c>
+      <c r="H47" s="2">
+        <v>1000</v>
+      </c>
+      <c r="I47" s="2">
+        <v>150</v>
+      </c>
+      <c r="J47" s="2">
+        <v>10</v>
+      </c>
+      <c r="K47" s="2">
+        <v>1000</v>
+      </c>
+      <c r="L47" s="2">
+        <v>460</v>
+      </c>
+      <c r="M47" s="2">
+        <v>39</v>
+      </c>
+      <c r="N47" s="2">
+        <v>3</v>
+      </c>
+      <c r="O47" s="2">
+        <v>15</v>
+      </c>
+      <c r="P47" s="2">
+        <v>15</v>
+      </c>
+      <c r="Q47" s="6">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="R47" s="2">
+        <v>15</v>
+      </c>
+      <c r="S47" s="2">
+        <v>57</v>
+      </c>
+      <c r="T47" s="6">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="U47" s="6">
+        <v>2.7</v>
+      </c>
+      <c r="V47" s="6">
+        <v>1.2</v>
+      </c>
+      <c r="W47" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="X47" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="Y47" s="3">
+        <v>0.85</v>
+      </c>
+      <c r="Z47" s="6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="48" spans="1:26">
+      <c r="A48" t="s">
+        <v>114</v>
+      </c>
+      <c r="B48" t="s">
+        <v>47</v>
+      </c>
+      <c r="C48">
         <v>45</v>
       </c>
-      <c r="D44">
+      <c r="D48">
         <v>40</v>
       </c>
-      <c r="E44">
-        <v>5.5</v>
-      </c>
-      <c r="F44">
-        <v>10</v>
-      </c>
-      <c r="G44" s="2">
-        <v>2200</v>
-      </c>
-      <c r="H44" s="2">
-        <v>2400</v>
-      </c>
-      <c r="I44" s="2">
+      <c r="E48">
+        <v>13</v>
+      </c>
+      <c r="F48">
+        <v>10</v>
+      </c>
+      <c r="G48" s="2">
+        <v>3600</v>
+      </c>
+      <c r="H48" s="2">
+        <v>3800</v>
+      </c>
+      <c r="I48" s="2">
+        <v>1000</v>
+      </c>
+      <c r="J48" s="2">
+        <v>15</v>
+      </c>
+      <c r="K48" s="2">
+        <v>2900</v>
+      </c>
+      <c r="L48" s="2">
+        <v>380</v>
+      </c>
+      <c r="M48" s="2">
+        <v>270</v>
+      </c>
+      <c r="N48" s="2">
+        <v>41</v>
+      </c>
+      <c r="O48" s="2">
+        <v>40</v>
+      </c>
+      <c r="P48" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q48" s="6">
+        <v>15</v>
+      </c>
+      <c r="R48" s="2">
+        <v>20</v>
+      </c>
+      <c r="S48" s="11">
+        <v>100</v>
+      </c>
+      <c r="T48" s="6">
+        <v>20</v>
+      </c>
+      <c r="U48" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="V48" s="3">
+        <v>2.1</v>
+      </c>
+      <c r="W48" s="6">
+        <v>1</v>
+      </c>
+      <c r="X48" s="6">
+        <v>1</v>
+      </c>
+      <c r="Y48" s="3">
+        <v>0.83</v>
+      </c>
+      <c r="Z48" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="49" spans="1:26">
+      <c r="A49" t="s">
+        <v>115</v>
+      </c>
+      <c r="B49" t="s">
+        <v>47</v>
+      </c>
+      <c r="C49">
+        <v>45</v>
+      </c>
+      <c r="D49">
+        <v>40</v>
+      </c>
+      <c r="E49">
+        <v>16</v>
+      </c>
+      <c r="F49">
+        <v>10</v>
+      </c>
+      <c r="G49" s="2">
+        <v>5000</v>
+      </c>
+      <c r="H49" s="2">
+        <v>4000</v>
+      </c>
+      <c r="I49" s="2">
+        <v>1100</v>
+      </c>
+      <c r="J49" s="2">
+        <v>15</v>
+      </c>
+      <c r="K49" s="2">
+        <v>3300</v>
+      </c>
+      <c r="L49" s="2">
+        <v>460</v>
+      </c>
+      <c r="M49" s="2">
         <v>300</v>
       </c>
-      <c r="J44" s="2">
-        <v>15</v>
-      </c>
-      <c r="K44" s="2">
-        <v>2000</v>
-      </c>
-      <c r="L44" s="2">
-        <v>900</v>
-      </c>
-      <c r="M44" s="2">
-        <v>28</v>
-      </c>
-      <c r="N44" s="2">
-        <v>42</v>
-      </c>
-      <c r="O44" s="2">
-        <v>10</v>
-      </c>
-      <c r="P44" s="2">
-        <v>20</v>
-      </c>
-      <c r="Q44" s="6">
-        <v>3.6</v>
-      </c>
-      <c r="R44" s="2">
-        <v>20</v>
-      </c>
-      <c r="S44" s="2">
-        <v>170</v>
-      </c>
-      <c r="T44" s="6">
-        <v>2.4</v>
-      </c>
-      <c r="U44" s="6">
-        <v>1.8</v>
-      </c>
-      <c r="V44" s="3">
-        <v>1.2</v>
-      </c>
-      <c r="W44" s="6">
-        <v>1</v>
-      </c>
-      <c r="X44" s="6">
-        <v>1</v>
-      </c>
-      <c r="Y44" s="3">
-        <v>0.84</v>
-      </c>
-      <c r="Z44" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>111</v>
-      </c>
-      <c r="B45" t="s">
-        <v>71</v>
-      </c>
-      <c r="C45">
-        <v>45</v>
-      </c>
-      <c r="D45">
+      <c r="N49" s="2">
+        <v>48</v>
+      </c>
+      <c r="O49" s="2">
         <v>40</v>
       </c>
-      <c r="E45">
-        <v>5</v>
-      </c>
-      <c r="F45">
-        <v>10</v>
-      </c>
-      <c r="G45" s="2">
-        <v>1400</v>
-      </c>
-      <c r="H45" s="2">
-        <v>1500</v>
-      </c>
-      <c r="I45" s="2">
-        <v>200</v>
-      </c>
-      <c r="J45" s="2">
-        <v>15</v>
-      </c>
-      <c r="K45" s="2">
-        <v>1100</v>
-      </c>
-      <c r="L45" s="2">
-        <v>580</v>
-      </c>
-      <c r="M45" s="2">
-        <v>60</v>
-      </c>
-      <c r="N45" s="2">
-        <v>19</v>
-      </c>
-      <c r="O45" s="2">
-        <v>50</v>
-      </c>
-      <c r="P45" s="2">
-        <v>20</v>
-      </c>
-      <c r="Q45" s="6">
-        <v>3</v>
-      </c>
-      <c r="R45" s="2">
-        <v>20</v>
-      </c>
-      <c r="S45" s="2">
+      <c r="P49" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q49" s="6">
+        <v>16</v>
+      </c>
+      <c r="R49" s="2">
+        <v>20</v>
+      </c>
+      <c r="S49" s="11">
         <v>100</v>
       </c>
-      <c r="T45" s="6">
-        <v>4</v>
-      </c>
-      <c r="U45" s="6">
-        <v>3.5</v>
-      </c>
-      <c r="V45" s="3">
-        <v>2.1</v>
-      </c>
-      <c r="W45" s="3">
-        <v>1</v>
-      </c>
-      <c r="X45" s="3">
-        <v>1</v>
-      </c>
-      <c r="Y45" s="3">
-        <v>0.88</v>
-      </c>
-      <c r="Z45" s="2">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>112</v>
-      </c>
-      <c r="B46" t="s">
-        <v>71</v>
-      </c>
-      <c r="C46">
-        <v>45</v>
-      </c>
-      <c r="D46">
-        <v>40</v>
-      </c>
-      <c r="E46">
+      <c r="T49" s="6">
         <v>7</v>
       </c>
-      <c r="F46">
-        <v>10</v>
-      </c>
-      <c r="G46" s="2">
-        <v>1900</v>
-      </c>
-      <c r="H46" s="2">
-        <v>2000</v>
-      </c>
-      <c r="I46" s="2">
-        <v>300</v>
-      </c>
-      <c r="J46" s="2">
-        <v>15</v>
-      </c>
-      <c r="K46" s="2">
-        <v>1600</v>
-      </c>
-      <c r="L46" s="2">
-        <v>780</v>
-      </c>
-      <c r="M46" s="2">
-        <v>80</v>
-      </c>
-      <c r="N46" s="2">
-        <v>23</v>
-      </c>
-      <c r="O46" s="2">
-        <v>50</v>
-      </c>
-      <c r="P46" s="2">
-        <v>20</v>
-      </c>
-      <c r="Q46" s="6">
-        <v>4</v>
-      </c>
-      <c r="R46" s="2">
-        <v>20</v>
-      </c>
-      <c r="S46" s="2">
-        <v>140</v>
-      </c>
-      <c r="T46" s="6">
-        <v>3.1</v>
-      </c>
-      <c r="U46" s="6">
-        <v>2.7</v>
-      </c>
-      <c r="V46" s="3">
-        <v>2.8</v>
-      </c>
-      <c r="W46" s="6">
-        <v>1</v>
-      </c>
-      <c r="X46" s="6">
-        <v>1</v>
-      </c>
-      <c r="Y46" s="3">
-        <v>0.89</v>
-      </c>
-      <c r="Z46" s="2">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>113</v>
-      </c>
-      <c r="B47" t="s">
-        <v>71</v>
-      </c>
-      <c r="C47">
-        <v>45</v>
-      </c>
-      <c r="D47">
-        <v>40</v>
-      </c>
-      <c r="E47">
-        <v>4.8</v>
-      </c>
-      <c r="F47">
-        <v>10</v>
-      </c>
-      <c r="G47" s="2">
-        <v>2000</v>
-      </c>
-      <c r="H47" s="2">
-        <v>2000</v>
-      </c>
-      <c r="I47" s="2">
-        <v>300</v>
-      </c>
-      <c r="J47" s="2">
-        <v>15</v>
-      </c>
-      <c r="K47" s="2">
-        <v>1800</v>
-      </c>
-      <c r="L47" s="2">
-        <v>750</v>
-      </c>
-      <c r="M47" s="2">
-        <v>90</v>
-      </c>
-      <c r="N47" s="2">
-        <v>52</v>
-      </c>
-      <c r="O47" s="2">
-        <v>50</v>
-      </c>
-      <c r="P47" s="2">
-        <v>20</v>
-      </c>
-      <c r="Q47" s="6">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="R47" s="2">
-        <v>20</v>
-      </c>
-      <c r="S47" s="2">
-        <v>150</v>
-      </c>
-      <c r="T47" s="6">
-        <v>3.3</v>
-      </c>
-      <c r="U47" s="6">
-        <v>2.5</v>
-      </c>
-      <c r="V47" s="3">
-        <v>0.8</v>
-      </c>
-      <c r="W47" s="6">
-        <v>1</v>
-      </c>
-      <c r="X47" s="6">
-        <v>1</v>
-      </c>
-      <c r="Y47" s="3">
-        <v>0.88</v>
-      </c>
-      <c r="Z47" s="2">
+      <c r="U49" s="6">
+        <v>1.86</v>
+      </c>
+      <c r="V49" s="3">
+        <v>1.7</v>
+      </c>
+      <c r="W49" s="6">
+        <v>1</v>
+      </c>
+      <c r="X49" s="6">
+        <v>1</v>
+      </c>
+      <c r="Y49" s="3">
+        <v>0.83</v>
+      </c>
+      <c r="Z49" s="2">
         <v>50</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Z47" xr:uid="{E69B3F4A-D7AE-43B6-8CEC-20724C077B7B}">
+  <autoFilter ref="A4:Z49" xr:uid="{E69B3F4A-D7AE-43B6-8CEC-20724C077B7B}">
     <filterColumn colId="1">
       <filters>
         <filter val="PPAK5x6"/>
@@ -8020,9 +8188,6 @@
         <filter val="40"/>
       </filters>
     </filterColumn>
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A11:Z23">
-      <sortCondition ref="U1:U43"/>
-    </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/mosfet_data.xlsx
+++ b/data/mosfet_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28816"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://renesasgroup-my.sharepoint.com/personal/gary_kidwell_wz_renesas_com/Documents/python/charger/mathmodels/pdis_2or3lvl_bb/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="515" documentId="13_ncr:1_{B6E73BC3-DAD1-4207-9F29-342E0D899D99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9EA46ED5-F74C-4AE1-AB8F-5E5AA3994842}"/>
+  <xr:revisionPtr revIDLastSave="529" documentId="13_ncr:1_{B6E73BC3-DAD1-4207-9F29-342E0D899D99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C203AE90-BADD-4D73-AA29-BD809D3D7C35}"/>
   <bookViews>
-    <workbookView xWindow="29190" yWindow="1515" windowWidth="28230" windowHeight="12720" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3570" yWindow="3225" windowWidth="21600" windowHeight="11385" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="column_data_old" sheetId="1" r:id="rId1"/>
@@ -401,7 +401,7 @@
     <numFmt numFmtId="164" formatCode="0.E+00"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -484,9 +484,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -524,7 +524,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -630,7 +630,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -772,7 +772,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -787,7 +787,7 @@
       <selection pane="topRight" activeCell="AG35" sqref="AG35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="41.85546875" customWidth="1"/>
     <col min="11" max="11" width="16.85546875" customWidth="1"/>
@@ -804,7 +804,7 @@
     <col min="43" max="43" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -935,7 +935,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:43">
+    <row r="2" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>43</v>
       </c>
@@ -1066,7 +1066,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:43">
+    <row r="3" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>52</v>
       </c>
@@ -1199,7 +1199,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:43">
+    <row r="4" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>55</v>
       </c>
@@ -1330,7 +1330,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:43">
+    <row r="5" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>58</v>
       </c>
@@ -1461,7 +1461,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="6" spans="1:43">
+    <row r="6" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>61</v>
       </c>
@@ -1592,7 +1592,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:43">
+    <row r="7" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>63</v>
       </c>
@@ -1723,7 +1723,7 @@
         <v>2550</v>
       </c>
     </row>
-    <row r="8" spans="1:43">
+    <row r="8" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>66</v>
       </c>
@@ -1854,7 +1854,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="9" spans="1:43">
+    <row r="9" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>68</v>
       </c>
@@ -1985,7 +1985,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="10" spans="1:43">
+    <row r="10" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>70</v>
       </c>
@@ -2116,7 +2116,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:43">
+    <row r="11" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>72</v>
       </c>
@@ -2247,7 +2247,7 @@
         <v>2250</v>
       </c>
     </row>
-    <row r="12" spans="1:43">
+    <row r="12" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>74</v>
       </c>
@@ -2378,7 +2378,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="13" spans="1:43">
+    <row r="13" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>76</v>
       </c>
@@ -2509,7 +2509,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:43">
+    <row r="14" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>78</v>
       </c>
@@ -2640,7 +2640,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:43">
+    <row r="15" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>80</v>
       </c>
@@ -2771,7 +2771,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:43">
+    <row r="16" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>83</v>
       </c>
@@ -2902,7 +2902,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:43">
+    <row r="17" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>85</v>
       </c>
@@ -3033,7 +3033,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="18" spans="1:43">
+    <row r="18" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>87</v>
       </c>
@@ -3164,7 +3164,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:43">
+    <row r="19" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>89</v>
       </c>
@@ -3295,7 +3295,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="20" spans="1:43">
+    <row r="20" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>92</v>
       </c>
@@ -3426,7 +3426,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="21" spans="1:43">
+    <row r="21" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>95</v>
       </c>
@@ -3557,7 +3557,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="22" spans="1:43">
+    <row r="22" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>97</v>
       </c>
@@ -3688,7 +3688,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="23" spans="1:43">
+    <row r="23" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>100</v>
       </c>
@@ -3819,7 +3819,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="24" spans="1:43">
+    <row r="24" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>103</v>
       </c>
@@ -3950,7 +3950,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="25" spans="1:43">
+    <row r="25" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>105</v>
       </c>
@@ -4081,7 +4081,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="26" spans="1:43">
+    <row r="26" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>107</v>
       </c>
@@ -4229,11 +4229,11 @@
   <dimension ref="A1:Z49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M56" sqref="M56"/>
+      <pane ySplit="4" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="W18" sqref="W18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.28515625" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" customWidth="1"/>
@@ -4254,7 +4254,7 @@
     <col min="26" max="26" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -4334,7 +4334,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="2" spans="1:26">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -4414,7 +4414,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:26">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -4494,7 +4494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="51">
+    <row r="4" spans="1:26" ht="51" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
         <v>0</v>
       </c>
@@ -4574,7 +4574,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="5" spans="1:26" hidden="1">
+    <row r="5" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>41</v>
       </c>
@@ -4654,7 +4654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:26" hidden="1">
+    <row r="6" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>42</v>
       </c>
@@ -4734,7 +4734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" hidden="1">
+    <row r="7" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>35</v>
       </c>
@@ -4814,7 +4814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:26" hidden="1">
+    <row r="8" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>30</v>
       </c>
@@ -4894,7 +4894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:26" hidden="1">
+    <row r="9" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>39</v>
       </c>
@@ -4974,7 +4974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:26" hidden="1">
+    <row r="10" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>40</v>
       </c>
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:26" hidden="1">
+    <row r="11" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>29</v>
       </c>
@@ -5134,7 +5134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:26" hidden="1">
+    <row r="12" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -5215,7 +5215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:26" hidden="1">
+    <row r="13" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -5295,9 +5295,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:26">
+    <row r="14" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="B14" t="s">
         <v>47</v>
@@ -5306,76 +5306,76 @@
         <v>45</v>
       </c>
       <c r="D14">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E14">
-        <v>8.6999999999999993</v>
+        <v>19</v>
       </c>
       <c r="F14">
-        <v>10</v>
+        <v>4.5</v>
       </c>
       <c r="G14" s="2">
-        <v>2900</v>
+        <v>8500</v>
       </c>
       <c r="H14" s="2">
-        <v>2500</v>
+        <v>6000</v>
       </c>
       <c r="I14" s="2">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="J14" s="2">
+        <v>24</v>
+      </c>
+      <c r="K14" s="2">
+        <v>7500</v>
+      </c>
+      <c r="L14" s="2">
+        <v>1400</v>
+      </c>
+      <c r="M14" s="2">
+        <v>75</v>
+      </c>
+      <c r="N14" s="2">
+        <v>20</v>
+      </c>
+      <c r="O14" s="2">
+        <v>87</v>
+      </c>
+      <c r="P14" s="2">
+        <v>15</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="R14" s="2">
+        <v>15</v>
+      </c>
+      <c r="S14" s="2">
+        <v>120</v>
+      </c>
+      <c r="T14" s="3">
+        <v>2</v>
+      </c>
+      <c r="U14" s="3">
+        <v>1.7</v>
+      </c>
+      <c r="V14" s="3">
+        <v>1.9</v>
+      </c>
+      <c r="W14" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="X14" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="Y14" s="3">
+        <v>0.81</v>
+      </c>
+      <c r="Z14" s="2">
         <v>30</v>
       </c>
-      <c r="K14" s="2">
-        <v>2800</v>
-      </c>
-      <c r="L14" s="2">
-        <v>400</v>
-      </c>
-      <c r="M14" s="2">
-        <v>30</v>
-      </c>
-      <c r="N14" s="2">
-        <v>41</v>
-      </c>
-      <c r="O14" s="2">
-        <v>20</v>
-      </c>
-      <c r="P14" s="2">
-        <v>20</v>
-      </c>
-      <c r="Q14" s="6">
-        <v>2.5</v>
-      </c>
-      <c r="R14" s="2">
-        <v>20</v>
-      </c>
-      <c r="S14" s="2">
-        <v>203</v>
-      </c>
-      <c r="T14" s="6">
-        <v>3.5</v>
-      </c>
-      <c r="U14" s="6">
-        <v>2.6</v>
-      </c>
-      <c r="V14" s="3">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="W14" s="6">
-        <v>1</v>
-      </c>
-      <c r="X14" s="6">
-        <v>1</v>
-      </c>
-      <c r="Y14" s="3">
-        <v>0.7</v>
-      </c>
-      <c r="Z14" s="6">
-        <v>1</v>
-      </c>
     </row>
-    <row r="15" spans="1:26" hidden="1">
+    <row r="15" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>36</v>
       </c>
@@ -5455,9 +5455,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:26" hidden="1">
+    <row r="16" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="B16" t="s">
         <v>47</v>
@@ -5469,75 +5469,75 @@
         <v>30</v>
       </c>
       <c r="E16">
-        <v>19</v>
+        <v>4.5</v>
       </c>
       <c r="F16">
         <v>4.5</v>
       </c>
       <c r="G16" s="2">
-        <v>8500</v>
+        <v>1600</v>
       </c>
       <c r="H16" s="2">
-        <v>6000</v>
+        <v>1500</v>
       </c>
       <c r="I16" s="2">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="J16" s="2">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="K16" s="2">
-        <v>7500</v>
+        <v>1500</v>
       </c>
       <c r="L16" s="2">
-        <v>1400</v>
+        <v>520</v>
       </c>
       <c r="M16" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="N16" s="2">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="O16" s="2">
-        <v>87</v>
+        <v>10</v>
       </c>
       <c r="P16" s="2">
         <v>15</v>
       </c>
       <c r="Q16" s="2">
-        <v>9.6999999999999993</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="R16" s="2">
         <v>15</v>
       </c>
       <c r="S16" s="2">
-        <v>120</v>
-      </c>
-      <c r="T16" s="3">
-        <v>2</v>
-      </c>
-      <c r="U16" s="3">
-        <v>1.7</v>
+        <v>80</v>
+      </c>
+      <c r="T16" s="6">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="U16" s="6">
+        <v>2.8</v>
       </c>
       <c r="V16" s="3">
-        <v>1.9</v>
-      </c>
-      <c r="W16" s="3">
+        <v>1.4</v>
+      </c>
+      <c r="W16" s="6">
+        <v>1</v>
+      </c>
+      <c r="X16" s="6">
+        <v>1</v>
+      </c>
+      <c r="Y16" s="3">
         <v>0.75</v>
       </c>
-      <c r="X16" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="Y16" s="3">
-        <v>0.81</v>
-      </c>
-      <c r="Z16" s="2">
-        <v>30</v>
+      <c r="Z16" s="6">
+        <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:26">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B17" t="s">
         <v>47</v>
@@ -5546,78 +5546,78 @@
         <v>45</v>
       </c>
       <c r="D17">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E17">
-        <v>5.5</v>
+        <v>11.4</v>
       </c>
       <c r="F17">
-        <v>10</v>
+        <v>4.5</v>
       </c>
       <c r="G17" s="2">
-        <v>2200</v>
+        <v>4600</v>
       </c>
       <c r="H17" s="2">
-        <v>2400</v>
+        <v>5500</v>
       </c>
       <c r="I17" s="2">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="J17" s="2">
         <v>15</v>
       </c>
       <c r="K17" s="2">
-        <v>2000</v>
+        <v>4200</v>
       </c>
       <c r="L17" s="2">
-        <v>900</v>
+        <v>1800</v>
       </c>
       <c r="M17" s="2">
-        <v>28</v>
+        <v>68</v>
       </c>
       <c r="N17" s="2">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="O17" s="2">
         <v>10</v>
       </c>
       <c r="P17" s="2">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="Q17" s="6">
-        <v>3.6</v>
+        <v>2.4</v>
       </c>
       <c r="R17" s="2">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="S17" s="2">
-        <v>170</v>
+        <v>67</v>
       </c>
       <c r="T17" s="6">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="U17" s="6">
-        <v>1.8</v>
-      </c>
-      <c r="V17" s="3">
+        <v>1</v>
+      </c>
+      <c r="V17" s="6">
         <v>1.2</v>
       </c>
       <c r="W17" s="6">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="X17" s="6">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="Y17" s="3">
-        <v>0.84</v>
-      </c>
-      <c r="Z17" s="2">
-        <v>50</v>
+        <v>0.75</v>
+      </c>
+      <c r="Z17" s="6">
+        <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:26">
+    <row r="18" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>110</v>
+        <v>16</v>
       </c>
       <c r="B18" t="s">
         <v>47</v>
@@ -5629,75 +5629,75 @@
         <v>40</v>
       </c>
       <c r="E18">
-        <v>4.8</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="F18">
         <v>10</v>
       </c>
       <c r="G18" s="2">
-        <v>2000</v>
+        <v>2900</v>
       </c>
       <c r="H18" s="2">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="I18" s="2">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="J18" s="2">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="K18" s="2">
-        <v>1800</v>
+        <v>2800</v>
       </c>
       <c r="L18" s="2">
-        <v>750</v>
+        <v>400</v>
       </c>
       <c r="M18" s="2">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="N18" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="O18" s="2">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="P18" s="2">
         <v>20</v>
       </c>
       <c r="Q18" s="6">
-        <v>4.0999999999999996</v>
+        <v>2.5</v>
       </c>
       <c r="R18" s="2">
         <v>20</v>
       </c>
       <c r="S18" s="2">
-        <v>150</v>
+        <v>203</v>
       </c>
       <c r="T18" s="6">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="U18" s="6">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="V18" s="3">
-        <v>0.8</v>
-      </c>
-      <c r="W18" s="6">
-        <v>1</v>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="W18" s="3">
+        <v>0.25</v>
       </c>
       <c r="X18" s="6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="Y18" s="3">
-        <v>0.88</v>
-      </c>
-      <c r="Z18" s="2">
-        <v>50</v>
+        <v>0.7</v>
+      </c>
+      <c r="Z18" s="6">
+        <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:26">
+    <row r="19" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>15</v>
+        <v>109</v>
       </c>
       <c r="B19" t="s">
         <v>47</v>
@@ -5709,34 +5709,34 @@
         <v>40</v>
       </c>
       <c r="E19">
-        <v>2.1</v>
+        <v>5.5</v>
       </c>
       <c r="F19">
         <v>10</v>
       </c>
       <c r="G19" s="2">
-        <v>750</v>
+        <v>2200</v>
       </c>
       <c r="H19" s="2">
+        <v>2400</v>
+      </c>
+      <c r="I19" s="2">
+        <v>300</v>
+      </c>
+      <c r="J19" s="2">
+        <v>15</v>
+      </c>
+      <c r="K19" s="2">
+        <v>2000</v>
+      </c>
+      <c r="L19" s="2">
         <v>900</v>
       </c>
-      <c r="I19" s="2">
-        <v>100</v>
-      </c>
-      <c r="J19" s="2">
-        <v>25</v>
-      </c>
-      <c r="K19" s="2">
-        <v>650</v>
-      </c>
-      <c r="L19" s="2">
-        <v>190</v>
-      </c>
       <c r="M19" s="2">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="N19" s="2">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="O19" s="2">
         <v>10</v>
@@ -5745,22 +5745,22 @@
         <v>20</v>
       </c>
       <c r="Q19" s="6">
-        <v>1.4</v>
+        <v>3.6</v>
       </c>
       <c r="R19" s="2">
         <v>20</v>
       </c>
       <c r="S19" s="2">
-        <v>100</v>
+        <v>170</v>
       </c>
       <c r="T19" s="6">
-        <v>6.8</v>
+        <v>2.4</v>
       </c>
       <c r="U19" s="6">
-        <v>4.7</v>
-      </c>
-      <c r="V19" s="6">
-        <v>2.2000000000000002</v>
+        <v>1.8</v>
+      </c>
+      <c r="V19" s="3">
+        <v>1.2</v>
       </c>
       <c r="W19" s="6">
         <v>1</v>
@@ -5769,15 +5769,15 @@
         <v>1</v>
       </c>
       <c r="Y19" s="3">
-        <v>0.92</v>
+        <v>0.84</v>
       </c>
       <c r="Z19" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:26">
+    <row r="20" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>14</v>
+        <v>110</v>
       </c>
       <c r="B20" t="s">
         <v>47</v>
@@ -5789,58 +5789,58 @@
         <v>40</v>
       </c>
       <c r="E20">
-        <v>7.6</v>
+        <v>4.8</v>
       </c>
       <c r="F20">
         <v>10</v>
       </c>
       <c r="G20" s="2">
-        <v>2400</v>
+        <v>2000</v>
       </c>
       <c r="H20" s="2">
-        <v>1800</v>
+        <v>2000</v>
       </c>
       <c r="I20" s="2">
         <v>300</v>
       </c>
       <c r="J20" s="2">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="K20" s="2">
-        <v>2200</v>
+        <v>1800</v>
       </c>
       <c r="L20" s="2">
-        <v>380</v>
+        <v>750</v>
       </c>
       <c r="M20" s="2">
-        <v>15</v>
+        <v>90</v>
       </c>
       <c r="N20" s="2">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="O20" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="P20" s="2">
         <v>20</v>
       </c>
       <c r="Q20" s="6">
-        <v>3.2</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="R20" s="2">
         <v>20</v>
       </c>
       <c r="S20" s="2">
-        <v>96</v>
+        <v>150</v>
       </c>
       <c r="T20" s="6">
-        <v>6.8</v>
+        <v>3.3</v>
       </c>
       <c r="U20" s="6">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="V20" s="6">
-        <v>1.4</v>
+        <v>2.5</v>
+      </c>
+      <c r="V20" s="3">
+        <v>0.8</v>
       </c>
       <c r="W20" s="6">
         <v>1</v>
@@ -5855,7 +5855,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:26" hidden="1">
+    <row r="21" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>11</v>
       </c>
@@ -5935,7 +5935,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:26" hidden="1">
+    <row r="22" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>10</v>
       </c>
@@ -6015,7 +6015,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:26" hidden="1">
+    <row r="23" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>5</v>
       </c>
@@ -6096,9 +6096,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:26">
+    <row r="24" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>111</v>
+        <v>15</v>
       </c>
       <c r="B24" t="s">
         <v>47</v>
@@ -6110,75 +6110,75 @@
         <v>40</v>
       </c>
       <c r="E24">
-        <v>7</v>
+        <v>2.1</v>
       </c>
       <c r="F24">
         <v>10</v>
       </c>
       <c r="G24" s="2">
-        <v>1900</v>
+        <v>750</v>
       </c>
       <c r="H24" s="2">
-        <v>2000</v>
+        <v>900</v>
       </c>
       <c r="I24" s="2">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="J24" s="2">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="K24" s="2">
-        <v>1600</v>
+        <v>650</v>
       </c>
       <c r="L24" s="2">
-        <v>780</v>
+        <v>190</v>
       </c>
       <c r="M24" s="2">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="N24" s="2">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O24" s="2">
+        <v>10</v>
+      </c>
+      <c r="P24" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q24" s="6">
+        <v>1.4</v>
+      </c>
+      <c r="R24" s="2">
+        <v>20</v>
+      </c>
+      <c r="S24" s="2">
+        <v>100</v>
+      </c>
+      <c r="T24" s="6">
+        <v>6.8</v>
+      </c>
+      <c r="U24" s="6">
+        <v>4.7</v>
+      </c>
+      <c r="V24" s="6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="W24" s="6">
+        <v>1</v>
+      </c>
+      <c r="X24" s="6">
+        <v>1</v>
+      </c>
+      <c r="Y24" s="3">
+        <v>0.92</v>
+      </c>
+      <c r="Z24" s="2">
         <v>50</v>
       </c>
-      <c r="P24" s="2">
-        <v>20</v>
-      </c>
-      <c r="Q24" s="6">
-        <v>4</v>
-      </c>
-      <c r="R24" s="2">
-        <v>20</v>
-      </c>
-      <c r="S24" s="2">
-        <v>140</v>
-      </c>
-      <c r="T24" s="6">
-        <v>3.1</v>
-      </c>
-      <c r="U24" s="6">
-        <v>2.7</v>
-      </c>
-      <c r="V24" s="3">
-        <v>2.8</v>
-      </c>
-      <c r="W24" s="6">
-        <v>1</v>
-      </c>
-      <c r="X24" s="6">
-        <v>1</v>
-      </c>
-      <c r="Y24" s="3">
-        <v>0.89</v>
-      </c>
-      <c r="Z24" s="2">
-        <v>49</v>
-      </c>
     </row>
-    <row r="25" spans="1:26">
+    <row r="25" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>112</v>
+        <v>14</v>
       </c>
       <c r="B25" t="s">
         <v>47</v>
@@ -6190,73 +6190,73 @@
         <v>40</v>
       </c>
       <c r="E25">
-        <v>5</v>
+        <v>7.6</v>
       </c>
       <c r="F25">
         <v>10</v>
       </c>
       <c r="G25" s="2">
-        <v>1400</v>
+        <v>2400</v>
       </c>
       <c r="H25" s="2">
-        <v>1500</v>
+        <v>1800</v>
       </c>
       <c r="I25" s="2">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="J25" s="2">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="K25" s="2">
-        <v>1100</v>
+        <v>2200</v>
       </c>
       <c r="L25" s="2">
-        <v>580</v>
+        <v>380</v>
       </c>
       <c r="M25" s="2">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="N25" s="2">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="O25" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="P25" s="2">
         <v>20</v>
       </c>
       <c r="Q25" s="6">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="R25" s="2">
         <v>20</v>
       </c>
       <c r="S25" s="2">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="T25" s="6">
-        <v>4</v>
+        <v>6.8</v>
       </c>
       <c r="U25" s="6">
-        <v>3.5</v>
-      </c>
-      <c r="V25" s="3">
-        <v>2.1</v>
-      </c>
-      <c r="W25" s="3">
-        <v>1</v>
-      </c>
-      <c r="X25" s="3">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="V25" s="6">
+        <v>1.4</v>
+      </c>
+      <c r="W25" s="6">
+        <v>1</v>
+      </c>
+      <c r="X25" s="6">
         <v>1</v>
       </c>
       <c r="Y25" s="3">
         <v>0.88</v>
       </c>
       <c r="Z25" s="2">
-        <v>35</v>
+        <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:26" hidden="1">
+    <row r="26" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>7</v>
       </c>
@@ -6336,7 +6336,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:26" hidden="1">
+    <row r="27" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>4</v>
       </c>
@@ -6416,9 +6416,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:26" hidden="1">
+    <row r="28" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>18</v>
+        <v>111</v>
       </c>
       <c r="B28" t="s">
         <v>47</v>
@@ -6427,62 +6427,62 @@
         <v>45</v>
       </c>
       <c r="D28">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E28">
-        <v>4.5</v>
+        <v>7</v>
       </c>
       <c r="F28">
-        <v>4.5</v>
+        <v>10</v>
       </c>
       <c r="G28" s="2">
+        <v>1900</v>
+      </c>
+      <c r="H28" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I28" s="2">
+        <v>300</v>
+      </c>
+      <c r="J28" s="2">
+        <v>15</v>
+      </c>
+      <c r="K28" s="2">
         <v>1600</v>
       </c>
-      <c r="H28" s="2">
-        <v>1500</v>
-      </c>
-      <c r="I28" s="2">
-        <v>200</v>
-      </c>
-      <c r="J28" s="2">
-        <v>15</v>
-      </c>
-      <c r="K28" s="2">
-        <v>1500</v>
-      </c>
       <c r="L28" s="2">
-        <v>520</v>
+        <v>780</v>
       </c>
       <c r="M28" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="N28" s="2">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="O28" s="2">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="P28" s="2">
-        <v>15</v>
-      </c>
-      <c r="Q28" s="2">
-        <v>2.2000000000000002</v>
+        <v>20</v>
+      </c>
+      <c r="Q28" s="6">
+        <v>4</v>
       </c>
       <c r="R28" s="2">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="S28" s="2">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="T28" s="6">
-        <v>4.4000000000000004</v>
+        <v>3.1</v>
       </c>
       <c r="U28" s="6">
+        <v>2.7</v>
+      </c>
+      <c r="V28" s="3">
         <v>2.8</v>
       </c>
-      <c r="V28" s="3">
-        <v>1.4</v>
-      </c>
       <c r="W28" s="6">
         <v>1</v>
       </c>
@@ -6490,15 +6490,15 @@
         <v>1</v>
       </c>
       <c r="Y28" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="Z28" s="6">
-        <v>10</v>
+        <v>0.89</v>
+      </c>
+      <c r="Z28" s="2">
+        <v>49</v>
       </c>
     </row>
-    <row r="29" spans="1:26" hidden="1">
+    <row r="29" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B29" t="s">
         <v>47</v>
@@ -6507,76 +6507,76 @@
         <v>45</v>
       </c>
       <c r="D29">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E29">
-        <v>11.4</v>
+        <v>5</v>
       </c>
       <c r="F29">
-        <v>4.5</v>
+        <v>10</v>
       </c>
       <c r="G29" s="2">
-        <v>4600</v>
+        <v>1400</v>
       </c>
       <c r="H29" s="2">
-        <v>5500</v>
+        <v>1500</v>
       </c>
       <c r="I29" s="2">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="J29" s="2">
         <v>15</v>
       </c>
       <c r="K29" s="2">
-        <v>4200</v>
+        <v>1100</v>
       </c>
       <c r="L29" s="2">
-        <v>1800</v>
+        <v>580</v>
       </c>
       <c r="M29" s="2">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="N29" s="2">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="O29" s="2">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="P29" s="2">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="Q29" s="6">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="R29" s="2">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="S29" s="2">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="T29" s="6">
-        <v>1.8</v>
+        <v>4</v>
       </c>
       <c r="U29" s="6">
-        <v>1</v>
-      </c>
-      <c r="V29" s="6">
-        <v>1.2</v>
-      </c>
-      <c r="W29" s="6">
-        <v>0.9</v>
-      </c>
-      <c r="X29" s="6">
-        <v>0.9</v>
+        <v>3.5</v>
+      </c>
+      <c r="V29" s="3">
+        <v>2.1</v>
+      </c>
+      <c r="W29" s="3">
+        <v>1</v>
+      </c>
+      <c r="X29" s="3">
+        <v>1</v>
       </c>
       <c r="Y29" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="Z29" s="6">
-        <v>10</v>
+        <v>0.88</v>
+      </c>
+      <c r="Z29" s="2">
+        <v>35</v>
       </c>
     </row>
-    <row r="30" spans="1:26">
+    <row r="30" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>13</v>
       </c>
@@ -6656,7 +6656,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:26" hidden="1">
+    <row r="31" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>19</v>
       </c>
@@ -6736,7 +6736,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:26" hidden="1">
+    <row r="32" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>25</v>
       </c>
@@ -6816,7 +6816,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:26" hidden="1">
+    <row r="33" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -6896,7 +6896,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:26" hidden="1">
+    <row r="34" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>23</v>
       </c>
@@ -6976,7 +6976,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:26" hidden="1">
+    <row r="35" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>22</v>
       </c>
@@ -7056,7 +7056,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:26" hidden="1">
+    <row r="36" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>24</v>
       </c>
@@ -7136,7 +7136,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:26" hidden="1">
+    <row r="37" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>8</v>
       </c>
@@ -7216,7 +7216,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:26" hidden="1">
+    <row r="38" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>9</v>
       </c>
@@ -7296,7 +7296,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:26" hidden="1">
+    <row r="39" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>12</v>
       </c>
@@ -7376,7 +7376,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:26" hidden="1">
+    <row r="40" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>20</v>
       </c>
@@ -7456,7 +7456,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:26" hidden="1">
+    <row r="41" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>26</v>
       </c>
@@ -7536,7 +7536,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:26" hidden="1">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>27</v>
       </c>
@@ -7616,7 +7616,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:26" hidden="1">
+    <row r="43" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>28</v>
       </c>
@@ -7696,7 +7696,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:26" hidden="1">
+    <row r="44" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>33</v>
       </c>
@@ -7776,7 +7776,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:26" hidden="1">
+    <row r="45" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>34</v>
       </c>
@@ -7856,7 +7856,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="46" spans="1:26" hidden="1">
+    <row r="46" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>38</v>
       </c>
@@ -7936,7 +7936,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="47" spans="1:26" hidden="1">
+    <row r="47" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>37</v>
       </c>
@@ -8016,7 +8016,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="48" spans="1:26">
+    <row r="48" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>114</v>
       </c>
@@ -8096,7 +8096,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="49" spans="1:26">
+    <row r="49" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>115</v>
       </c>
@@ -8178,16 +8178,15 @@
     </row>
   </sheetData>
   <autoFilter ref="A4:Z49" xr:uid="{E69B3F4A-D7AE-43B6-8CEC-20724C077B7B}">
-    <filterColumn colId="1">
+    <filterColumn colId="0">
       <filters>
-        <filter val="PPAK5x6"/>
+        <filter val="SIRA62DDP"/>
+        <filter val="SISS54DN"/>
       </filters>
     </filterColumn>
-    <filterColumn colId="3">
-      <filters>
-        <filter val="40"/>
-      </filters>
-    </filterColumn>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A7:Z49">
+      <sortCondition ref="D4:D49"/>
+    </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
